--- a/Chile Primera B/Chile Primera B.xlsx
+++ b/Chile Primera B/Chile Primera B.xlsx
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6156802</v>
+        <v>6156804</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,55 +2141,55 @@
         <v>44984.75</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L19">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M19">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N19">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P19">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R19">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S19">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T19">
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V19">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2198,19 +2198,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.9</v>
+        <v>3.333</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6156804</v>
+        <v>6156802</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,55 +2230,55 @@
         <v>44984.75</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
       </c>
       <c r="K20">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N20">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P20">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T20">
         <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2287,19 +2287,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>3.333</v>
+        <v>1.9</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
+        <v>1.05</v>
+      </c>
+      <c r="AB20">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
       <c r="AC20">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6156809</v>
+        <v>6156808</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,46 +2497,46 @@
         <v>44989.5</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L23">
         <v>3</v>
       </c>
       <c r="M23">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N23">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P23">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S23">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
         <v>2.25</v>
@@ -2551,16 +2551,16 @@
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB23">
         <v>-0.5</v>
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6156808</v>
+        <v>6156809</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,46 +2586,46 @@
         <v>44989.5</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L24">
         <v>3</v>
       </c>
       <c r="M24">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N24">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S24">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T24">
         <v>2.25</v>
@@ -2640,16 +2640,16 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y24">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB24">
         <v>-0.5</v>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6156807</v>
+        <v>6156811</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,10 +2853,10 @@
         <v>44991.75</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2868,61 +2868,61 @@
         <v>46</v>
       </c>
       <c r="K27">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L27">
+        <v>3.3</v>
+      </c>
+      <c r="M27">
+        <v>4.75</v>
+      </c>
+      <c r="N27">
+        <v>1.75</v>
+      </c>
+      <c r="O27">
         <v>3.2</v>
       </c>
-      <c r="M27">
-        <v>2.6</v>
-      </c>
-      <c r="N27">
-        <v>2.6</v>
-      </c>
-      <c r="O27">
-        <v>3</v>
-      </c>
       <c r="P27">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T27">
         <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6156811</v>
+        <v>6156807</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,10 +2942,10 @@
         <v>44991.75</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2957,61 +2957,61 @@
         <v>46</v>
       </c>
       <c r="K28">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L28">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M28">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N28">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="O28">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P28">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T28">
         <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6156817</v>
+        <v>6317118</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,10 +3565,10 @@
         <v>44999.75</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3580,43 +3580,43 @@
         <v>45</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L35">
         <v>3.2</v>
       </c>
       <c r="M35">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N35">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="O35">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P35">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q35">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S35">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T35">
         <v>2.25</v>
       </c>
       <c r="U35">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V35">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W35">
-        <v>0.833</v>
+        <v>1</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3625,13 +3625,13 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.875</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA35">
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6317118</v>
+        <v>6156817</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,10 +3654,10 @@
         <v>44999.75</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3669,43 +3669,43 @@
         <v>45</v>
       </c>
       <c r="K36">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L36">
         <v>3.2</v>
       </c>
       <c r="M36">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N36">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="O36">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P36">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R36">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S36">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T36">
         <v>2.25</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W36">
-        <v>1</v>
+        <v>0.833</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3714,13 +3714,13 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.7250000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6156818</v>
+        <v>6156822</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>45005.75</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K42">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L42">
         <v>3</v>
       </c>
       <c r="M42">
+        <v>3.1</v>
+      </c>
+      <c r="N42">
+        <v>2.15</v>
+      </c>
+      <c r="O42">
         <v>2.9</v>
       </c>
-      <c r="N42">
-        <v>2.3</v>
-      </c>
-      <c r="O42">
-        <v>3</v>
-      </c>
       <c r="P42">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q42">
         <v>-0.25</v>
       </c>
       <c r="R42">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
         <v>2.25</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB42">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC42">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4265,7 +4265,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6156822</v>
+        <v>6156818</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4277,76 +4277,76 @@
         <v>45005.75</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K43">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L43">
         <v>3</v>
       </c>
       <c r="M43">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N43">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O43">
+        <v>3</v>
+      </c>
+      <c r="P43">
         <v>2.9</v>
-      </c>
-      <c r="P43">
-        <v>3.3</v>
       </c>
       <c r="Q43">
         <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S43">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T43">
         <v>2.25</v>
       </c>
       <c r="U43">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V43">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y43">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA43">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB43">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6156827</v>
+        <v>6156823</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,56 +5167,56 @@
         <v>45012.75</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
         <v>45</v>
       </c>
       <c r="K53">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>3.4</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <v>3.1</v>
+      </c>
+      <c r="P53">
         <v>3.5</v>
-      </c>
-      <c r="M53">
-        <v>5</v>
-      </c>
-      <c r="N53">
-        <v>2</v>
-      </c>
-      <c r="O53">
-        <v>3.2</v>
-      </c>
-      <c r="P53">
-        <v>3.4</v>
       </c>
       <c r="Q53">
         <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S53">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U53">
+        <v>1.85</v>
+      </c>
+      <c r="V53">
         <v>1.95</v>
       </c>
-      <c r="V53">
-        <v>1.85</v>
-      </c>
       <c r="W53">
         <v>1</v>
       </c>
@@ -5227,16 +5227,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.7250000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6156823</v>
+        <v>6156827</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,56 +5256,56 @@
         <v>45012.75</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
         <v>45</v>
       </c>
       <c r="K54">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M54">
+        <v>5</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <v>3.2</v>
+      </c>
+      <c r="P54">
         <v>3.4</v>
-      </c>
-      <c r="N54">
-        <v>2</v>
-      </c>
-      <c r="O54">
-        <v>3.1</v>
-      </c>
-      <c r="P54">
-        <v>3.5</v>
       </c>
       <c r="Q54">
         <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S54">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T54">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
+        <v>1.95</v>
+      </c>
+      <c r="V54">
         <v>1.85</v>
       </c>
-      <c r="V54">
-        <v>1.95</v>
-      </c>
       <c r="W54">
         <v>1</v>
       </c>
@@ -5316,16 +5316,16 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.7749999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
+        <v>-1</v>
+      </c>
+      <c r="AC54">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC54">
-        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6156834</v>
+        <v>6155926</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,76 +6591,76 @@
         <v>45039.5625</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
         <v>46</v>
       </c>
       <c r="K69">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L69">
         <v>3.2</v>
       </c>
       <c r="M69">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N69">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O69">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P69">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S69">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6155926</v>
+        <v>6156834</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,76 +6680,76 @@
         <v>45039.5625</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
         <v>46</v>
       </c>
       <c r="K70">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L70">
         <v>3.2</v>
       </c>
       <c r="M70">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N70">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="O70">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P70">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q70">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S70">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U70">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA70">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AB70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6156838</v>
+        <v>6156842</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7481,13 +7481,13 @@
         <v>45049.89583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -7496,43 +7496,43 @@
         <v>45</v>
       </c>
       <c r="K79">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L79">
         <v>3</v>
       </c>
       <c r="M79">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N79">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O79">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P79">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q79">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S79">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W79">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7541,16 +7541,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AA79">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC79">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6156842</v>
+        <v>6156838</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,13 +7570,13 @@
         <v>45049.89583333334</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7585,43 +7585,43 @@
         <v>45</v>
       </c>
       <c r="K80">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L80">
         <v>3</v>
       </c>
       <c r="M80">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N80">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O80">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P80">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U80">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W80">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7630,16 +7630,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6156847</v>
+        <v>6156844</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,58 +7926,58 @@
         <v>45057.79166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>45</v>
       </c>
       <c r="K84">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L84">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M84">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N84">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P84">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q84">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S84">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U84">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V84">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W84">
-        <v>0.5329999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7986,13 +7986,13 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6156844</v>
+        <v>6156847</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,58 +8015,58 @@
         <v>45057.79166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>45</v>
       </c>
       <c r="K85">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L85">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M85">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N85">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O85">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P85">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T85">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U85">
+        <v>2</v>
+      </c>
+      <c r="V85">
         <v>1.8</v>
       </c>
-      <c r="V85">
-        <v>2</v>
-      </c>
       <c r="W85">
-        <v>1.1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8075,13 +8075,13 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6156880</v>
+        <v>6156174</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,73 +12376,73 @@
         <v>45116.5625</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H134">
         <v>2</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K134">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="L134">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M134">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N134">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O134">
         <v>3.3</v>
       </c>
       <c r="P134">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q134">
         <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S134">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T134">
         <v>2.5</v>
       </c>
       <c r="U134">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V134">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X134">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA134">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC134">
         <v>-1</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6156174</v>
+        <v>6156880</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,73 +12465,73 @@
         <v>45116.5625</v>
       </c>
       <c r="F135" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H135">
         <v>2</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K135">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L135">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M135">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N135">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O135">
         <v>3.3</v>
       </c>
       <c r="P135">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q135">
         <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V135">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W135">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB135">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6156882</v>
+        <v>6155942</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,76 +12821,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K139">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L139">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M139">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="N139">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O139">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P139">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S139">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="T139">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U139">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V139">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0.425</v>
+        <v>0.7</v>
       </c>
       <c r="AB139">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC139">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6155942</v>
+        <v>6156882</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,76 +12910,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K140">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="L140">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M140">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N140">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O140">
+        <v>3.1</v>
+      </c>
+      <c r="P140">
         <v>3</v>
       </c>
-      <c r="P140">
-        <v>2.45</v>
-      </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S140">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="T140">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V140">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y140">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA140">
-        <v>0.7</v>
+        <v>0.425</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC140">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6156888</v>
+        <v>6156886</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,34 +13444,34 @@
         <v>45129.5625</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K146">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L146">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M146">
         <v>3.2</v>
       </c>
       <c r="N146">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O146">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P146">
         <v>3.25</v>
@@ -13480,37 +13480,37 @@
         <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S146">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T146">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V146">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA146">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6156886</v>
+        <v>6156888</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,34 +13533,34 @@
         <v>45129.5625</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G147" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K147">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L147">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M147">
         <v>3.2</v>
       </c>
       <c r="N147">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O147">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P147">
         <v>3.25</v>
@@ -13569,37 +13569,37 @@
         <v>-0.25</v>
       </c>
       <c r="R147">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z147">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB147">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13699,7 +13699,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6158713</v>
+        <v>6155944</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13711,76 +13711,76 @@
         <v>45130.5625</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K149">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L149">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M149">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="N149">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O149">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P149">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R149">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S149">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T149">
         <v>2.25</v>
       </c>
       <c r="U149">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA149">
-        <v>0.7749999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AB149">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6155944</v>
+        <v>6158713</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,76 +13800,76 @@
         <v>45130.5625</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150" t="s">
+        <v>47</v>
+      </c>
+      <c r="K150">
+        <v>3</v>
+      </c>
+      <c r="L150">
+        <v>3.25</v>
+      </c>
+      <c r="M150">
+        <v>2.1</v>
+      </c>
+      <c r="N150">
+        <v>2.625</v>
+      </c>
+      <c r="O150">
+        <v>3.2</v>
+      </c>
+      <c r="P150">
+        <v>2.3</v>
+      </c>
+      <c r="Q150">
         <v>0</v>
       </c>
-      <c r="J150" t="s">
-        <v>45</v>
-      </c>
-      <c r="K150">
-        <v>1.4</v>
-      </c>
-      <c r="L150">
-        <v>3.75</v>
-      </c>
-      <c r="M150">
-        <v>7.5</v>
-      </c>
-      <c r="N150">
-        <v>1.45</v>
-      </c>
-      <c r="O150">
-        <v>3.6</v>
-      </c>
-      <c r="P150">
-        <v>6.5</v>
-      </c>
-      <c r="Q150">
-        <v>-1.25</v>
-      </c>
       <c r="R150">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S150">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T150">
         <v>2.25</v>
       </c>
       <c r="U150">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V150">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W150">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>0.375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC150">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14144,7 +14144,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6155945</v>
+        <v>6393620</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14156,73 +14156,73 @@
         <v>45136.5625</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H154">
         <v>2</v>
       </c>
       <c r="I154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K154">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L154">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M154">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N154">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="O154">
         <v>3.25</v>
       </c>
       <c r="P154">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q154">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R154">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S154">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T154">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U154">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V154">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X154">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA154">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB154">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6393620</v>
+        <v>6155945</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14245,73 +14245,73 @@
         <v>45136.5625</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G155" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H155">
         <v>2</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K155">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L155">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M155">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N155">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="O155">
         <v>3.25</v>
       </c>
       <c r="P155">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q155">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R155">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S155">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T155">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U155">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V155">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W155">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA155">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB155">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6156905</v>
+        <v>6156906</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,76 +15758,76 @@
         <v>45150.5625</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G172" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K172">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L172">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M172">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N172">
+        <v>1.95</v>
+      </c>
+      <c r="O172">
+        <v>3.1</v>
+      </c>
+      <c r="P172">
+        <v>3.75</v>
+      </c>
+      <c r="Q172">
+        <v>-0.25</v>
+      </c>
+      <c r="R172">
+        <v>1.725</v>
+      </c>
+      <c r="S172">
+        <v>1.975</v>
+      </c>
+      <c r="T172">
+        <v>2.25</v>
+      </c>
+      <c r="U172">
         <v>1.8</v>
       </c>
-      <c r="O172">
-        <v>3.3</v>
-      </c>
-      <c r="P172">
-        <v>3.8</v>
-      </c>
-      <c r="Q172">
-        <v>-0.5</v>
-      </c>
-      <c r="R172">
-        <v>1.875</v>
-      </c>
-      <c r="S172">
-        <v>1.925</v>
-      </c>
-      <c r="T172">
+      <c r="V172">
+        <v>2</v>
+      </c>
+      <c r="W172">
+        <v>-1</v>
+      </c>
+      <c r="X172">
+        <v>-1</v>
+      </c>
+      <c r="Y172">
         <v>2.75</v>
       </c>
-      <c r="U172">
-        <v>1.975</v>
-      </c>
-      <c r="V172">
-        <v>1.825</v>
-      </c>
-      <c r="W172">
+      <c r="Z172">
+        <v>-1</v>
+      </c>
+      <c r="AA172">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB172">
         <v>0.8</v>
       </c>
-      <c r="X172">
-        <v>-1</v>
-      </c>
-      <c r="Y172">
-        <v>-1</v>
-      </c>
-      <c r="Z172">
-        <v>0.875</v>
-      </c>
-      <c r="AA172">
-        <v>-1</v>
-      </c>
-      <c r="AB172">
-        <v>0.4875</v>
-      </c>
       <c r="AC172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15835,7 +15835,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6156906</v>
+        <v>6156905</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15847,76 +15847,76 @@
         <v>45150.5625</v>
       </c>
       <c r="F173" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G173" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K173">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L173">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M173">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N173">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O173">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P173">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q173">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S173">
+        <v>1.925</v>
+      </c>
+      <c r="T173">
+        <v>2.75</v>
+      </c>
+      <c r="U173">
         <v>1.975</v>
       </c>
-      <c r="T173">
-        <v>2.25</v>
-      </c>
-      <c r="U173">
-        <v>1.8</v>
-      </c>
       <c r="V173">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA173">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16013,7 +16013,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6156178</v>
+        <v>6155949</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16025,58 +16025,58 @@
         <v>45151.5625</v>
       </c>
       <c r="F175" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G175" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
         <v>45</v>
       </c>
       <c r="K175">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L175">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M175">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N175">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O175">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P175">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q175">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S175">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U175">
+        <v>1.875</v>
+      </c>
+      <c r="V175">
         <v>1.925</v>
       </c>
-      <c r="V175">
-        <v>1.875</v>
-      </c>
       <c r="W175">
-        <v>0.75</v>
+        <v>1.15</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16085,16 +16085,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC175">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6155949</v>
+        <v>6156178</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,58 +16114,58 @@
         <v>45151.5625</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
         <v>45</v>
       </c>
       <c r="K176">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L176">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M176">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N176">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="O176">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P176">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R176">
+        <v>1.8</v>
+      </c>
+      <c r="S176">
+        <v>2</v>
+      </c>
+      <c r="T176">
+        <v>2.5</v>
+      </c>
+      <c r="U176">
         <v>1.925</v>
       </c>
-      <c r="S176">
+      <c r="V176">
         <v>1.875</v>
       </c>
-      <c r="T176">
-        <v>2.25</v>
-      </c>
-      <c r="U176">
-        <v>1.875</v>
-      </c>
-      <c r="V176">
-        <v>1.925</v>
-      </c>
       <c r="W176">
-        <v>1.15</v>
+        <v>0.75</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16174,16 +16174,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
+        <v>-1</v>
+      </c>
+      <c r="AC176">
         <v>0.875</v>
-      </c>
-      <c r="AC176">
-        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16814,7 +16814,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6155954</v>
+        <v>6156180</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16826,76 +16826,76 @@
         <v>45165.5625</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K184">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L184">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M184">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N184">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O184">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P184">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q184">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R184">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S184">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T184">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U184">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V184">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA184">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16903,7 +16903,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6156180</v>
+        <v>6155954</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16915,76 +16915,76 @@
         <v>45165.5625</v>
       </c>
       <c r="F185" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G185" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K185">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L185">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M185">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N185">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O185">
+        <v>3.2</v>
+      </c>
+      <c r="P185">
         <v>3.75</v>
       </c>
-      <c r="P185">
-        <v>4</v>
-      </c>
       <c r="Q185">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R185">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S185">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T185">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W185">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z185">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC185">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -19306,7 +19306,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6155958</v>
+        <v>6156183</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19318,76 +19318,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F212" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K212">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L212">
         <v>3.2</v>
       </c>
       <c r="M212">
+        <v>3</v>
+      </c>
+      <c r="N212">
         <v>2.2</v>
       </c>
-      <c r="N212">
-        <v>2.05</v>
-      </c>
       <c r="O212">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P212">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q212">
         <v>-0.25</v>
       </c>
       <c r="R212">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S212">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T212">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U212">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V212">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X212">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA212">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC212">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19395,7 +19395,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6156183</v>
+        <v>6155958</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19407,76 +19407,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G213" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213" t="s">
+        <v>46</v>
+      </c>
+      <c r="K213">
         <v>3</v>
-      </c>
-      <c r="I213">
-        <v>0</v>
-      </c>
-      <c r="J213" t="s">
-        <v>45</v>
-      </c>
-      <c r="K213">
-        <v>2.2</v>
       </c>
       <c r="L213">
         <v>3.2</v>
       </c>
       <c r="M213">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N213">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O213">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P213">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q213">
         <v>-0.25</v>
       </c>
       <c r="R213">
+        <v>1.825</v>
+      </c>
+      <c r="S213">
+        <v>1.975</v>
+      </c>
+      <c r="T213">
+        <v>2.5</v>
+      </c>
+      <c r="U213">
         <v>1.95</v>
       </c>
-      <c r="S213">
-        <v>1.85</v>
-      </c>
-      <c r="T213">
-        <v>2.25</v>
-      </c>
-      <c r="U213">
-        <v>1.8</v>
-      </c>
       <c r="V213">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W213">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB213">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -20641,7 +20641,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6156942</v>
+        <v>6155962</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20653,55 +20653,55 @@
         <v>45208.52083333334</v>
       </c>
       <c r="F227" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G227" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J227" t="s">
         <v>47</v>
       </c>
       <c r="K227">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L227">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M227">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N227">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="O227">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P227">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q227">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R227">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S227">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T227">
         <v>2.5</v>
       </c>
       <c r="U227">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V227">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W227">
         <v>-1</v>
@@ -20710,16 +20710,16 @@
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Z227">
         <v>-1</v>
       </c>
       <c r="AA227">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB227">
         <v>0.95</v>
-      </c>
-      <c r="AB227">
-        <v>0.8</v>
       </c>
       <c r="AC227">
         <v>-1</v>
@@ -20730,7 +20730,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6155962</v>
+        <v>6156942</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20742,55 +20742,55 @@
         <v>45208.52083333334</v>
       </c>
       <c r="F228" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G228" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I228">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J228" t="s">
         <v>47</v>
       </c>
       <c r="K228">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L228">
+        <v>3.1</v>
+      </c>
+      <c r="M228">
+        <v>3</v>
+      </c>
+      <c r="N228">
+        <v>2.05</v>
+      </c>
+      <c r="O228">
         <v>3.2</v>
       </c>
-      <c r="M228">
-        <v>2.75</v>
-      </c>
-      <c r="N228">
-        <v>1.833</v>
-      </c>
-      <c r="O228">
-        <v>3.3</v>
-      </c>
       <c r="P228">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q228">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R228">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S228">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T228">
         <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V228">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W228">
         <v>-1</v>
@@ -20799,16 +20799,16 @@
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB228">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC228">
         <v>-1</v>
@@ -20819,7 +20819,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6156941</v>
+        <v>6156943</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20831,10 +20831,10 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F229" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G229" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -20846,31 +20846,31 @@
         <v>45</v>
       </c>
       <c r="K229">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L229">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M229">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N229">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O229">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P229">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q229">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R229">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S229">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T229">
         <v>2.25</v>
@@ -20882,7 +20882,7 @@
         <v>1.975</v>
       </c>
       <c r="W229">
-        <v>0.615</v>
+        <v>0.909</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20891,10 +20891,10 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AA229">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
         <v>-1</v>
@@ -20908,7 +20908,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6156943</v>
+        <v>6156941</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20920,10 +20920,10 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F230" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G230" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H230">
         <v>1</v>
@@ -20935,31 +20935,31 @@
         <v>45</v>
       </c>
       <c r="K230">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L230">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M230">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N230">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O230">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P230">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q230">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R230">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S230">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T230">
         <v>2.25</v>
@@ -20971,7 +20971,7 @@
         <v>1.975</v>
       </c>
       <c r="W230">
-        <v>0.909</v>
+        <v>0.615</v>
       </c>
       <c r="X230">
         <v>-1</v>
@@ -20980,10 +20980,10 @@
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB230">
         <v>-1</v>

--- a/Chile Primera B/Chile Primera B.xlsx
+++ b/Chile Primera B/Chile Primera B.xlsx
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6155915</v>
+        <v>6156805</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,10 +2319,10 @@
         <v>44985.75</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2334,43 +2334,43 @@
         <v>45</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L21">
         <v>3.2</v>
       </c>
       <c r="M21">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N21">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="O21">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P21">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T21">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W21">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2379,13 +2379,13 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6156805</v>
+        <v>6155915</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,10 +2408,10 @@
         <v>44985.75</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2423,43 +2423,43 @@
         <v>45</v>
       </c>
       <c r="K22">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>3.2</v>
       </c>
       <c r="M22">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="O22">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P22">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S22">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T22">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U22">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W22">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2468,13 +2468,13 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6156811</v>
+        <v>6156807</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,10 +2853,10 @@
         <v>44991.75</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2868,61 +2868,61 @@
         <v>46</v>
       </c>
       <c r="K27">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L27">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M27">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N27">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="O27">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P27">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T27">
         <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6156807</v>
+        <v>6156811</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,10 +2942,10 @@
         <v>44991.75</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2957,61 +2957,61 @@
         <v>46</v>
       </c>
       <c r="K28">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L28">
+        <v>3.3</v>
+      </c>
+      <c r="M28">
+        <v>4.75</v>
+      </c>
+      <c r="N28">
+        <v>1.75</v>
+      </c>
+      <c r="O28">
         <v>3.2</v>
       </c>
-      <c r="M28">
-        <v>2.6</v>
-      </c>
-      <c r="N28">
-        <v>2.6</v>
-      </c>
-      <c r="O28">
-        <v>3</v>
-      </c>
       <c r="P28">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T28">
         <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V28">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6156816</v>
+        <v>6156815</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,13 +3743,13 @@
         <v>44999.85416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3758,43 +3758,43 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>2.6</v>
+      </c>
+      <c r="N37">
+        <v>2.15</v>
+      </c>
+      <c r="O37">
+        <v>3</v>
+      </c>
+      <c r="P37">
         <v>3.1</v>
-      </c>
-      <c r="M37">
-        <v>3.1</v>
-      </c>
-      <c r="N37">
-        <v>2</v>
-      </c>
-      <c r="O37">
-        <v>3.2</v>
-      </c>
-      <c r="P37">
-        <v>3.6</v>
       </c>
       <c r="Q37">
         <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
         <v>2.25</v>
       </c>
       <c r="U37">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3803,16 +3803,16 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC37">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6156815</v>
+        <v>6156816</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,13 +3832,13 @@
         <v>44999.85416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3847,43 +3847,43 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M38">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N38">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P38">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3892,16 +3892,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6156822</v>
+        <v>6156818</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>45005.75</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K42">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L42">
         <v>3</v>
       </c>
       <c r="M42">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N42">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O42">
+        <v>3</v>
+      </c>
+      <c r="P42">
         <v>2.9</v>
-      </c>
-      <c r="P42">
-        <v>3.3</v>
       </c>
       <c r="Q42">
         <v>-0.25</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T42">
         <v>2.25</v>
       </c>
       <c r="U42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y42">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA42">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB42">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4265,7 +4265,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6156818</v>
+        <v>6156822</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4277,76 +4277,76 @@
         <v>45005.75</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K43">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L43">
         <v>3</v>
       </c>
       <c r="M43">
+        <v>3.1</v>
+      </c>
+      <c r="N43">
+        <v>2.15</v>
+      </c>
+      <c r="O43">
         <v>2.9</v>
       </c>
-      <c r="N43">
-        <v>2.3</v>
-      </c>
-      <c r="O43">
-        <v>3</v>
-      </c>
       <c r="P43">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q43">
         <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S43">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T43">
         <v>2.25</v>
       </c>
       <c r="U43">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB43">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC43">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6156823</v>
+        <v>6156827</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,56 +5167,56 @@
         <v>45012.75</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
         <v>45</v>
       </c>
       <c r="K53">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L53">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M53">
+        <v>5</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <v>3.2</v>
+      </c>
+      <c r="P53">
         <v>3.4</v>
-      </c>
-      <c r="N53">
-        <v>2</v>
-      </c>
-      <c r="O53">
-        <v>3.1</v>
-      </c>
-      <c r="P53">
-        <v>3.5</v>
       </c>
       <c r="Q53">
         <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S53">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T53">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U53">
+        <v>1.95</v>
+      </c>
+      <c r="V53">
         <v>1.85</v>
       </c>
-      <c r="V53">
-        <v>1.95</v>
-      </c>
       <c r="W53">
         <v>1</v>
       </c>
@@ -5227,16 +5227,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.7749999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
+        <v>-1</v>
+      </c>
+      <c r="AC53">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC53">
-        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6156827</v>
+        <v>6156823</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,56 +5256,56 @@
         <v>45012.75</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
         <v>45</v>
       </c>
       <c r="K54">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <v>3.4</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <v>3.1</v>
+      </c>
+      <c r="P54">
         <v>3.5</v>
-      </c>
-      <c r="M54">
-        <v>5</v>
-      </c>
-      <c r="N54">
-        <v>2</v>
-      </c>
-      <c r="O54">
-        <v>3.2</v>
-      </c>
-      <c r="P54">
-        <v>3.4</v>
       </c>
       <c r="Q54">
         <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S54">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U54">
+        <v>1.85</v>
+      </c>
+      <c r="V54">
         <v>1.95</v>
       </c>
-      <c r="V54">
-        <v>1.85</v>
-      </c>
       <c r="W54">
         <v>1</v>
       </c>
@@ -5316,16 +5316,16 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.7250000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6155926</v>
+        <v>6156834</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,76 +6591,76 @@
         <v>45039.5625</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
         <v>46</v>
       </c>
       <c r="K69">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L69">
         <v>3.2</v>
       </c>
       <c r="M69">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N69">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="O69">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P69">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S69">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T69">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U69">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA69">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AB69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6156834</v>
+        <v>6155926</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,76 +6680,76 @@
         <v>45039.5625</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>46</v>
       </c>
       <c r="K70">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L70">
         <v>3.2</v>
       </c>
       <c r="M70">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N70">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O70">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P70">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R70">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S70">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T70">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V70">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC70">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6156844</v>
+        <v>6156848</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,58 +7926,58 @@
         <v>45057.79166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
         <v>45</v>
       </c>
       <c r="K84">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L84">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N84">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O84">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P84">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S84">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T84">
         <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V84">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W84">
-        <v>1.1</v>
+        <v>0.909</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7986,13 +7986,13 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6156847</v>
+        <v>6156169</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,49 +8015,49 @@
         <v>45057.79166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
         <v>3</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K85">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L85">
         <v>3.2</v>
       </c>
       <c r="M85">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N85">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P85">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R85">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S85">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U85">
         <v>2</v>
@@ -8066,19 +8066,19 @@
         <v>1.8</v>
       </c>
       <c r="W85">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z85">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB85">
         <v>1</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6156169</v>
+        <v>6156844</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,73 +8104,73 @@
         <v>45057.79166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G86" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
+        <v>45</v>
+      </c>
+      <c r="K86">
+        <v>2.2</v>
+      </c>
+      <c r="L86">
+        <v>3.1</v>
+      </c>
+      <c r="M86">
         <v>3</v>
       </c>
-      <c r="J86" t="s">
-        <v>47</v>
-      </c>
-      <c r="K86">
-        <v>2.75</v>
-      </c>
-      <c r="L86">
-        <v>3.2</v>
-      </c>
-      <c r="M86">
-        <v>2.3</v>
-      </c>
       <c r="N86">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O86">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P86">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V86">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA86">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6156848</v>
+        <v>6156847</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,58 +8193,58 @@
         <v>45057.79166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>45</v>
       </c>
       <c r="K87">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L87">
         <v>3.2</v>
       </c>
       <c r="M87">
+        <v>3.75</v>
+      </c>
+      <c r="N87">
+        <v>1.533</v>
+      </c>
+      <c r="O87">
         <v>4</v>
       </c>
-      <c r="N87">
-        <v>1.909</v>
-      </c>
-      <c r="O87">
-        <v>3.3</v>
-      </c>
       <c r="P87">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R87">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S87">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V87">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W87">
-        <v>0.909</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8253,13 +8253,13 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6156878</v>
+        <v>6156877</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,49 +12109,49 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K131">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L131">
+        <v>3</v>
+      </c>
+      <c r="M131">
+        <v>2.45</v>
+      </c>
+      <c r="N131">
+        <v>1.909</v>
+      </c>
+      <c r="O131">
         <v>3.2</v>
       </c>
-      <c r="M131">
-        <v>3.4</v>
-      </c>
-      <c r="N131">
-        <v>2.15</v>
-      </c>
-      <c r="O131">
-        <v>3.25</v>
-      </c>
       <c r="P131">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U131">
         <v>1.825</v>
@@ -12160,25 +12160,25 @@
         <v>1.975</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X131">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA131">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC131">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6156877</v>
+        <v>6155941</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,73 +12198,73 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K132">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L132">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M132">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="N132">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O132">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P132">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q132">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T132">
         <v>2.25</v>
       </c>
       <c r="U132">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V132">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W132">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z132">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB132">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6155941</v>
+        <v>6156878</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,34 +12287,34 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K133">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L133">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M133">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N133">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O133">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P133">
         <v>2.9</v>
@@ -12326,37 +12326,37 @@
         <v>1.975</v>
       </c>
       <c r="S133">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T133">
+        <v>2.75</v>
+      </c>
+      <c r="U133">
+        <v>1.825</v>
+      </c>
+      <c r="V133">
+        <v>1.975</v>
+      </c>
+      <c r="W133">
+        <v>-1</v>
+      </c>
+      <c r="X133">
         <v>2.25</v>
       </c>
-      <c r="U133">
-        <v>2</v>
-      </c>
-      <c r="V133">
-        <v>1.8</v>
-      </c>
-      <c r="W133">
-        <v>-1</v>
-      </c>
-      <c r="X133">
-        <v>-1</v>
-      </c>
       <c r="Y133">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>0.7250000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB133">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6156174</v>
+        <v>6156880</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,73 +12376,73 @@
         <v>45116.5625</v>
       </c>
       <c r="F134" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H134">
         <v>2</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K134">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L134">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M134">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N134">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O134">
         <v>3.3</v>
       </c>
       <c r="P134">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q134">
         <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S134">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T134">
         <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V134">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB134">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC134">
         <v>-1</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6156880</v>
+        <v>6156174</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,73 +12465,73 @@
         <v>45116.5625</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G135" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H135">
         <v>2</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K135">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="L135">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M135">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N135">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O135">
         <v>3.3</v>
       </c>
       <c r="P135">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q135">
         <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V135">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X135">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -16013,7 +16013,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6155949</v>
+        <v>6156178</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16025,58 +16025,58 @@
         <v>45151.5625</v>
       </c>
       <c r="F175" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>45</v>
       </c>
       <c r="K175">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L175">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M175">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N175">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="O175">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P175">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q175">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R175">
+        <v>1.8</v>
+      </c>
+      <c r="S175">
+        <v>2</v>
+      </c>
+      <c r="T175">
+        <v>2.5</v>
+      </c>
+      <c r="U175">
         <v>1.925</v>
       </c>
-      <c r="S175">
+      <c r="V175">
         <v>1.875</v>
       </c>
-      <c r="T175">
-        <v>2.25</v>
-      </c>
-      <c r="U175">
-        <v>1.875</v>
-      </c>
-      <c r="V175">
-        <v>1.925</v>
-      </c>
       <c r="W175">
-        <v>1.15</v>
+        <v>0.75</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16085,16 +16085,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
+        <v>-1</v>
+      </c>
+      <c r="AC175">
         <v>0.875</v>
-      </c>
-      <c r="AC175">
-        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6156178</v>
+        <v>6155949</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,58 +16114,58 @@
         <v>45151.5625</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G176" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="s">
         <v>45</v>
       </c>
       <c r="K176">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L176">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M176">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N176">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O176">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P176">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q176">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R176">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S176">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T176">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U176">
+        <v>1.875</v>
+      </c>
+      <c r="V176">
         <v>1.925</v>
       </c>
-      <c r="V176">
-        <v>1.875</v>
-      </c>
       <c r="W176">
-        <v>0.75</v>
+        <v>1.15</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16174,16 +16174,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC176">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -20285,7 +20285,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6156937</v>
+        <v>6156938</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20297,76 +20297,76 @@
         <v>45201.89583333334</v>
       </c>
       <c r="F223" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G223" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H223">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I223">
         <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K223">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L223">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M223">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N223">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="O223">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P223">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R223">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S223">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U223">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V223">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W223">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z223">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB223">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC223">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20374,7 +20374,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6156938</v>
+        <v>6156937</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20386,76 +20386,76 @@
         <v>45201.89583333334</v>
       </c>
       <c r="F224" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G224" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I224">
         <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K224">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L224">
+        <v>3.2</v>
+      </c>
+      <c r="M224">
+        <v>3.2</v>
+      </c>
+      <c r="N224">
+        <v>2.05</v>
+      </c>
+      <c r="O224">
+        <v>3.2</v>
+      </c>
+      <c r="P224">
         <v>3.5</v>
       </c>
-      <c r="M224">
-        <v>4</v>
-      </c>
-      <c r="N224">
-        <v>1.571</v>
-      </c>
-      <c r="O224">
-        <v>3.75</v>
-      </c>
-      <c r="P224">
-        <v>4.75</v>
-      </c>
       <c r="Q224">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R224">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S224">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T224">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U224">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V224">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W224">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA224">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC224">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20463,7 +20463,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6155961</v>
+        <v>6156940</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20475,76 +20475,76 @@
         <v>45207.72916666666</v>
       </c>
       <c r="F225" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G225" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H225">
         <v>0</v>
       </c>
       <c r="I225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K225">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L225">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M225">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N225">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O225">
         <v>3.2</v>
       </c>
       <c r="P225">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q225">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R225">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S225">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T225">
         <v>2.5</v>
       </c>
       <c r="U225">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V225">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y225">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA225">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="AB225">
         <v>-1</v>
       </c>
       <c r="AC225">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20552,7 +20552,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6156940</v>
+        <v>6155961</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20564,76 +20564,76 @@
         <v>45207.72916666666</v>
       </c>
       <c r="F226" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G226" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H226">
         <v>0</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K226">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L226">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M226">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N226">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O226">
         <v>3.2</v>
       </c>
       <c r="P226">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q226">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R226">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S226">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T226">
         <v>2.5</v>
       </c>
       <c r="U226">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V226">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z226">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="AB226">
         <v>-1</v>
       </c>
       <c r="AC226">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20641,7 +20641,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6155962</v>
+        <v>6156942</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20653,55 +20653,55 @@
         <v>45208.52083333334</v>
       </c>
       <c r="F227" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G227" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I227">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J227" t="s">
         <v>47</v>
       </c>
       <c r="K227">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L227">
+        <v>3.1</v>
+      </c>
+      <c r="M227">
+        <v>3</v>
+      </c>
+      <c r="N227">
+        <v>2.05</v>
+      </c>
+      <c r="O227">
         <v>3.2</v>
       </c>
-      <c r="M227">
-        <v>2.75</v>
-      </c>
-      <c r="N227">
-        <v>1.833</v>
-      </c>
-      <c r="O227">
-        <v>3.3</v>
-      </c>
       <c r="P227">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q227">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R227">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S227">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T227">
         <v>2.5</v>
       </c>
       <c r="U227">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V227">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W227">
         <v>-1</v>
@@ -20710,16 +20710,16 @@
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Z227">
         <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB227">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC227">
         <v>-1</v>
@@ -20730,7 +20730,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6156942</v>
+        <v>6155962</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20742,55 +20742,55 @@
         <v>45208.52083333334</v>
       </c>
       <c r="F228" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G228" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J228" t="s">
         <v>47</v>
       </c>
       <c r="K228">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L228">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M228">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N228">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="O228">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P228">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q228">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R228">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S228">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T228">
         <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V228">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W228">
         <v>-1</v>
@@ -20799,16 +20799,16 @@
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB228">
         <v>0.95</v>
-      </c>
-      <c r="AB228">
-        <v>0.8</v>
       </c>
       <c r="AC228">
         <v>-1</v>
@@ -20819,7 +20819,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6156943</v>
+        <v>6156184</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20831,58 +20831,58 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G229" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J229" t="s">
         <v>45</v>
       </c>
       <c r="K229">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L229">
         <v>3.2</v>
       </c>
       <c r="M229">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="N229">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O229">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P229">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q229">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S229">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T229">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U229">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V229">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W229">
-        <v>0.909</v>
+        <v>1.7</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20891,16 +20891,16 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC229">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20908,7 +20908,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6156941</v>
+        <v>6156939</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20920,76 +20920,76 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F230" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G230" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H230">
         <v>1</v>
       </c>
       <c r="I230">
+        <v>2</v>
+      </c>
+      <c r="J230" t="s">
+        <v>47</v>
+      </c>
+      <c r="K230">
+        <v>2.375</v>
+      </c>
+      <c r="L230">
+        <v>3.1</v>
+      </c>
+      <c r="M230">
+        <v>2.75</v>
+      </c>
+      <c r="N230">
+        <v>2.45</v>
+      </c>
+      <c r="O230">
+        <v>3.2</v>
+      </c>
+      <c r="P230">
+        <v>2.625</v>
+      </c>
+      <c r="Q230">
         <v>0</v>
       </c>
-      <c r="J230" t="s">
-        <v>45</v>
-      </c>
-      <c r="K230">
-        <v>1.8</v>
-      </c>
-      <c r="L230">
-        <v>3.3</v>
-      </c>
-      <c r="M230">
-        <v>4</v>
-      </c>
-      <c r="N230">
-        <v>1.615</v>
-      </c>
-      <c r="O230">
-        <v>3.6</v>
-      </c>
-      <c r="P230">
-        <v>4.75</v>
-      </c>
-      <c r="Q230">
-        <v>-0.75</v>
-      </c>
       <c r="R230">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S230">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T230">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V230">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W230">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z230">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC230">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20997,7 +20997,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6156184</v>
+        <v>6156941</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21009,58 +21009,58 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F231" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G231" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H231">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I231">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
         <v>45</v>
       </c>
       <c r="K231">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L231">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M231">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N231">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O231">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P231">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R231">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S231">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T231">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U231">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V231">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W231">
-        <v>1.7</v>
+        <v>0.615</v>
       </c>
       <c r="X231">
         <v>-1</v>
@@ -21069,16 +21069,16 @@
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>1.05</v>
+        <v>0.4375</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB231">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21086,7 +21086,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6156939</v>
+        <v>6156943</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21098,76 +21098,76 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F232" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G232" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H232">
         <v>1</v>
       </c>
       <c r="I232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K232">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L232">
+        <v>3.2</v>
+      </c>
+      <c r="M232">
         <v>3.1</v>
       </c>
-      <c r="M232">
-        <v>2.75</v>
-      </c>
       <c r="N232">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O232">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P232">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="Q232">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R232">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S232">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T232">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U232">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V232">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W232">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA232">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB232">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC232">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7327842</v>
+        <v>7327841</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,58 +21543,58 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F237" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G237" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
         <v>45</v>
       </c>
       <c r="K237">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L237">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M237">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N237">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O237">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P237">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q237">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R237">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S237">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T237">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U237">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V237">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W237">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="X237">
         <v>-1</v>
@@ -21603,13 +21603,13 @@
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA237">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC237">
         <v>-1</v>
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7327841</v>
+        <v>7327840</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,43 +21632,43 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F238" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G238" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H238">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K238">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L238">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M238">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N238">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O238">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P238">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q238">
         <v>-0.25</v>
       </c>
       <c r="R238">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S238">
         <v>1.975</v>
@@ -21677,31 +21677,31 @@
         <v>2.5</v>
       </c>
       <c r="U238">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V238">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W238">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z238">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB238">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7327840</v>
+        <v>7327839</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,55 +21721,55 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F239" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G239" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J239" t="s">
         <v>47</v>
       </c>
       <c r="K239">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="L239">
         <v>3.3</v>
       </c>
       <c r="M239">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N239">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="O239">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P239">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="Q239">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R239">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S239">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T239">
         <v>2.5</v>
       </c>
       <c r="U239">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V239">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W239">
         <v>-1</v>
@@ -21778,19 +21778,19 @@
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>2.75</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA239">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC239">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7327839</v>
+        <v>7327842</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,40 +21810,40 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F240" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G240" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K240">
-        <v>3.2</v>
+        <v>1.533</v>
       </c>
       <c r="L240">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M240">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N240">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="O240">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P240">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="Q240">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R240">
         <v>1.9</v>
@@ -21852,31 +21852,31 @@
         <v>1.9</v>
       </c>
       <c r="T240">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U240">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V240">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W240">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
+        <v>0.45</v>
+      </c>
+      <c r="AA240">
         <v>-0.5</v>
       </c>
-      <c r="AA240">
-        <v>0.45</v>
-      </c>
       <c r="AB240">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -22421,7 +22421,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7487575</v>
+        <v>7487574</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22433,49 +22433,49 @@
         <v>45249.75</v>
       </c>
       <c r="F247" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G247" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H247">
         <v>2</v>
       </c>
       <c r="I247">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J247" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K247">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L247">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M247">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N247">
         <v>1.95</v>
       </c>
       <c r="O247">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P247">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q247">
         <v>-0.5</v>
       </c>
       <c r="R247">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S247">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T247">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U247">
         <v>1.975</v>
@@ -22487,16 +22487,16 @@
         <v>-1</v>
       </c>
       <c r="X247">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z247">
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB247">
         <v>0.9750000000000001</v>
@@ -22510,7 +22510,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7487574</v>
+        <v>7487575</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22522,49 +22522,49 @@
         <v>45249.75</v>
       </c>
       <c r="F248" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G248" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H248">
         <v>2</v>
       </c>
       <c r="I248">
+        <v>2</v>
+      </c>
+      <c r="J248" t="s">
+        <v>46</v>
+      </c>
+      <c r="K248">
+        <v>2.1</v>
+      </c>
+      <c r="L248">
+        <v>3.5</v>
+      </c>
+      <c r="M248">
         <v>3</v>
-      </c>
-      <c r="J248" t="s">
-        <v>47</v>
-      </c>
-      <c r="K248">
-        <v>2</v>
-      </c>
-      <c r="L248">
-        <v>3.2</v>
-      </c>
-      <c r="M248">
-        <v>3.4</v>
       </c>
       <c r="N248">
         <v>1.95</v>
       </c>
       <c r="O248">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P248">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q248">
         <v>-0.5</v>
       </c>
       <c r="R248">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S248">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T248">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U248">
         <v>1.975</v>
@@ -22576,16 +22576,16 @@
         <v>-1</v>
       </c>
       <c r="X248">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y248">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
         <v>-1</v>
       </c>
       <c r="AA248">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB248">
         <v>0.9750000000000001</v>

--- a/Chile Primera B/Chile Primera B.xlsx
+++ b/Chile Primera B/Chile Primera B.xlsx
@@ -106,16 +106,16 @@
     <t>Cobreloa</t>
   </si>
   <si>
+    <t>Puerto Montt</t>
+  </si>
+  <si>
     <t>Deportes Iquique</t>
   </si>
   <si>
-    <t>Puerto Montt</t>
+    <t>Deportes Recoleta</t>
   </si>
   <si>
     <t>Santiago Wanderers</t>
-  </si>
-  <si>
-    <t>Deportes Recoleta</t>
   </si>
   <si>
     <t>Santiago Morning</t>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6156160</v>
+        <v>6155912</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,73 +720,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>3</v>
       </c>
       <c r="M3">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N3">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P3">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S3">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V3">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W3">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6155912</v>
+        <v>6156160</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,73 +809,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
       <c r="M4">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N4">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="O4">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P4">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S4">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V4">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X4">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC4">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6260666</v>
+        <v>6156793</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,37 +898,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5">
+        <v>2.75</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>2.4</v>
+      </c>
+      <c r="N5">
+        <v>2.5</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>2.6</v>
+      </c>
+      <c r="Q5">
         <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5">
-        <v>1.8</v>
-      </c>
-      <c r="L5">
-        <v>3.25</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <v>1.8</v>
-      </c>
-      <c r="O5">
-        <v>3.3</v>
-      </c>
-      <c r="P5">
-        <v>3.8</v>
-      </c>
-      <c r="Q5">
-        <v>-0.5</v>
       </c>
       <c r="R5">
         <v>1.875</v>
@@ -940,19 +940,19 @@
         <v>2</v>
       </c>
       <c r="U5">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z5">
         <v>-1</v>
@@ -964,7 +964,7 @@
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6156793</v>
+        <v>6260666</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,37 +987,37 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M6">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N6">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P6">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
         <v>1.875</v>
@@ -1029,19 +1029,19 @@
         <v>2</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y6">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
         <v>-1</v>
@@ -1053,7 +1053,7 @@
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1343,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1521,7 +1521,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6155916</v>
+        <v>6156803</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,58 +1963,58 @@
         <v>44983.5</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H17">
         <v>3</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>45</v>
       </c>
       <c r="K17">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L17">
         <v>3.2</v>
       </c>
       <c r="M17">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N17">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P17">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q17">
         <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T17">
         <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W17">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2023,13 +2023,13 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6156803</v>
+        <v>6155916</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,58 +2052,58 @@
         <v>44983.5</v>
       </c>
       <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
         <v>30</v>
-      </c>
-      <c r="G18" t="s">
-        <v>41</v>
       </c>
       <c r="H18">
         <v>3</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>45</v>
       </c>
       <c r="K18">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L18">
         <v>3.2</v>
       </c>
       <c r="M18">
+        <v>2.75</v>
+      </c>
+      <c r="N18">
+        <v>2.15</v>
+      </c>
+      <c r="O18">
+        <v>3.2</v>
+      </c>
+      <c r="P18">
         <v>3</v>
-      </c>
-      <c r="N18">
-        <v>2</v>
-      </c>
-      <c r="O18">
-        <v>3.25</v>
-      </c>
-      <c r="P18">
-        <v>3.4</v>
       </c>
       <c r="Q18">
         <v>-0.25</v>
       </c>
       <c r="R18">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T18">
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2112,13 +2112,13 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2319,7 +2319,7 @@
         <v>44985.75</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
         <v>43</v>
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6156808</v>
+        <v>6156809</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,46 +2497,46 @@
         <v>44989.5</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L23">
         <v>3</v>
       </c>
       <c r="M23">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N23">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q23">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S23">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T23">
         <v>2.25</v>
@@ -2551,16 +2551,16 @@
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y23">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA23">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB23">
         <v>-0.5</v>
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6156809</v>
+        <v>6156808</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,46 +2586,46 @@
         <v>44989.5</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L24">
         <v>3</v>
       </c>
       <c r="M24">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N24">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O24">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S24">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T24">
         <v>2.25</v>
@@ -2640,16 +2640,16 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB24">
         <v>-0.5</v>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6156807</v>
+        <v>6156811</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,10 +2853,10 @@
         <v>44991.75</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2868,61 +2868,61 @@
         <v>46</v>
       </c>
       <c r="K27">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L27">
+        <v>3.3</v>
+      </c>
+      <c r="M27">
+        <v>4.75</v>
+      </c>
+      <c r="N27">
+        <v>1.75</v>
+      </c>
+      <c r="O27">
         <v>3.2</v>
       </c>
-      <c r="M27">
-        <v>2.6</v>
-      </c>
-      <c r="N27">
-        <v>2.6</v>
-      </c>
-      <c r="O27">
-        <v>3</v>
-      </c>
       <c r="P27">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T27">
         <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6156811</v>
+        <v>6156807</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,10 +2942,10 @@
         <v>44991.75</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2957,61 +2957,61 @@
         <v>46</v>
       </c>
       <c r="K28">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L28">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M28">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N28">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="O28">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P28">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T28">
         <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6155917</v>
+        <v>6156812</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,76 +3031,76 @@
         <v>44991.85416666666</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M29">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N29">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O29">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P29">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q29">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S29">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T29">
         <v>2</v>
       </c>
       <c r="U29">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X29">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA29">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6156812</v>
+        <v>6155917</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,76 +3120,76 @@
         <v>44991.85416666666</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L30">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M30">
+        <v>2.8</v>
+      </c>
+      <c r="N30">
+        <v>1.95</v>
+      </c>
+      <c r="O30">
         <v>3.1</v>
       </c>
-      <c r="N30">
-        <v>2.55</v>
-      </c>
-      <c r="O30">
-        <v>2.875</v>
-      </c>
       <c r="P30">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>1.8</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30">
         <v>1.775</v>
       </c>
-      <c r="S30">
+      <c r="V30">
         <v>2.025</v>
       </c>
-      <c r="T30">
-        <v>2</v>
-      </c>
-      <c r="U30">
-        <v>1.925</v>
-      </c>
-      <c r="V30">
-        <v>1.875</v>
-      </c>
       <c r="W30">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3209,7 +3209,7 @@
         <v>44995.75</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -3476,10 +3476,10 @@
         <v>44997.89583333334</v>
       </c>
       <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
         <v>30</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3746,7 +3746,7 @@
         <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -4102,7 +4102,7 @@
         <v>44</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4191,7 +4191,7 @@
         <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4455,7 +4455,7 @@
         <v>45005.85416666666</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
         <v>38</v>
@@ -4544,7 +4544,7 @@
         <v>45006.75</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -4633,10 +4633,10 @@
         <v>45010.75</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4722,7 +4722,7 @@
         <v>45011.5</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>35</v>
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6156165</v>
+        <v>6156826</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,58 +4811,58 @@
         <v>45011.75</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H49">
         <v>3</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
         <v>45</v>
       </c>
       <c r="K49">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L49">
         <v>3.2</v>
       </c>
       <c r="M49">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="N49">
+        <v>1.909</v>
+      </c>
+      <c r="O49">
+        <v>3.25</v>
+      </c>
+      <c r="P49">
+        <v>3.75</v>
+      </c>
+      <c r="Q49">
+        <v>-0.5</v>
+      </c>
+      <c r="R49">
+        <v>1.925</v>
+      </c>
+      <c r="S49">
+        <v>1.875</v>
+      </c>
+      <c r="T49">
         <v>2.25</v>
       </c>
-      <c r="O49">
-        <v>3</v>
-      </c>
-      <c r="P49">
-        <v>3</v>
-      </c>
-      <c r="Q49">
-        <v>-0.25</v>
-      </c>
-      <c r="R49">
-        <v>1.975</v>
-      </c>
-      <c r="S49">
-        <v>1.825</v>
-      </c>
-      <c r="T49">
-        <v>2</v>
-      </c>
       <c r="U49">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V49">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W49">
-        <v>1.25</v>
+        <v>0.909</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4871,13 +4871,13 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6156826</v>
+        <v>6156165</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,58 +4900,58 @@
         <v>45011.75</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H50">
         <v>3</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>45</v>
       </c>
       <c r="K50">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L50">
         <v>3.2</v>
       </c>
       <c r="M50">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="N50">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O50">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P50">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S50">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W50">
-        <v>0.909</v>
+        <v>1.25</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4960,13 +4960,13 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4992,7 +4992,7 @@
         <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6156827</v>
+        <v>6156823</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,56 +5167,56 @@
         <v>45012.75</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
         <v>45</v>
       </c>
       <c r="K53">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>3.4</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <v>3.1</v>
+      </c>
+      <c r="P53">
         <v>3.5</v>
-      </c>
-      <c r="M53">
-        <v>5</v>
-      </c>
-      <c r="N53">
-        <v>2</v>
-      </c>
-      <c r="O53">
-        <v>3.2</v>
-      </c>
-      <c r="P53">
-        <v>3.4</v>
       </c>
       <c r="Q53">
         <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S53">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U53">
+        <v>1.85</v>
+      </c>
+      <c r="V53">
         <v>1.95</v>
       </c>
-      <c r="V53">
-        <v>1.85</v>
-      </c>
       <c r="W53">
         <v>1</v>
       </c>
@@ -5227,16 +5227,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.7250000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6156823</v>
+        <v>6156827</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,56 +5256,56 @@
         <v>45012.75</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
         <v>45</v>
       </c>
       <c r="K54">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M54">
+        <v>5</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <v>3.2</v>
+      </c>
+      <c r="P54">
         <v>3.4</v>
-      </c>
-      <c r="N54">
-        <v>2</v>
-      </c>
-      <c r="O54">
-        <v>3.1</v>
-      </c>
-      <c r="P54">
-        <v>3.5</v>
       </c>
       <c r="Q54">
         <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S54">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T54">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
+        <v>1.95</v>
+      </c>
+      <c r="V54">
         <v>1.85</v>
       </c>
-      <c r="V54">
-        <v>1.95</v>
-      </c>
       <c r="W54">
         <v>1</v>
       </c>
@@ -5316,16 +5316,16 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.7749999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
+        <v>-1</v>
+      </c>
+      <c r="AC54">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC54">
-        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5523,10 +5523,10 @@
         <v>45030.5625</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5612,7 +5612,7 @@
         <v>45031.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
         <v>41</v>
@@ -5879,7 +5879,7 @@
         <v>45032.79166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
         <v>42</v>
@@ -6238,7 +6238,7 @@
         <v>41</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6502,7 +6502,7 @@
         <v>45038.72916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
         <v>37</v>
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6156834</v>
+        <v>6155926</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,76 +6591,76 @@
         <v>45039.5625</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
         <v>46</v>
       </c>
       <c r="K69">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L69">
         <v>3.2</v>
       </c>
       <c r="M69">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N69">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O69">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P69">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S69">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6155926</v>
+        <v>6156833</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,62 +6680,62 @@
         <v>45039.5625</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
         <v>46</v>
       </c>
       <c r="K70">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L70">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M70">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N70">
         <v>1.75</v>
       </c>
       <c r="O70">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P70">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q70">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S70">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T70">
+        <v>2.25</v>
+      </c>
+      <c r="U70">
+        <v>1.925</v>
+      </c>
+      <c r="V70">
+        <v>1.875</v>
+      </c>
+      <c r="W70">
+        <v>-1</v>
+      </c>
+      <c r="X70">
         <v>2.5</v>
       </c>
-      <c r="U70">
-        <v>2</v>
-      </c>
-      <c r="V70">
-        <v>1.8</v>
-      </c>
-      <c r="W70">
-        <v>-1</v>
-      </c>
-      <c r="X70">
-        <v>2.4</v>
-      </c>
       <c r="Y70">
         <v>-1</v>
       </c>
@@ -6743,13 +6743,13 @@
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB70">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6156833</v>
+        <v>6156834</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,10 +6769,10 @@
         <v>45039.5625</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6784,61 +6784,61 @@
         <v>46</v>
       </c>
       <c r="K71">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="L71">
+        <v>3.2</v>
+      </c>
+      <c r="M71">
+        <v>2.75</v>
+      </c>
+      <c r="N71">
+        <v>1.95</v>
+      </c>
+      <c r="O71">
+        <v>3.1</v>
+      </c>
+      <c r="P71">
         <v>3.5</v>
       </c>
-      <c r="M71">
-        <v>5</v>
-      </c>
-      <c r="N71">
-        <v>1.75</v>
-      </c>
-      <c r="O71">
-        <v>3.5</v>
-      </c>
-      <c r="P71">
-        <v>4</v>
-      </c>
       <c r="Q71">
+        <v>-0.25</v>
+      </c>
+      <c r="R71">
+        <v>1.725</v>
+      </c>
+      <c r="S71">
+        <v>1.975</v>
+      </c>
+      <c r="T71">
+        <v>2</v>
+      </c>
+      <c r="U71">
+        <v>1.85</v>
+      </c>
+      <c r="V71">
+        <v>1.95</v>
+      </c>
+      <c r="W71">
+        <v>-1</v>
+      </c>
+      <c r="X71">
+        <v>2.1</v>
+      </c>
+      <c r="Y71">
+        <v>-1</v>
+      </c>
+      <c r="Z71">
         <v>-0.5</v>
       </c>
-      <c r="R71">
-        <v>1.8</v>
-      </c>
-      <c r="S71">
-        <v>2</v>
-      </c>
-      <c r="T71">
-        <v>2.25</v>
-      </c>
-      <c r="U71">
-        <v>1.925</v>
-      </c>
-      <c r="V71">
-        <v>1.875</v>
-      </c>
-      <c r="W71">
-        <v>-1</v>
-      </c>
-      <c r="X71">
-        <v>2.5</v>
-      </c>
-      <c r="Y71">
-        <v>-1</v>
-      </c>
-      <c r="Z71">
-        <v>-1</v>
-      </c>
       <c r="AA71">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB71">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC71">
-        <v>0.4375</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6861,7 +6861,7 @@
         <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>45044.66666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
         <v>38</v>
@@ -7125,7 +7125,7 @@
         <v>45046.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
         <v>42</v>
@@ -7214,7 +7214,7 @@
         <v>45046.6875</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G76" t="s">
         <v>34</v>
@@ -7573,7 +7573,7 @@
         <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7659,7 +7659,7 @@
         <v>45055.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
         <v>34</v>
@@ -7748,7 +7748,7 @@
         <v>45056.6875</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
         <v>36</v>
@@ -8107,7 +8107,7 @@
         <v>39</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8196,7 +8196,7 @@
         <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H87">
         <v>3</v>
@@ -8374,7 +8374,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8641,7 +8641,7 @@
         <v>44</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8730,7 +8730,7 @@
         <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8905,7 +8905,7 @@
         <v>45062.89583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
         <v>37</v>
@@ -9172,7 +9172,7 @@
         <v>45067.5625</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
         <v>44</v>
@@ -9261,7 +9261,7 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
         <v>35</v>
@@ -9442,7 +9442,7 @@
         <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9528,7 +9528,7 @@
         <v>45068.79166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -9798,7 +9798,7 @@
         <v>40</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -9887,7 +9887,7 @@
         <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9976,7 +9976,7 @@
         <v>39</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -10151,7 +10151,7 @@
         <v>45074.5625</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
         <v>38</v>
@@ -10596,7 +10596,7 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
         <v>35</v>
@@ -10952,7 +10952,7 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G118" t="s">
         <v>34</v>
@@ -11041,10 +11041,10 @@
         <v>45081.77083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11222,7 +11222,7 @@
         <v>43</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11400,7 +11400,7 @@
         <v>38</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11578,7 +11578,7 @@
         <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11667,7 +11667,7 @@
         <v>37</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11756,7 +11756,7 @@
         <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12020,7 +12020,7 @@
         <v>45114.89583333334</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
         <v>36</v>
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6156877</v>
+        <v>6155941</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,73 +12109,73 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K131">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L131">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M131">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="N131">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O131">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P131">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q131">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T131">
         <v>2.25</v>
       </c>
       <c r="U131">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V131">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W131">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB131">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6155941</v>
+        <v>6156877</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,73 +12198,73 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K132">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L132">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M132">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="N132">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O132">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P132">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S132">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T132">
         <v>2.25</v>
       </c>
       <c r="U132">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V132">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA132">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6156880</v>
+        <v>6156174</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,73 +12376,73 @@
         <v>45116.5625</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H134">
         <v>2</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K134">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="L134">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M134">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N134">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O134">
         <v>3.3</v>
       </c>
       <c r="P134">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q134">
         <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S134">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T134">
         <v>2.5</v>
       </c>
       <c r="U134">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V134">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X134">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA134">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC134">
         <v>-1</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6156174</v>
+        <v>6156880</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,73 +12465,73 @@
         <v>45116.5625</v>
       </c>
       <c r="F135" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H135">
         <v>2</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K135">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L135">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M135">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N135">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O135">
         <v>3.3</v>
       </c>
       <c r="P135">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q135">
         <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V135">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W135">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB135">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6156883</v>
+        <v>6156881</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,76 +12643,76 @@
         <v>45121.85416666666</v>
       </c>
       <c r="F137" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K137">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L137">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M137">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N137">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O137">
         <v>3.2</v>
       </c>
       <c r="P137">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S137">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T137">
         <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V137">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6156881</v>
+        <v>6156883</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,76 +12732,76 @@
         <v>45121.85416666666</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G138" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K138">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L138">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M138">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N138">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O138">
         <v>3.2</v>
       </c>
       <c r="P138">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R138">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S138">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T138">
         <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V138">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y138">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12821,10 +12821,10 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -13355,7 +13355,7 @@
         <v>45128.89583333334</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
         <v>40</v>
@@ -13622,10 +13622,10 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F148" t="s">
+        <v>32</v>
+      </c>
+      <c r="G148" t="s">
         <v>33</v>
-      </c>
-      <c r="G148" t="s">
-        <v>32</v>
       </c>
       <c r="H148">
         <v>4</v>
@@ -13714,7 +13714,7 @@
         <v>29</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -14070,7 +14070,7 @@
         <v>36</v>
       </c>
       <c r="G153" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14245,10 +14245,10 @@
         <v>45136.5625</v>
       </c>
       <c r="F155" t="s">
+        <v>30</v>
+      </c>
+      <c r="G155" t="s">
         <v>31</v>
-      </c>
-      <c r="G155" t="s">
-        <v>30</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14334,7 +14334,7 @@
         <v>45136.89583333334</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G156" t="s">
         <v>41</v>
@@ -14868,7 +14868,7 @@
         <v>45142.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G162" t="s">
         <v>44</v>
@@ -14960,7 +14960,7 @@
         <v>38</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15049,7 +15049,7 @@
         <v>35</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -15313,7 +15313,7 @@
         <v>45144.5625</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G167" t="s">
         <v>43</v>
@@ -15580,7 +15580,7 @@
         <v>45147.79166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G170" t="s">
         <v>29</v>
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6156906</v>
+        <v>6156905</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,76 +15758,76 @@
         <v>45150.5625</v>
       </c>
       <c r="F172" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G172" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K172">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L172">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M172">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N172">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O172">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P172">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q172">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R172">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S172">
+        <v>1.925</v>
+      </c>
+      <c r="T172">
+        <v>2.75</v>
+      </c>
+      <c r="U172">
         <v>1.975</v>
       </c>
-      <c r="T172">
-        <v>2.25</v>
-      </c>
-      <c r="U172">
-        <v>1.8</v>
-      </c>
       <c r="V172">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA172">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15835,7 +15835,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6156905</v>
+        <v>6156906</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15847,76 +15847,76 @@
         <v>45150.5625</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G173" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K173">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L173">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M173">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N173">
+        <v>1.95</v>
+      </c>
+      <c r="O173">
+        <v>3.1</v>
+      </c>
+      <c r="P173">
+        <v>3.75</v>
+      </c>
+      <c r="Q173">
+        <v>-0.25</v>
+      </c>
+      <c r="R173">
+        <v>1.725</v>
+      </c>
+      <c r="S173">
+        <v>1.975</v>
+      </c>
+      <c r="T173">
+        <v>2.25</v>
+      </c>
+      <c r="U173">
         <v>1.8</v>
       </c>
-      <c r="O173">
-        <v>3.3</v>
-      </c>
-      <c r="P173">
-        <v>3.8</v>
-      </c>
-      <c r="Q173">
-        <v>-0.5</v>
-      </c>
-      <c r="R173">
-        <v>1.875</v>
-      </c>
-      <c r="S173">
-        <v>1.925</v>
-      </c>
-      <c r="T173">
+      <c r="V173">
+        <v>2</v>
+      </c>
+      <c r="W173">
+        <v>-1</v>
+      </c>
+      <c r="X173">
+        <v>-1</v>
+      </c>
+      <c r="Y173">
         <v>2.75</v>
       </c>
-      <c r="U173">
-        <v>1.975</v>
-      </c>
-      <c r="V173">
-        <v>1.825</v>
-      </c>
-      <c r="W173">
+      <c r="Z173">
+        <v>-1</v>
+      </c>
+      <c r="AA173">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB173">
         <v>0.8</v>
       </c>
-      <c r="X173">
-        <v>-1</v>
-      </c>
-      <c r="Y173">
-        <v>-1</v>
-      </c>
-      <c r="Z173">
-        <v>0.875</v>
-      </c>
-      <c r="AA173">
-        <v>-1</v>
-      </c>
-      <c r="AB173">
-        <v>0.4875</v>
-      </c>
       <c r="AC173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16013,7 +16013,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6156178</v>
+        <v>6155949</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16025,58 +16025,58 @@
         <v>45151.5625</v>
       </c>
       <c r="F175" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G175" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
         <v>45</v>
       </c>
       <c r="K175">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L175">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M175">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N175">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O175">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P175">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q175">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S175">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U175">
+        <v>1.875</v>
+      </c>
+      <c r="V175">
         <v>1.925</v>
       </c>
-      <c r="V175">
-        <v>1.875</v>
-      </c>
       <c r="W175">
-        <v>0.75</v>
+        <v>1.15</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16085,16 +16085,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC175">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6155949</v>
+        <v>6156178</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,58 +16114,58 @@
         <v>45151.5625</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
         <v>45</v>
       </c>
       <c r="K176">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L176">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M176">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N176">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="O176">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P176">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R176">
+        <v>1.8</v>
+      </c>
+      <c r="S176">
+        <v>2</v>
+      </c>
+      <c r="T176">
+        <v>2.5</v>
+      </c>
+      <c r="U176">
         <v>1.925</v>
       </c>
-      <c r="S176">
+      <c r="V176">
         <v>1.875</v>
       </c>
-      <c r="T176">
-        <v>2.25</v>
-      </c>
-      <c r="U176">
-        <v>1.875</v>
-      </c>
-      <c r="V176">
-        <v>1.925</v>
-      </c>
       <c r="W176">
-        <v>1.15</v>
+        <v>0.75</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16174,16 +16174,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
+        <v>-1</v>
+      </c>
+      <c r="AC176">
         <v>0.875</v>
-      </c>
-      <c r="AC176">
-        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16206,7 +16206,7 @@
         <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16384,7 +16384,7 @@
         <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16458,7 +16458,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6156908</v>
+        <v>6156911</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16470,58 +16470,58 @@
         <v>45158.5625</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G180" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H180">
         <v>2</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
         <v>45</v>
       </c>
       <c r="K180">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L180">
         <v>3.2</v>
       </c>
       <c r="M180">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N180">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O180">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P180">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q180">
         <v>-0.25</v>
       </c>
       <c r="R180">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S180">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T180">
         <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V180">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W180">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16530,16 +16530,16 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16547,7 +16547,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6156911</v>
+        <v>6156908</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16559,58 +16559,58 @@
         <v>45158.5625</v>
       </c>
       <c r="F181" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G181" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H181">
         <v>2</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
         <v>45</v>
       </c>
       <c r="K181">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L181">
         <v>3.2</v>
       </c>
       <c r="M181">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N181">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O181">
+        <v>3.25</v>
+      </c>
+      <c r="P181">
         <v>3.2</v>
-      </c>
-      <c r="P181">
-        <v>3</v>
       </c>
       <c r="Q181">
         <v>-0.25</v>
       </c>
       <c r="R181">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S181">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T181">
         <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V181">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W181">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16619,16 +16619,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC181">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16648,10 +16648,10 @@
         <v>45158.89583333334</v>
       </c>
       <c r="F182" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G182" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16918,7 +16918,7 @@
         <v>37</v>
       </c>
       <c r="G185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -17007,7 +17007,7 @@
         <v>34</v>
       </c>
       <c r="G186" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17093,7 +17093,7 @@
         <v>45165.66666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G187" t="s">
         <v>41</v>
@@ -17182,7 +17182,7 @@
         <v>45165.77083333334</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G188" t="s">
         <v>43</v>
@@ -17363,7 +17363,7 @@
         <v>34</v>
       </c>
       <c r="G190" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -17452,7 +17452,7 @@
         <v>42</v>
       </c>
       <c r="G191" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H191">
         <v>3</v>
@@ -17541,7 +17541,7 @@
         <v>38</v>
       </c>
       <c r="G192" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17805,7 +17805,7 @@
         <v>45172.83333333334</v>
       </c>
       <c r="F195" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G195" t="s">
         <v>29</v>
@@ -18072,7 +18072,7 @@
         <v>45177.52083333334</v>
       </c>
       <c r="F198" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G198" t="s">
         <v>29</v>
@@ -18164,7 +18164,7 @@
         <v>34</v>
       </c>
       <c r="G199" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H199">
         <v>2</v>
@@ -18339,7 +18339,7 @@
         <v>45178.83333333334</v>
       </c>
       <c r="F201" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G201" t="s">
         <v>39</v>
@@ -18698,7 +18698,7 @@
         <v>36</v>
       </c>
       <c r="G205" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -19229,7 +19229,7 @@
         <v>45192.52083333334</v>
       </c>
       <c r="F211" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G211" t="s">
         <v>40</v>
@@ -19306,7 +19306,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6156183</v>
+        <v>6155958</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19318,76 +19318,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F212" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G212" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212" t="s">
+        <v>46</v>
+      </c>
+      <c r="K212">
         <v>3</v>
-      </c>
-      <c r="I212">
-        <v>0</v>
-      </c>
-      <c r="J212" t="s">
-        <v>45</v>
-      </c>
-      <c r="K212">
-        <v>2.2</v>
       </c>
       <c r="L212">
         <v>3.2</v>
       </c>
       <c r="M212">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N212">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O212">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P212">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q212">
         <v>-0.25</v>
       </c>
       <c r="R212">
+        <v>1.825</v>
+      </c>
+      <c r="S212">
+        <v>1.975</v>
+      </c>
+      <c r="T212">
+        <v>2.5</v>
+      </c>
+      <c r="U212">
         <v>1.95</v>
       </c>
-      <c r="S212">
-        <v>1.85</v>
-      </c>
-      <c r="T212">
-        <v>2.25</v>
-      </c>
-      <c r="U212">
-        <v>1.8</v>
-      </c>
       <c r="V212">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W212">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB212">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19395,7 +19395,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6155958</v>
+        <v>6156183</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19407,76 +19407,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F213" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G213" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K213">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L213">
         <v>3.2</v>
       </c>
       <c r="M213">
+        <v>3</v>
+      </c>
+      <c r="N213">
         <v>2.2</v>
       </c>
-      <c r="N213">
-        <v>2.05</v>
-      </c>
       <c r="O213">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P213">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q213">
         <v>-0.25</v>
       </c>
       <c r="R213">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S213">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T213">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U213">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V213">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X213">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA213">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC213">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19677,7 +19677,7 @@
         <v>42</v>
       </c>
       <c r="G216" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -19766,7 +19766,7 @@
         <v>35</v>
       </c>
       <c r="G217" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H217">
         <v>1</v>
@@ -19944,7 +19944,7 @@
         <v>44</v>
       </c>
       <c r="G219" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20211,7 +20211,7 @@
         <v>40</v>
       </c>
       <c r="G222" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -20297,7 +20297,7 @@
         <v>45201.89583333334</v>
       </c>
       <c r="F223" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G223" t="s">
         <v>42</v>
@@ -20653,7 +20653,7 @@
         <v>45208.52083333334</v>
       </c>
       <c r="F227" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G227" t="s">
         <v>42</v>
@@ -20742,7 +20742,7 @@
         <v>45208.52083333334</v>
       </c>
       <c r="F228" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G228" t="s">
         <v>40</v>
@@ -20819,7 +20819,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6156184</v>
+        <v>6156941</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20831,58 +20831,58 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F229" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G229" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H229">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
         <v>45</v>
       </c>
       <c r="K229">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L229">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M229">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N229">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O229">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P229">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R229">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S229">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T229">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U229">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V229">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W229">
-        <v>1.7</v>
+        <v>0.615</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20891,16 +20891,16 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>1.05</v>
+        <v>0.4375</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB229">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20908,7 +20908,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6156939</v>
+        <v>6156943</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20920,76 +20920,76 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F230" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G230" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H230">
         <v>1</v>
       </c>
       <c r="I230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K230">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L230">
+        <v>3.2</v>
+      </c>
+      <c r="M230">
         <v>3.1</v>
       </c>
-      <c r="M230">
-        <v>2.75</v>
-      </c>
       <c r="N230">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O230">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P230">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R230">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S230">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T230">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V230">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA230">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20997,7 +20997,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6156941</v>
+        <v>6156184</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21009,58 +21009,58 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F231" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G231" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J231" t="s">
         <v>45</v>
       </c>
       <c r="K231">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L231">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M231">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N231">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="O231">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P231">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q231">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R231">
+        <v>2.05</v>
+      </c>
+      <c r="S231">
+        <v>1.75</v>
+      </c>
+      <c r="T231">
+        <v>2.75</v>
+      </c>
+      <c r="U231">
         <v>1.875</v>
       </c>
-      <c r="S231">
+      <c r="V231">
         <v>1.925</v>
       </c>
-      <c r="T231">
-        <v>2.25</v>
-      </c>
-      <c r="U231">
-        <v>1.825</v>
-      </c>
-      <c r="V231">
-        <v>1.975</v>
-      </c>
       <c r="W231">
-        <v>0.615</v>
+        <v>1.7</v>
       </c>
       <c r="X231">
         <v>-1</v>
@@ -21069,16 +21069,16 @@
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="AA231">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC231">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21086,7 +21086,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6156943</v>
+        <v>6156939</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21098,76 +21098,76 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F232" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G232" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H232">
         <v>1</v>
       </c>
       <c r="I232">
+        <v>2</v>
+      </c>
+      <c r="J232" t="s">
+        <v>47</v>
+      </c>
+      <c r="K232">
+        <v>2.375</v>
+      </c>
+      <c r="L232">
+        <v>3.1</v>
+      </c>
+      <c r="M232">
+        <v>2.75</v>
+      </c>
+      <c r="N232">
+        <v>2.45</v>
+      </c>
+      <c r="O232">
+        <v>3.2</v>
+      </c>
+      <c r="P232">
+        <v>2.625</v>
+      </c>
+      <c r="Q232">
         <v>0</v>
       </c>
-      <c r="J232" t="s">
-        <v>45</v>
-      </c>
-      <c r="K232">
-        <v>2.1</v>
-      </c>
-      <c r="L232">
-        <v>3.2</v>
-      </c>
-      <c r="M232">
-        <v>3.1</v>
-      </c>
-      <c r="N232">
-        <v>1.909</v>
-      </c>
-      <c r="O232">
-        <v>3.4</v>
-      </c>
-      <c r="P232">
-        <v>3.4</v>
-      </c>
-      <c r="Q232">
-        <v>-0.5</v>
-      </c>
       <c r="R232">
+        <v>1.775</v>
+      </c>
+      <c r="S232">
+        <v>2.025</v>
+      </c>
+      <c r="T232">
+        <v>2.5</v>
+      </c>
+      <c r="U232">
+        <v>1.85</v>
+      </c>
+      <c r="V232">
         <v>1.95</v>
       </c>
-      <c r="S232">
-        <v>1.85</v>
-      </c>
-      <c r="T232">
-        <v>2.25</v>
-      </c>
-      <c r="U232">
-        <v>1.825</v>
-      </c>
-      <c r="V232">
-        <v>1.975</v>
-      </c>
       <c r="W232">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z232">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC232">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21175,7 +21175,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7327855</v>
+        <v>7327838</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21187,76 +21187,76 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F233" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G233" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J233" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K233">
+        <v>2</v>
+      </c>
+      <c r="L233">
+        <v>3.3</v>
+      </c>
+      <c r="M233">
+        <v>3.2</v>
+      </c>
+      <c r="N233">
         <v>2.1</v>
-      </c>
-      <c r="L233">
-        <v>3.4</v>
-      </c>
-      <c r="M233">
-        <v>3</v>
-      </c>
-      <c r="N233">
-        <v>2.625</v>
       </c>
       <c r="O233">
         <v>3.3</v>
       </c>
       <c r="P233">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Q233">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R233">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S233">
+        <v>1.9</v>
+      </c>
+      <c r="T233">
+        <v>3</v>
+      </c>
+      <c r="U233">
+        <v>2</v>
+      </c>
+      <c r="V233">
         <v>1.8</v>
       </c>
-      <c r="T233">
-        <v>2.5</v>
-      </c>
-      <c r="U233">
-        <v>1.85</v>
-      </c>
-      <c r="V233">
-        <v>1.95</v>
-      </c>
       <c r="W233">
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y233">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA233">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC233">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21264,7 +21264,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7327838</v>
+        <v>7327855</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21276,76 +21276,76 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F234" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G234" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234" t="s">
+        <v>47</v>
+      </c>
+      <c r="K234">
+        <v>2.1</v>
+      </c>
+      <c r="L234">
+        <v>3.4</v>
+      </c>
+      <c r="M234">
         <v>3</v>
       </c>
-      <c r="I234">
-        <v>3</v>
-      </c>
-      <c r="J234" t="s">
-        <v>46</v>
-      </c>
-      <c r="K234">
-        <v>2</v>
-      </c>
-      <c r="L234">
-        <v>3.3</v>
-      </c>
-      <c r="M234">
-        <v>3.2</v>
-      </c>
       <c r="N234">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="O234">
         <v>3.3</v>
       </c>
       <c r="P234">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Q234">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R234">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S234">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T234">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U234">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V234">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W234">
         <v>-1</v>
       </c>
       <c r="X234">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z234">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB234">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21368,7 +21368,7 @@
         <v>35</v>
       </c>
       <c r="G235" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7327843</v>
+        <v>7327840</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,55 +21454,55 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F236" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G236" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J236" t="s">
         <v>47</v>
       </c>
       <c r="K236">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L236">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M236">
         <v>4</v>
       </c>
       <c r="N236">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O236">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P236">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q236">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R236">
+        <v>1.725</v>
+      </c>
+      <c r="S236">
         <v>1.975</v>
-      </c>
-      <c r="S236">
-        <v>1.825</v>
       </c>
       <c r="T236">
         <v>2.5</v>
       </c>
       <c r="U236">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V236">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W236">
         <v>-1</v>
@@ -21511,19 +21511,19 @@
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z236">
         <v>-1</v>
       </c>
       <c r="AA236">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB236">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7327841</v>
+        <v>7327839</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,73 +21543,73 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F237" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G237" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I237">
         <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K237">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="L237">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M237">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N237">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="O237">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P237">
-        <v>3.25</v>
+        <v>1.666</v>
       </c>
       <c r="Q237">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R237">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S237">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T237">
         <v>2.5</v>
       </c>
       <c r="U237">
+        <v>1.875</v>
+      </c>
+      <c r="V237">
         <v>1.925</v>
       </c>
-      <c r="V237">
-        <v>1.875</v>
-      </c>
       <c r="W237">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z237">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA237">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB237">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC237">
         <v>-1</v>
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7327840</v>
+        <v>7327842</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F238" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G238" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238">
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K238">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="L238">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M238">
+        <v>5</v>
+      </c>
+      <c r="N238">
+        <v>1.7</v>
+      </c>
+      <c r="O238">
+        <v>3.75</v>
+      </c>
+      <c r="P238">
         <v>4</v>
       </c>
-      <c r="N238">
-        <v>2</v>
-      </c>
-      <c r="O238">
-        <v>2.9</v>
-      </c>
-      <c r="P238">
-        <v>3.75</v>
-      </c>
       <c r="Q238">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R238">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S238">
+        <v>1.9</v>
+      </c>
+      <c r="T238">
+        <v>2.25</v>
+      </c>
+      <c r="U238">
+        <v>1.825</v>
+      </c>
+      <c r="V238">
         <v>1.975</v>
       </c>
-      <c r="T238">
-        <v>2.5</v>
-      </c>
-      <c r="U238">
-        <v>1.85</v>
-      </c>
-      <c r="V238">
-        <v>1.95</v>
-      </c>
       <c r="W238">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA238">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC238">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7327839</v>
+        <v>7327841</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,73 +21721,73 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F239" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G239" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I239">
         <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K239">
+        <v>2.1</v>
+      </c>
+      <c r="L239">
         <v>3.2</v>
       </c>
-      <c r="L239">
-        <v>3.3</v>
-      </c>
       <c r="M239">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N239">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="O239">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P239">
-        <v>1.666</v>
+        <v>3.25</v>
       </c>
       <c r="Q239">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R239">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S239">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T239">
         <v>2.5</v>
       </c>
       <c r="U239">
+        <v>1.925</v>
+      </c>
+      <c r="V239">
         <v>1.875</v>
       </c>
-      <c r="V239">
-        <v>1.925</v>
-      </c>
       <c r="W239">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA239">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC239">
         <v>-1</v>
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7327842</v>
+        <v>7327843</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,73 +21810,73 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F240" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G240" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H240">
         <v>2</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J240" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K240">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L240">
+        <v>3.6</v>
+      </c>
+      <c r="M240">
         <v>4</v>
       </c>
-      <c r="M240">
-        <v>5</v>
-      </c>
       <c r="N240">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O240">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P240">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q240">
         <v>-0.75</v>
       </c>
       <c r="R240">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S240">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T240">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V240">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W240">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z240">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB240">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -22080,7 +22080,7 @@
         <v>35</v>
       </c>
       <c r="G243" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H243">
         <v>2</v>
@@ -22344,7 +22344,7 @@
         <v>45245.79166666666</v>
       </c>
       <c r="F246" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G246" t="s">
         <v>35</v>
@@ -22436,7 +22436,7 @@
         <v>39</v>
       </c>
       <c r="G247" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H247">
         <v>2</v>
@@ -22525,7 +22525,7 @@
         <v>44</v>
       </c>
       <c r="G248" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H248">
         <v>2</v>
@@ -22611,7 +22611,7 @@
         <v>45256.75</v>
       </c>
       <c r="F249" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G249" t="s">
         <v>39</v>
@@ -22700,7 +22700,7 @@
         <v>45256.75</v>
       </c>
       <c r="F250" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G250" t="s">
         <v>44</v>
@@ -22789,10 +22789,10 @@
         <v>45264.79166666666</v>
       </c>
       <c r="F251" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G251" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H251">
         <v>1</v>
@@ -22878,10 +22878,10 @@
         <v>45270.79166666666</v>
       </c>
       <c r="F252" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G252" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H252">
         <v>6</v>

--- a/Chile Primera B/Chile Primera B.xlsx
+++ b/Chile Primera B/Chile Primera B.xlsx
@@ -112,10 +112,10 @@
     <t>Deportes Iquique</t>
   </si>
   <si>
-    <t>Deportes Recoleta</t>
+    <t>Santiago Wanderers</t>
   </si>
   <si>
-    <t>Santiago Wanderers</t>
+    <t>Deportes Recoleta</t>
   </si>
   <si>
     <t>Santiago Morning</t>
@@ -130,10 +130,10 @@
     <t>La Serena</t>
   </si>
   <si>
-    <t>Club Deportes Santa Cruz</t>
+    <t>Deportes Temuco</t>
   </si>
   <si>
-    <t>Deportes Temuco</t>
+    <t>Club Deportes Santa Cruz</t>
   </si>
   <si>
     <t>Barnechea</t>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6156793</v>
+        <v>6260666</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,37 +898,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M5">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N5">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P5">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
         <v>1.875</v>
@@ -940,19 +940,19 @@
         <v>2</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y5">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
         <v>-1</v>
@@ -964,7 +964,7 @@
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6260666</v>
+        <v>6156793</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,37 +987,37 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6">
+        <v>2.75</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>2.4</v>
+      </c>
+      <c r="N6">
+        <v>2.5</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>2.6</v>
+      </c>
+      <c r="Q6">
         <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6">
-        <v>1.8</v>
-      </c>
-      <c r="L6">
-        <v>3.25</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6">
-        <v>1.8</v>
-      </c>
-      <c r="O6">
-        <v>3.3</v>
-      </c>
-      <c r="P6">
-        <v>3.8</v>
-      </c>
-      <c r="Q6">
-        <v>-0.5</v>
       </c>
       <c r="R6">
         <v>1.875</v>
@@ -1029,19 +1029,19 @@
         <v>2</v>
       </c>
       <c r="U6">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z6">
         <v>-1</v>
@@ -1053,7 +1053,7 @@
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1343,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6156801</v>
+        <v>6156800</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,73 +1432,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>46</v>
       </c>
       <c r="K11">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L11">
         <v>3</v>
       </c>
       <c r="M11">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N11">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="O11">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P11">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R11">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S11">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T11">
         <v>2.25</v>
       </c>
       <c r="U11">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V11">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
+        <v>-1</v>
+      </c>
+      <c r="AA11">
+        <v>0.95</v>
+      </c>
+      <c r="AB11">
         <v>-0.5</v>
       </c>
-      <c r="AA11">
-        <v>0.4375</v>
-      </c>
-      <c r="AB11">
-        <v>0.925</v>
-      </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6156800</v>
+        <v>6156801</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,73 +1521,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>46</v>
       </c>
       <c r="K12">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L12">
         <v>3</v>
       </c>
       <c r="M12">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N12">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P12">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S12">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AB12">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC12">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6156806</v>
+        <v>6156162</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,76 +1785,76 @@
         <v>44982.75</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L15">
         <v>3.2</v>
       </c>
       <c r="M15">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N15">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P15">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="S15">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA15">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6156162</v>
+        <v>6156806</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1874,76 +1874,76 @@
         <v>44982.75</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L16">
         <v>3.2</v>
       </c>
       <c r="M16">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N16">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="O16">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P16">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T16">
         <v>2.25</v>
       </c>
       <c r="U16">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V16">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W16">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z16">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC16">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2052,7 +2052,7 @@
         <v>44983.5</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
         <v>30</v>
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6156804</v>
+        <v>6156802</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,55 +2141,55 @@
         <v>44984.75</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
       </c>
       <c r="K19">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M19">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N19">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="O19">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P19">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="Q19">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S19">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T19">
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2198,19 +2198,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>3.333</v>
+        <v>1.9</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
+        <v>1.05</v>
+      </c>
+      <c r="AB19">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB19">
-        <v>-1</v>
-      </c>
       <c r="AC19">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6156802</v>
+        <v>6156804</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,55 +2230,55 @@
         <v>44984.75</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L20">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M20">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N20">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="O20">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P20">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R20">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S20">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T20">
         <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2287,19 +2287,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.9</v>
+        <v>3.333</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB20">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6156805</v>
+        <v>6155915</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,10 +2319,10 @@
         <v>44985.75</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2334,43 +2334,43 @@
         <v>45</v>
       </c>
       <c r="K21">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>3.2</v>
       </c>
       <c r="M21">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="N21">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="O21">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P21">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S21">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U21">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V21">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2379,13 +2379,13 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6155915</v>
+        <v>6156805</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,10 +2408,10 @@
         <v>44985.75</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2423,43 +2423,43 @@
         <v>45</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L22">
         <v>3.2</v>
       </c>
       <c r="M22">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N22">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="O22">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P22">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q22">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T22">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U22">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W22">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2468,13 +2468,13 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2497,10 +2497,10 @@
         <v>44989.5</v>
       </c>
       <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
         <v>33</v>
-      </c>
-      <c r="G23" t="s">
-        <v>32</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2678,7 +2678,7 @@
         <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6156811</v>
+        <v>6156807</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,10 +2853,10 @@
         <v>44991.75</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2868,61 +2868,61 @@
         <v>46</v>
       </c>
       <c r="K27">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L27">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M27">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N27">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="O27">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P27">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T27">
         <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6156807</v>
+        <v>6156811</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,10 +2942,10 @@
         <v>44991.75</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2957,61 +2957,61 @@
         <v>46</v>
       </c>
       <c r="K28">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L28">
+        <v>3.3</v>
+      </c>
+      <c r="M28">
+        <v>4.75</v>
+      </c>
+      <c r="N28">
+        <v>1.75</v>
+      </c>
+      <c r="O28">
         <v>3.2</v>
       </c>
-      <c r="M28">
-        <v>2.6</v>
-      </c>
-      <c r="N28">
-        <v>2.6</v>
-      </c>
-      <c r="O28">
-        <v>3</v>
-      </c>
       <c r="P28">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T28">
         <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V28">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6156812</v>
+        <v>6155917</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,76 +3031,76 @@
         <v>44991.85416666666</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L29">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M29">
+        <v>2.8</v>
+      </c>
+      <c r="N29">
+        <v>1.95</v>
+      </c>
+      <c r="O29">
         <v>3.1</v>
       </c>
-      <c r="N29">
-        <v>2.55</v>
-      </c>
-      <c r="O29">
-        <v>2.875</v>
-      </c>
       <c r="P29">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>1.8</v>
+      </c>
+      <c r="T29">
+        <v>2</v>
+      </c>
+      <c r="U29">
         <v>1.775</v>
       </c>
-      <c r="S29">
+      <c r="V29">
         <v>2.025</v>
       </c>
-      <c r="T29">
-        <v>2</v>
-      </c>
-      <c r="U29">
-        <v>1.925</v>
-      </c>
-      <c r="V29">
-        <v>1.875</v>
-      </c>
       <c r="W29">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6155917</v>
+        <v>6156812</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,76 +3120,76 @@
         <v>44991.85416666666</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M30">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N30">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O30">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P30">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q30">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S30">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T30">
         <v>2</v>
       </c>
       <c r="U30">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X30">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3209,7 +3209,7 @@
         <v>44995.75</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -3298,7 +3298,7 @@
         <v>44996.75</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
         <v>37</v>
@@ -3746,7 +3746,7 @@
         <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3832,7 +3832,7 @@
         <v>44999.85416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s">
         <v>40</v>
@@ -4013,7 +4013,7 @@
         <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>44</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6156821</v>
+        <v>6155920</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,76 +4366,76 @@
         <v>45005.85416666666</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K44">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L44">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M44">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="N44">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O44">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P44">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q44">
         <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S44">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W44">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z44">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6155920</v>
+        <v>6156821</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,76 +4455,76 @@
         <v>45005.85416666666</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K45">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L45">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M45">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="N45">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O45">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P45">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q45">
         <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S45">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T45">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4544,7 +4544,7 @@
         <v>45006.75</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -4633,7 +4633,7 @@
         <v>45010.75</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
         <v>30</v>
@@ -4811,7 +4811,7 @@
         <v>45011.75</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s">
         <v>40</v>
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6156825</v>
+        <v>6155922</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,76 +4989,76 @@
         <v>45011.85416666666</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K51">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L51">
         <v>3.2</v>
       </c>
       <c r="M51">
+        <v>3.4</v>
+      </c>
+      <c r="N51">
+        <v>1.909</v>
+      </c>
+      <c r="O51">
+        <v>3.1</v>
+      </c>
+      <c r="P51">
         <v>3.75</v>
-      </c>
-      <c r="N51">
-        <v>1.8</v>
-      </c>
-      <c r="O51">
-        <v>3.3</v>
-      </c>
-      <c r="P51">
-        <v>4.333</v>
       </c>
       <c r="Q51">
         <v>-0.5</v>
       </c>
       <c r="R51">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
         <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB51">
         <v>-0.5</v>
       </c>
       <c r="AC51">
-        <v>0.45</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6155922</v>
+        <v>6156825</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45011.85416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L52">
         <v>3.2</v>
       </c>
       <c r="M52">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N52">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O52">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P52">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q52">
         <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S52">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T52">
         <v>2.25</v>
       </c>
       <c r="U52">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V52">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X52">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA52">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
         <v>-0.5</v>
       </c>
       <c r="AC52">
-        <v>0.3875</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6156823</v>
+        <v>6156827</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,56 +5167,56 @@
         <v>45012.75</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
         <v>45</v>
       </c>
       <c r="K53">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L53">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M53">
+        <v>5</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <v>3.2</v>
+      </c>
+      <c r="P53">
         <v>3.4</v>
-      </c>
-      <c r="N53">
-        <v>2</v>
-      </c>
-      <c r="O53">
-        <v>3.1</v>
-      </c>
-      <c r="P53">
-        <v>3.5</v>
       </c>
       <c r="Q53">
         <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S53">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T53">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U53">
+        <v>1.95</v>
+      </c>
+      <c r="V53">
         <v>1.85</v>
       </c>
-      <c r="V53">
-        <v>1.95</v>
-      </c>
       <c r="W53">
         <v>1</v>
       </c>
@@ -5227,16 +5227,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.7749999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
+        <v>-1</v>
+      </c>
+      <c r="AC53">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC53">
-        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6156827</v>
+        <v>6156823</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,56 +5256,56 @@
         <v>45012.75</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
         <v>45</v>
       </c>
       <c r="K54">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <v>3.4</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <v>3.1</v>
+      </c>
+      <c r="P54">
         <v>3.5</v>
-      </c>
-      <c r="M54">
-        <v>5</v>
-      </c>
-      <c r="N54">
-        <v>2</v>
-      </c>
-      <c r="O54">
-        <v>3.2</v>
-      </c>
-      <c r="P54">
-        <v>3.4</v>
       </c>
       <c r="Q54">
         <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S54">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U54">
+        <v>1.85</v>
+      </c>
+      <c r="V54">
         <v>1.95</v>
       </c>
-      <c r="V54">
-        <v>1.85</v>
-      </c>
       <c r="W54">
         <v>1</v>
       </c>
@@ -5316,16 +5316,16 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.7250000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5523,7 +5523,7 @@
         <v>45030.5625</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
         <v>31</v>
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6156830</v>
+        <v>6156166</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,58 +5701,58 @@
         <v>45031.79166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
         <v>45</v>
       </c>
       <c r="K59">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L59">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M59">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N59">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O59">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P59">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q59">
         <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S59">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T59">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V59">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
-        <v>0.909</v>
+        <v>1</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5761,16 +5761,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6156166</v>
+        <v>6156830</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,58 +5790,58 @@
         <v>45031.79166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
         <v>45</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L60">
+        <v>3.2</v>
+      </c>
+      <c r="M60">
         <v>3</v>
       </c>
-      <c r="M60">
-        <v>3.75</v>
-      </c>
       <c r="N60">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O60">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P60">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q60">
         <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S60">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T60">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V60">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>0.909</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5850,16 +5850,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC60">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5879,7 +5879,7 @@
         <v>45032.79166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
         <v>42</v>
@@ -5971,7 +5971,7 @@
         <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6238,7 +6238,7 @@
         <v>41</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6680,7 +6680,7 @@
         <v>45039.5625</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G70" t="s">
         <v>36</v>
@@ -6769,7 +6769,7 @@
         <v>45039.5625</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
         <v>29</v>
@@ -6861,7 +6861,7 @@
         <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6947,10 +6947,10 @@
         <v>45044.66666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7039,7 +7039,7 @@
         <v>44</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H74">
         <v>6</v>
@@ -7214,7 +7214,7 @@
         <v>45046.6875</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
         <v>34</v>
@@ -7469,7 +7469,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6156842</v>
+        <v>6156838</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7481,13 +7481,13 @@
         <v>45049.89583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -7496,43 +7496,43 @@
         <v>45</v>
       </c>
       <c r="K79">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L79">
         <v>3</v>
       </c>
       <c r="M79">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N79">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O79">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P79">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S79">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U79">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V79">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W79">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7541,16 +7541,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB79">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6156838</v>
+        <v>6156842</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,13 +7570,13 @@
         <v>45049.89583333334</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7585,43 +7585,43 @@
         <v>45</v>
       </c>
       <c r="K80">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L80">
         <v>3</v>
       </c>
       <c r="M80">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N80">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O80">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P80">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q80">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S80">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U80">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V80">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W80">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7630,16 +7630,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AA80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC80">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7748,7 +7748,7 @@
         <v>45056.6875</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>36</v>
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6156848</v>
+        <v>6156169</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,73 +7926,73 @@
         <v>45057.79166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K84">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L84">
         <v>3.2</v>
       </c>
       <c r="M84">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N84">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O84">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P84">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q84">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R84">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S84">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T84">
         <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V84">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W84">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z84">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB84">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6156169</v>
+        <v>6156847</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,49 +8015,49 @@
         <v>45057.79166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K85">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L85">
         <v>3.2</v>
       </c>
       <c r="M85">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N85">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P85">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R85">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S85">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T85">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U85">
         <v>2</v>
@@ -8066,19 +8066,19 @@
         <v>1.8</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA85">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
         <v>1</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6156844</v>
+        <v>6156848</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,58 +8104,58 @@
         <v>45057.79166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
         <v>45</v>
       </c>
       <c r="K86">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L86">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N86">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O86">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P86">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S86">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
-        <v>1.1</v>
+        <v>0.909</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8164,13 +8164,13 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6156847</v>
+        <v>6156844</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,58 +8193,58 @@
         <v>45057.79166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>45</v>
       </c>
       <c r="K87">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L87">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M87">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N87">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O87">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P87">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q87">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U87">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V87">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W87">
-        <v>0.5329999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8253,13 +8253,13 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8282,7 +8282,7 @@
         <v>45058.875</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G88" t="s">
         <v>35</v>
@@ -8549,7 +8549,7 @@
         <v>45061.83333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
         <v>43</v>
@@ -8641,7 +8641,7 @@
         <v>44</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8730,7 +8730,7 @@
         <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8819,7 +8819,7 @@
         <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H94">
         <v>4</v>
@@ -9261,7 +9261,7 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
         <v>35</v>
@@ -9353,7 +9353,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9528,7 +9528,7 @@
         <v>45068.79166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6155933</v>
+        <v>6156854</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,13 +9617,13 @@
         <v>45068.89583333334</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -9632,43 +9632,43 @@
         <v>45</v>
       </c>
       <c r="K103">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L103">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N103">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O103">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P103">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q103">
         <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S103">
         <v>1.95</v>
       </c>
       <c r="T103">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U103">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W103">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9677,16 +9677,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6156854</v>
+        <v>6155933</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,13 +9706,13 @@
         <v>45068.89583333334</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -9721,43 +9721,43 @@
         <v>45</v>
       </c>
       <c r="K104">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M104">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N104">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O104">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P104">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q104">
         <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S104">
         <v>1.95</v>
       </c>
       <c r="T104">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V104">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9766,16 +9766,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC104">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9887,7 +9887,7 @@
         <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9973,10 +9973,10 @@
         <v>45073.77083333334</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -10154,7 +10154,7 @@
         <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10952,7 +10952,7 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G118" t="s">
         <v>34</v>
@@ -11041,7 +11041,7 @@
         <v>45081.77083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>31</v>
@@ -11130,10 +11130,10 @@
         <v>45081.875</v>
       </c>
       <c r="F120" t="s">
+        <v>39</v>
+      </c>
+      <c r="G120" t="s">
         <v>38</v>
-      </c>
-      <c r="G120" t="s">
-        <v>39</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11397,10 +11397,10 @@
         <v>45094.77083333334</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11575,7 +11575,7 @@
         <v>45095.5625</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G125" t="s">
         <v>30</v>
@@ -11667,7 +11667,7 @@
         <v>37</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6155941</v>
+        <v>6156877</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,73 +12109,73 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K131">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L131">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M131">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="N131">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O131">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P131">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T131">
         <v>2.25</v>
       </c>
       <c r="U131">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V131">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA131">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6156877</v>
+        <v>6155941</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,73 +12198,73 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K132">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L132">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M132">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="N132">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O132">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P132">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q132">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T132">
         <v>2.25</v>
       </c>
       <c r="U132">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V132">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W132">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z132">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB132">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6156174</v>
+        <v>6156880</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,73 +12376,73 @@
         <v>45116.5625</v>
       </c>
       <c r="F134" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H134">
         <v>2</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K134">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L134">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M134">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N134">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O134">
         <v>3.3</v>
       </c>
       <c r="P134">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q134">
         <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S134">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T134">
         <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V134">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB134">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC134">
         <v>-1</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6156880</v>
+        <v>6156174</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,73 +12465,73 @@
         <v>45116.5625</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G135" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H135">
         <v>2</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K135">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="L135">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M135">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N135">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O135">
         <v>3.3</v>
       </c>
       <c r="P135">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q135">
         <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V135">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X135">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12557,7 +12557,7 @@
         <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6156881</v>
+        <v>6156883</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,76 +12643,76 @@
         <v>45121.85416666666</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G137" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K137">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L137">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M137">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N137">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O137">
         <v>3.2</v>
       </c>
       <c r="P137">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S137">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T137">
         <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V137">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y137">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6156883</v>
+        <v>6156881</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,76 +12732,76 @@
         <v>45121.85416666666</v>
       </c>
       <c r="F138" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K138">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L138">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M138">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N138">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O138">
         <v>3.2</v>
       </c>
       <c r="P138">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q138">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S138">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T138">
         <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V138">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6155942</v>
+        <v>6156882</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,76 +12821,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K139">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="L139">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M139">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N139">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O139">
+        <v>3.1</v>
+      </c>
+      <c r="P139">
         <v>3</v>
       </c>
-      <c r="P139">
-        <v>2.45</v>
-      </c>
       <c r="Q139">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S139">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="T139">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U139">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V139">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y139">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA139">
-        <v>0.7</v>
+        <v>0.425</v>
       </c>
       <c r="AB139">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC139">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6156882</v>
+        <v>6155942</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,76 +12910,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K140">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L140">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M140">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="N140">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O140">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P140">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="T140">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U140">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V140">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.425</v>
+        <v>0.7</v>
       </c>
       <c r="AB140">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC140">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12999,7 +12999,7 @@
         <v>45122.77083333334</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s">
         <v>42</v>
@@ -13269,7 +13269,7 @@
         <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6156886</v>
+        <v>6156888</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,34 +13444,34 @@
         <v>45129.5625</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K146">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L146">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M146">
         <v>3.2</v>
       </c>
       <c r="N146">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O146">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P146">
         <v>3.25</v>
@@ -13480,37 +13480,37 @@
         <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S146">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T146">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U146">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V146">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W146">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z146">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB146">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6156888</v>
+        <v>6156886</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,34 +13533,34 @@
         <v>45129.5625</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K147">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L147">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M147">
         <v>3.2</v>
       </c>
       <c r="N147">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O147">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P147">
         <v>3.25</v>
@@ -13569,37 +13569,37 @@
         <v>-0.25</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S147">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T147">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA147">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13622,10 +13622,10 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F148" t="s">
+        <v>33</v>
+      </c>
+      <c r="G148" t="s">
         <v>32</v>
-      </c>
-      <c r="G148" t="s">
-        <v>33</v>
       </c>
       <c r="H148">
         <v>4</v>
@@ -13978,7 +13978,7 @@
         <v>45131.79166666666</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
         <v>43</v>
@@ -14070,7 +14070,7 @@
         <v>36</v>
       </c>
       <c r="G153" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14144,7 +14144,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6393620</v>
+        <v>6155945</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14156,73 +14156,73 @@
         <v>45136.5625</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H154">
         <v>2</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K154">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L154">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M154">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N154">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="O154">
         <v>3.25</v>
       </c>
       <c r="P154">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q154">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R154">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S154">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T154">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U154">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V154">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W154">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA154">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB154">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6155945</v>
+        <v>6393620</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14245,73 +14245,73 @@
         <v>45136.5625</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H155">
         <v>2</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K155">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L155">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M155">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N155">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="O155">
         <v>3.25</v>
       </c>
       <c r="P155">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q155">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R155">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S155">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T155">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U155">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V155">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X155">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA155">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB155">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14334,7 +14334,7 @@
         <v>45136.89583333334</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G156" t="s">
         <v>41</v>
@@ -14515,7 +14515,7 @@
         <v>40</v>
       </c>
       <c r="G158" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14693,7 +14693,7 @@
         <v>37</v>
       </c>
       <c r="G160" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14868,7 +14868,7 @@
         <v>45142.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G162" t="s">
         <v>44</v>
@@ -14957,7 +14957,7 @@
         <v>45142.85416666666</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G163" t="s">
         <v>30</v>
@@ -15049,7 +15049,7 @@
         <v>35</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -15402,7 +15402,7 @@
         <v>45144.77083333334</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G168" t="s">
         <v>34</v>
@@ -15580,7 +15580,7 @@
         <v>45147.79166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G170" t="s">
         <v>29</v>
@@ -15850,7 +15850,7 @@
         <v>40</v>
       </c>
       <c r="G173" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -15939,7 +15939,7 @@
         <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -16028,7 +16028,7 @@
         <v>30</v>
       </c>
       <c r="G175" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -16559,7 +16559,7 @@
         <v>45158.5625</v>
       </c>
       <c r="F181" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G181" t="s">
         <v>35</v>
@@ -16651,7 +16651,7 @@
         <v>31</v>
       </c>
       <c r="G182" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16814,7 +16814,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6156180</v>
+        <v>6155954</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16826,76 +16826,76 @@
         <v>45165.5625</v>
       </c>
       <c r="F184" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K184">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L184">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M184">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N184">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O184">
+        <v>3.2</v>
+      </c>
+      <c r="P184">
         <v>3.75</v>
       </c>
-      <c r="P184">
-        <v>4</v>
-      </c>
       <c r="Q184">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R184">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S184">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U184">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V184">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W184">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z184">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC184">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16903,7 +16903,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6155954</v>
+        <v>6156180</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16915,76 +16915,76 @@
         <v>45165.5625</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G185" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K185">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L185">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M185">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N185">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O185">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P185">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q185">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R185">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S185">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U185">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V185">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA185">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17093,7 +17093,7 @@
         <v>45165.66666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G187" t="s">
         <v>41</v>
@@ -17182,7 +17182,7 @@
         <v>45165.77083333334</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G188" t="s">
         <v>43</v>
@@ -17274,7 +17274,7 @@
         <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17363,7 +17363,7 @@
         <v>34</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -17538,10 +17538,10 @@
         <v>45171.79166666666</v>
       </c>
       <c r="F192" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G192" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17716,7 +17716,7 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F194" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G194" t="s">
         <v>44</v>
@@ -18072,7 +18072,7 @@
         <v>45177.52083333334</v>
       </c>
       <c r="F198" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G198" t="s">
         <v>29</v>
@@ -18342,7 +18342,7 @@
         <v>31</v>
       </c>
       <c r="G201" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18520,7 +18520,7 @@
         <v>35</v>
       </c>
       <c r="G203" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>36</v>
       </c>
       <c r="G205" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18873,7 +18873,7 @@
         <v>45183.75</v>
       </c>
       <c r="F207" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G207" t="s">
         <v>44</v>
@@ -18965,7 +18965,7 @@
         <v>29</v>
       </c>
       <c r="G208" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H208">
         <v>2</v>
@@ -19143,7 +19143,7 @@
         <v>43</v>
       </c>
       <c r="G210" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19229,7 +19229,7 @@
         <v>45192.52083333334</v>
       </c>
       <c r="F211" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G211" t="s">
         <v>40</v>
@@ -19306,7 +19306,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6155958</v>
+        <v>6156183</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19318,76 +19318,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K212">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L212">
         <v>3.2</v>
       </c>
       <c r="M212">
+        <v>3</v>
+      </c>
+      <c r="N212">
         <v>2.2</v>
       </c>
-      <c r="N212">
-        <v>2.05</v>
-      </c>
       <c r="O212">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P212">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q212">
         <v>-0.25</v>
       </c>
       <c r="R212">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S212">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T212">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U212">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V212">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X212">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA212">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC212">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19395,7 +19395,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6156183</v>
+        <v>6156929</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19407,13 +19407,13 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F213" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G213" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -19422,43 +19422,43 @@
         <v>45</v>
       </c>
       <c r="K213">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L213">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M213">
         <v>3</v>
       </c>
       <c r="N213">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O213">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P213">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q213">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S213">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T213">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U213">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V213">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W213">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19467,16 +19467,16 @@
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA213">
         <v>-1</v>
       </c>
       <c r="AB213">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19484,7 +19484,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6156929</v>
+        <v>6155958</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19496,76 +19496,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F214" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G214" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H214">
         <v>1</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K214">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L214">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M214">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N214">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="O214">
         <v>3.3</v>
       </c>
       <c r="P214">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q214">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R214">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S214">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T214">
         <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V214">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W214">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB214">
         <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19585,7 +19585,7 @@
         <v>45195.79166666666</v>
       </c>
       <c r="F215" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G215" t="s">
         <v>41</v>
@@ -19677,7 +19677,7 @@
         <v>42</v>
       </c>
       <c r="G216" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -19766,7 +19766,7 @@
         <v>35</v>
       </c>
       <c r="G217" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H217">
         <v>1</v>
@@ -19852,7 +19852,7 @@
         <v>45199.72916666666</v>
       </c>
       <c r="F218" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G218" t="s">
         <v>29</v>
@@ -20211,7 +20211,7 @@
         <v>40</v>
       </c>
       <c r="G222" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -20389,7 +20389,7 @@
         <v>36</v>
       </c>
       <c r="G224" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H224">
         <v>3</v>
@@ -20653,7 +20653,7 @@
         <v>45208.52083333334</v>
       </c>
       <c r="F227" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G227" t="s">
         <v>42</v>
@@ -20920,10 +20920,10 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F230" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G230" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H230">
         <v>1</v>
@@ -21098,7 +21098,7 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F232" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G232" t="s">
         <v>31</v>
@@ -21175,7 +21175,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7327838</v>
+        <v>7327855</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21187,76 +21187,76 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F233" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G233" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233" t="s">
+        <v>47</v>
+      </c>
+      <c r="K233">
+        <v>2.1</v>
+      </c>
+      <c r="L233">
+        <v>3.4</v>
+      </c>
+      <c r="M233">
         <v>3</v>
       </c>
-      <c r="I233">
-        <v>3</v>
-      </c>
-      <c r="J233" t="s">
-        <v>46</v>
-      </c>
-      <c r="K233">
-        <v>2</v>
-      </c>
-      <c r="L233">
-        <v>3.3</v>
-      </c>
-      <c r="M233">
-        <v>3.2</v>
-      </c>
       <c r="N233">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="O233">
         <v>3.3</v>
       </c>
       <c r="P233">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Q233">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R233">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S233">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T233">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U233">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V233">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W233">
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z233">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB233">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC233">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21264,7 +21264,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7327855</v>
+        <v>7327856</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21276,10 +21276,10 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F234" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G234" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -21291,37 +21291,37 @@
         <v>47</v>
       </c>
       <c r="K234">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L234">
+        <v>3.5</v>
+      </c>
+      <c r="M234">
+        <v>4</v>
+      </c>
+      <c r="N234">
+        <v>1.8</v>
+      </c>
+      <c r="O234">
         <v>3.4</v>
       </c>
-      <c r="M234">
-        <v>3</v>
-      </c>
-      <c r="N234">
-        <v>2.625</v>
-      </c>
-      <c r="O234">
-        <v>3.3</v>
-      </c>
       <c r="P234">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q234">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R234">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S234">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T234">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U234">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V234">
         <v>1.95</v>
@@ -21333,13 +21333,13 @@
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="Z234">
         <v>-1</v>
       </c>
       <c r="AA234">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB234">
         <v>-1</v>
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7327856</v>
+        <v>7327838</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,76 +21365,76 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F235" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G235" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J235" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K235">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L235">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M235">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N235">
+        <v>2.1</v>
+      </c>
+      <c r="O235">
+        <v>3.3</v>
+      </c>
+      <c r="P235">
+        <v>3</v>
+      </c>
+      <c r="Q235">
+        <v>-0.25</v>
+      </c>
+      <c r="R235">
+        <v>1.9</v>
+      </c>
+      <c r="S235">
+        <v>1.9</v>
+      </c>
+      <c r="T235">
+        <v>3</v>
+      </c>
+      <c r="U235">
+        <v>2</v>
+      </c>
+      <c r="V235">
         <v>1.8</v>
       </c>
-      <c r="O235">
-        <v>3.4</v>
-      </c>
-      <c r="P235">
-        <v>3.75</v>
-      </c>
-      <c r="Q235">
+      <c r="W235">
+        <v>-1</v>
+      </c>
+      <c r="X235">
+        <v>2.3</v>
+      </c>
+      <c r="Y235">
+        <v>-1</v>
+      </c>
+      <c r="Z235">
         <v>-0.5</v>
       </c>
-      <c r="R235">
-        <v>1.85</v>
-      </c>
-      <c r="S235">
-        <v>1.95</v>
-      </c>
-      <c r="T235">
-        <v>2.25</v>
-      </c>
-      <c r="U235">
-        <v>1.75</v>
-      </c>
-      <c r="V235">
-        <v>1.95</v>
-      </c>
-      <c r="W235">
-        <v>-1</v>
-      </c>
-      <c r="X235">
-        <v>-1</v>
-      </c>
-      <c r="Y235">
-        <v>2.75</v>
-      </c>
-      <c r="Z235">
-        <v>-1</v>
-      </c>
       <c r="AA235">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC235">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7327840</v>
+        <v>7327839</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,55 +21454,55 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F236" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G236" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J236" t="s">
         <v>47</v>
       </c>
       <c r="K236">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="L236">
         <v>3.3</v>
       </c>
       <c r="M236">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N236">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="O236">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P236">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="Q236">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R236">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S236">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T236">
         <v>2.5</v>
       </c>
       <c r="U236">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V236">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W236">
         <v>-1</v>
@@ -21511,19 +21511,19 @@
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>2.75</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA236">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC236">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7327839</v>
+        <v>7327843</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,56 +21543,56 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F237" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G237" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J237" t="s">
         <v>47</v>
       </c>
       <c r="K237">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="L237">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M237">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N237">
+        <v>1.727</v>
+      </c>
+      <c r="O237">
+        <v>3.4</v>
+      </c>
+      <c r="P237">
         <v>4.2</v>
       </c>
-      <c r="O237">
-        <v>3.6</v>
-      </c>
-      <c r="P237">
-        <v>1.666</v>
-      </c>
       <c r="Q237">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R237">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S237">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T237">
         <v>2.5</v>
       </c>
       <c r="U237">
+        <v>1.925</v>
+      </c>
+      <c r="V237">
         <v>1.875</v>
       </c>
-      <c r="V237">
-        <v>1.925</v>
-      </c>
       <c r="W237">
         <v>-1</v>
       </c>
@@ -21600,16 +21600,16 @@
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>0.6659999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="Z237">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AB237">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC237">
         <v>-1</v>
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7327842</v>
+        <v>7327840</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F238" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G238" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238">
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K238">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="L238">
+        <v>3.3</v>
+      </c>
+      <c r="M238">
         <v>4</v>
       </c>
-      <c r="M238">
-        <v>5</v>
-      </c>
       <c r="N238">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O238">
+        <v>2.9</v>
+      </c>
+      <c r="P238">
         <v>3.75</v>
       </c>
-      <c r="P238">
-        <v>4</v>
-      </c>
       <c r="Q238">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R238">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S238">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T238">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U238">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V238">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W238">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z238">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB238">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7327841</v>
+        <v>7327842</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,58 +21721,58 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F239" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G239" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H239">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
         <v>45</v>
       </c>
       <c r="K239">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L239">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M239">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N239">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O239">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P239">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q239">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R239">
+        <v>1.9</v>
+      </c>
+      <c r="S239">
+        <v>1.9</v>
+      </c>
+      <c r="T239">
+        <v>2.25</v>
+      </c>
+      <c r="U239">
         <v>1.825</v>
       </c>
-      <c r="S239">
+      <c r="V239">
         <v>1.975</v>
       </c>
-      <c r="T239">
-        <v>2.5</v>
-      </c>
-      <c r="U239">
-        <v>1.925</v>
-      </c>
-      <c r="V239">
-        <v>1.875</v>
-      </c>
       <c r="W239">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="X239">
         <v>-1</v>
@@ -21781,13 +21781,13 @@
         <v>-1</v>
       </c>
       <c r="Z239">
+        <v>0.45</v>
+      </c>
+      <c r="AA239">
+        <v>-0.5</v>
+      </c>
+      <c r="AB239">
         <v>0.825</v>
-      </c>
-      <c r="AA239">
-        <v>-1</v>
-      </c>
-      <c r="AB239">
-        <v>0.925</v>
       </c>
       <c r="AC239">
         <v>-1</v>
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7327843</v>
+        <v>7327841</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,46 +21810,46 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F240" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G240" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I240">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J240" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K240">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L240">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M240">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N240">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="O240">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P240">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q240">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R240">
+        <v>1.825</v>
+      </c>
+      <c r="S240">
         <v>1.975</v>
-      </c>
-      <c r="S240">
-        <v>1.825</v>
       </c>
       <c r="T240">
         <v>2.5</v>
@@ -21861,19 +21861,19 @@
         <v>1.875</v>
       </c>
       <c r="W240">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA240">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB240">
         <v>0.925</v>
@@ -21902,7 +21902,7 @@
         <v>37</v>
       </c>
       <c r="G241" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -22080,7 +22080,7 @@
         <v>35</v>
       </c>
       <c r="G243" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H243">
         <v>2</v>
@@ -22255,7 +22255,7 @@
         <v>45244.85416666666</v>
       </c>
       <c r="F245" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G245" t="s">
         <v>37</v>
@@ -22344,7 +22344,7 @@
         <v>45245.79166666666</v>
       </c>
       <c r="F246" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G246" t="s">
         <v>35</v>
@@ -22421,7 +22421,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7487574</v>
+        <v>7487575</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22433,49 +22433,49 @@
         <v>45249.75</v>
       </c>
       <c r="F247" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G247" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H247">
         <v>2</v>
       </c>
       <c r="I247">
+        <v>2</v>
+      </c>
+      <c r="J247" t="s">
+        <v>46</v>
+      </c>
+      <c r="K247">
+        <v>2.1</v>
+      </c>
+      <c r="L247">
+        <v>3.5</v>
+      </c>
+      <c r="M247">
         <v>3</v>
-      </c>
-      <c r="J247" t="s">
-        <v>47</v>
-      </c>
-      <c r="K247">
-        <v>2</v>
-      </c>
-      <c r="L247">
-        <v>3.2</v>
-      </c>
-      <c r="M247">
-        <v>3.4</v>
       </c>
       <c r="N247">
         <v>1.95</v>
       </c>
       <c r="O247">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P247">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q247">
         <v>-0.5</v>
       </c>
       <c r="R247">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S247">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T247">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U247">
         <v>1.975</v>
@@ -22487,16 +22487,16 @@
         <v>-1</v>
       </c>
       <c r="X247">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y247">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z247">
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB247">
         <v>0.9750000000000001</v>
@@ -22510,7 +22510,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7487575</v>
+        <v>7487574</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22522,49 +22522,49 @@
         <v>45249.75</v>
       </c>
       <c r="F248" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G248" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H248">
         <v>2</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J248" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K248">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L248">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M248">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N248">
         <v>1.95</v>
       </c>
       <c r="O248">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P248">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q248">
         <v>-0.5</v>
       </c>
       <c r="R248">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S248">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T248">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U248">
         <v>1.975</v>
@@ -22576,16 +22576,16 @@
         <v>-1</v>
       </c>
       <c r="X248">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y248">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z248">
         <v>-1</v>
       </c>
       <c r="AA248">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB248">
         <v>0.9750000000000001</v>
@@ -22611,10 +22611,10 @@
         <v>45256.75</v>
       </c>
       <c r="F249" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G249" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H249">
         <v>1</v>
@@ -22789,7 +22789,7 @@
         <v>45264.79166666666</v>
       </c>
       <c r="F251" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G251" t="s">
         <v>31</v>
@@ -22881,7 +22881,7 @@
         <v>31</v>
       </c>
       <c r="G252" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H252">
         <v>6</v>

--- a/Chile Primera B/Chile Primera B.xlsx
+++ b/Chile Primera B/Chile Primera B.xlsx
@@ -112,10 +112,10 @@
     <t>Deportes Iquique</t>
   </si>
   <si>
-    <t>Santiago Wanderers</t>
+    <t>Deportes Recoleta</t>
   </si>
   <si>
-    <t>Deportes Recoleta</t>
+    <t>Santiago Wanderers</t>
   </si>
   <si>
     <t>Santiago Morning</t>
@@ -130,10 +130,10 @@
     <t>La Serena</t>
   </si>
   <si>
-    <t>Deportes Temuco</t>
+    <t>Club Deportes Santa Cruz</t>
   </si>
   <si>
-    <t>Club Deportes Santa Cruz</t>
+    <t>Deportes Temuco</t>
   </si>
   <si>
     <t>Barnechea</t>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6260666</v>
+        <v>6156793</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,37 +898,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5">
+        <v>2.75</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>2.4</v>
+      </c>
+      <c r="N5">
+        <v>2.5</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>2.6</v>
+      </c>
+      <c r="Q5">
         <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5">
-        <v>1.8</v>
-      </c>
-      <c r="L5">
-        <v>3.25</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <v>1.8</v>
-      </c>
-      <c r="O5">
-        <v>3.3</v>
-      </c>
-      <c r="P5">
-        <v>3.8</v>
-      </c>
-      <c r="Q5">
-        <v>-0.5</v>
       </c>
       <c r="R5">
         <v>1.875</v>
@@ -940,19 +940,19 @@
         <v>2</v>
       </c>
       <c r="U5">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z5">
         <v>-1</v>
@@ -964,7 +964,7 @@
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6156793</v>
+        <v>6260666</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,37 +987,37 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M6">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N6">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P6">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
         <v>1.875</v>
@@ -1029,19 +1029,19 @@
         <v>2</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y6">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
         <v>-1</v>
@@ -1053,7 +1053,7 @@
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1343,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6156800</v>
+        <v>6156801</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,73 +1432,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
         <v>46</v>
       </c>
       <c r="K11">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L11">
         <v>3</v>
       </c>
       <c r="M11">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N11">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="O11">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R11">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S11">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T11">
         <v>2.25</v>
       </c>
       <c r="U11">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AB11">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC11">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6156801</v>
+        <v>6156800</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,73 +1521,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>46</v>
       </c>
       <c r="K12">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L12">
         <v>3</v>
       </c>
       <c r="M12">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N12">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="O12">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S12">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
+        <v>0.95</v>
+      </c>
+      <c r="AB12">
         <v>-0.5</v>
       </c>
-      <c r="AA12">
-        <v>0.4375</v>
-      </c>
-      <c r="AB12">
-        <v>0.925</v>
-      </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6156162</v>
+        <v>6156806</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,76 +1785,76 @@
         <v>44982.75</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L15">
         <v>3.2</v>
       </c>
       <c r="M15">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N15">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="O15">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P15">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V15">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC15">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6156806</v>
+        <v>6156162</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1874,76 +1874,76 @@
         <v>44982.75</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L16">
         <v>3.2</v>
       </c>
       <c r="M16">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N16">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O16">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P16">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T16">
         <v>2.25</v>
       </c>
       <c r="U16">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA16">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6156803</v>
+        <v>6155916</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,58 +1963,58 @@
         <v>44983.5</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H17">
         <v>3</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>45</v>
       </c>
       <c r="K17">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L17">
         <v>3.2</v>
       </c>
       <c r="M17">
+        <v>2.75</v>
+      </c>
+      <c r="N17">
+        <v>2.15</v>
+      </c>
+      <c r="O17">
+        <v>3.2</v>
+      </c>
+      <c r="P17">
         <v>3</v>
-      </c>
-      <c r="N17">
-        <v>2</v>
-      </c>
-      <c r="O17">
-        <v>3.25</v>
-      </c>
-      <c r="P17">
-        <v>3.4</v>
       </c>
       <c r="Q17">
         <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S17">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T17">
         <v>2.25</v>
       </c>
       <c r="U17">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2023,13 +2023,13 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6155916</v>
+        <v>6156803</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,58 +2052,58 @@
         <v>44983.5</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H18">
         <v>3</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>45</v>
       </c>
       <c r="K18">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L18">
         <v>3.2</v>
       </c>
       <c r="M18">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O18">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P18">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q18">
         <v>-0.25</v>
       </c>
       <c r="R18">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S18">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T18">
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W18">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2112,13 +2112,13 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6156802</v>
+        <v>6156804</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,55 +2141,55 @@
         <v>44984.75</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L19">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M19">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N19">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P19">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R19">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S19">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T19">
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V19">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2198,19 +2198,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.9</v>
+        <v>3.333</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6156804</v>
+        <v>6156802</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,55 +2230,55 @@
         <v>44984.75</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
       </c>
       <c r="K20">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N20">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P20">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T20">
         <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2287,19 +2287,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>3.333</v>
+        <v>1.9</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
+        <v>1.05</v>
+      </c>
+      <c r="AB20">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
       <c r="AC20">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2408,7 +2408,7 @@
         <v>44985.75</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>43</v>
@@ -2497,10 +2497,10 @@
         <v>44989.5</v>
       </c>
       <c r="F23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" t="s">
         <v>32</v>
-      </c>
-      <c r="G23" t="s">
-        <v>33</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2678,7 +2678,7 @@
         <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6156807</v>
+        <v>6156811</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,10 +2853,10 @@
         <v>44991.75</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2868,61 +2868,61 @@
         <v>46</v>
       </c>
       <c r="K27">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L27">
+        <v>3.3</v>
+      </c>
+      <c r="M27">
+        <v>4.75</v>
+      </c>
+      <c r="N27">
+        <v>1.75</v>
+      </c>
+      <c r="O27">
         <v>3.2</v>
       </c>
-      <c r="M27">
-        <v>2.6</v>
-      </c>
-      <c r="N27">
-        <v>2.6</v>
-      </c>
-      <c r="O27">
-        <v>3</v>
-      </c>
       <c r="P27">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T27">
         <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6156811</v>
+        <v>6156807</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,10 +2942,10 @@
         <v>44991.75</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2957,61 +2957,61 @@
         <v>46</v>
       </c>
       <c r="K28">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L28">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M28">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N28">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="O28">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P28">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T28">
         <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6155917</v>
+        <v>6156812</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,76 +3031,76 @@
         <v>44991.85416666666</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M29">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N29">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O29">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P29">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q29">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S29">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T29">
         <v>2</v>
       </c>
       <c r="U29">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X29">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA29">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6156812</v>
+        <v>6155917</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,76 +3120,76 @@
         <v>44991.85416666666</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L30">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M30">
+        <v>2.8</v>
+      </c>
+      <c r="N30">
+        <v>1.95</v>
+      </c>
+      <c r="O30">
         <v>3.1</v>
       </c>
-      <c r="N30">
-        <v>2.55</v>
-      </c>
-      <c r="O30">
-        <v>2.875</v>
-      </c>
       <c r="P30">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>1.8</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30">
         <v>1.775</v>
       </c>
-      <c r="S30">
+      <c r="V30">
         <v>2.025</v>
       </c>
-      <c r="T30">
-        <v>2</v>
-      </c>
-      <c r="U30">
-        <v>1.925</v>
-      </c>
-      <c r="V30">
-        <v>1.875</v>
-      </c>
       <c r="W30">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3209,7 +3209,7 @@
         <v>44995.75</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -3298,7 +3298,7 @@
         <v>44996.75</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
         <v>37</v>
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6317118</v>
+        <v>6156817</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,10 +3565,10 @@
         <v>44999.75</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3580,43 +3580,43 @@
         <v>45</v>
       </c>
       <c r="K35">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L35">
         <v>3.2</v>
       </c>
       <c r="M35">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="O35">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P35">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R35">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S35">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T35">
         <v>2.25</v>
       </c>
       <c r="U35">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V35">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>0.833</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3625,13 +3625,13 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.7250000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA35">
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6156817</v>
+        <v>6317118</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,10 +3654,10 @@
         <v>44999.75</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3669,43 +3669,43 @@
         <v>45</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L36">
         <v>3.2</v>
       </c>
       <c r="M36">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N36">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="O36">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P36">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q36">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S36">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T36">
         <v>2.25</v>
       </c>
       <c r="U36">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V36">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W36">
-        <v>0.833</v>
+        <v>1</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3714,13 +3714,13 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.875</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6156815</v>
+        <v>6156816</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,13 +3743,13 @@
         <v>44999.85416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3758,43 +3758,43 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L37">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M37">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N37">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O37">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P37">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q37">
         <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S37">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T37">
         <v>2.25</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V37">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W37">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3803,16 +3803,16 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6156816</v>
+        <v>6156815</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,13 +3832,13 @@
         <v>44999.85416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3847,43 +3847,43 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>2.6</v>
+      </c>
+      <c r="N38">
+        <v>2.15</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+      <c r="P38">
         <v>3.1</v>
-      </c>
-      <c r="M38">
-        <v>3.1</v>
-      </c>
-      <c r="N38">
-        <v>2</v>
-      </c>
-      <c r="O38">
-        <v>3.2</v>
-      </c>
-      <c r="P38">
-        <v>3.6</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S38">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3892,16 +3892,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC38">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6155921</v>
+        <v>6156164</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,76 +4010,76 @@
         <v>45004.75</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
         <v>0</v>
       </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K40">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L40">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M40">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N40">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="O40">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P40">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="S40">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA40">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6156164</v>
+        <v>6155921</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>45004.75</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K41">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L41">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N41">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="O41">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P41">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q41">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="S41">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U41">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z41">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB41">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4369,7 +4369,7 @@
         <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4544,7 +4544,7 @@
         <v>45006.75</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -4633,7 +4633,7 @@
         <v>45010.75</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>30</v>
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6156826</v>
+        <v>6156165</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,58 +4811,58 @@
         <v>45011.75</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H49">
         <v>3</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
         <v>45</v>
       </c>
       <c r="K49">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L49">
         <v>3.2</v>
       </c>
       <c r="M49">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="N49">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O49">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P49">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S49">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T49">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V49">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
-        <v>0.909</v>
+        <v>1.25</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4871,13 +4871,13 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6156165</v>
+        <v>6156826</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,58 +4900,58 @@
         <v>45011.75</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H50">
         <v>3</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
         <v>45</v>
       </c>
       <c r="K50">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L50">
         <v>3.2</v>
       </c>
       <c r="M50">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="N50">
+        <v>1.909</v>
+      </c>
+      <c r="O50">
+        <v>3.25</v>
+      </c>
+      <c r="P50">
+        <v>3.75</v>
+      </c>
+      <c r="Q50">
+        <v>-0.5</v>
+      </c>
+      <c r="R50">
+        <v>1.925</v>
+      </c>
+      <c r="S50">
+        <v>1.875</v>
+      </c>
+      <c r="T50">
         <v>2.25</v>
       </c>
-      <c r="O50">
-        <v>3</v>
-      </c>
-      <c r="P50">
-        <v>3</v>
-      </c>
-      <c r="Q50">
-        <v>-0.25</v>
-      </c>
-      <c r="R50">
-        <v>1.975</v>
-      </c>
-      <c r="S50">
-        <v>1.825</v>
-      </c>
-      <c r="T50">
-        <v>2</v>
-      </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W50">
-        <v>1.25</v>
+        <v>0.909</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4960,13 +4960,13 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6155922</v>
+        <v>6156825</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,76 +4989,76 @@
         <v>45011.85416666666</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L51">
         <v>3.2</v>
       </c>
       <c r="M51">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N51">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O51">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P51">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q51">
         <v>-0.5</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S51">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T51">
         <v>2.25</v>
       </c>
       <c r="U51">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X51">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA51">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
         <v>-0.5</v>
       </c>
       <c r="AC51">
-        <v>0.3875</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6156825</v>
+        <v>6155922</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45011.85416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K52">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L52">
         <v>3.2</v>
       </c>
       <c r="M52">
+        <v>3.4</v>
+      </c>
+      <c r="N52">
+        <v>1.909</v>
+      </c>
+      <c r="O52">
+        <v>3.1</v>
+      </c>
+      <c r="P52">
         <v>3.75</v>
-      </c>
-      <c r="N52">
-        <v>1.8</v>
-      </c>
-      <c r="O52">
-        <v>3.3</v>
-      </c>
-      <c r="P52">
-        <v>4.333</v>
       </c>
       <c r="Q52">
         <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S52">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T52">
         <v>2.25</v>
       </c>
       <c r="U52">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V52">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W52">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB52">
         <v>-0.5</v>
       </c>
       <c r="AC52">
-        <v>0.45</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5523,7 +5523,7 @@
         <v>45030.5625</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
         <v>31</v>
@@ -5704,7 +5704,7 @@
         <v>44</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5879,7 +5879,7 @@
         <v>45032.79166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
         <v>42</v>
@@ -5971,7 +5971,7 @@
         <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6238,7 +6238,7 @@
         <v>41</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6156833</v>
+        <v>6156834</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6683,7 +6683,7 @@
         <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6695,61 +6695,61 @@
         <v>46</v>
       </c>
       <c r="K70">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="L70">
+        <v>3.2</v>
+      </c>
+      <c r="M70">
+        <v>2.75</v>
+      </c>
+      <c r="N70">
+        <v>1.95</v>
+      </c>
+      <c r="O70">
+        <v>3.1</v>
+      </c>
+      <c r="P70">
         <v>3.5</v>
       </c>
-      <c r="M70">
-        <v>5</v>
-      </c>
-      <c r="N70">
-        <v>1.75</v>
-      </c>
-      <c r="O70">
-        <v>3.5</v>
-      </c>
-      <c r="P70">
-        <v>4</v>
-      </c>
       <c r="Q70">
+        <v>-0.25</v>
+      </c>
+      <c r="R70">
+        <v>1.725</v>
+      </c>
+      <c r="S70">
+        <v>1.975</v>
+      </c>
+      <c r="T70">
+        <v>2</v>
+      </c>
+      <c r="U70">
+        <v>1.85</v>
+      </c>
+      <c r="V70">
+        <v>1.95</v>
+      </c>
+      <c r="W70">
+        <v>-1</v>
+      </c>
+      <c r="X70">
+        <v>2.1</v>
+      </c>
+      <c r="Y70">
+        <v>-1</v>
+      </c>
+      <c r="Z70">
         <v>-0.5</v>
       </c>
-      <c r="R70">
-        <v>1.8</v>
-      </c>
-      <c r="S70">
-        <v>2</v>
-      </c>
-      <c r="T70">
-        <v>2.25</v>
-      </c>
-      <c r="U70">
-        <v>1.925</v>
-      </c>
-      <c r="V70">
-        <v>1.875</v>
-      </c>
-      <c r="W70">
-        <v>-1</v>
-      </c>
-      <c r="X70">
-        <v>2.5</v>
-      </c>
-      <c r="Y70">
-        <v>-1</v>
-      </c>
-      <c r="Z70">
-        <v>-1</v>
-      </c>
       <c r="AA70">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC70">
-        <v>0.4375</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6156834</v>
+        <v>6156833</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6772,7 +6772,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6784,61 +6784,61 @@
         <v>46</v>
       </c>
       <c r="K71">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="L71">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M71">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N71">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O71">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P71">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S71">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T71">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
+        <v>-1</v>
+      </c>
+      <c r="AA71">
+        <v>1</v>
+      </c>
+      <c r="AB71">
         <v>-0.5</v>
       </c>
-      <c r="AA71">
-        <v>0.4875</v>
-      </c>
-      <c r="AB71">
-        <v>0</v>
-      </c>
       <c r="AC71">
-        <v>-0</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6861,7 +6861,7 @@
         <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6947,10 +6947,10 @@
         <v>45044.66666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7039,7 +7039,7 @@
         <v>44</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H74">
         <v>6</v>
@@ -7214,7 +7214,7 @@
         <v>45046.6875</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G76" t="s">
         <v>34</v>
@@ -7748,7 +7748,7 @@
         <v>45056.6875</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
         <v>36</v>
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6156169</v>
+        <v>6156844</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,73 +7926,73 @@
         <v>45057.79166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G84" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84" t="s">
+        <v>45</v>
+      </c>
+      <c r="K84">
+        <v>2.2</v>
+      </c>
+      <c r="L84">
+        <v>3.1</v>
+      </c>
+      <c r="M84">
         <v>3</v>
       </c>
-      <c r="J84" t="s">
-        <v>47</v>
-      </c>
-      <c r="K84">
-        <v>2.75</v>
-      </c>
-      <c r="L84">
-        <v>3.2</v>
-      </c>
-      <c r="M84">
-        <v>2.3</v>
-      </c>
       <c r="N84">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O84">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P84">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S84">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T84">
         <v>2.25</v>
       </c>
       <c r="U84">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V84">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA84">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6156847</v>
+        <v>6156848</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,58 +8015,58 @@
         <v>45057.79166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
         <v>45</v>
       </c>
       <c r="K85">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L85">
         <v>3.2</v>
       </c>
       <c r="M85">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N85">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O85">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P85">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R85">
+        <v>1.95</v>
+      </c>
+      <c r="S85">
+        <v>1.85</v>
+      </c>
+      <c r="T85">
+        <v>2.25</v>
+      </c>
+      <c r="U85">
+        <v>1.875</v>
+      </c>
+      <c r="V85">
         <v>1.925</v>
       </c>
-      <c r="S85">
-        <v>1.875</v>
-      </c>
-      <c r="T85">
-        <v>2.5</v>
-      </c>
-      <c r="U85">
-        <v>2</v>
-      </c>
-      <c r="V85">
-        <v>1.8</v>
-      </c>
       <c r="W85">
-        <v>0.5329999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8075,13 +8075,13 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6156848</v>
+        <v>6156847</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,58 +8104,58 @@
         <v>45057.79166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>45</v>
       </c>
       <c r="K86">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L86">
         <v>3.2</v>
       </c>
       <c r="M86">
+        <v>3.75</v>
+      </c>
+      <c r="N86">
+        <v>1.533</v>
+      </c>
+      <c r="O86">
         <v>4</v>
       </c>
-      <c r="N86">
-        <v>1.909</v>
-      </c>
-      <c r="O86">
-        <v>3.3</v>
-      </c>
       <c r="P86">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R86">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S86">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T86">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W86">
-        <v>0.909</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8164,13 +8164,13 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6156844</v>
+        <v>6156169</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,73 +8193,73 @@
         <v>45057.79166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K87">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L87">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M87">
+        <v>2.3</v>
+      </c>
+      <c r="N87">
+        <v>2.375</v>
+      </c>
+      <c r="O87">
         <v>3</v>
       </c>
-      <c r="N87">
-        <v>2.1</v>
-      </c>
-      <c r="O87">
-        <v>3.25</v>
-      </c>
       <c r="P87">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S87">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T87">
         <v>2.25</v>
       </c>
       <c r="U87">
+        <v>2</v>
+      </c>
+      <c r="V87">
         <v>1.8</v>
       </c>
-      <c r="V87">
-        <v>2</v>
-      </c>
       <c r="W87">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB87">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8282,7 +8282,7 @@
         <v>45058.875</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G88" t="s">
         <v>35</v>
@@ -8549,7 +8549,7 @@
         <v>45061.83333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
         <v>43</v>
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6156170</v>
+        <v>6156851</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,76 +8638,76 @@
         <v>45062.6875</v>
       </c>
       <c r="F92" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G92" t="s">
         <v>32</v>
       </c>
       <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
         <v>0</v>
       </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
       <c r="J92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K92">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="L92">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M92">
         <v>3.75</v>
       </c>
       <c r="N92">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P92">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q92">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S92">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T92">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA92">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6156851</v>
+        <v>6156170</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45062.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G93" t="s">
         <v>33</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L93">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M93">
         <v>3.75</v>
       </c>
       <c r="N93">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O93">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P93">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R93">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S93">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T93">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W93">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z93">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB93">
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8819,7 +8819,7 @@
         <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H94">
         <v>4</v>
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6156850</v>
+        <v>6156849</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,73 +8905,73 @@
         <v>45062.89583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95">
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K95">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="L95">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M95">
         <v>2.5</v>
       </c>
       <c r="N95">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O95">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="P95">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S95">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T95">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U95">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V95">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB95">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6156849</v>
+        <v>6156850</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,73 +8994,73 @@
         <v>45062.89583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I96">
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K96">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="L96">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M96">
         <v>2.5</v>
       </c>
       <c r="N96">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O96">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="P96">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
+        <v>2.025</v>
+      </c>
+      <c r="S96">
+        <v>1.775</v>
+      </c>
+      <c r="T96">
+        <v>2.5</v>
+      </c>
+      <c r="U96">
         <v>1.9</v>
       </c>
-      <c r="S96">
+      <c r="V96">
         <v>1.9</v>
       </c>
-      <c r="T96">
-        <v>1.75</v>
-      </c>
-      <c r="U96">
-        <v>1.8</v>
-      </c>
-      <c r="V96">
-        <v>2</v>
-      </c>
       <c r="W96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X96">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA96">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9261,7 +9261,7 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
         <v>35</v>
@@ -9353,7 +9353,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9528,7 +9528,7 @@
         <v>45068.79166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6156854</v>
+        <v>6155933</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,13 +9617,13 @@
         <v>45068.89583333334</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -9632,43 +9632,43 @@
         <v>45</v>
       </c>
       <c r="K103">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M103">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N103">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O103">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P103">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q103">
         <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S103">
         <v>1.95</v>
       </c>
       <c r="T103">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V103">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W103">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9677,16 +9677,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC103">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6155933</v>
+        <v>6156854</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,13 +9706,13 @@
         <v>45068.89583333334</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -9721,43 +9721,43 @@
         <v>45</v>
       </c>
       <c r="K104">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L104">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M104">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N104">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O104">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P104">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q104">
         <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S104">
         <v>1.95</v>
       </c>
       <c r="T104">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W104">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9766,16 +9766,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9887,7 +9887,7 @@
         <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9973,10 +9973,10 @@
         <v>45073.77083333334</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -10154,7 +10154,7 @@
         <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10952,7 +10952,7 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G118" t="s">
         <v>34</v>
@@ -11041,7 +11041,7 @@
         <v>45081.77083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
         <v>31</v>
@@ -11130,10 +11130,10 @@
         <v>45081.875</v>
       </c>
       <c r="F120" t="s">
+        <v>38</v>
+      </c>
+      <c r="G120" t="s">
         <v>39</v>
-      </c>
-      <c r="G120" t="s">
-        <v>38</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11397,10 +11397,10 @@
         <v>45094.77083333334</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11575,7 +11575,7 @@
         <v>45095.5625</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
         <v>30</v>
@@ -11667,7 +11667,7 @@
         <v>37</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6156877</v>
+        <v>6155941</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,73 +12109,73 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K131">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L131">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M131">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="N131">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O131">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P131">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q131">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T131">
         <v>2.25</v>
       </c>
       <c r="U131">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V131">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W131">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB131">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6155941</v>
+        <v>6156878</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,34 +12198,34 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G132" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K132">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L132">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M132">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N132">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O132">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P132">
         <v>2.9</v>
@@ -12237,37 +12237,37 @@
         <v>1.975</v>
       </c>
       <c r="S132">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T132">
+        <v>2.75</v>
+      </c>
+      <c r="U132">
+        <v>1.825</v>
+      </c>
+      <c r="V132">
+        <v>1.975</v>
+      </c>
+      <c r="W132">
+        <v>-1</v>
+      </c>
+      <c r="X132">
         <v>2.25</v>
       </c>
-      <c r="U132">
-        <v>2</v>
-      </c>
-      <c r="V132">
-        <v>1.8</v>
-      </c>
-      <c r="W132">
-        <v>-1</v>
-      </c>
-      <c r="X132">
-        <v>-1</v>
-      </c>
       <c r="Y132">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>0.7250000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB132">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6156878</v>
+        <v>6156877</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,49 +12287,49 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K133">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L133">
+        <v>3</v>
+      </c>
+      <c r="M133">
+        <v>2.45</v>
+      </c>
+      <c r="N133">
+        <v>1.909</v>
+      </c>
+      <c r="O133">
         <v>3.2</v>
       </c>
-      <c r="M133">
-        <v>3.4</v>
-      </c>
-      <c r="N133">
-        <v>2.15</v>
-      </c>
-      <c r="O133">
-        <v>3.25</v>
-      </c>
       <c r="P133">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S133">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
         <v>1.825</v>
@@ -12338,25 +12338,25 @@
         <v>1.975</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X133">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA133">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC133">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6156880</v>
+        <v>6156174</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,73 +12376,73 @@
         <v>45116.5625</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H134">
         <v>2</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K134">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="L134">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M134">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N134">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O134">
         <v>3.3</v>
       </c>
       <c r="P134">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q134">
         <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S134">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T134">
         <v>2.5</v>
       </c>
       <c r="U134">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V134">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X134">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA134">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC134">
         <v>-1</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6156174</v>
+        <v>6156880</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,73 +12465,73 @@
         <v>45116.5625</v>
       </c>
       <c r="F135" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H135">
         <v>2</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K135">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L135">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M135">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N135">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O135">
         <v>3.3</v>
       </c>
       <c r="P135">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q135">
         <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V135">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W135">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB135">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12557,7 +12557,7 @@
         <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -12646,7 +12646,7 @@
         <v>43</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12913,7 +12913,7 @@
         <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -12999,7 +12999,7 @@
         <v>45122.77083333334</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
         <v>42</v>
@@ -13269,7 +13269,7 @@
         <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6156888</v>
+        <v>6156886</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,34 +13444,34 @@
         <v>45129.5625</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K146">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L146">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M146">
         <v>3.2</v>
       </c>
       <c r="N146">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O146">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P146">
         <v>3.25</v>
@@ -13480,37 +13480,37 @@
         <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S146">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T146">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V146">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA146">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6156886</v>
+        <v>6156888</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,34 +13533,34 @@
         <v>45129.5625</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G147" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K147">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L147">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M147">
         <v>3.2</v>
       </c>
       <c r="N147">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O147">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P147">
         <v>3.25</v>
@@ -13569,37 +13569,37 @@
         <v>-0.25</v>
       </c>
       <c r="R147">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z147">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB147">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13622,10 +13622,10 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F148" t="s">
+        <v>32</v>
+      </c>
+      <c r="G148" t="s">
         <v>33</v>
-      </c>
-      <c r="G148" t="s">
-        <v>32</v>
       </c>
       <c r="H148">
         <v>4</v>
@@ -13978,7 +13978,7 @@
         <v>45131.79166666666</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G152" t="s">
         <v>43</v>
@@ -14070,7 +14070,7 @@
         <v>36</v>
       </c>
       <c r="G153" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14144,7 +14144,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6155945</v>
+        <v>6393620</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14156,73 +14156,73 @@
         <v>45136.5625</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H154">
         <v>2</v>
       </c>
       <c r="I154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K154">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L154">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M154">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N154">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="O154">
         <v>3.25</v>
       </c>
       <c r="P154">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q154">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R154">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S154">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T154">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U154">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V154">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X154">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA154">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB154">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6393620</v>
+        <v>6155945</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14245,73 +14245,73 @@
         <v>45136.5625</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G155" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H155">
         <v>2</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K155">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L155">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M155">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N155">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="O155">
         <v>3.25</v>
       </c>
       <c r="P155">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q155">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R155">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S155">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T155">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U155">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V155">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W155">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA155">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB155">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14334,7 +14334,7 @@
         <v>45136.89583333334</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G156" t="s">
         <v>41</v>
@@ -14515,7 +14515,7 @@
         <v>40</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14693,7 +14693,7 @@
         <v>37</v>
       </c>
       <c r="G160" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14868,7 +14868,7 @@
         <v>45142.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G162" t="s">
         <v>44</v>
@@ -14957,7 +14957,7 @@
         <v>45142.85416666666</v>
       </c>
       <c r="F163" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G163" t="s">
         <v>30</v>
@@ -15049,7 +15049,7 @@
         <v>35</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -15402,7 +15402,7 @@
         <v>45144.77083333334</v>
       </c>
       <c r="F168" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G168" t="s">
         <v>34</v>
@@ -15580,7 +15580,7 @@
         <v>45147.79166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G170" t="s">
         <v>29</v>
@@ -15850,7 +15850,7 @@
         <v>40</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -15939,7 +15939,7 @@
         <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -16028,7 +16028,7 @@
         <v>30</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -16559,7 +16559,7 @@
         <v>45158.5625</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G181" t="s">
         <v>35</v>
@@ -16651,7 +16651,7 @@
         <v>31</v>
       </c>
       <c r="G182" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -17093,7 +17093,7 @@
         <v>45165.66666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G187" t="s">
         <v>41</v>
@@ -17182,7 +17182,7 @@
         <v>45165.77083333334</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G188" t="s">
         <v>43</v>
@@ -17274,7 +17274,7 @@
         <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17363,7 +17363,7 @@
         <v>34</v>
       </c>
       <c r="G190" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -17538,10 +17538,10 @@
         <v>45171.79166666666</v>
       </c>
       <c r="F192" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G192" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17716,7 +17716,7 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F194" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G194" t="s">
         <v>44</v>
@@ -18072,7 +18072,7 @@
         <v>45177.52083333334</v>
       </c>
       <c r="F198" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G198" t="s">
         <v>29</v>
@@ -18342,7 +18342,7 @@
         <v>31</v>
       </c>
       <c r="G201" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18520,7 +18520,7 @@
         <v>35</v>
       </c>
       <c r="G203" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>36</v>
       </c>
       <c r="G205" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18873,7 +18873,7 @@
         <v>45183.75</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G207" t="s">
         <v>44</v>
@@ -18965,7 +18965,7 @@
         <v>29</v>
       </c>
       <c r="G208" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H208">
         <v>2</v>
@@ -19143,7 +19143,7 @@
         <v>43</v>
       </c>
       <c r="G210" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19229,7 +19229,7 @@
         <v>45192.52083333334</v>
       </c>
       <c r="F211" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G211" t="s">
         <v>40</v>
@@ -19306,7 +19306,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6156183</v>
+        <v>6155958</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19318,76 +19318,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F212" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G212" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212" t="s">
+        <v>46</v>
+      </c>
+      <c r="K212">
         <v>3</v>
-      </c>
-      <c r="I212">
-        <v>0</v>
-      </c>
-      <c r="J212" t="s">
-        <v>45</v>
-      </c>
-      <c r="K212">
-        <v>2.2</v>
       </c>
       <c r="L212">
         <v>3.2</v>
       </c>
       <c r="M212">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N212">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O212">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P212">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q212">
         <v>-0.25</v>
       </c>
       <c r="R212">
+        <v>1.825</v>
+      </c>
+      <c r="S212">
+        <v>1.975</v>
+      </c>
+      <c r="T212">
+        <v>2.5</v>
+      </c>
+      <c r="U212">
         <v>1.95</v>
       </c>
-      <c r="S212">
-        <v>1.85</v>
-      </c>
-      <c r="T212">
-        <v>2.25</v>
-      </c>
-      <c r="U212">
-        <v>1.8</v>
-      </c>
       <c r="V212">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W212">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB212">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19395,7 +19395,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6156929</v>
+        <v>6156183</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19407,13 +19407,13 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F213" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G213" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -19422,61 +19422,61 @@
         <v>45</v>
       </c>
       <c r="K213">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L213">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M213">
         <v>3</v>
       </c>
       <c r="N213">
+        <v>2.2</v>
+      </c>
+      <c r="O213">
+        <v>3.2</v>
+      </c>
+      <c r="P213">
+        <v>3</v>
+      </c>
+      <c r="Q213">
+        <v>-0.25</v>
+      </c>
+      <c r="R213">
+        <v>1.95</v>
+      </c>
+      <c r="S213">
+        <v>1.85</v>
+      </c>
+      <c r="T213">
+        <v>2.25</v>
+      </c>
+      <c r="U213">
         <v>1.8</v>
       </c>
-      <c r="O213">
-        <v>3.3</v>
-      </c>
-      <c r="P213">
-        <v>4</v>
-      </c>
-      <c r="Q213">
-        <v>-0.5</v>
-      </c>
-      <c r="R213">
-        <v>1.875</v>
-      </c>
-      <c r="S213">
-        <v>1.925</v>
-      </c>
-      <c r="T213">
-        <v>2.5</v>
-      </c>
-      <c r="U213">
-        <v>1.9</v>
-      </c>
       <c r="V213">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W213">
+        <v>1.2</v>
+      </c>
+      <c r="X213">
+        <v>-1</v>
+      </c>
+      <c r="Y213">
+        <v>-1</v>
+      </c>
+      <c r="Z213">
+        <v>0.95</v>
+      </c>
+      <c r="AA213">
+        <v>-1</v>
+      </c>
+      <c r="AB213">
         <v>0.8</v>
       </c>
-      <c r="X213">
-        <v>-1</v>
-      </c>
-      <c r="Y213">
-        <v>-1</v>
-      </c>
-      <c r="Z213">
-        <v>0.875</v>
-      </c>
-      <c r="AA213">
-        <v>-1</v>
-      </c>
-      <c r="AB213">
-        <v>-1</v>
-      </c>
       <c r="AC213">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19484,7 +19484,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6155958</v>
+        <v>6156929</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19496,76 +19496,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F214" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H214">
         <v>1</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K214">
+        <v>2.3</v>
+      </c>
+      <c r="L214">
+        <v>2.9</v>
+      </c>
+      <c r="M214">
         <v>3</v>
       </c>
-      <c r="L214">
-        <v>3.2</v>
-      </c>
-      <c r="M214">
-        <v>2.2</v>
-      </c>
       <c r="N214">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O214">
         <v>3.3</v>
       </c>
       <c r="P214">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q214">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R214">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S214">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T214">
         <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X214">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA214">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
         <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19585,7 +19585,7 @@
         <v>45195.79166666666</v>
       </c>
       <c r="F215" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G215" t="s">
         <v>41</v>
@@ -19677,7 +19677,7 @@
         <v>42</v>
       </c>
       <c r="G216" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -19766,7 +19766,7 @@
         <v>35</v>
       </c>
       <c r="G217" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H217">
         <v>1</v>
@@ -19852,7 +19852,7 @@
         <v>45199.72916666666</v>
       </c>
       <c r="F218" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G218" t="s">
         <v>29</v>
@@ -20211,7 +20211,7 @@
         <v>40</v>
       </c>
       <c r="G222" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -20285,7 +20285,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6156938</v>
+        <v>6156937</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20297,76 +20297,76 @@
         <v>45201.89583333334</v>
       </c>
       <c r="F223" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G223" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I223">
         <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K223">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L223">
+        <v>3.2</v>
+      </c>
+      <c r="M223">
+        <v>3.2</v>
+      </c>
+      <c r="N223">
+        <v>2.05</v>
+      </c>
+      <c r="O223">
+        <v>3.2</v>
+      </c>
+      <c r="P223">
         <v>3.5</v>
       </c>
-      <c r="M223">
-        <v>4</v>
-      </c>
-      <c r="N223">
-        <v>1.571</v>
-      </c>
-      <c r="O223">
-        <v>3.75</v>
-      </c>
-      <c r="P223">
-        <v>4.75</v>
-      </c>
       <c r="Q223">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R223">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S223">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T223">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U223">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V223">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA223">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC223">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20374,7 +20374,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6156937</v>
+        <v>6156938</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20386,76 +20386,76 @@
         <v>45201.89583333334</v>
       </c>
       <c r="F224" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G224" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H224">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I224">
         <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K224">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L224">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M224">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N224">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="O224">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P224">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q224">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R224">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S224">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T224">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U224">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V224">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W224">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z224">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB224">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20463,7 +20463,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6156940</v>
+        <v>6155961</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20475,76 +20475,76 @@
         <v>45207.72916666666</v>
       </c>
       <c r="F225" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G225" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H225">
         <v>0</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K225">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L225">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M225">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N225">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O225">
         <v>3.2</v>
       </c>
       <c r="P225">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q225">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R225">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S225">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T225">
         <v>2.5</v>
       </c>
       <c r="U225">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V225">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z225">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="AB225">
         <v>-1</v>
       </c>
       <c r="AC225">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20552,7 +20552,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6155961</v>
+        <v>6156940</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20564,76 +20564,76 @@
         <v>45207.72916666666</v>
       </c>
       <c r="F226" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G226" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H226">
         <v>0</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K226">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L226">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M226">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N226">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O226">
         <v>3.2</v>
       </c>
       <c r="P226">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q226">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R226">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S226">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T226">
         <v>2.5</v>
       </c>
       <c r="U226">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V226">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y226">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA226">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="AB226">
         <v>-1</v>
       </c>
       <c r="AC226">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20653,7 +20653,7 @@
         <v>45208.52083333334</v>
       </c>
       <c r="F227" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G227" t="s">
         <v>42</v>
@@ -20908,7 +20908,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6156943</v>
+        <v>6156939</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20920,76 +20920,76 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F230" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G230" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H230">
         <v>1</v>
       </c>
       <c r="I230">
+        <v>2</v>
+      </c>
+      <c r="J230" t="s">
+        <v>47</v>
+      </c>
+      <c r="K230">
+        <v>2.375</v>
+      </c>
+      <c r="L230">
+        <v>3.1</v>
+      </c>
+      <c r="M230">
+        <v>2.75</v>
+      </c>
+      <c r="N230">
+        <v>2.45</v>
+      </c>
+      <c r="O230">
+        <v>3.2</v>
+      </c>
+      <c r="P230">
+        <v>2.625</v>
+      </c>
+      <c r="Q230">
         <v>0</v>
       </c>
-      <c r="J230" t="s">
-        <v>45</v>
-      </c>
-      <c r="K230">
-        <v>2.1</v>
-      </c>
-      <c r="L230">
-        <v>3.2</v>
-      </c>
-      <c r="M230">
-        <v>3.1</v>
-      </c>
-      <c r="N230">
-        <v>1.909</v>
-      </c>
-      <c r="O230">
-        <v>3.4</v>
-      </c>
-      <c r="P230">
-        <v>3.4</v>
-      </c>
-      <c r="Q230">
-        <v>-0.5</v>
-      </c>
       <c r="R230">
+        <v>1.775</v>
+      </c>
+      <c r="S230">
+        <v>2.025</v>
+      </c>
+      <c r="T230">
+        <v>2.5</v>
+      </c>
+      <c r="U230">
+        <v>1.85</v>
+      </c>
+      <c r="V230">
         <v>1.95</v>
       </c>
-      <c r="S230">
-        <v>1.85</v>
-      </c>
-      <c r="T230">
-        <v>2.25</v>
-      </c>
-      <c r="U230">
-        <v>1.825</v>
-      </c>
-      <c r="V230">
-        <v>1.975</v>
-      </c>
       <c r="W230">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z230">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC230">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21086,7 +21086,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6156939</v>
+        <v>6156943</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21098,76 +21098,76 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F232" t="s">
+        <v>33</v>
+      </c>
+      <c r="G232" t="s">
         <v>39</v>
       </c>
-      <c r="G232" t="s">
-        <v>31</v>
-      </c>
       <c r="H232">
         <v>1</v>
       </c>
       <c r="I232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K232">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L232">
+        <v>3.2</v>
+      </c>
+      <c r="M232">
         <v>3.1</v>
       </c>
-      <c r="M232">
-        <v>2.75</v>
-      </c>
       <c r="N232">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O232">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P232">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="Q232">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R232">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S232">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T232">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U232">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V232">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W232">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA232">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB232">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC232">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21190,7 +21190,7 @@
         <v>34</v>
       </c>
       <c r="G233" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -21264,7 +21264,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7327856</v>
+        <v>7327838</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21276,76 +21276,76 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F234" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G234" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I234">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J234" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K234">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L234">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M234">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N234">
+        <v>2.1</v>
+      </c>
+      <c r="O234">
+        <v>3.3</v>
+      </c>
+      <c r="P234">
+        <v>3</v>
+      </c>
+      <c r="Q234">
+        <v>-0.25</v>
+      </c>
+      <c r="R234">
+        <v>1.9</v>
+      </c>
+      <c r="S234">
+        <v>1.9</v>
+      </c>
+      <c r="T234">
+        <v>3</v>
+      </c>
+      <c r="U234">
+        <v>2</v>
+      </c>
+      <c r="V234">
         <v>1.8</v>
       </c>
-      <c r="O234">
-        <v>3.4</v>
-      </c>
-      <c r="P234">
-        <v>3.75</v>
-      </c>
-      <c r="Q234">
+      <c r="W234">
+        <v>-1</v>
+      </c>
+      <c r="X234">
+        <v>2.3</v>
+      </c>
+      <c r="Y234">
+        <v>-1</v>
+      </c>
+      <c r="Z234">
         <v>-0.5</v>
       </c>
-      <c r="R234">
-        <v>1.85</v>
-      </c>
-      <c r="S234">
-        <v>1.95</v>
-      </c>
-      <c r="T234">
-        <v>2.25</v>
-      </c>
-      <c r="U234">
-        <v>1.75</v>
-      </c>
-      <c r="V234">
-        <v>1.95</v>
-      </c>
-      <c r="W234">
-        <v>-1</v>
-      </c>
-      <c r="X234">
-        <v>-1</v>
-      </c>
-      <c r="Y234">
-        <v>2.75</v>
-      </c>
-      <c r="Z234">
-        <v>-1</v>
-      </c>
       <c r="AA234">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC234">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7327838</v>
+        <v>7327856</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,76 +21365,76 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F235" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G235" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H235">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J235" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K235">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L235">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M235">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N235">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O235">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P235">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q235">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R235">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S235">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T235">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U235">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V235">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W235">
         <v>-1</v>
       </c>
       <c r="X235">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z235">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB235">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC235">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7327843</v>
+        <v>7327840</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,55 +21543,55 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F237" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G237" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J237" t="s">
         <v>47</v>
       </c>
       <c r="K237">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L237">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M237">
         <v>4</v>
       </c>
       <c r="N237">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O237">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P237">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q237">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R237">
+        <v>1.725</v>
+      </c>
+      <c r="S237">
         <v>1.975</v>
-      </c>
-      <c r="S237">
-        <v>1.825</v>
       </c>
       <c r="T237">
         <v>2.5</v>
       </c>
       <c r="U237">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V237">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W237">
         <v>-1</v>
@@ -21600,19 +21600,19 @@
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB237">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7327840</v>
+        <v>7327841</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,43 +21632,43 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F238" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G238" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J238" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K238">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L238">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M238">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N238">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O238">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P238">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q238">
         <v>-0.25</v>
       </c>
       <c r="R238">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S238">
         <v>1.975</v>
@@ -21677,31 +21677,31 @@
         <v>2.5</v>
       </c>
       <c r="U238">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V238">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA238">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC238">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7327842</v>
+        <v>7327843</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,73 +21721,73 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F239" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G239" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H239">
         <v>2</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J239" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K239">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L239">
+        <v>3.6</v>
+      </c>
+      <c r="M239">
         <v>4</v>
       </c>
-      <c r="M239">
-        <v>5</v>
-      </c>
       <c r="N239">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O239">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P239">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q239">
         <v>-0.75</v>
       </c>
       <c r="R239">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S239">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T239">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U239">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V239">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W239">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z239">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB239">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC239">
         <v>-1</v>
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7327841</v>
+        <v>7327842</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,58 +21810,58 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F240" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G240" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H240">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
         <v>45</v>
       </c>
       <c r="K240">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L240">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M240">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N240">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O240">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P240">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q240">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R240">
+        <v>1.9</v>
+      </c>
+      <c r="S240">
+        <v>1.9</v>
+      </c>
+      <c r="T240">
+        <v>2.25</v>
+      </c>
+      <c r="U240">
         <v>1.825</v>
       </c>
-      <c r="S240">
+      <c r="V240">
         <v>1.975</v>
       </c>
-      <c r="T240">
-        <v>2.5</v>
-      </c>
-      <c r="U240">
-        <v>1.925</v>
-      </c>
-      <c r="V240">
-        <v>1.875</v>
-      </c>
       <c r="W240">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21870,13 +21870,13 @@
         <v>-1</v>
       </c>
       <c r="Z240">
+        <v>0.45</v>
+      </c>
+      <c r="AA240">
+        <v>-0.5</v>
+      </c>
+      <c r="AB240">
         <v>0.825</v>
-      </c>
-      <c r="AA240">
-        <v>-1</v>
-      </c>
-      <c r="AB240">
-        <v>0.925</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21902,7 +21902,7 @@
         <v>37</v>
       </c>
       <c r="G241" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -22080,7 +22080,7 @@
         <v>35</v>
       </c>
       <c r="G243" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H243">
         <v>2</v>
@@ -22255,7 +22255,7 @@
         <v>45244.85416666666</v>
       </c>
       <c r="F245" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G245" t="s">
         <v>37</v>
@@ -22344,7 +22344,7 @@
         <v>45245.79166666666</v>
       </c>
       <c r="F246" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G246" t="s">
         <v>35</v>
@@ -22421,7 +22421,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7487575</v>
+        <v>7487574</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22433,49 +22433,49 @@
         <v>45249.75</v>
       </c>
       <c r="F247" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G247" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H247">
         <v>2</v>
       </c>
       <c r="I247">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J247" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K247">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L247">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M247">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N247">
         <v>1.95</v>
       </c>
       <c r="O247">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P247">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q247">
         <v>-0.5</v>
       </c>
       <c r="R247">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S247">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T247">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U247">
         <v>1.975</v>
@@ -22487,16 +22487,16 @@
         <v>-1</v>
       </c>
       <c r="X247">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z247">
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB247">
         <v>0.9750000000000001</v>
@@ -22510,7 +22510,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7487574</v>
+        <v>7487575</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22522,49 +22522,49 @@
         <v>45249.75</v>
       </c>
       <c r="F248" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G248" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H248">
         <v>2</v>
       </c>
       <c r="I248">
+        <v>2</v>
+      </c>
+      <c r="J248" t="s">
+        <v>46</v>
+      </c>
+      <c r="K248">
+        <v>2.1</v>
+      </c>
+      <c r="L248">
+        <v>3.5</v>
+      </c>
+      <c r="M248">
         <v>3</v>
-      </c>
-      <c r="J248" t="s">
-        <v>47</v>
-      </c>
-      <c r="K248">
-        <v>2</v>
-      </c>
-      <c r="L248">
-        <v>3.2</v>
-      </c>
-      <c r="M248">
-        <v>3.4</v>
       </c>
       <c r="N248">
         <v>1.95</v>
       </c>
       <c r="O248">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P248">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q248">
         <v>-0.5</v>
       </c>
       <c r="R248">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S248">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T248">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U248">
         <v>1.975</v>
@@ -22576,16 +22576,16 @@
         <v>-1</v>
       </c>
       <c r="X248">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y248">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
         <v>-1</v>
       </c>
       <c r="AA248">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB248">
         <v>0.9750000000000001</v>
@@ -22599,7 +22599,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7503210</v>
+        <v>7503209</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22611,13 +22611,13 @@
         <v>45256.75</v>
       </c>
       <c r="F249" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G249" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I249">
         <v>0</v>
@@ -22629,37 +22629,37 @@
         <v>2.2</v>
       </c>
       <c r="L249">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M249">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N249">
         <v>2.15</v>
       </c>
       <c r="O249">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P249">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q249">
         <v>-0.25</v>
       </c>
       <c r="R249">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S249">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T249">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U249">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V249">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W249">
         <v>1.15</v>
@@ -22671,16 +22671,16 @@
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA249">
         <v>-1</v>
       </c>
       <c r="AB249">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC249">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22688,7 +22688,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7503209</v>
+        <v>7503210</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22700,13 +22700,13 @@
         <v>45256.75</v>
       </c>
       <c r="F250" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G250" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H250">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I250">
         <v>0</v>
@@ -22718,37 +22718,37 @@
         <v>2.2</v>
       </c>
       <c r="L250">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M250">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N250">
         <v>2.15</v>
       </c>
       <c r="O250">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P250">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q250">
         <v>-0.25</v>
       </c>
       <c r="R250">
+        <v>1.925</v>
+      </c>
+      <c r="S250">
+        <v>1.875</v>
+      </c>
+      <c r="T250">
+        <v>2.5</v>
+      </c>
+      <c r="U250">
         <v>1.975</v>
       </c>
-      <c r="S250">
+      <c r="V250">
         <v>1.825</v>
-      </c>
-      <c r="T250">
-        <v>2.75</v>
-      </c>
-      <c r="U250">
-        <v>1.85</v>
-      </c>
-      <c r="V250">
-        <v>1.95</v>
       </c>
       <c r="W250">
         <v>1.15</v>
@@ -22760,16 +22760,16 @@
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA250">
         <v>-1</v>
       </c>
       <c r="AB250">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC250">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22789,7 +22789,7 @@
         <v>45264.79166666666</v>
       </c>
       <c r="F251" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G251" t="s">
         <v>31</v>
@@ -22881,7 +22881,7 @@
         <v>31</v>
       </c>
       <c r="G252" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H252">
         <v>6</v>

--- a/Chile Primera B/Chile Primera B.xlsx
+++ b/Chile Primera B/Chile Primera B.xlsx
@@ -106,16 +106,16 @@
     <t>Cobreloa</t>
   </si>
   <si>
+    <t>Deportes Iquique</t>
+  </si>
+  <si>
     <t>Puerto Montt</t>
   </si>
   <si>
-    <t>Deportes Iquique</t>
+    <t>Santiago Wanderers</t>
   </si>
   <si>
     <t>Deportes Recoleta</t>
-  </si>
-  <si>
-    <t>Santiago Wanderers</t>
   </si>
   <si>
     <t>Santiago Morning</t>
@@ -130,10 +130,10 @@
     <t>La Serena</t>
   </si>
   <si>
-    <t>Club Deportes Santa Cruz</t>
+    <t>Deportes Temuco</t>
   </si>
   <si>
-    <t>Deportes Temuco</t>
+    <t>Club Deportes Santa Cruz</t>
   </si>
   <si>
     <t>Barnechea</t>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6155912</v>
+        <v>6156160</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,73 +720,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L3">
         <v>3</v>
       </c>
       <c r="M3">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N3">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="O3">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P3">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S3">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V3">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X3">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA3">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC3">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6156160</v>
+        <v>6155912</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,73 +809,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
       <c r="M4">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N4">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P4">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S4">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V4">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W4">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6156793</v>
+        <v>6260666</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,37 +898,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M5">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N5">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P5">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
         <v>1.875</v>
@@ -940,19 +940,19 @@
         <v>2</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y5">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
         <v>-1</v>
@@ -964,7 +964,7 @@
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6260666</v>
+        <v>6156793</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,37 +987,37 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6">
+        <v>2.75</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>2.4</v>
+      </c>
+      <c r="N6">
+        <v>2.5</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>2.6</v>
+      </c>
+      <c r="Q6">
         <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6">
-        <v>1.8</v>
-      </c>
-      <c r="L6">
-        <v>3.25</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6">
-        <v>1.8</v>
-      </c>
-      <c r="O6">
-        <v>3.3</v>
-      </c>
-      <c r="P6">
-        <v>3.8</v>
-      </c>
-      <c r="Q6">
-        <v>-0.5</v>
       </c>
       <c r="R6">
         <v>1.875</v>
@@ -1029,19 +1029,19 @@
         <v>2</v>
       </c>
       <c r="U6">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z6">
         <v>-1</v>
@@ -1053,7 +1053,7 @@
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1343,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6156801</v>
+        <v>6156800</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,73 +1432,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>46</v>
       </c>
       <c r="K11">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L11">
         <v>3</v>
       </c>
       <c r="M11">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N11">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="O11">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P11">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R11">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S11">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T11">
         <v>2.25</v>
       </c>
       <c r="U11">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V11">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
+        <v>-1</v>
+      </c>
+      <c r="AA11">
+        <v>0.95</v>
+      </c>
+      <c r="AB11">
         <v>-0.5</v>
       </c>
-      <c r="AA11">
-        <v>0.4375</v>
-      </c>
-      <c r="AB11">
-        <v>0.925</v>
-      </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6156800</v>
+        <v>6156801</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,73 +1521,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>46</v>
       </c>
       <c r="K12">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L12">
         <v>3</v>
       </c>
       <c r="M12">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N12">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P12">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S12">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AB12">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC12">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1788,7 +1788,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6155916</v>
+        <v>6156803</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,58 +1963,58 @@
         <v>44983.5</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H17">
         <v>3</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>45</v>
       </c>
       <c r="K17">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L17">
         <v>3.2</v>
       </c>
       <c r="M17">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N17">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P17">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q17">
         <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T17">
         <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W17">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2023,13 +2023,13 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6156803</v>
+        <v>6155916</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,58 +2052,58 @@
         <v>44983.5</v>
       </c>
       <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
         <v>31</v>
-      </c>
-      <c r="G18" t="s">
-        <v>41</v>
       </c>
       <c r="H18">
         <v>3</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>45</v>
       </c>
       <c r="K18">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L18">
         <v>3.2</v>
       </c>
       <c r="M18">
+        <v>2.75</v>
+      </c>
+      <c r="N18">
+        <v>2.15</v>
+      </c>
+      <c r="O18">
+        <v>3.2</v>
+      </c>
+      <c r="P18">
         <v>3</v>
-      </c>
-      <c r="N18">
-        <v>2</v>
-      </c>
-      <c r="O18">
-        <v>3.25</v>
-      </c>
-      <c r="P18">
-        <v>3.4</v>
       </c>
       <c r="Q18">
         <v>-0.25</v>
       </c>
       <c r="R18">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T18">
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2112,13 +2112,13 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2230,7 +2230,7 @@
         <v>44984.75</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
         <v>37</v>
@@ -2408,7 +2408,7 @@
         <v>44985.75</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>43</v>
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6156809</v>
+        <v>6156808</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,46 +2497,46 @@
         <v>44989.5</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L23">
         <v>3</v>
       </c>
       <c r="M23">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N23">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P23">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S23">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
         <v>2.25</v>
@@ -2551,16 +2551,16 @@
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB23">
         <v>-0.5</v>
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6156808</v>
+        <v>6156809</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,46 +2586,46 @@
         <v>44989.5</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L24">
         <v>3</v>
       </c>
       <c r="M24">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N24">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S24">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T24">
         <v>2.25</v>
@@ -2640,16 +2640,16 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y24">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB24">
         <v>-0.5</v>
@@ -2678,7 +2678,7 @@
         <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6156811</v>
+        <v>6156807</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,10 +2853,10 @@
         <v>44991.75</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2868,61 +2868,61 @@
         <v>46</v>
       </c>
       <c r="K27">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L27">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M27">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N27">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="O27">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P27">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T27">
         <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6156807</v>
+        <v>6156811</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,10 +2942,10 @@
         <v>44991.75</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2957,61 +2957,61 @@
         <v>46</v>
       </c>
       <c r="K28">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L28">
+        <v>3.3</v>
+      </c>
+      <c r="M28">
+        <v>4.75</v>
+      </c>
+      <c r="N28">
+        <v>1.75</v>
+      </c>
+      <c r="O28">
         <v>3.2</v>
       </c>
-      <c r="M28">
-        <v>2.6</v>
-      </c>
-      <c r="N28">
-        <v>2.6</v>
-      </c>
-      <c r="O28">
-        <v>3</v>
-      </c>
       <c r="P28">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T28">
         <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V28">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6156812</v>
+        <v>6155917</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,76 +3031,76 @@
         <v>44991.85416666666</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L29">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M29">
+        <v>2.8</v>
+      </c>
+      <c r="N29">
+        <v>1.95</v>
+      </c>
+      <c r="O29">
         <v>3.1</v>
       </c>
-      <c r="N29">
-        <v>2.55</v>
-      </c>
-      <c r="O29">
-        <v>2.875</v>
-      </c>
       <c r="P29">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>1.8</v>
+      </c>
+      <c r="T29">
+        <v>2</v>
+      </c>
+      <c r="U29">
         <v>1.775</v>
       </c>
-      <c r="S29">
+      <c r="V29">
         <v>2.025</v>
       </c>
-      <c r="T29">
-        <v>2</v>
-      </c>
-      <c r="U29">
-        <v>1.925</v>
-      </c>
-      <c r="V29">
-        <v>1.875</v>
-      </c>
       <c r="W29">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6155917</v>
+        <v>6156812</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,76 +3120,76 @@
         <v>44991.85416666666</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M30">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N30">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O30">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P30">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q30">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S30">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T30">
         <v>2</v>
       </c>
       <c r="U30">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X30">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3209,7 +3209,7 @@
         <v>44995.75</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -3298,7 +3298,7 @@
         <v>44996.75</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
         <v>37</v>
@@ -3476,10 +3476,10 @@
         <v>44997.89583333334</v>
       </c>
       <c r="F34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s">
         <v>31</v>
-      </c>
-      <c r="G34" t="s">
-        <v>30</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3743,7 +3743,7 @@
         <v>44999.85416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -3835,7 +3835,7 @@
         <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -4013,7 +4013,7 @@
         <v>44</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -4102,7 +4102,7 @@
         <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6156818</v>
+        <v>6156822</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>45005.75</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K42">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L42">
         <v>3</v>
       </c>
       <c r="M42">
+        <v>3.1</v>
+      </c>
+      <c r="N42">
+        <v>2.15</v>
+      </c>
+      <c r="O42">
         <v>2.9</v>
       </c>
-      <c r="N42">
-        <v>2.3</v>
-      </c>
-      <c r="O42">
-        <v>3</v>
-      </c>
       <c r="P42">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q42">
         <v>-0.25</v>
       </c>
       <c r="R42">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
         <v>2.25</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB42">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC42">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4265,7 +4265,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6156822</v>
+        <v>6156818</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4277,76 +4277,76 @@
         <v>45005.75</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K43">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L43">
         <v>3</v>
       </c>
       <c r="M43">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N43">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O43">
+        <v>3</v>
+      </c>
+      <c r="P43">
         <v>2.9</v>
-      </c>
-      <c r="P43">
-        <v>3.3</v>
       </c>
       <c r="Q43">
         <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S43">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T43">
         <v>2.25</v>
       </c>
       <c r="U43">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V43">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y43">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA43">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB43">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4366,10 +4366,10 @@
         <v>45005.85416666666</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4544,7 +4544,7 @@
         <v>45006.75</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -4633,10 +4633,10 @@
         <v>45010.75</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4722,7 +4722,7 @@
         <v>45011.5</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
         <v>35</v>
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6156165</v>
+        <v>6156826</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,58 +4811,58 @@
         <v>45011.75</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H49">
         <v>3</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
         <v>45</v>
       </c>
       <c r="K49">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L49">
         <v>3.2</v>
       </c>
       <c r="M49">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="N49">
+        <v>1.909</v>
+      </c>
+      <c r="O49">
+        <v>3.25</v>
+      </c>
+      <c r="P49">
+        <v>3.75</v>
+      </c>
+      <c r="Q49">
+        <v>-0.5</v>
+      </c>
+      <c r="R49">
+        <v>1.925</v>
+      </c>
+      <c r="S49">
+        <v>1.875</v>
+      </c>
+      <c r="T49">
         <v>2.25</v>
       </c>
-      <c r="O49">
-        <v>3</v>
-      </c>
-      <c r="P49">
-        <v>3</v>
-      </c>
-      <c r="Q49">
-        <v>-0.25</v>
-      </c>
-      <c r="R49">
-        <v>1.975</v>
-      </c>
-      <c r="S49">
-        <v>1.825</v>
-      </c>
-      <c r="T49">
-        <v>2</v>
-      </c>
       <c r="U49">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V49">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W49">
-        <v>1.25</v>
+        <v>0.909</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4871,13 +4871,13 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6156826</v>
+        <v>6156165</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,58 +4900,58 @@
         <v>45011.75</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H50">
         <v>3</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>45</v>
       </c>
       <c r="K50">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L50">
         <v>3.2</v>
       </c>
       <c r="M50">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="N50">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O50">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P50">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S50">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W50">
-        <v>0.909</v>
+        <v>1.25</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4960,13 +4960,13 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4992,7 +4992,7 @@
         <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5078,7 +5078,7 @@
         <v>45011.85416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
         <v>34</v>
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6156827</v>
+        <v>6156823</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,56 +5167,56 @@
         <v>45012.75</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
         <v>45</v>
       </c>
       <c r="K53">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>3.4</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <v>3.1</v>
+      </c>
+      <c r="P53">
         <v>3.5</v>
-      </c>
-      <c r="M53">
-        <v>5</v>
-      </c>
-      <c r="N53">
-        <v>2</v>
-      </c>
-      <c r="O53">
-        <v>3.2</v>
-      </c>
-      <c r="P53">
-        <v>3.4</v>
       </c>
       <c r="Q53">
         <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S53">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U53">
+        <v>1.85</v>
+      </c>
+      <c r="V53">
         <v>1.95</v>
       </c>
-      <c r="V53">
-        <v>1.85</v>
-      </c>
       <c r="W53">
         <v>1</v>
       </c>
@@ -5227,16 +5227,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.7250000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6156823</v>
+        <v>6156827</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,56 +5256,56 @@
         <v>45012.75</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
         <v>45</v>
       </c>
       <c r="K54">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M54">
+        <v>5</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <v>3.2</v>
+      </c>
+      <c r="P54">
         <v>3.4</v>
-      </c>
-      <c r="N54">
-        <v>2</v>
-      </c>
-      <c r="O54">
-        <v>3.1</v>
-      </c>
-      <c r="P54">
-        <v>3.5</v>
       </c>
       <c r="Q54">
         <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S54">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T54">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
+        <v>1.95</v>
+      </c>
+      <c r="V54">
         <v>1.85</v>
       </c>
-      <c r="V54">
-        <v>1.95</v>
-      </c>
       <c r="W54">
         <v>1</v>
       </c>
@@ -5316,16 +5316,16 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.7749999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
+        <v>-1</v>
+      </c>
+      <c r="AC54">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC54">
-        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5523,10 +5523,10 @@
         <v>45030.5625</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5612,7 +5612,7 @@
         <v>45031.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
         <v>41</v>
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6156166</v>
+        <v>6156830</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,58 +5701,58 @@
         <v>45031.79166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
         <v>45</v>
       </c>
       <c r="K59">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L59">
+        <v>3.2</v>
+      </c>
+      <c r="M59">
         <v>3</v>
       </c>
-      <c r="M59">
-        <v>3.75</v>
-      </c>
       <c r="N59">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O59">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P59">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q59">
         <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S59">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V59">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W59">
-        <v>1</v>
+        <v>0.909</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5761,16 +5761,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC59">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6156830</v>
+        <v>6156166</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,58 +5790,58 @@
         <v>45031.79166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>45</v>
       </c>
       <c r="K60">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L60">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M60">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N60">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O60">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P60">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q60">
         <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S60">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T60">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W60">
-        <v>0.909</v>
+        <v>1</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5850,16 +5850,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5879,7 +5879,7 @@
         <v>45032.79166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
         <v>42</v>
@@ -5971,7 +5971,7 @@
         <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6238,7 +6238,7 @@
         <v>41</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6502,7 +6502,7 @@
         <v>45038.72916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
         <v>37</v>
@@ -6591,7 +6591,7 @@
         <v>45039.5625</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
         <v>34</v>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6156834</v>
+        <v>6156833</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6683,7 +6683,7 @@
         <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6695,61 +6695,61 @@
         <v>46</v>
       </c>
       <c r="K70">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="L70">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M70">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N70">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O70">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P70">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S70">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T70">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V70">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
+        <v>-1</v>
+      </c>
+      <c r="AA70">
+        <v>1</v>
+      </c>
+      <c r="AB70">
         <v>-0.5</v>
       </c>
-      <c r="AA70">
-        <v>0.4875</v>
-      </c>
-      <c r="AB70">
-        <v>0</v>
-      </c>
       <c r="AC70">
-        <v>-0</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6156833</v>
+        <v>6156834</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6772,7 +6772,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6784,61 +6784,61 @@
         <v>46</v>
       </c>
       <c r="K71">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="L71">
+        <v>3.2</v>
+      </c>
+      <c r="M71">
+        <v>2.75</v>
+      </c>
+      <c r="N71">
+        <v>1.95</v>
+      </c>
+      <c r="O71">
+        <v>3.1</v>
+      </c>
+      <c r="P71">
         <v>3.5</v>
       </c>
-      <c r="M71">
-        <v>5</v>
-      </c>
-      <c r="N71">
-        <v>1.75</v>
-      </c>
-      <c r="O71">
-        <v>3.5</v>
-      </c>
-      <c r="P71">
-        <v>4</v>
-      </c>
       <c r="Q71">
+        <v>-0.25</v>
+      </c>
+      <c r="R71">
+        <v>1.725</v>
+      </c>
+      <c r="S71">
+        <v>1.975</v>
+      </c>
+      <c r="T71">
+        <v>2</v>
+      </c>
+      <c r="U71">
+        <v>1.85</v>
+      </c>
+      <c r="V71">
+        <v>1.95</v>
+      </c>
+      <c r="W71">
+        <v>-1</v>
+      </c>
+      <c r="X71">
+        <v>2.1</v>
+      </c>
+      <c r="Y71">
+        <v>-1</v>
+      </c>
+      <c r="Z71">
         <v>-0.5</v>
       </c>
-      <c r="R71">
-        <v>1.8</v>
-      </c>
-      <c r="S71">
-        <v>2</v>
-      </c>
-      <c r="T71">
-        <v>2.25</v>
-      </c>
-      <c r="U71">
-        <v>1.925</v>
-      </c>
-      <c r="V71">
-        <v>1.875</v>
-      </c>
-      <c r="W71">
-        <v>-1</v>
-      </c>
-      <c r="X71">
-        <v>2.5</v>
-      </c>
-      <c r="Y71">
-        <v>-1</v>
-      </c>
-      <c r="Z71">
-        <v>-1</v>
-      </c>
       <c r="AA71">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB71">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC71">
-        <v>0.4375</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6861,7 +6861,7 @@
         <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6947,10 +6947,10 @@
         <v>45044.66666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7039,7 +7039,7 @@
         <v>44</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H74">
         <v>6</v>
@@ -7125,7 +7125,7 @@
         <v>45046.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
         <v>42</v>
@@ -7214,7 +7214,7 @@
         <v>45046.6875</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
         <v>34</v>
@@ -7484,7 +7484,7 @@
         <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7659,7 +7659,7 @@
         <v>45055.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
         <v>34</v>
@@ -7748,7 +7748,7 @@
         <v>45056.6875</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>36</v>
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6156844</v>
+        <v>6156169</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,73 +7926,73 @@
         <v>45057.79166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K84">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L84">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M84">
+        <v>2.3</v>
+      </c>
+      <c r="N84">
+        <v>2.375</v>
+      </c>
+      <c r="O84">
         <v>3</v>
       </c>
-      <c r="N84">
-        <v>2.1</v>
-      </c>
-      <c r="O84">
-        <v>3.25</v>
-      </c>
       <c r="P84">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R84">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S84">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T84">
         <v>2.25</v>
       </c>
       <c r="U84">
+        <v>2</v>
+      </c>
+      <c r="V84">
         <v>1.8</v>
       </c>
-      <c r="V84">
-        <v>2</v>
-      </c>
       <c r="W84">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB84">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6156848</v>
+        <v>6156844</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,58 +8015,58 @@
         <v>45057.79166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>45</v>
       </c>
       <c r="K85">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L85">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O85">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P85">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q85">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W85">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8075,13 +8075,13 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8107,7 +8107,7 @@
         <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H86">
         <v>3</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6156169</v>
+        <v>6156848</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,73 +8193,73 @@
         <v>45057.79166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K87">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L87">
         <v>3.2</v>
       </c>
       <c r="M87">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N87">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O87">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P87">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S87">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T87">
         <v>2.25</v>
       </c>
       <c r="U87">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V87">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA87">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8282,7 +8282,7 @@
         <v>45058.875</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G88" t="s">
         <v>35</v>
@@ -8374,7 +8374,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8549,7 +8549,7 @@
         <v>45061.83333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
         <v>43</v>
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6156851</v>
+        <v>6156170</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,76 +8638,76 @@
         <v>45062.6875</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G92" t="s">
         <v>32</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K92">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L92">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M92">
         <v>3.75</v>
       </c>
       <c r="N92">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O92">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P92">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q92">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R92">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T92">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V92">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W92">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z92">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB92">
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6156170</v>
+        <v>6156851</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45062.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
         <v>33</v>
       </c>
       <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
         <v>0</v>
       </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K93">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="L93">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M93">
         <v>3.75</v>
       </c>
       <c r="N93">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O93">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P93">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R93">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S93">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T93">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U93">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA93">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8819,7 +8819,7 @@
         <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H94">
         <v>4</v>
@@ -8994,7 +8994,7 @@
         <v>45062.89583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
         <v>37</v>
@@ -9172,7 +9172,7 @@
         <v>45067.5625</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G98" t="s">
         <v>44</v>
@@ -9261,7 +9261,7 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
         <v>35</v>
@@ -9353,7 +9353,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9442,7 +9442,7 @@
         <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9528,7 +9528,7 @@
         <v>45068.79166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -9706,7 +9706,7 @@
         <v>45068.89583333334</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
         <v>36</v>
@@ -9798,7 +9798,7 @@
         <v>40</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -9887,7 +9887,7 @@
         <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9973,10 +9973,10 @@
         <v>45073.77083333334</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -10151,10 +10151,10 @@
         <v>45074.5625</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10596,7 +10596,7 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
         <v>35</v>
@@ -10952,7 +10952,7 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G118" t="s">
         <v>34</v>
@@ -11041,10 +11041,10 @@
         <v>45081.77083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11130,10 +11130,10 @@
         <v>45081.875</v>
       </c>
       <c r="F120" t="s">
+        <v>39</v>
+      </c>
+      <c r="G120" t="s">
         <v>38</v>
-      </c>
-      <c r="G120" t="s">
-        <v>39</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11222,7 +11222,7 @@
         <v>43</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11397,10 +11397,10 @@
         <v>45094.77083333334</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11575,10 +11575,10 @@
         <v>45095.5625</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11667,7 +11667,7 @@
         <v>37</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11756,7 +11756,7 @@
         <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12020,7 +12020,7 @@
         <v>45114.89583333334</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
         <v>36</v>
@@ -12109,7 +12109,7 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
         <v>43</v>
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6156878</v>
+        <v>6156877</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,49 +12198,49 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G132" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K132">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L132">
+        <v>3</v>
+      </c>
+      <c r="M132">
+        <v>2.45</v>
+      </c>
+      <c r="N132">
+        <v>1.909</v>
+      </c>
+      <c r="O132">
         <v>3.2</v>
       </c>
-      <c r="M132">
-        <v>3.4</v>
-      </c>
-      <c r="N132">
-        <v>2.15</v>
-      </c>
-      <c r="O132">
-        <v>3.25</v>
-      </c>
       <c r="P132">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S132">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U132">
         <v>1.825</v>
@@ -12249,25 +12249,25 @@
         <v>1.975</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X132">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA132">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC132">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6156877</v>
+        <v>6156878</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,49 +12287,49 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K133">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L133">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M133">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="N133">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O133">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P133">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S133">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
         <v>1.825</v>
@@ -12338,25 +12338,25 @@
         <v>1.975</v>
       </c>
       <c r="W133">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB133">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12465,10 +12465,10 @@
         <v>45116.5625</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12557,7 +12557,7 @@
         <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6156883</v>
+        <v>6156881</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,76 +12643,76 @@
         <v>45121.85416666666</v>
       </c>
       <c r="F137" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K137">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L137">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M137">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N137">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O137">
         <v>3.2</v>
       </c>
       <c r="P137">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S137">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T137">
         <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V137">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6156881</v>
+        <v>6156883</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,76 +12732,76 @@
         <v>45121.85416666666</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G138" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K138">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L138">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M138">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N138">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O138">
         <v>3.2</v>
       </c>
       <c r="P138">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R138">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S138">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T138">
         <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V138">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y138">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6156882</v>
+        <v>6155942</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,76 +12821,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K139">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L139">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M139">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="N139">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O139">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P139">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S139">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="T139">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U139">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V139">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0.425</v>
+        <v>0.7</v>
       </c>
       <c r="AB139">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC139">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6155942</v>
+        <v>6156882</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,76 +12910,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K140">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="L140">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M140">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N140">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O140">
+        <v>3.1</v>
+      </c>
+      <c r="P140">
         <v>3</v>
       </c>
-      <c r="P140">
-        <v>2.45</v>
-      </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S140">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="T140">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V140">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y140">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA140">
-        <v>0.7</v>
+        <v>0.425</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC140">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12999,7 +12999,7 @@
         <v>45122.77083333334</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s">
         <v>42</v>
@@ -13269,7 +13269,7 @@
         <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13355,7 +13355,7 @@
         <v>45128.89583333334</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
         <v>40</v>
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6156886</v>
+        <v>6156888</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,34 +13444,34 @@
         <v>45129.5625</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K146">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L146">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M146">
         <v>3.2</v>
       </c>
       <c r="N146">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O146">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P146">
         <v>3.25</v>
@@ -13480,37 +13480,37 @@
         <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S146">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T146">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U146">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V146">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W146">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z146">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB146">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6156888</v>
+        <v>6156886</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,34 +13533,34 @@
         <v>45129.5625</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K147">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L147">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M147">
         <v>3.2</v>
       </c>
       <c r="N147">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O147">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P147">
         <v>3.25</v>
@@ -13569,37 +13569,37 @@
         <v>-0.25</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S147">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T147">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA147">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13622,10 +13622,10 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F148" t="s">
+        <v>33</v>
+      </c>
+      <c r="G148" t="s">
         <v>32</v>
-      </c>
-      <c r="G148" t="s">
-        <v>33</v>
       </c>
       <c r="H148">
         <v>4</v>
@@ -13714,7 +13714,7 @@
         <v>29</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13978,7 +13978,7 @@
         <v>45131.79166666666</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
         <v>43</v>
@@ -14070,7 +14070,7 @@
         <v>36</v>
       </c>
       <c r="G153" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14245,10 +14245,10 @@
         <v>45136.5625</v>
       </c>
       <c r="F155" t="s">
+        <v>31</v>
+      </c>
+      <c r="G155" t="s">
         <v>30</v>
-      </c>
-      <c r="G155" t="s">
-        <v>31</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14334,7 +14334,7 @@
         <v>45136.89583333334</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G156" t="s">
         <v>41</v>
@@ -14515,7 +14515,7 @@
         <v>40</v>
       </c>
       <c r="G158" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14693,7 +14693,7 @@
         <v>37</v>
       </c>
       <c r="G160" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14868,7 +14868,7 @@
         <v>45142.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G162" t="s">
         <v>44</v>
@@ -14957,10 +14957,10 @@
         <v>45142.85416666666</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15049,7 +15049,7 @@
         <v>35</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -15313,7 +15313,7 @@
         <v>45144.5625</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
         <v>43</v>
@@ -15402,7 +15402,7 @@
         <v>45144.77083333334</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G168" t="s">
         <v>34</v>
@@ -15580,7 +15580,7 @@
         <v>45147.79166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G170" t="s">
         <v>29</v>
@@ -15850,7 +15850,7 @@
         <v>40</v>
       </c>
       <c r="G173" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -15939,7 +15939,7 @@
         <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -16025,10 +16025,10 @@
         <v>45151.5625</v>
       </c>
       <c r="F175" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G175" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -16206,7 +16206,7 @@
         <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16384,7 +16384,7 @@
         <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16458,7 +16458,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6156911</v>
+        <v>6156908</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16470,58 +16470,58 @@
         <v>45158.5625</v>
       </c>
       <c r="F180" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G180" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H180">
         <v>2</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
         <v>45</v>
       </c>
       <c r="K180">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L180">
         <v>3.2</v>
       </c>
       <c r="M180">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N180">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O180">
+        <v>3.25</v>
+      </c>
+      <c r="P180">
         <v>3.2</v>
-      </c>
-      <c r="P180">
-        <v>3</v>
       </c>
       <c r="Q180">
         <v>-0.25</v>
       </c>
       <c r="R180">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S180">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T180">
         <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V180">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W180">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16530,16 +16530,16 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC180">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16547,7 +16547,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6156908</v>
+        <v>6156911</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16559,58 +16559,58 @@
         <v>45158.5625</v>
       </c>
       <c r="F181" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G181" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H181">
         <v>2</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
         <v>45</v>
       </c>
       <c r="K181">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L181">
         <v>3.2</v>
       </c>
       <c r="M181">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N181">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O181">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P181">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q181">
         <v>-0.25</v>
       </c>
       <c r="R181">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S181">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T181">
         <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V181">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W181">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16619,16 +16619,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16648,10 +16648,10 @@
         <v>45158.89583333334</v>
       </c>
       <c r="F182" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G182" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16829,7 +16829,7 @@
         <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -17007,7 +17007,7 @@
         <v>34</v>
       </c>
       <c r="G186" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17093,7 +17093,7 @@
         <v>45165.66666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G187" t="s">
         <v>41</v>
@@ -17182,7 +17182,7 @@
         <v>45165.77083333334</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G188" t="s">
         <v>43</v>
@@ -17274,7 +17274,7 @@
         <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17363,7 +17363,7 @@
         <v>34</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -17452,7 +17452,7 @@
         <v>42</v>
       </c>
       <c r="G191" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H191">
         <v>3</v>
@@ -17538,10 +17538,10 @@
         <v>45171.79166666666</v>
       </c>
       <c r="F192" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G192" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17716,7 +17716,7 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F194" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G194" t="s">
         <v>44</v>
@@ -17805,7 +17805,7 @@
         <v>45172.83333333334</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G195" t="s">
         <v>29</v>
@@ -18072,7 +18072,7 @@
         <v>45177.52083333334</v>
       </c>
       <c r="F198" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G198" t="s">
         <v>29</v>
@@ -18164,7 +18164,7 @@
         <v>34</v>
       </c>
       <c r="G199" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H199">
         <v>2</v>
@@ -18339,10 +18339,10 @@
         <v>45178.83333333334</v>
       </c>
       <c r="F201" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G201" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18520,7 +18520,7 @@
         <v>35</v>
       </c>
       <c r="G203" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>36</v>
       </c>
       <c r="G205" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18873,7 +18873,7 @@
         <v>45183.75</v>
       </c>
       <c r="F207" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G207" t="s">
         <v>44</v>
@@ -18965,7 +18965,7 @@
         <v>29</v>
       </c>
       <c r="G208" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H208">
         <v>2</v>
@@ -19143,7 +19143,7 @@
         <v>43</v>
       </c>
       <c r="G210" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19229,7 +19229,7 @@
         <v>45192.52083333334</v>
       </c>
       <c r="F211" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G211" t="s">
         <v>40</v>
@@ -19318,7 +19318,7 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G212" t="s">
         <v>36</v>
@@ -19407,7 +19407,7 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F213" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G213" t="s">
         <v>44</v>
@@ -19585,7 +19585,7 @@
         <v>45195.79166666666</v>
       </c>
       <c r="F215" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G215" t="s">
         <v>41</v>
@@ -19677,7 +19677,7 @@
         <v>42</v>
       </c>
       <c r="G216" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -19766,7 +19766,7 @@
         <v>35</v>
       </c>
       <c r="G217" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H217">
         <v>1</v>
@@ -19852,7 +19852,7 @@
         <v>45199.72916666666</v>
       </c>
       <c r="F218" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G218" t="s">
         <v>29</v>
@@ -19944,7 +19944,7 @@
         <v>44</v>
       </c>
       <c r="G219" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20211,7 +20211,7 @@
         <v>40</v>
       </c>
       <c r="G222" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -20285,7 +20285,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6156937</v>
+        <v>6156938</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20297,76 +20297,76 @@
         <v>45201.89583333334</v>
       </c>
       <c r="F223" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G223" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H223">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I223">
         <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K223">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L223">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M223">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N223">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="O223">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P223">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R223">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S223">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U223">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V223">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W223">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z223">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB223">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC223">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20374,7 +20374,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6156938</v>
+        <v>6156937</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20386,76 +20386,76 @@
         <v>45201.89583333334</v>
       </c>
       <c r="F224" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G224" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I224">
         <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K224">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L224">
+        <v>3.2</v>
+      </c>
+      <c r="M224">
+        <v>3.2</v>
+      </c>
+      <c r="N224">
+        <v>2.05</v>
+      </c>
+      <c r="O224">
+        <v>3.2</v>
+      </c>
+      <c r="P224">
         <v>3.5</v>
       </c>
-      <c r="M224">
-        <v>4</v>
-      </c>
-      <c r="N224">
-        <v>1.571</v>
-      </c>
-      <c r="O224">
-        <v>3.75</v>
-      </c>
-      <c r="P224">
-        <v>4.75</v>
-      </c>
       <c r="Q224">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R224">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S224">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T224">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U224">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V224">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W224">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA224">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC224">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20641,7 +20641,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6156942</v>
+        <v>6155962</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20653,55 +20653,55 @@
         <v>45208.52083333334</v>
       </c>
       <c r="F227" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G227" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J227" t="s">
         <v>47</v>
       </c>
       <c r="K227">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L227">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M227">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N227">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="O227">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P227">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q227">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R227">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S227">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T227">
         <v>2.5</v>
       </c>
       <c r="U227">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V227">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W227">
         <v>-1</v>
@@ -20710,16 +20710,16 @@
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Z227">
         <v>-1</v>
       </c>
       <c r="AA227">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB227">
         <v>0.95</v>
-      </c>
-      <c r="AB227">
-        <v>0.8</v>
       </c>
       <c r="AC227">
         <v>-1</v>
@@ -20730,7 +20730,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6155962</v>
+        <v>6156942</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20742,55 +20742,55 @@
         <v>45208.52083333334</v>
       </c>
       <c r="F228" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G228" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I228">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J228" t="s">
         <v>47</v>
       </c>
       <c r="K228">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L228">
+        <v>3.1</v>
+      </c>
+      <c r="M228">
+        <v>3</v>
+      </c>
+      <c r="N228">
+        <v>2.05</v>
+      </c>
+      <c r="O228">
         <v>3.2</v>
       </c>
-      <c r="M228">
-        <v>2.75</v>
-      </c>
-      <c r="N228">
-        <v>1.833</v>
-      </c>
-      <c r="O228">
-        <v>3.3</v>
-      </c>
       <c r="P228">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q228">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R228">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S228">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T228">
         <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V228">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W228">
         <v>-1</v>
@@ -20799,16 +20799,16 @@
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB228">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC228">
         <v>-1</v>
@@ -20819,7 +20819,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6156941</v>
+        <v>6156184</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20831,58 +20831,58 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F229" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G229" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J229" t="s">
         <v>45</v>
       </c>
       <c r="K229">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L229">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M229">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N229">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="O229">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P229">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q229">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R229">
+        <v>2.05</v>
+      </c>
+      <c r="S229">
+        <v>1.75</v>
+      </c>
+      <c r="T229">
+        <v>2.75</v>
+      </c>
+      <c r="U229">
         <v>1.875</v>
       </c>
-      <c r="S229">
+      <c r="V229">
         <v>1.925</v>
       </c>
-      <c r="T229">
-        <v>2.25</v>
-      </c>
-      <c r="U229">
-        <v>1.825</v>
-      </c>
-      <c r="V229">
-        <v>1.975</v>
-      </c>
       <c r="W229">
-        <v>0.615</v>
+        <v>1.7</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20891,16 +20891,16 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="AA229">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC229">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20908,7 +20908,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6156939</v>
+        <v>6156943</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20920,76 +20920,76 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F230" t="s">
+        <v>32</v>
+      </c>
+      <c r="G230" t="s">
         <v>38</v>
       </c>
-      <c r="G230" t="s">
-        <v>31</v>
-      </c>
       <c r="H230">
         <v>1</v>
       </c>
       <c r="I230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K230">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L230">
+        <v>3.2</v>
+      </c>
+      <c r="M230">
         <v>3.1</v>
       </c>
-      <c r="M230">
-        <v>2.75</v>
-      </c>
       <c r="N230">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O230">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P230">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R230">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S230">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T230">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V230">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA230">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20997,7 +20997,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6156184</v>
+        <v>6156939</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21009,73 +21009,73 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F231" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G231" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H231">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I231">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K231">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L231">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M231">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N231">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="O231">
         <v>3.2</v>
       </c>
       <c r="P231">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="Q231">
         <v>0</v>
       </c>
       <c r="R231">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S231">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T231">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U231">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V231">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W231">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z231">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB231">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -21086,7 +21086,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6156943</v>
+        <v>6156941</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21098,10 +21098,10 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F232" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G232" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H232">
         <v>1</v>
@@ -21113,31 +21113,31 @@
         <v>45</v>
       </c>
       <c r="K232">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L232">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M232">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N232">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O232">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P232">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q232">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R232">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S232">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T232">
         <v>2.25</v>
@@ -21149,7 +21149,7 @@
         <v>1.975</v>
       </c>
       <c r="W232">
-        <v>0.909</v>
+        <v>0.615</v>
       </c>
       <c r="X232">
         <v>-1</v>
@@ -21158,10 +21158,10 @@
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AA232">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB232">
         <v>-1</v>
@@ -21190,7 +21190,7 @@
         <v>34</v>
       </c>
       <c r="G233" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -21368,7 +21368,7 @@
         <v>35</v>
       </c>
       <c r="G235" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7327839</v>
+        <v>7327842</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,40 +21454,40 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F236" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G236" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K236">
-        <v>3.2</v>
+        <v>1.533</v>
       </c>
       <c r="L236">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M236">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N236">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="O236">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P236">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="Q236">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R236">
         <v>1.9</v>
@@ -21496,31 +21496,31 @@
         <v>1.9</v>
       </c>
       <c r="T236">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U236">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V236">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
+        <v>0.45</v>
+      </c>
+      <c r="AA236">
         <v>-0.5</v>
       </c>
-      <c r="AA236">
-        <v>0.45</v>
-      </c>
       <c r="AB236">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC236">
         <v>-1</v>
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7327840</v>
+        <v>7327843</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,55 +21543,55 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F237" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G237" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J237" t="s">
         <v>47</v>
       </c>
       <c r="K237">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L237">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M237">
         <v>4</v>
       </c>
       <c r="N237">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="O237">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P237">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q237">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R237">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S237">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T237">
         <v>2.5</v>
       </c>
       <c r="U237">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V237">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W237">
         <v>-1</v>
@@ -21600,19 +21600,19 @@
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC237">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7327841</v>
+        <v>7327839</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,73 +21632,73 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F238" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G238" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H238">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I238">
         <v>2</v>
       </c>
       <c r="J238" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K238">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="L238">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M238">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N238">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="O238">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P238">
-        <v>3.25</v>
+        <v>1.666</v>
       </c>
       <c r="Q238">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R238">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S238">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T238">
         <v>2.5</v>
       </c>
       <c r="U238">
+        <v>1.875</v>
+      </c>
+      <c r="V238">
         <v>1.925</v>
       </c>
-      <c r="V238">
-        <v>1.875</v>
-      </c>
       <c r="W238">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z238">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB238">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC238">
         <v>-1</v>
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7327843</v>
+        <v>7327840</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,55 +21721,55 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F239" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G239" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
         <v>47</v>
       </c>
       <c r="K239">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L239">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M239">
         <v>4</v>
       </c>
       <c r="N239">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O239">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P239">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q239">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R239">
+        <v>1.725</v>
+      </c>
+      <c r="S239">
         <v>1.975</v>
-      </c>
-      <c r="S239">
-        <v>1.825</v>
       </c>
       <c r="T239">
         <v>2.5</v>
       </c>
       <c r="U239">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V239">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W239">
         <v>-1</v>
@@ -21778,19 +21778,19 @@
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z239">
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB239">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7327842</v>
+        <v>7327841</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,58 +21810,58 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F240" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G240" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J240" t="s">
         <v>45</v>
       </c>
       <c r="K240">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L240">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M240">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N240">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O240">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P240">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q240">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R240">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S240">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T240">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V240">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W240">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21870,13 +21870,13 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA240">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21902,7 +21902,7 @@
         <v>37</v>
       </c>
       <c r="G241" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -22080,7 +22080,7 @@
         <v>35</v>
       </c>
       <c r="G243" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H243">
         <v>2</v>
@@ -22255,7 +22255,7 @@
         <v>45244.85416666666</v>
       </c>
       <c r="F245" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G245" t="s">
         <v>37</v>
@@ -22344,7 +22344,7 @@
         <v>45245.79166666666</v>
       </c>
       <c r="F246" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G246" t="s">
         <v>35</v>
@@ -22421,7 +22421,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7487574</v>
+        <v>7487575</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22433,49 +22433,49 @@
         <v>45249.75</v>
       </c>
       <c r="F247" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G247" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H247">
         <v>2</v>
       </c>
       <c r="I247">
+        <v>2</v>
+      </c>
+      <c r="J247" t="s">
+        <v>46</v>
+      </c>
+      <c r="K247">
+        <v>2.1</v>
+      </c>
+      <c r="L247">
+        <v>3.5</v>
+      </c>
+      <c r="M247">
         <v>3</v>
-      </c>
-      <c r="J247" t="s">
-        <v>47</v>
-      </c>
-      <c r="K247">
-        <v>2</v>
-      </c>
-      <c r="L247">
-        <v>3.2</v>
-      </c>
-      <c r="M247">
-        <v>3.4</v>
       </c>
       <c r="N247">
         <v>1.95</v>
       </c>
       <c r="O247">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P247">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q247">
         <v>-0.5</v>
       </c>
       <c r="R247">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S247">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T247">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U247">
         <v>1.975</v>
@@ -22487,16 +22487,16 @@
         <v>-1</v>
       </c>
       <c r="X247">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y247">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z247">
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB247">
         <v>0.9750000000000001</v>
@@ -22510,7 +22510,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7487575</v>
+        <v>7487574</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22522,49 +22522,49 @@
         <v>45249.75</v>
       </c>
       <c r="F248" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G248" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H248">
         <v>2</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J248" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K248">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L248">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M248">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N248">
         <v>1.95</v>
       </c>
       <c r="O248">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P248">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q248">
         <v>-0.5</v>
       </c>
       <c r="R248">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S248">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T248">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U248">
         <v>1.975</v>
@@ -22576,16 +22576,16 @@
         <v>-1</v>
       </c>
       <c r="X248">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y248">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z248">
         <v>-1</v>
       </c>
       <c r="AA248">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB248">
         <v>0.9750000000000001</v>
@@ -22599,7 +22599,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7503209</v>
+        <v>7503210</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22611,13 +22611,13 @@
         <v>45256.75</v>
       </c>
       <c r="F249" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G249" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H249">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I249">
         <v>0</v>
@@ -22629,37 +22629,37 @@
         <v>2.2</v>
       </c>
       <c r="L249">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M249">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N249">
         <v>2.15</v>
       </c>
       <c r="O249">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P249">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q249">
         <v>-0.25</v>
       </c>
       <c r="R249">
+        <v>1.925</v>
+      </c>
+      <c r="S249">
+        <v>1.875</v>
+      </c>
+      <c r="T249">
+        <v>2.5</v>
+      </c>
+      <c r="U249">
         <v>1.975</v>
       </c>
-      <c r="S249">
+      <c r="V249">
         <v>1.825</v>
-      </c>
-      <c r="T249">
-        <v>2.75</v>
-      </c>
-      <c r="U249">
-        <v>1.85</v>
-      </c>
-      <c r="V249">
-        <v>1.95</v>
       </c>
       <c r="W249">
         <v>1.15</v>
@@ -22671,16 +22671,16 @@
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA249">
         <v>-1</v>
       </c>
       <c r="AB249">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC249">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22688,7 +22688,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7503210</v>
+        <v>7503209</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22700,13 +22700,13 @@
         <v>45256.75</v>
       </c>
       <c r="F250" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G250" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I250">
         <v>0</v>
@@ -22718,37 +22718,37 @@
         <v>2.2</v>
       </c>
       <c r="L250">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M250">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N250">
         <v>2.15</v>
       </c>
       <c r="O250">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P250">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q250">
         <v>-0.25</v>
       </c>
       <c r="R250">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S250">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T250">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U250">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V250">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W250">
         <v>1.15</v>
@@ -22760,16 +22760,16 @@
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA250">
         <v>-1</v>
       </c>
       <c r="AB250">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC250">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22789,10 +22789,10 @@
         <v>45264.79166666666</v>
       </c>
       <c r="F251" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G251" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H251">
         <v>1</v>
@@ -22878,10 +22878,10 @@
         <v>45270.79166666666</v>
       </c>
       <c r="F252" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G252" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H252">
         <v>6</v>

--- a/Chile Primera B/Chile Primera B.xlsx
+++ b/Chile Primera B/Chile Primera B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>Puerto Montt</t>
   </si>
   <si>
-    <t>Santiago Wanderers</t>
+    <t>Deportes Recoleta</t>
   </si>
   <si>
-    <t>Deportes Recoleta</t>
+    <t>Santiago Wanderers</t>
   </si>
   <si>
     <t>Santiago Morning</t>
@@ -130,10 +130,10 @@
     <t>La Serena</t>
   </si>
   <si>
-    <t>Deportes Temuco</t>
+    <t>Club Deportes Santa Cruz</t>
   </si>
   <si>
-    <t>Club Deportes Santa Cruz</t>
+    <t>Deportes Temuco</t>
   </si>
   <si>
     <t>Barnechea</t>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>CD Antofagasta</t>
+  </si>
+  <si>
+    <t>Curico Unido</t>
+  </si>
+  <si>
+    <t>Magallanes</t>
   </si>
   <si>
     <t>H</t>
@@ -519,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC252"/>
+  <dimension ref="A1:AC257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K2">
         <v>1.666</v>
@@ -729,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K3">
         <v>2.5</v>
@@ -809,7 +815,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -818,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -883,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6260666</v>
+        <v>6156793</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,37 +904,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5">
+        <v>2.75</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>2.4</v>
+      </c>
+      <c r="N5">
+        <v>2.5</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>2.6</v>
+      </c>
+      <c r="Q5">
         <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5">
-        <v>1.8</v>
-      </c>
-      <c r="L5">
-        <v>3.25</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <v>1.8</v>
-      </c>
-      <c r="O5">
-        <v>3.3</v>
-      </c>
-      <c r="P5">
-        <v>3.8</v>
-      </c>
-      <c r="Q5">
-        <v>-0.5</v>
       </c>
       <c r="R5">
         <v>1.875</v>
@@ -940,19 +946,19 @@
         <v>2</v>
       </c>
       <c r="U5">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z5">
         <v>-1</v>
@@ -964,7 +970,7 @@
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -972,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6156793</v>
+        <v>6260666</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,37 +993,37 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M6">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N6">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P6">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
         <v>1.875</v>
@@ -1029,19 +1035,19 @@
         <v>2</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y6">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
         <v>-1</v>
@@ -1053,7 +1059,7 @@
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1085,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K7">
         <v>2.2</v>
@@ -1174,7 +1180,7 @@
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K8">
         <v>1.85</v>
@@ -1263,7 +1269,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K9">
         <v>2.875</v>
@@ -1343,7 +1349,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1352,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K10">
         <v>2.2</v>
@@ -1417,7 +1423,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6156800</v>
+        <v>6156801</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,73 +1438,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K11">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L11">
         <v>3</v>
       </c>
       <c r="M11">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N11">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="O11">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R11">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S11">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T11">
         <v>2.25</v>
       </c>
       <c r="U11">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AB11">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC11">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6156801</v>
+        <v>6156800</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,73 +1527,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L12">
         <v>3</v>
       </c>
       <c r="M12">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N12">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="O12">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S12">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
+        <v>0.95</v>
+      </c>
+      <c r="AB12">
         <v>-0.5</v>
       </c>
-      <c r="AA12">
-        <v>0.4375</v>
-      </c>
-      <c r="AB12">
-        <v>0.925</v>
-      </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1619,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K13">
         <v>2.2</v>
@@ -1708,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K14">
         <v>2.3</v>
@@ -1788,7 +1794,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1797,7 +1803,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K15">
         <v>1.909</v>
@@ -1886,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K16">
         <v>2.1</v>
@@ -1951,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6156803</v>
+        <v>6155916</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,58 +1969,58 @@
         <v>44983.5</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H17">
         <v>3</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L17">
         <v>3.2</v>
       </c>
       <c r="M17">
+        <v>2.75</v>
+      </c>
+      <c r="N17">
+        <v>2.15</v>
+      </c>
+      <c r="O17">
+        <v>3.2</v>
+      </c>
+      <c r="P17">
         <v>3</v>
-      </c>
-      <c r="N17">
-        <v>2</v>
-      </c>
-      <c r="O17">
-        <v>3.25</v>
-      </c>
-      <c r="P17">
-        <v>3.4</v>
       </c>
       <c r="Q17">
         <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S17">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T17">
         <v>2.25</v>
       </c>
       <c r="U17">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2023,13 +2029,13 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2040,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6155916</v>
+        <v>6156803</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,58 +2058,58 @@
         <v>44983.5</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H18">
         <v>3</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L18">
         <v>3.2</v>
       </c>
       <c r="M18">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O18">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P18">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q18">
         <v>-0.25</v>
       </c>
       <c r="R18">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S18">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T18">
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W18">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2112,13 +2118,13 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2129,7 +2135,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6156804</v>
+        <v>6156802</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,55 +2147,55 @@
         <v>44984.75</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M19">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N19">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="O19">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P19">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="Q19">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S19">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T19">
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2198,19 +2204,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>3.333</v>
+        <v>1.9</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
+        <v>1.05</v>
+      </c>
+      <c r="AB19">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB19">
-        <v>-1</v>
-      </c>
       <c r="AC19">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6156802</v>
+        <v>6156804</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,55 +2236,55 @@
         <v>44984.75</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L20">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M20">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N20">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="O20">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P20">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R20">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S20">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T20">
         <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2287,19 +2293,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.9</v>
+        <v>3.333</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB20">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2331,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -2408,7 +2414,7 @@
         <v>44985.75</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>43</v>
@@ -2420,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K22">
         <v>2.5</v>
@@ -2509,7 +2515,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K23">
         <v>2.2</v>
@@ -2586,11 +2592,11 @@
         <v>44989.5</v>
       </c>
       <c r="F24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" t="s">
         <v>32</v>
       </c>
-      <c r="G24" t="s">
-        <v>33</v>
-      </c>
       <c r="H24">
         <v>1</v>
       </c>
@@ -2598,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -2678,7 +2684,7 @@
         <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2687,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K25">
         <v>1.8</v>
@@ -2776,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K26">
         <v>2.1</v>
@@ -2865,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K27">
         <v>2.4</v>
@@ -2954,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K28">
         <v>1.666</v>
@@ -3019,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6155917</v>
+        <v>6156812</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,76 +3037,76 @@
         <v>44991.85416666666</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M29">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N29">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O29">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P29">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q29">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S29">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T29">
         <v>2</v>
       </c>
       <c r="U29">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X29">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA29">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3108,7 +3114,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6156812</v>
+        <v>6155917</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,76 +3126,76 @@
         <v>44991.85416666666</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L30">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M30">
+        <v>2.8</v>
+      </c>
+      <c r="N30">
+        <v>1.95</v>
+      </c>
+      <c r="O30">
         <v>3.1</v>
       </c>
-      <c r="N30">
-        <v>2.55</v>
-      </c>
-      <c r="O30">
-        <v>2.875</v>
-      </c>
       <c r="P30">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>1.8</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30">
         <v>1.775</v>
       </c>
-      <c r="S30">
+      <c r="V30">
         <v>2.025</v>
       </c>
-      <c r="T30">
-        <v>2</v>
-      </c>
-      <c r="U30">
-        <v>1.925</v>
-      </c>
-      <c r="V30">
-        <v>1.875</v>
-      </c>
       <c r="W30">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3209,7 +3215,7 @@
         <v>44995.75</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -3221,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K31">
         <v>2.1</v>
@@ -3298,7 +3304,7 @@
         <v>44996.75</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
         <v>37</v>
@@ -3310,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K32">
         <v>2.6</v>
@@ -3399,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K33">
         <v>2.3</v>
@@ -3488,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K34">
         <v>1.833</v>
@@ -3577,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -3666,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K36">
         <v>2.25</v>
@@ -3731,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6156816</v>
+        <v>6156815</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,58 +3749,58 @@
         <v>44999.85416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>2.6</v>
+      </c>
+      <c r="N37">
+        <v>2.15</v>
+      </c>
+      <c r="O37">
+        <v>3</v>
+      </c>
+      <c r="P37">
         <v>3.1</v>
-      </c>
-      <c r="M37">
-        <v>3.1</v>
-      </c>
-      <c r="N37">
-        <v>2</v>
-      </c>
-      <c r="O37">
-        <v>3.2</v>
-      </c>
-      <c r="P37">
-        <v>3.6</v>
       </c>
       <c r="Q37">
         <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
         <v>2.25</v>
       </c>
       <c r="U37">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3803,16 +3809,16 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC37">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3820,7 +3826,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6156815</v>
+        <v>6156816</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,58 +3838,58 @@
         <v>44999.85416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M38">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N38">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P38">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3892,16 +3898,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3933,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K39">
         <v>1.95</v>
@@ -3998,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6156164</v>
+        <v>6155921</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,76 +4016,76 @@
         <v>45004.75</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L40">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N40">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="O40">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P40">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q40">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="S40">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z40">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB40">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4087,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6155921</v>
+        <v>6156164</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4105,76 @@
         <v>45004.75</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
         <v>0</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>47</v>
       </c>
       <c r="K41">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L41">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M41">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N41">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="O41">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P41">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="S41">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T41">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA41">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4200,7 +4206,7 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K42">
         <v>2.2</v>
@@ -4289,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K43">
         <v>2.3</v>
@@ -4354,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6155920</v>
+        <v>6156821</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,76 +4372,76 @@
         <v>45005.85416666666</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
         <v>47</v>
       </c>
       <c r="K44">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L44">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M44">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="N44">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O44">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P44">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q44">
         <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S44">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T44">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4443,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6156821</v>
+        <v>6155920</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,76 +4461,76 @@
         <v>45005.85416666666</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K45">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M45">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="N45">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O45">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P45">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q45">
         <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S45">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W45">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z45">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4544,7 +4550,7 @@
         <v>45006.75</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -4556,7 +4562,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K46">
         <v>2.25</v>
@@ -4633,7 +4639,7 @@
         <v>45010.75</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>31</v>
@@ -4645,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K47">
         <v>2.15</v>
@@ -4734,7 +4740,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K48">
         <v>1.833</v>
@@ -4799,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6156826</v>
+        <v>6156165</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,58 +4817,58 @@
         <v>45011.75</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H49">
         <v>3</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K49">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L49">
         <v>3.2</v>
       </c>
       <c r="M49">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="N49">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O49">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P49">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S49">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T49">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V49">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
-        <v>0.909</v>
+        <v>1.25</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4871,13 +4877,13 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4888,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6156165</v>
+        <v>6156826</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,58 +4906,58 @@
         <v>45011.75</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H50">
         <v>3</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K50">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L50">
         <v>3.2</v>
       </c>
       <c r="M50">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="N50">
+        <v>1.909</v>
+      </c>
+      <c r="O50">
+        <v>3.25</v>
+      </c>
+      <c r="P50">
+        <v>3.75</v>
+      </c>
+      <c r="Q50">
+        <v>-0.5</v>
+      </c>
+      <c r="R50">
+        <v>1.925</v>
+      </c>
+      <c r="S50">
+        <v>1.875</v>
+      </c>
+      <c r="T50">
         <v>2.25</v>
       </c>
-      <c r="O50">
-        <v>3</v>
-      </c>
-      <c r="P50">
-        <v>3</v>
-      </c>
-      <c r="Q50">
-        <v>-0.25</v>
-      </c>
-      <c r="R50">
-        <v>1.975</v>
-      </c>
-      <c r="S50">
-        <v>1.825</v>
-      </c>
-      <c r="T50">
-        <v>2</v>
-      </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W50">
-        <v>1.25</v>
+        <v>0.909</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4960,13 +4966,13 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4977,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6156825</v>
+        <v>6155922</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,76 +4995,76 @@
         <v>45011.85416666666</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K51">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L51">
         <v>3.2</v>
       </c>
       <c r="M51">
+        <v>3.4</v>
+      </c>
+      <c r="N51">
+        <v>1.909</v>
+      </c>
+      <c r="O51">
+        <v>3.1</v>
+      </c>
+      <c r="P51">
         <v>3.75</v>
-      </c>
-      <c r="N51">
-        <v>1.8</v>
-      </c>
-      <c r="O51">
-        <v>3.3</v>
-      </c>
-      <c r="P51">
-        <v>4.333</v>
       </c>
       <c r="Q51">
         <v>-0.5</v>
       </c>
       <c r="R51">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
         <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB51">
         <v>-0.5</v>
       </c>
       <c r="AC51">
-        <v>0.45</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5072,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6155922</v>
+        <v>6156825</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5084,76 @@
         <v>45011.85416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L52">
         <v>3.2</v>
       </c>
       <c r="M52">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N52">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O52">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P52">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q52">
         <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S52">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T52">
         <v>2.25</v>
       </c>
       <c r="U52">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V52">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X52">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA52">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
         <v>-0.5</v>
       </c>
       <c r="AC52">
-        <v>0.3875</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5155,7 +5161,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6156823</v>
+        <v>6156827</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,56 +5173,56 @@
         <v>45012.75</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K53">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L53">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M53">
+        <v>5</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <v>3.2</v>
+      </c>
+      <c r="P53">
         <v>3.4</v>
-      </c>
-      <c r="N53">
-        <v>2</v>
-      </c>
-      <c r="O53">
-        <v>3.1</v>
-      </c>
-      <c r="P53">
-        <v>3.5</v>
       </c>
       <c r="Q53">
         <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S53">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T53">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U53">
+        <v>1.95</v>
+      </c>
+      <c r="V53">
         <v>1.85</v>
       </c>
-      <c r="V53">
-        <v>1.95</v>
-      </c>
       <c r="W53">
         <v>1</v>
       </c>
@@ -5227,16 +5233,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.7749999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
+        <v>-1</v>
+      </c>
+      <c r="AC53">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC53">
-        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,7 +5250,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6156827</v>
+        <v>6156823</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,56 +5262,56 @@
         <v>45012.75</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K54">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <v>3.4</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <v>3.1</v>
+      </c>
+      <c r="P54">
         <v>3.5</v>
-      </c>
-      <c r="M54">
-        <v>5</v>
-      </c>
-      <c r="N54">
-        <v>2</v>
-      </c>
-      <c r="O54">
-        <v>3.2</v>
-      </c>
-      <c r="P54">
-        <v>3.4</v>
       </c>
       <c r="Q54">
         <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S54">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U54">
+        <v>1.85</v>
+      </c>
+      <c r="V54">
         <v>1.95</v>
       </c>
-      <c r="V54">
-        <v>1.85</v>
-      </c>
       <c r="W54">
         <v>1</v>
       </c>
@@ -5316,16 +5322,16 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.7250000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5357,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K55">
         <v>2.05</v>
@@ -5446,7 +5452,7 @@
         <v>4</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K56">
         <v>1.909</v>
@@ -5523,7 +5529,7 @@
         <v>45030.5625</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
         <v>30</v>
@@ -5535,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K57">
         <v>2.5</v>
@@ -5624,7 +5630,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K58">
         <v>2.5</v>
@@ -5713,7 +5719,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K59">
         <v>2.2</v>
@@ -5793,7 +5799,7 @@
         <v>44</v>
       </c>
       <c r="G60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5802,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -5867,7 +5873,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6156831</v>
+        <v>6156832</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,76 +5885,76 @@
         <v>45032.79166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G61" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K61">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L61">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M61">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N61">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O61">
         <v>3</v>
       </c>
       <c r="P61">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q61">
         <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S61">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="T61">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U61">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V61">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y61">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA61">
-        <v>0.825</v>
+        <v>0.35</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC61">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5956,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6156832</v>
+        <v>6156831</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,76 +5974,76 @@
         <v>45032.79166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K62">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L62">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M62">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N62">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O62">
         <v>3</v>
       </c>
       <c r="P62">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q62">
         <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="T62">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U62">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V62">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.35</v>
+        <v>0.825</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6069,7 +6075,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K63">
         <v>2.3</v>
@@ -6158,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K64">
         <v>2.9</v>
@@ -6238,7 +6244,7 @@
         <v>41</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6247,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K65">
         <v>1.615</v>
@@ -6336,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K66">
         <v>2.75</v>
@@ -6425,7 +6431,7 @@
         <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K67">
         <v>1.909</v>
@@ -6514,7 +6520,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K68">
         <v>4</v>
@@ -6579,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6155926</v>
+        <v>6156834</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,76 +6597,76 @@
         <v>45039.5625</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K69">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L69">
         <v>3.2</v>
       </c>
       <c r="M69">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N69">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="O69">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P69">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S69">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T69">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U69">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA69">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AB69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6680,7 +6686,7 @@
         <v>45039.5625</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
         <v>36</v>
@@ -6692,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K70">
         <v>1.6</v>
@@ -6757,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6156834</v>
+        <v>6155926</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,76 +6775,76 @@
         <v>45039.5625</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K71">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L71">
         <v>3.2</v>
       </c>
       <c r="M71">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N71">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O71">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P71">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R71">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S71">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T71">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AB71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC71">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6861,7 +6867,7 @@
         <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6870,7 +6876,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K72">
         <v>2.625</v>
@@ -6947,10 +6953,10 @@
         <v>45044.66666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6959,7 +6965,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K73">
         <v>2.5</v>
@@ -7039,7 +7045,7 @@
         <v>44</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H74">
         <v>6</v>
@@ -7048,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K74">
         <v>2.3</v>
@@ -7137,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K75">
         <v>2.625</v>
@@ -7214,7 +7220,7 @@
         <v>45046.6875</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G76" t="s">
         <v>34</v>
@@ -7226,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K76">
         <v>2.3</v>
@@ -7315,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K77">
         <v>2.625</v>
@@ -7404,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K78">
         <v>2.75</v>
@@ -7493,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K79">
         <v>1.909</v>
@@ -7582,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K80">
         <v>2.2</v>
@@ -7671,7 +7677,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K81">
         <v>2.2</v>
@@ -7748,7 +7754,7 @@
         <v>45056.6875</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
         <v>36</v>
@@ -7760,7 +7766,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K82">
         <v>1.909</v>
@@ -7849,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K83">
         <v>2.5</v>
@@ -7938,7 +7944,7 @@
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K84">
         <v>2.75</v>
@@ -8003,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6156844</v>
+        <v>6156848</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,58 +8021,58 @@
         <v>45057.79166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K85">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L85">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N85">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O85">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P85">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
-        <v>1.1</v>
+        <v>0.909</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8075,13 +8081,13 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8107,7 +8113,7 @@
         <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H86">
         <v>3</v>
@@ -8116,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K86">
         <v>1.909</v>
@@ -8181,7 +8187,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6156848</v>
+        <v>6156844</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,58 +8199,58 @@
         <v>45057.79166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K87">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L87">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N87">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O87">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P87">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T87">
         <v>2.25</v>
       </c>
       <c r="U87">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V87">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W87">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8253,13 +8259,13 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8282,7 +8288,7 @@
         <v>45058.875</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G88" t="s">
         <v>35</v>
@@ -8294,7 +8300,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K88">
         <v>2.2</v>
@@ -8383,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K89">
         <v>2.2</v>
@@ -8472,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K90">
         <v>2.5</v>
@@ -8549,7 +8555,7 @@
         <v>45061.83333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
         <v>43</v>
@@ -8561,7 +8567,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K91">
         <v>1.727</v>
@@ -8641,7 +8647,7 @@
         <v>44</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8650,7 +8656,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K92">
         <v>1.85</v>
@@ -8730,7 +8736,7 @@
         <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8739,7 +8745,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K93">
         <v>1.909</v>
@@ -8819,7 +8825,7 @@
         <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H94">
         <v>4</v>
@@ -8828,7 +8834,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K94">
         <v>1.833</v>
@@ -8917,7 +8923,7 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K95">
         <v>2.55</v>
@@ -9006,7 +9012,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K96">
         <v>2.625</v>
@@ -9095,7 +9101,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K97">
         <v>2</v>
@@ -9184,7 +9190,7 @@
         <v>4</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K98">
         <v>2.5</v>
@@ -9261,7 +9267,7 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
         <v>35</v>
@@ -9273,7 +9279,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K99">
         <v>2.5</v>
@@ -9353,7 +9359,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9362,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K100">
         <v>2.1</v>
@@ -9451,7 +9457,7 @@
         <v>4</v>
       </c>
       <c r="J101" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K101">
         <v>2.1</v>
@@ -9528,7 +9534,7 @@
         <v>45068.79166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -9540,7 +9546,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K102">
         <v>2</v>
@@ -9629,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K103">
         <v>2.75</v>
@@ -9706,7 +9712,7 @@
         <v>45068.89583333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G104" t="s">
         <v>36</v>
@@ -9718,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K104">
         <v>2.2</v>
@@ -9807,7 +9813,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K105">
         <v>2.1</v>
@@ -9887,7 +9893,7 @@
         <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9896,7 +9902,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K106">
         <v>2</v>
@@ -9973,10 +9979,10 @@
         <v>45073.77083333334</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9985,7 +9991,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K107">
         <v>2.15</v>
@@ -10074,7 +10080,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K108">
         <v>2.2</v>
@@ -10154,7 +10160,7 @@
         <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10163,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K109">
         <v>2</v>
@@ -10252,7 +10258,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K110">
         <v>1.8</v>
@@ -10341,7 +10347,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K111">
         <v>1.5</v>
@@ -10430,7 +10436,7 @@
         <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K112">
         <v>2.625</v>
@@ -10519,7 +10525,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K113">
         <v>2.3</v>
@@ -10608,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K114">
         <v>2.375</v>
@@ -10697,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K115">
         <v>1.666</v>
@@ -10786,7 +10792,7 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K116">
         <v>2.2</v>
@@ -10875,7 +10881,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K117">
         <v>2.2</v>
@@ -10952,7 +10958,7 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G118" t="s">
         <v>34</v>
@@ -10964,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K118">
         <v>2.2</v>
@@ -11041,7 +11047,7 @@
         <v>45081.77083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
         <v>30</v>
@@ -11053,7 +11059,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K119">
         <v>2.3</v>
@@ -11130,11 +11136,11 @@
         <v>45081.875</v>
       </c>
       <c r="F120" t="s">
+        <v>38</v>
+      </c>
+      <c r="G120" t="s">
         <v>39</v>
       </c>
-      <c r="G120" t="s">
-        <v>38</v>
-      </c>
       <c r="H120">
         <v>1</v>
       </c>
@@ -11142,7 +11148,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K120">
         <v>2.375</v>
@@ -11231,7 +11237,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K121">
         <v>2.375</v>
@@ -11320,7 +11326,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K122">
         <v>2.1</v>
@@ -11397,10 +11403,10 @@
         <v>45094.77083333334</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11409,7 +11415,7 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K123">
         <v>2.375</v>
@@ -11498,7 +11504,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K124">
         <v>2.5</v>
@@ -11575,7 +11581,7 @@
         <v>45095.5625</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
         <v>31</v>
@@ -11587,7 +11593,7 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K125">
         <v>1.5</v>
@@ -11667,7 +11673,7 @@
         <v>37</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11676,7 +11682,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K126">
         <v>1.727</v>
@@ -11765,7 +11771,7 @@
         <v>3</v>
       </c>
       <c r="J127" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K127">
         <v>2.1</v>
@@ -11854,7 +11860,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K128">
         <v>2</v>
@@ -11943,7 +11949,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K129">
         <v>2.375</v>
@@ -12032,7 +12038,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K130">
         <v>1.727</v>
@@ -12121,7 +12127,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K131">
         <v>2.25</v>
@@ -12198,7 +12204,7 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
         <v>37</v>
@@ -12210,7 +12216,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K132">
         <v>2.7</v>
@@ -12299,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K133">
         <v>2</v>
@@ -12364,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6156174</v>
+        <v>6156880</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,73 +12382,73 @@
         <v>45116.5625</v>
       </c>
       <c r="F134" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H134">
         <v>2</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K134">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L134">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M134">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N134">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O134">
         <v>3.3</v>
       </c>
       <c r="P134">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q134">
         <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S134">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T134">
         <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V134">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB134">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC134">
         <v>-1</v>
@@ -12453,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6156880</v>
+        <v>6156174</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,73 +12471,73 @@
         <v>45116.5625</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H135">
         <v>2</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="L135">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M135">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N135">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O135">
         <v>3.3</v>
       </c>
       <c r="P135">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q135">
         <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V135">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X135">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12557,7 +12563,7 @@
         <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -12566,7 +12572,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K136">
         <v>2.05</v>
@@ -12631,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6156881</v>
+        <v>6156883</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,76 +12649,76 @@
         <v>45121.85416666666</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G137" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K137">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L137">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M137">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N137">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O137">
         <v>3.2</v>
       </c>
       <c r="P137">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S137">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T137">
         <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V137">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y137">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12720,7 +12726,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6156883</v>
+        <v>6156881</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,76 +12738,76 @@
         <v>45121.85416666666</v>
       </c>
       <c r="F138" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K138">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L138">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M138">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N138">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O138">
         <v>3.2</v>
       </c>
       <c r="P138">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q138">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S138">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T138">
         <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V138">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12809,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6155942</v>
+        <v>6156882</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,76 +12827,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K139">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="L139">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M139">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N139">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O139">
+        <v>3.1</v>
+      </c>
+      <c r="P139">
         <v>3</v>
       </c>
-      <c r="P139">
-        <v>2.45</v>
-      </c>
       <c r="Q139">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S139">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="T139">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U139">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V139">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y139">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA139">
-        <v>0.7</v>
+        <v>0.425</v>
       </c>
       <c r="AB139">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC139">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12898,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6156882</v>
+        <v>6155942</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,76 +12916,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K140">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L140">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M140">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="N140">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O140">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P140">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="T140">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U140">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V140">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.425</v>
+        <v>0.7</v>
       </c>
       <c r="AB140">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC140">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12999,7 +13005,7 @@
         <v>45122.77083333334</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
         <v>42</v>
@@ -13011,7 +13017,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K141">
         <v>1.909</v>
@@ -13100,7 +13106,7 @@
         <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K142">
         <v>2</v>
@@ -13189,7 +13195,7 @@
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K143">
         <v>1.727</v>
@@ -13269,7 +13275,7 @@
         <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13278,7 +13284,7 @@
         <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K144">
         <v>1.615</v>
@@ -13367,7 +13373,7 @@
         <v>3</v>
       </c>
       <c r="J145" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K145">
         <v>1.7</v>
@@ -13444,7 +13450,7 @@
         <v>45129.5625</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G146" t="s">
         <v>41</v>
@@ -13456,7 +13462,7 @@
         <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K146">
         <v>2.2</v>
@@ -13545,7 +13551,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K147">
         <v>2.15</v>
@@ -13622,10 +13628,10 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F148" t="s">
+        <v>32</v>
+      </c>
+      <c r="G148" t="s">
         <v>33</v>
-      </c>
-      <c r="G148" t="s">
-        <v>32</v>
       </c>
       <c r="H148">
         <v>4</v>
@@ -13634,7 +13640,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K148">
         <v>2.75</v>
@@ -13699,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6155944</v>
+        <v>6158713</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13711,76 +13717,76 @@
         <v>45130.5625</v>
       </c>
       <c r="F149" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
+        <v>2</v>
+      </c>
+      <c r="J149" t="s">
+        <v>49</v>
+      </c>
+      <c r="K149">
+        <v>3</v>
+      </c>
+      <c r="L149">
+        <v>3.25</v>
+      </c>
+      <c r="M149">
+        <v>2.1</v>
+      </c>
+      <c r="N149">
+        <v>2.625</v>
+      </c>
+      <c r="O149">
+        <v>3.2</v>
+      </c>
+      <c r="P149">
+        <v>2.3</v>
+      </c>
+      <c r="Q149">
         <v>0</v>
       </c>
-      <c r="J149" t="s">
-        <v>45</v>
-      </c>
-      <c r="K149">
-        <v>1.4</v>
-      </c>
-      <c r="L149">
-        <v>3.75</v>
-      </c>
-      <c r="M149">
-        <v>7.5</v>
-      </c>
-      <c r="N149">
-        <v>1.45</v>
-      </c>
-      <c r="O149">
-        <v>3.6</v>
-      </c>
-      <c r="P149">
-        <v>6.5</v>
-      </c>
-      <c r="Q149">
-        <v>-1.25</v>
-      </c>
       <c r="R149">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S149">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T149">
         <v>2.25</v>
       </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W149">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z149">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>0.375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC149">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13788,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6158713</v>
+        <v>6155944</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,76 +13806,76 @@
         <v>45130.5625</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
         <v>47</v>
       </c>
       <c r="K150">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L150">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M150">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="N150">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O150">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P150">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q150">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R150">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S150">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T150">
         <v>2.25</v>
       </c>
       <c r="U150">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA150">
-        <v>0.7749999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AB150">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13901,7 +13907,7 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K151">
         <v>2.625</v>
@@ -13978,7 +13984,7 @@
         <v>45131.79166666666</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G152" t="s">
         <v>43</v>
@@ -13990,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K152">
         <v>2.15</v>
@@ -14070,7 +14076,7 @@
         <v>36</v>
       </c>
       <c r="G153" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14079,7 +14085,7 @@
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K153">
         <v>1.95</v>
@@ -14168,7 +14174,7 @@
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K154">
         <v>1.95</v>
@@ -14257,7 +14263,7 @@
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K155">
         <v>2.625</v>
@@ -14334,7 +14340,7 @@
         <v>45136.89583333334</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G156" t="s">
         <v>41</v>
@@ -14346,7 +14352,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K156">
         <v>2.2</v>
@@ -14435,7 +14441,7 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K157">
         <v>1.727</v>
@@ -14515,7 +14521,7 @@
         <v>40</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14524,7 +14530,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K158">
         <v>2</v>
@@ -14613,7 +14619,7 @@
         <v>3</v>
       </c>
       <c r="J159" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K159">
         <v>2.375</v>
@@ -14693,7 +14699,7 @@
         <v>37</v>
       </c>
       <c r="G160" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14702,7 +14708,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K160">
         <v>1.909</v>
@@ -14791,7 +14797,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K161">
         <v>2.5</v>
@@ -14868,7 +14874,7 @@
         <v>45142.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G162" t="s">
         <v>44</v>
@@ -14880,7 +14886,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K162">
         <v>2.6</v>
@@ -14957,7 +14963,7 @@
         <v>45142.85416666666</v>
       </c>
       <c r="F163" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G163" t="s">
         <v>31</v>
@@ -14969,7 +14975,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K163">
         <v>1.909</v>
@@ -15049,7 +15055,7 @@
         <v>35</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -15058,7 +15064,7 @@
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K164">
         <v>1.909</v>
@@ -15147,7 +15153,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K165">
         <v>2.2</v>
@@ -15236,7 +15242,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K166">
         <v>2.15</v>
@@ -15325,7 +15331,7 @@
         <v>3</v>
       </c>
       <c r="J167" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K167">
         <v>1.7</v>
@@ -15402,7 +15408,7 @@
         <v>45144.77083333334</v>
       </c>
       <c r="F168" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G168" t="s">
         <v>34</v>
@@ -15414,7 +15420,7 @@
         <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K168">
         <v>1.727</v>
@@ -15503,7 +15509,7 @@
         <v>3</v>
       </c>
       <c r="J169" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K169">
         <v>1.8</v>
@@ -15580,7 +15586,7 @@
         <v>45147.79166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G170" t="s">
         <v>29</v>
@@ -15592,7 +15598,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K170">
         <v>2.25</v>
@@ -15681,7 +15687,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K171">
         <v>2.25</v>
@@ -15746,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6156905</v>
+        <v>6156906</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,76 +15764,76 @@
         <v>45150.5625</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G172" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K172">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L172">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M172">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N172">
+        <v>1.95</v>
+      </c>
+      <c r="O172">
+        <v>3.1</v>
+      </c>
+      <c r="P172">
+        <v>3.75</v>
+      </c>
+      <c r="Q172">
+        <v>-0.25</v>
+      </c>
+      <c r="R172">
+        <v>1.725</v>
+      </c>
+      <c r="S172">
+        <v>1.975</v>
+      </c>
+      <c r="T172">
+        <v>2.25</v>
+      </c>
+      <c r="U172">
         <v>1.8</v>
       </c>
-      <c r="O172">
-        <v>3.3</v>
-      </c>
-      <c r="P172">
-        <v>3.8</v>
-      </c>
-      <c r="Q172">
-        <v>-0.5</v>
-      </c>
-      <c r="R172">
-        <v>1.875</v>
-      </c>
-      <c r="S172">
-        <v>1.925</v>
-      </c>
-      <c r="T172">
+      <c r="V172">
+        <v>2</v>
+      </c>
+      <c r="W172">
+        <v>-1</v>
+      </c>
+      <c r="X172">
+        <v>-1</v>
+      </c>
+      <c r="Y172">
         <v>2.75</v>
       </c>
-      <c r="U172">
-        <v>1.975</v>
-      </c>
-      <c r="V172">
-        <v>1.825</v>
-      </c>
-      <c r="W172">
+      <c r="Z172">
+        <v>-1</v>
+      </c>
+      <c r="AA172">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB172">
         <v>0.8</v>
       </c>
-      <c r="X172">
-        <v>-1</v>
-      </c>
-      <c r="Y172">
-        <v>-1</v>
-      </c>
-      <c r="Z172">
-        <v>0.875</v>
-      </c>
-      <c r="AA172">
-        <v>-1</v>
-      </c>
-      <c r="AB172">
-        <v>0.4875</v>
-      </c>
       <c r="AC172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15835,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6156906</v>
+        <v>6156905</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15847,76 +15853,76 @@
         <v>45150.5625</v>
       </c>
       <c r="F173" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
         <v>47</v>
       </c>
       <c r="K173">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L173">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M173">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N173">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O173">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P173">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q173">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S173">
+        <v>1.925</v>
+      </c>
+      <c r="T173">
+        <v>2.75</v>
+      </c>
+      <c r="U173">
         <v>1.975</v>
       </c>
-      <c r="T173">
-        <v>2.25</v>
-      </c>
-      <c r="U173">
-        <v>1.8</v>
-      </c>
       <c r="V173">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA173">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15939,7 +15945,7 @@
         <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -15948,7 +15954,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K174">
         <v>2.1</v>
@@ -16028,7 +16034,7 @@
         <v>31</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -16037,7 +16043,7 @@
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K175">
         <v>2.25</v>
@@ -16126,7 +16132,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K176">
         <v>1.727</v>
@@ -16215,7 +16221,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K177">
         <v>2.15</v>
@@ -16304,7 +16310,7 @@
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K178">
         <v>1.909</v>
@@ -16393,7 +16399,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K179">
         <v>1.833</v>
@@ -16458,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6156908</v>
+        <v>6156911</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16470,58 +16476,58 @@
         <v>45158.5625</v>
       </c>
       <c r="F180" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G180" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H180">
         <v>2</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K180">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L180">
         <v>3.2</v>
       </c>
       <c r="M180">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N180">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O180">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P180">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q180">
         <v>-0.25</v>
       </c>
       <c r="R180">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S180">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T180">
         <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V180">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W180">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16530,16 +16536,16 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16547,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6156911</v>
+        <v>6156908</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16559,58 +16565,58 @@
         <v>45158.5625</v>
       </c>
       <c r="F181" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G181" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H181">
         <v>2</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K181">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L181">
         <v>3.2</v>
       </c>
       <c r="M181">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N181">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O181">
+        <v>3.25</v>
+      </c>
+      <c r="P181">
         <v>3.2</v>
-      </c>
-      <c r="P181">
-        <v>3</v>
       </c>
       <c r="Q181">
         <v>-0.25</v>
       </c>
       <c r="R181">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S181">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T181">
         <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V181">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W181">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16619,16 +16625,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC181">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16651,7 +16657,7 @@
         <v>30</v>
       </c>
       <c r="G182" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16660,7 +16666,7 @@
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K182">
         <v>1.727</v>
@@ -16749,7 +16755,7 @@
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K183">
         <v>1.65</v>
@@ -16814,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6155954</v>
+        <v>6156180</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16826,76 +16832,76 @@
         <v>45165.5625</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
         <v>47</v>
       </c>
       <c r="K184">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L184">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M184">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N184">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O184">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P184">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q184">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R184">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S184">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T184">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U184">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V184">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA184">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16903,7 +16909,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6156180</v>
+        <v>6155954</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16915,76 +16921,76 @@
         <v>45165.5625</v>
       </c>
       <c r="F185" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G185" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K185">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L185">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M185">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N185">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O185">
+        <v>3.2</v>
+      </c>
+      <c r="P185">
         <v>3.75</v>
       </c>
-      <c r="P185">
-        <v>4</v>
-      </c>
       <c r="Q185">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R185">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S185">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T185">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W185">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z185">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC185">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16992,7 +16998,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6155953</v>
+        <v>6156912</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,37 +17010,37 @@
         <v>45165.66666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G186" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186">
         <v>3</v>
       </c>
       <c r="J186" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K186">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="L186">
         <v>3</v>
       </c>
       <c r="M186">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="N186">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O186">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P186">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q186">
         <v>-0.25</v>
@@ -17046,13 +17052,13 @@
         <v>1.85</v>
       </c>
       <c r="T186">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U186">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V186">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W186">
         <v>-1</v>
@@ -17061,7 +17067,7 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z186">
         <v>-1</v>
@@ -17070,10 +17076,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB186">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AC186">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17081,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6156912</v>
+        <v>6155953</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17093,37 +17099,37 @@
         <v>45165.66666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187">
         <v>3</v>
       </c>
       <c r="J187" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K187">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="L187">
         <v>3</v>
       </c>
       <c r="M187">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="N187">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O187">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P187">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q187">
         <v>-0.25</v>
@@ -17135,13 +17141,13 @@
         <v>1.85</v>
       </c>
       <c r="T187">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V187">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W187">
         <v>-1</v>
@@ -17150,7 +17156,7 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z187">
         <v>-1</v>
@@ -17159,10 +17165,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB187">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17182,7 +17188,7 @@
         <v>45165.77083333334</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G188" t="s">
         <v>43</v>
@@ -17194,7 +17200,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K188">
         <v>1.833</v>
@@ -17274,7 +17280,7 @@
         <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17283,7 +17289,7 @@
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K189">
         <v>2.1</v>
@@ -17363,7 +17369,7 @@
         <v>34</v>
       </c>
       <c r="G190" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -17372,7 +17378,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K190">
         <v>2.7</v>
@@ -17461,7 +17467,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K191">
         <v>2.05</v>
@@ -17538,10 +17544,10 @@
         <v>45171.79166666666</v>
       </c>
       <c r="F192" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G192" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17550,7 +17556,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K192">
         <v>1.909</v>
@@ -17639,7 +17645,7 @@
         <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K193">
         <v>1.95</v>
@@ -17716,7 +17722,7 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F194" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G194" t="s">
         <v>44</v>
@@ -17728,7 +17734,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K194">
         <v>2.4</v>
@@ -17817,7 +17823,7 @@
         <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K195">
         <v>2</v>
@@ -17906,7 +17912,7 @@
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K196">
         <v>2.1</v>
@@ -17995,7 +18001,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K197">
         <v>2.25</v>
@@ -18072,7 +18078,7 @@
         <v>45177.52083333334</v>
       </c>
       <c r="F198" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G198" t="s">
         <v>29</v>
@@ -18084,7 +18090,7 @@
         <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K198">
         <v>2.3</v>
@@ -18173,7 +18179,7 @@
         <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K199">
         <v>2</v>
@@ -18262,7 +18268,7 @@
         <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K200">
         <v>1.85</v>
@@ -18342,7 +18348,7 @@
         <v>30</v>
       </c>
       <c r="G201" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18351,7 +18357,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K201">
         <v>2</v>
@@ -18440,7 +18446,7 @@
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K202">
         <v>1.533</v>
@@ -18520,7 +18526,7 @@
         <v>35</v>
       </c>
       <c r="G203" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -18529,7 +18535,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K203">
         <v>1.85</v>
@@ -18618,7 +18624,7 @@
         <v>3</v>
       </c>
       <c r="J204" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K204">
         <v>2.4</v>
@@ -18698,7 +18704,7 @@
         <v>36</v>
       </c>
       <c r="G205" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18707,7 +18713,7 @@
         <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K205">
         <v>2.25</v>
@@ -18796,7 +18802,7 @@
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K206">
         <v>1.571</v>
@@ -18873,7 +18879,7 @@
         <v>45183.75</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G207" t="s">
         <v>44</v>
@@ -18885,7 +18891,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K207">
         <v>3</v>
@@ -18965,7 +18971,7 @@
         <v>29</v>
       </c>
       <c r="G208" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H208">
         <v>2</v>
@@ -18974,7 +18980,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K208">
         <v>1.615</v>
@@ -19063,7 +19069,7 @@
         <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K209">
         <v>2.2</v>
@@ -19143,7 +19149,7 @@
         <v>43</v>
       </c>
       <c r="G210" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19152,7 +19158,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K210">
         <v>2.25</v>
@@ -19229,7 +19235,7 @@
         <v>45192.52083333334</v>
       </c>
       <c r="F211" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G211" t="s">
         <v>40</v>
@@ -19241,7 +19247,7 @@
         <v>2</v>
       </c>
       <c r="J211" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K211">
         <v>2.625</v>
@@ -19306,7 +19312,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6155958</v>
+        <v>6156929</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19318,76 +19324,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F212" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G212" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H212">
         <v>1</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K212">
+        <v>2.3</v>
+      </c>
+      <c r="L212">
+        <v>2.9</v>
+      </c>
+      <c r="M212">
         <v>3</v>
       </c>
-      <c r="L212">
-        <v>3.2</v>
-      </c>
-      <c r="M212">
-        <v>2.2</v>
-      </c>
       <c r="N212">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O212">
         <v>3.3</v>
       </c>
       <c r="P212">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q212">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R212">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S212">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T212">
         <v>2.5</v>
       </c>
       <c r="U212">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V212">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X212">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA212">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19395,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6156183</v>
+        <v>6155958</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19407,76 +19413,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G213" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213" t="s">
+        <v>48</v>
+      </c>
+      <c r="K213">
         <v>3</v>
-      </c>
-      <c r="I213">
-        <v>0</v>
-      </c>
-      <c r="J213" t="s">
-        <v>45</v>
-      </c>
-      <c r="K213">
-        <v>2.2</v>
       </c>
       <c r="L213">
         <v>3.2</v>
       </c>
       <c r="M213">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N213">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O213">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P213">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q213">
         <v>-0.25</v>
       </c>
       <c r="R213">
+        <v>1.825</v>
+      </c>
+      <c r="S213">
+        <v>1.975</v>
+      </c>
+      <c r="T213">
+        <v>2.5</v>
+      </c>
+      <c r="U213">
         <v>1.95</v>
       </c>
-      <c r="S213">
-        <v>1.85</v>
-      </c>
-      <c r="T213">
-        <v>2.25</v>
-      </c>
-      <c r="U213">
-        <v>1.8</v>
-      </c>
       <c r="V213">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W213">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB213">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19484,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6156929</v>
+        <v>6156183</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19496,76 +19502,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F214" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G214" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I214">
         <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K214">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L214">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M214">
         <v>3</v>
       </c>
       <c r="N214">
+        <v>2.2</v>
+      </c>
+      <c r="O214">
+        <v>3.2</v>
+      </c>
+      <c r="P214">
+        <v>3</v>
+      </c>
+      <c r="Q214">
+        <v>-0.25</v>
+      </c>
+      <c r="R214">
+        <v>1.95</v>
+      </c>
+      <c r="S214">
+        <v>1.85</v>
+      </c>
+      <c r="T214">
+        <v>2.25</v>
+      </c>
+      <c r="U214">
         <v>1.8</v>
       </c>
-      <c r="O214">
-        <v>3.3</v>
-      </c>
-      <c r="P214">
-        <v>4</v>
-      </c>
-      <c r="Q214">
-        <v>-0.5</v>
-      </c>
-      <c r="R214">
-        <v>1.875</v>
-      </c>
-      <c r="S214">
-        <v>1.925</v>
-      </c>
-      <c r="T214">
-        <v>2.5</v>
-      </c>
-      <c r="U214">
-        <v>1.9</v>
-      </c>
       <c r="V214">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W214">
+        <v>1.2</v>
+      </c>
+      <c r="X214">
+        <v>-1</v>
+      </c>
+      <c r="Y214">
+        <v>-1</v>
+      </c>
+      <c r="Z214">
+        <v>0.95</v>
+      </c>
+      <c r="AA214">
+        <v>-1</v>
+      </c>
+      <c r="AB214">
         <v>0.8</v>
       </c>
-      <c r="X214">
-        <v>-1</v>
-      </c>
-      <c r="Y214">
-        <v>-1</v>
-      </c>
-      <c r="Z214">
-        <v>0.875</v>
-      </c>
-      <c r="AA214">
-        <v>-1</v>
-      </c>
-      <c r="AB214">
-        <v>-1</v>
-      </c>
       <c r="AC214">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19585,7 +19591,7 @@
         <v>45195.79166666666</v>
       </c>
       <c r="F215" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G215" t="s">
         <v>41</v>
@@ -19597,7 +19603,7 @@
         <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K215">
         <v>2.25</v>
@@ -19677,7 +19683,7 @@
         <v>42</v>
       </c>
       <c r="G216" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -19686,7 +19692,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K216">
         <v>2.375</v>
@@ -19766,7 +19772,7 @@
         <v>35</v>
       </c>
       <c r="G217" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H217">
         <v>1</v>
@@ -19775,7 +19781,7 @@
         <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K217">
         <v>1.8</v>
@@ -19852,7 +19858,7 @@
         <v>45199.72916666666</v>
       </c>
       <c r="F218" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G218" t="s">
         <v>29</v>
@@ -19864,7 +19870,7 @@
         <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K218">
         <v>2.3</v>
@@ -19953,7 +19959,7 @@
         <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K219">
         <v>1.615</v>
@@ -20042,7 +20048,7 @@
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K220">
         <v>2.2</v>
@@ -20131,7 +20137,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K221">
         <v>2.2</v>
@@ -20211,7 +20217,7 @@
         <v>40</v>
       </c>
       <c r="G222" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -20220,7 +20226,7 @@
         <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K222">
         <v>2.5</v>
@@ -20309,7 +20315,7 @@
         <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K223">
         <v>1.727</v>
@@ -20389,7 +20395,7 @@
         <v>36</v>
       </c>
       <c r="G224" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H224">
         <v>3</v>
@@ -20398,7 +20404,7 @@
         <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K224">
         <v>2.1</v>
@@ -20463,7 +20469,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6155961</v>
+        <v>6156940</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20475,76 +20481,76 @@
         <v>45207.72916666666</v>
       </c>
       <c r="F225" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G225" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H225">
         <v>0</v>
       </c>
       <c r="I225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K225">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L225">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M225">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N225">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O225">
         <v>3.2</v>
       </c>
       <c r="P225">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q225">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R225">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S225">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T225">
         <v>2.5</v>
       </c>
       <c r="U225">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V225">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y225">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA225">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="AB225">
         <v>-1</v>
       </c>
       <c r="AC225">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20552,7 +20558,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6156940</v>
+        <v>6155961</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20564,76 +20570,76 @@
         <v>45207.72916666666</v>
       </c>
       <c r="F226" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G226" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H226">
         <v>0</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K226">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L226">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M226">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N226">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O226">
         <v>3.2</v>
       </c>
       <c r="P226">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q226">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R226">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S226">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T226">
         <v>2.5</v>
       </c>
       <c r="U226">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V226">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z226">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="AB226">
         <v>-1</v>
       </c>
       <c r="AC226">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20641,7 +20647,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6155962</v>
+        <v>6156942</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20653,55 +20659,55 @@
         <v>45208.52083333334</v>
       </c>
       <c r="F227" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G227" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I227">
+        <v>2</v>
+      </c>
+      <c r="J227" t="s">
+        <v>49</v>
+      </c>
+      <c r="K227">
+        <v>2.2</v>
+      </c>
+      <c r="L227">
+        <v>3.1</v>
+      </c>
+      <c r="M227">
         <v>3</v>
       </c>
-      <c r="J227" t="s">
-        <v>47</v>
-      </c>
-      <c r="K227">
-        <v>2.3</v>
-      </c>
-      <c r="L227">
+      <c r="N227">
+        <v>2.05</v>
+      </c>
+      <c r="O227">
         <v>3.2</v>
       </c>
-      <c r="M227">
-        <v>2.75</v>
-      </c>
-      <c r="N227">
-        <v>1.833</v>
-      </c>
-      <c r="O227">
-        <v>3.3</v>
-      </c>
       <c r="P227">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q227">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R227">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S227">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T227">
         <v>2.5</v>
       </c>
       <c r="U227">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V227">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W227">
         <v>-1</v>
@@ -20710,16 +20716,16 @@
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Z227">
         <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB227">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC227">
         <v>-1</v>
@@ -20730,7 +20736,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6156942</v>
+        <v>6155962</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20742,55 +20748,55 @@
         <v>45208.52083333334</v>
       </c>
       <c r="F228" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G228" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J228" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K228">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L228">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M228">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N228">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="O228">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P228">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q228">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R228">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S228">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T228">
         <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V228">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W228">
         <v>-1</v>
@@ -20799,16 +20805,16 @@
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB228">
         <v>0.95</v>
-      </c>
-      <c r="AB228">
-        <v>0.8</v>
       </c>
       <c r="AC228">
         <v>-1</v>
@@ -20819,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6156184</v>
+        <v>6156939</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20831,73 +20837,73 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F229" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G229" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H229">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K229">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L229">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M229">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N229">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="O229">
         <v>3.2</v>
       </c>
       <c r="P229">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="Q229">
         <v>0</v>
       </c>
       <c r="R229">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S229">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T229">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V229">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W229">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z229">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB229">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -20908,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6156943</v>
+        <v>6156184</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20920,58 +20926,58 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F230" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G230" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J230" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K230">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L230">
         <v>3.2</v>
       </c>
       <c r="M230">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="N230">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O230">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P230">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q230">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R230">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S230">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T230">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U230">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V230">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W230">
-        <v>0.909</v>
+        <v>1.7</v>
       </c>
       <c r="X230">
         <v>-1</v>
@@ -20980,16 +20986,16 @@
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA230">
         <v>-1</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC230">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20997,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6156939</v>
+        <v>6156943</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21009,76 +21015,76 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F231" t="s">
+        <v>33</v>
+      </c>
+      <c r="G231" t="s">
         <v>39</v>
       </c>
-      <c r="G231" t="s">
-        <v>30</v>
-      </c>
       <c r="H231">
         <v>1</v>
       </c>
       <c r="I231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
         <v>47</v>
       </c>
       <c r="K231">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L231">
+        <v>3.2</v>
+      </c>
+      <c r="M231">
         <v>3.1</v>
       </c>
-      <c r="M231">
-        <v>2.75</v>
-      </c>
       <c r="N231">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O231">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P231">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R231">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S231">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T231">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U231">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V231">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA231">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21110,7 +21116,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K232">
         <v>1.8</v>
@@ -21190,7 +21196,7 @@
         <v>34</v>
       </c>
       <c r="G233" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -21199,7 +21205,7 @@
         <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K233">
         <v>2.1</v>
@@ -21264,7 +21270,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7327838</v>
+        <v>7327856</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21276,76 +21282,76 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F234" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G234" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H234">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K234">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L234">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M234">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N234">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O234">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P234">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q234">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R234">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S234">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T234">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U234">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V234">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W234">
         <v>-1</v>
       </c>
       <c r="X234">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z234">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB234">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21353,7 +21359,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7327856</v>
+        <v>7327838</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,76 +21371,76 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F235" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G235" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J235" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K235">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L235">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M235">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N235">
+        <v>2.1</v>
+      </c>
+      <c r="O235">
+        <v>3.3</v>
+      </c>
+      <c r="P235">
+        <v>3</v>
+      </c>
+      <c r="Q235">
+        <v>-0.25</v>
+      </c>
+      <c r="R235">
+        <v>1.9</v>
+      </c>
+      <c r="S235">
+        <v>1.9</v>
+      </c>
+      <c r="T235">
+        <v>3</v>
+      </c>
+      <c r="U235">
+        <v>2</v>
+      </c>
+      <c r="V235">
         <v>1.8</v>
       </c>
-      <c r="O235">
-        <v>3.4</v>
-      </c>
-      <c r="P235">
-        <v>3.75</v>
-      </c>
-      <c r="Q235">
+      <c r="W235">
+        <v>-1</v>
+      </c>
+      <c r="X235">
+        <v>2.3</v>
+      </c>
+      <c r="Y235">
+        <v>-1</v>
+      </c>
+      <c r="Z235">
         <v>-0.5</v>
       </c>
-      <c r="R235">
-        <v>1.85</v>
-      </c>
-      <c r="S235">
-        <v>1.95</v>
-      </c>
-      <c r="T235">
-        <v>2.25</v>
-      </c>
-      <c r="U235">
-        <v>1.75</v>
-      </c>
-      <c r="V235">
-        <v>1.95</v>
-      </c>
-      <c r="W235">
-        <v>-1</v>
-      </c>
-      <c r="X235">
-        <v>-1</v>
-      </c>
-      <c r="Y235">
-        <v>2.75</v>
-      </c>
-      <c r="Z235">
-        <v>-1</v>
-      </c>
       <c r="AA235">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC235">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21448,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7327842</v>
+        <v>7327839</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,40 +21460,40 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F236" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G236" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K236">
-        <v>1.533</v>
+        <v>3.2</v>
       </c>
       <c r="L236">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M236">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N236">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="O236">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P236">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="Q236">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R236">
         <v>1.9</v>
@@ -21496,31 +21502,31 @@
         <v>1.9</v>
       </c>
       <c r="T236">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U236">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V236">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W236">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z236">
+        <v>-0.5</v>
+      </c>
+      <c r="AA236">
         <v>0.45</v>
       </c>
-      <c r="AA236">
-        <v>-0.5</v>
-      </c>
       <c r="AB236">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC236">
         <v>-1</v>
@@ -21531,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7327843</v>
+        <v>7327840</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,55 +21549,55 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F237" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G237" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K237">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L237">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M237">
         <v>4</v>
       </c>
       <c r="N237">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O237">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P237">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q237">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R237">
+        <v>1.725</v>
+      </c>
+      <c r="S237">
         <v>1.975</v>
-      </c>
-      <c r="S237">
-        <v>1.825</v>
       </c>
       <c r="T237">
         <v>2.5</v>
       </c>
       <c r="U237">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V237">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W237">
         <v>-1</v>
@@ -21600,19 +21606,19 @@
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB237">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7327839</v>
+        <v>7327842</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,40 +21638,40 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F238" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G238" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J238" t="s">
         <v>47</v>
       </c>
       <c r="K238">
-        <v>3.2</v>
+        <v>1.533</v>
       </c>
       <c r="L238">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M238">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N238">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="O238">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P238">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="Q238">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R238">
         <v>1.9</v>
@@ -21674,31 +21680,31 @@
         <v>1.9</v>
       </c>
       <c r="T238">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U238">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V238">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
+        <v>0.45</v>
+      </c>
+      <c r="AA238">
         <v>-0.5</v>
       </c>
-      <c r="AA238">
-        <v>0.45</v>
-      </c>
       <c r="AB238">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC238">
         <v>-1</v>
@@ -21709,7 +21715,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7327840</v>
+        <v>7327841</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,43 +21727,43 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F239" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G239" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J239" t="s">
         <v>47</v>
       </c>
       <c r="K239">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L239">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M239">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N239">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O239">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P239">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q239">
         <v>-0.25</v>
       </c>
       <c r="R239">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S239">
         <v>1.975</v>
@@ -21766,31 +21772,31 @@
         <v>2.5</v>
       </c>
       <c r="U239">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V239">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA239">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC239">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21798,7 +21804,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7327841</v>
+        <v>7327843</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,46 +21816,46 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F240" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G240" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H240">
+        <v>2</v>
+      </c>
+      <c r="I240">
         <v>3</v>
       </c>
-      <c r="I240">
-        <v>2</v>
-      </c>
       <c r="J240" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K240">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L240">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M240">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N240">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O240">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P240">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q240">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R240">
+        <v>1.975</v>
+      </c>
+      <c r="S240">
         <v>1.825</v>
-      </c>
-      <c r="S240">
-        <v>1.975</v>
       </c>
       <c r="T240">
         <v>2.5</v>
@@ -21861,19 +21867,19 @@
         <v>1.875</v>
       </c>
       <c r="W240">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z240">
+        <v>-1</v>
+      </c>
+      <c r="AA240">
         <v>0.825</v>
-      </c>
-      <c r="AA240">
-        <v>-1</v>
       </c>
       <c r="AB240">
         <v>0.925</v>
@@ -21902,7 +21908,7 @@
         <v>37</v>
       </c>
       <c r="G241" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -21911,7 +21917,7 @@
         <v>0</v>
       </c>
       <c r="J241" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K241">
         <v>2.1</v>
@@ -22000,7 +22006,7 @@
         <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K242">
         <v>2.15</v>
@@ -22080,7 +22086,7 @@
         <v>35</v>
       </c>
       <c r="G243" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H243">
         <v>2</v>
@@ -22089,7 +22095,7 @@
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K243">
         <v>2.375</v>
@@ -22178,7 +22184,7 @@
         <v>6</v>
       </c>
       <c r="J244" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K244">
         <v>2.3</v>
@@ -22255,7 +22261,7 @@
         <v>45244.85416666666</v>
       </c>
       <c r="F245" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G245" t="s">
         <v>37</v>
@@ -22267,7 +22273,7 @@
         <v>1</v>
       </c>
       <c r="J245" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K245">
         <v>1.727</v>
@@ -22344,7 +22350,7 @@
         <v>45245.79166666666</v>
       </c>
       <c r="F246" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G246" t="s">
         <v>35</v>
@@ -22356,7 +22362,7 @@
         <v>0</v>
       </c>
       <c r="J246" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K246">
         <v>1.615</v>
@@ -22445,7 +22451,7 @@
         <v>2</v>
       </c>
       <c r="J247" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K247">
         <v>2.1</v>
@@ -22522,10 +22528,10 @@
         <v>45249.75</v>
       </c>
       <c r="F248" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G248" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H248">
         <v>2</v>
@@ -22534,7 +22540,7 @@
         <v>3</v>
       </c>
       <c r="J248" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K248">
         <v>2</v>
@@ -22599,7 +22605,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7503210</v>
+        <v>7503209</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22611,55 +22617,55 @@
         <v>45256.75</v>
       </c>
       <c r="F249" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G249" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I249">
         <v>0</v>
       </c>
       <c r="J249" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K249">
         <v>2.2</v>
       </c>
       <c r="L249">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M249">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N249">
         <v>2.15</v>
       </c>
       <c r="O249">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P249">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q249">
         <v>-0.25</v>
       </c>
       <c r="R249">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S249">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T249">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U249">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V249">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W249">
         <v>1.15</v>
@@ -22671,16 +22677,16 @@
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA249">
         <v>-1</v>
       </c>
       <c r="AB249">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC249">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22688,7 +22694,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7503209</v>
+        <v>7503210</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22700,55 +22706,55 @@
         <v>45256.75</v>
       </c>
       <c r="F250" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G250" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H250">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I250">
         <v>0</v>
       </c>
       <c r="J250" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K250">
         <v>2.2</v>
       </c>
       <c r="L250">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M250">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N250">
         <v>2.15</v>
       </c>
       <c r="O250">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P250">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q250">
         <v>-0.25</v>
       </c>
       <c r="R250">
+        <v>1.925</v>
+      </c>
+      <c r="S250">
+        <v>1.875</v>
+      </c>
+      <c r="T250">
+        <v>2.5</v>
+      </c>
+      <c r="U250">
         <v>1.975</v>
       </c>
-      <c r="S250">
+      <c r="V250">
         <v>1.825</v>
-      </c>
-      <c r="T250">
-        <v>2.75</v>
-      </c>
-      <c r="U250">
-        <v>1.85</v>
-      </c>
-      <c r="V250">
-        <v>1.95</v>
       </c>
       <c r="W250">
         <v>1.15</v>
@@ -22760,16 +22766,16 @@
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA250">
         <v>-1</v>
       </c>
       <c r="AB250">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC250">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22789,7 +22795,7 @@
         <v>45264.79166666666</v>
       </c>
       <c r="F251" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G251" t="s">
         <v>30</v>
@@ -22801,7 +22807,7 @@
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K251">
         <v>2.1</v>
@@ -22881,7 +22887,7 @@
         <v>30</v>
       </c>
       <c r="G252" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H252">
         <v>6</v>
@@ -22890,7 +22896,7 @@
         <v>5</v>
       </c>
       <c r="J252" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K252">
         <v>2.1</v>
@@ -22948,6 +22954,376 @@
       </c>
       <c r="AC252">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:29">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>7792873</v>
+      </c>
+      <c r="C253" t="s">
+        <v>28</v>
+      </c>
+      <c r="D253" t="s">
+        <v>28</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45345.89583333334</v>
+      </c>
+      <c r="F253" t="s">
+        <v>45</v>
+      </c>
+      <c r="G253" t="s">
+        <v>35</v>
+      </c>
+      <c r="K253">
+        <v>1.8</v>
+      </c>
+      <c r="L253">
+        <v>3.5</v>
+      </c>
+      <c r="M253">
+        <v>4</v>
+      </c>
+      <c r="N253">
+        <v>1.95</v>
+      </c>
+      <c r="O253">
+        <v>3.3</v>
+      </c>
+      <c r="P253">
+        <v>3.5</v>
+      </c>
+      <c r="Q253">
+        <v>-0.5</v>
+      </c>
+      <c r="R253">
+        <v>1.975</v>
+      </c>
+      <c r="S253">
+        <v>1.825</v>
+      </c>
+      <c r="T253">
+        <v>2.5</v>
+      </c>
+      <c r="U253">
+        <v>2.025</v>
+      </c>
+      <c r="V253">
+        <v>1.775</v>
+      </c>
+      <c r="W253">
+        <v>0</v>
+      </c>
+      <c r="X253">
+        <v>0</v>
+      </c>
+      <c r="Y253">
+        <v>0</v>
+      </c>
+      <c r="Z253">
+        <v>0</v>
+      </c>
+      <c r="AA253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:29">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>7793609</v>
+      </c>
+      <c r="C254" t="s">
+        <v>28</v>
+      </c>
+      <c r="D254" t="s">
+        <v>28</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45346.5</v>
+      </c>
+      <c r="F254" t="s">
+        <v>44</v>
+      </c>
+      <c r="G254" t="s">
+        <v>37</v>
+      </c>
+      <c r="K254">
+        <v>2</v>
+      </c>
+      <c r="L254">
+        <v>3.2</v>
+      </c>
+      <c r="M254">
+        <v>3.4</v>
+      </c>
+      <c r="N254">
+        <v>1.95</v>
+      </c>
+      <c r="O254">
+        <v>3.25</v>
+      </c>
+      <c r="P254">
+        <v>3.5</v>
+      </c>
+      <c r="Q254">
+        <v>-0.5</v>
+      </c>
+      <c r="R254">
+        <v>2</v>
+      </c>
+      <c r="S254">
+        <v>1.8</v>
+      </c>
+      <c r="T254">
+        <v>2.5</v>
+      </c>
+      <c r="U254">
+        <v>1.95</v>
+      </c>
+      <c r="V254">
+        <v>1.85</v>
+      </c>
+      <c r="W254">
+        <v>0</v>
+      </c>
+      <c r="X254">
+        <v>0</v>
+      </c>
+      <c r="Y254">
+        <v>0</v>
+      </c>
+      <c r="Z254">
+        <v>0</v>
+      </c>
+      <c r="AA254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:29">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>7792875</v>
+      </c>
+      <c r="C255" t="s">
+        <v>28</v>
+      </c>
+      <c r="D255" t="s">
+        <v>28</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45346.75</v>
+      </c>
+      <c r="F255" t="s">
+        <v>46</v>
+      </c>
+      <c r="G255" t="s">
+        <v>42</v>
+      </c>
+      <c r="K255">
+        <v>1.8</v>
+      </c>
+      <c r="L255">
+        <v>3.5</v>
+      </c>
+      <c r="M255">
+        <v>3.75</v>
+      </c>
+      <c r="N255">
+        <v>1.8</v>
+      </c>
+      <c r="O255">
+        <v>3.5</v>
+      </c>
+      <c r="P255">
+        <v>3.8</v>
+      </c>
+      <c r="Q255">
+        <v>-0.5</v>
+      </c>
+      <c r="R255">
+        <v>1.825</v>
+      </c>
+      <c r="S255">
+        <v>1.975</v>
+      </c>
+      <c r="T255">
+        <v>2.5</v>
+      </c>
+      <c r="U255">
+        <v>1.9</v>
+      </c>
+      <c r="V255">
+        <v>1.9</v>
+      </c>
+      <c r="W255">
+        <v>0</v>
+      </c>
+      <c r="X255">
+        <v>0</v>
+      </c>
+      <c r="Y255">
+        <v>0</v>
+      </c>
+      <c r="Z255">
+        <v>0</v>
+      </c>
+      <c r="AA255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:29">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>7793484</v>
+      </c>
+      <c r="C256" t="s">
+        <v>28</v>
+      </c>
+      <c r="D256" t="s">
+        <v>28</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45346.85416666666</v>
+      </c>
+      <c r="F256" t="s">
+        <v>38</v>
+      </c>
+      <c r="G256" t="s">
+        <v>40</v>
+      </c>
+      <c r="K256">
+        <v>2.3</v>
+      </c>
+      <c r="L256">
+        <v>3.3</v>
+      </c>
+      <c r="M256">
+        <v>2.75</v>
+      </c>
+      <c r="N256">
+        <v>2.25</v>
+      </c>
+      <c r="O256">
+        <v>3.3</v>
+      </c>
+      <c r="P256">
+        <v>2.8</v>
+      </c>
+      <c r="Q256">
+        <v>-0.25</v>
+      </c>
+      <c r="R256">
+        <v>1.95</v>
+      </c>
+      <c r="S256">
+        <v>1.85</v>
+      </c>
+      <c r="T256">
+        <v>2.5</v>
+      </c>
+      <c r="U256">
+        <v>1.95</v>
+      </c>
+      <c r="V256">
+        <v>1.85</v>
+      </c>
+      <c r="W256">
+        <v>0</v>
+      </c>
+      <c r="X256">
+        <v>0</v>
+      </c>
+      <c r="Y256">
+        <v>0</v>
+      </c>
+      <c r="Z256">
+        <v>0</v>
+      </c>
+      <c r="AA256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:27">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>7793486</v>
+      </c>
+      <c r="C257" t="s">
+        <v>28</v>
+      </c>
+      <c r="D257" t="s">
+        <v>28</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45347.85416666666</v>
+      </c>
+      <c r="F257" t="s">
+        <v>36</v>
+      </c>
+      <c r="G257" t="s">
+        <v>39</v>
+      </c>
+      <c r="K257">
+        <v>2.2</v>
+      </c>
+      <c r="L257">
+        <v>3.3</v>
+      </c>
+      <c r="M257">
+        <v>3</v>
+      </c>
+      <c r="N257">
+        <v>2.25</v>
+      </c>
+      <c r="O257">
+        <v>3.3</v>
+      </c>
+      <c r="P257">
+        <v>2.875</v>
+      </c>
+      <c r="Q257">
+        <v>-0.25</v>
+      </c>
+      <c r="R257">
+        <v>1.975</v>
+      </c>
+      <c r="S257">
+        <v>1.825</v>
+      </c>
+      <c r="T257">
+        <v>2.5</v>
+      </c>
+      <c r="U257">
+        <v>1.95</v>
+      </c>
+      <c r="V257">
+        <v>1.85</v>
+      </c>
+      <c r="W257">
+        <v>0</v>
+      </c>
+      <c r="X257">
+        <v>0</v>
+      </c>
+      <c r="Y257">
+        <v>0</v>
+      </c>
+      <c r="Z257">
+        <v>0</v>
+      </c>
+      <c r="AA257">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Chile Primera B/Chile Primera B.xlsx
+++ b/Chile Primera B/Chile Primera B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>Puerto Montt</t>
   </si>
   <si>
-    <t>Deportes Recoleta</t>
+    <t>Santiago Wanderers</t>
   </si>
   <si>
-    <t>Santiago Wanderers</t>
+    <t>Deportes Recoleta</t>
   </si>
   <si>
     <t>Santiago Morning</t>
@@ -130,10 +130,10 @@
     <t>La Serena</t>
   </si>
   <si>
-    <t>Club Deportes Santa Cruz</t>
+    <t>Deportes Temuco</t>
   </si>
   <si>
-    <t>Deportes Temuco</t>
+    <t>Club Deportes Santa Cruz</t>
   </si>
   <si>
     <t>Barnechea</t>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t>CD Antofagasta</t>
-  </si>
-  <si>
-    <t>Curico Unido</t>
   </si>
   <si>
     <t>Magallanes</t>
@@ -525,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC257"/>
+  <dimension ref="A1:AC256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K2">
         <v>1.666</v>
@@ -735,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3">
         <v>2.5</v>
@@ -815,7 +812,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -824,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -889,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6156793</v>
+        <v>6260666</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,37 +901,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K5">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M5">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N5">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P5">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
         <v>1.875</v>
@@ -946,19 +943,19 @@
         <v>2</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y5">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
         <v>-1</v>
@@ -970,7 +967,7 @@
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6260666</v>
+        <v>6156793</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,37 +990,37 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>48</v>
       </c>
       <c r="K6">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L6">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="N6">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="O6">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P6">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q6">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>1.875</v>
@@ -1035,19 +1032,19 @@
         <v>2</v>
       </c>
       <c r="U6">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z6">
         <v>-1</v>
@@ -1059,7 +1056,7 @@
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1091,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>2.2</v>
@@ -1180,7 +1177,7 @@
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8">
         <v>1.85</v>
@@ -1269,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9">
         <v>2.875</v>
@@ -1349,7 +1346,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1358,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10">
         <v>2.2</v>
@@ -1423,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6156801</v>
+        <v>6156800</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1438,73 +1435,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L11">
         <v>3</v>
       </c>
       <c r="M11">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N11">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="O11">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P11">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R11">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S11">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T11">
         <v>2.25</v>
       </c>
       <c r="U11">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V11">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
+        <v>-1</v>
+      </c>
+      <c r="AA11">
+        <v>0.95</v>
+      </c>
+      <c r="AB11">
         <v>-0.5</v>
       </c>
-      <c r="AA11">
-        <v>0.4375</v>
-      </c>
-      <c r="AB11">
-        <v>0.925</v>
-      </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1512,7 +1509,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6156800</v>
+        <v>6156801</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1527,73 +1524,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L12">
         <v>3</v>
       </c>
       <c r="M12">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N12">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P12">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S12">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AB12">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC12">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1625,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13">
         <v>2.2</v>
@@ -1714,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14">
         <v>2.3</v>
@@ -1794,7 +1791,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1803,7 +1800,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K15">
         <v>1.909</v>
@@ -1892,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K16">
         <v>2.1</v>
@@ -1969,7 +1966,7 @@
         <v>44983.5</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
         <v>31</v>
@@ -1981,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K17">
         <v>2.3</v>
@@ -2070,7 +2067,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18">
         <v>2.2</v>
@@ -2135,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6156802</v>
+        <v>6156804</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2147,55 +2144,55 @@
         <v>44984.75</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L19">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M19">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N19">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P19">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R19">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S19">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T19">
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V19">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2204,19 +2201,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.9</v>
+        <v>3.333</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2224,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6156804</v>
+        <v>6156802</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,55 +2233,55 @@
         <v>44984.75</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N20">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P20">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T20">
         <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2293,19 +2290,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>3.333</v>
+        <v>1.9</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
+        <v>1.05</v>
+      </c>
+      <c r="AB20">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
       <c r="AC20">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2337,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -2414,7 +2411,7 @@
         <v>44985.75</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>43</v>
@@ -2426,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K22">
         <v>2.5</v>
@@ -2491,7 +2488,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6156808</v>
+        <v>6156809</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,46 +2500,46 @@
         <v>44989.5</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L23">
         <v>3</v>
       </c>
       <c r="M23">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N23">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q23">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S23">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T23">
         <v>2.25</v>
@@ -2557,16 +2554,16 @@
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y23">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA23">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB23">
         <v>-0.5</v>
@@ -2580,7 +2577,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6156809</v>
+        <v>6156808</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,46 +2589,46 @@
         <v>44989.5</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
         <v>48</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L24">
         <v>3</v>
       </c>
       <c r="M24">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N24">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O24">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S24">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T24">
         <v>2.25</v>
@@ -2646,16 +2643,16 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB24">
         <v>-0.5</v>
@@ -2684,7 +2681,7 @@
         <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2693,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K25">
         <v>1.8</v>
@@ -2782,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K26">
         <v>2.1</v>
@@ -2871,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K27">
         <v>2.4</v>
@@ -2960,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28">
         <v>1.666</v>
@@ -3025,7 +3022,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6156812</v>
+        <v>6155917</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,13 +3034,13 @@
         <v>44991.85416666666</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -3052,61 +3049,61 @@
         <v>47</v>
       </c>
       <c r="K29">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L29">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M29">
+        <v>2.8</v>
+      </c>
+      <c r="N29">
+        <v>1.95</v>
+      </c>
+      <c r="O29">
         <v>3.1</v>
       </c>
-      <c r="N29">
-        <v>2.55</v>
-      </c>
-      <c r="O29">
-        <v>2.875</v>
-      </c>
       <c r="P29">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>1.8</v>
+      </c>
+      <c r="T29">
+        <v>2</v>
+      </c>
+      <c r="U29">
         <v>1.775</v>
       </c>
-      <c r="S29">
+      <c r="V29">
         <v>2.025</v>
       </c>
-      <c r="T29">
-        <v>2</v>
-      </c>
-      <c r="U29">
-        <v>1.925</v>
-      </c>
-      <c r="V29">
-        <v>1.875</v>
-      </c>
       <c r="W29">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3114,7 +3111,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6155917</v>
+        <v>6156812</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3126,76 +3123,76 @@
         <v>44991.85416666666</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M30">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N30">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O30">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P30">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q30">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S30">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T30">
         <v>2</v>
       </c>
       <c r="U30">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X30">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3215,7 +3212,7 @@
         <v>44995.75</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -3227,7 +3224,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31">
         <v>2.1</v>
@@ -3304,7 +3301,7 @@
         <v>44996.75</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
         <v>37</v>
@@ -3316,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32">
         <v>2.6</v>
@@ -3405,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
         <v>2.3</v>
@@ -3494,7 +3491,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34">
         <v>1.833</v>
@@ -3559,7 +3556,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6156817</v>
+        <v>6317118</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,10 +3568,10 @@
         <v>44999.75</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3583,46 +3580,46 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L35">
         <v>3.2</v>
       </c>
       <c r="M35">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N35">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="O35">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P35">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q35">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S35">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T35">
         <v>2.25</v>
       </c>
       <c r="U35">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V35">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W35">
-        <v>0.833</v>
+        <v>1</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3631,13 +3628,13 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.875</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA35">
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3648,7 +3645,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6317118</v>
+        <v>6156817</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,10 +3657,10 @@
         <v>44999.75</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3672,46 +3669,46 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L36">
         <v>3.2</v>
       </c>
       <c r="M36">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N36">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="O36">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P36">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R36">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S36">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T36">
         <v>2.25</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W36">
-        <v>1</v>
+        <v>0.833</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3720,13 +3717,13 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.7250000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3737,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6156815</v>
+        <v>6156816</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3749,58 +3746,58 @@
         <v>44999.85416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L37">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M37">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N37">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O37">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P37">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q37">
         <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S37">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T37">
         <v>2.25</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V37">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W37">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3809,16 +3806,16 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3826,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6156816</v>
+        <v>6156815</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3838,58 +3835,58 @@
         <v>44999.85416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K38">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>2.6</v>
+      </c>
+      <c r="N38">
+        <v>2.15</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+      <c r="P38">
         <v>3.1</v>
-      </c>
-      <c r="M38">
-        <v>3.1</v>
-      </c>
-      <c r="N38">
-        <v>2</v>
-      </c>
-      <c r="O38">
-        <v>3.2</v>
-      </c>
-      <c r="P38">
-        <v>3.6</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S38">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3898,16 +3895,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC38">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3939,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K39">
         <v>1.95</v>
@@ -4004,7 +4001,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6155921</v>
+        <v>6156164</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4013,76 @@
         <v>45004.75</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
         <v>0</v>
       </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K40">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L40">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M40">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N40">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="O40">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P40">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="S40">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA40">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4093,7 +4090,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6156164</v>
+        <v>6155921</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,76 +4102,76 @@
         <v>45004.75</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K41">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L41">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N41">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="O41">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P41">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q41">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="S41">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U41">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z41">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB41">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4182,7 +4179,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6156822</v>
+        <v>6156818</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,76 +4191,76 @@
         <v>45005.75</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K42">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L42">
         <v>3</v>
       </c>
       <c r="M42">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N42">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O42">
+        <v>3</v>
+      </c>
+      <c r="P42">
         <v>2.9</v>
-      </c>
-      <c r="P42">
-        <v>3.3</v>
       </c>
       <c r="Q42">
         <v>-0.25</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T42">
         <v>2.25</v>
       </c>
       <c r="U42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y42">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA42">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB42">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4271,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6156818</v>
+        <v>6156822</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,76 +4280,76 @@
         <v>45005.75</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
         <v>48</v>
       </c>
       <c r="K43">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L43">
         <v>3</v>
       </c>
       <c r="M43">
+        <v>3.1</v>
+      </c>
+      <c r="N43">
+        <v>2.15</v>
+      </c>
+      <c r="O43">
         <v>2.9</v>
       </c>
-      <c r="N43">
-        <v>2.3</v>
-      </c>
-      <c r="O43">
-        <v>3</v>
-      </c>
       <c r="P43">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q43">
         <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S43">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T43">
         <v>2.25</v>
       </c>
       <c r="U43">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB43">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC43">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4360,7 +4357,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6156821</v>
+        <v>6155920</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,76 +4369,76 @@
         <v>45005.85416666666</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K44">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L44">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M44">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="N44">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O44">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P44">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q44">
         <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S44">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W44">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z44">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4449,7 +4446,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6155920</v>
+        <v>6156821</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,76 +4458,76 @@
         <v>45005.85416666666</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K45">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L45">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M45">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="N45">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O45">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P45">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q45">
         <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S45">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T45">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4550,7 +4547,7 @@
         <v>45006.75</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -4562,7 +4559,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K46">
         <v>2.25</v>
@@ -4639,7 +4636,7 @@
         <v>45010.75</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
         <v>31</v>
@@ -4651,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K47">
         <v>2.15</v>
@@ -4740,7 +4737,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K48">
         <v>1.833</v>
@@ -4805,7 +4802,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6156165</v>
+        <v>6156826</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,58 +4814,58 @@
         <v>45011.75</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H49">
         <v>3</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K49">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L49">
         <v>3.2</v>
       </c>
       <c r="M49">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="N49">
+        <v>1.909</v>
+      </c>
+      <c r="O49">
+        <v>3.25</v>
+      </c>
+      <c r="P49">
+        <v>3.75</v>
+      </c>
+      <c r="Q49">
+        <v>-0.5</v>
+      </c>
+      <c r="R49">
+        <v>1.925</v>
+      </c>
+      <c r="S49">
+        <v>1.875</v>
+      </c>
+      <c r="T49">
         <v>2.25</v>
       </c>
-      <c r="O49">
-        <v>3</v>
-      </c>
-      <c r="P49">
-        <v>3</v>
-      </c>
-      <c r="Q49">
-        <v>-0.25</v>
-      </c>
-      <c r="R49">
-        <v>1.975</v>
-      </c>
-      <c r="S49">
-        <v>1.825</v>
-      </c>
-      <c r="T49">
-        <v>2</v>
-      </c>
       <c r="U49">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V49">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W49">
-        <v>1.25</v>
+        <v>0.909</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4877,13 +4874,13 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4894,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6156826</v>
+        <v>6156165</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,58 +4903,58 @@
         <v>45011.75</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H50">
         <v>3</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K50">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L50">
         <v>3.2</v>
       </c>
       <c r="M50">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="N50">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O50">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P50">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S50">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W50">
-        <v>0.909</v>
+        <v>1.25</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4966,13 +4963,13 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4995,7 +4992,7 @@
         <v>45011.85416666666</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
         <v>34</v>
@@ -5007,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -5087,7 +5084,7 @@
         <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5096,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K52">
         <v>1.909</v>
@@ -5161,7 +5158,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6156827</v>
+        <v>6156823</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5173,56 +5170,56 @@
         <v>45012.75</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K53">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>3.4</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <v>3.1</v>
+      </c>
+      <c r="P53">
         <v>3.5</v>
-      </c>
-      <c r="M53">
-        <v>5</v>
-      </c>
-      <c r="N53">
-        <v>2</v>
-      </c>
-      <c r="O53">
-        <v>3.2</v>
-      </c>
-      <c r="P53">
-        <v>3.4</v>
       </c>
       <c r="Q53">
         <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S53">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U53">
+        <v>1.85</v>
+      </c>
+      <c r="V53">
         <v>1.95</v>
       </c>
-      <c r="V53">
-        <v>1.85</v>
-      </c>
       <c r="W53">
         <v>1</v>
       </c>
@@ -5233,16 +5230,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.7250000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5250,7 +5247,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6156823</v>
+        <v>6156827</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5262,56 +5259,56 @@
         <v>45012.75</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K54">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M54">
+        <v>5</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <v>3.2</v>
+      </c>
+      <c r="P54">
         <v>3.4</v>
-      </c>
-      <c r="N54">
-        <v>2</v>
-      </c>
-      <c r="O54">
-        <v>3.1</v>
-      </c>
-      <c r="P54">
-        <v>3.5</v>
       </c>
       <c r="Q54">
         <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S54">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T54">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
+        <v>1.95</v>
+      </c>
+      <c r="V54">
         <v>1.85</v>
       </c>
-      <c r="V54">
-        <v>1.95</v>
-      </c>
       <c r="W54">
         <v>1</v>
       </c>
@@ -5322,16 +5319,16 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.7749999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
+        <v>-1</v>
+      </c>
+      <c r="AC54">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC54">
-        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5363,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K55">
         <v>2.05</v>
@@ -5452,7 +5449,7 @@
         <v>4</v>
       </c>
       <c r="J56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K56">
         <v>1.909</v>
@@ -5529,7 +5526,7 @@
         <v>45030.5625</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
         <v>30</v>
@@ -5541,7 +5538,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K57">
         <v>2.5</v>
@@ -5630,7 +5627,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K58">
         <v>2.5</v>
@@ -5695,7 +5692,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6156830</v>
+        <v>6156166</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,58 +5704,58 @@
         <v>45031.79166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K59">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L59">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M59">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N59">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O59">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P59">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q59">
         <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S59">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T59">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V59">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
-        <v>0.909</v>
+        <v>1</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5767,16 +5764,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5784,7 +5781,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6156166</v>
+        <v>6156830</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,58 +5793,58 @@
         <v>45031.79166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L60">
+        <v>3.2</v>
+      </c>
+      <c r="M60">
         <v>3</v>
       </c>
-      <c r="M60">
-        <v>3.75</v>
-      </c>
       <c r="N60">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O60">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P60">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q60">
         <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S60">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T60">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V60">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>0.909</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5856,16 +5853,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC60">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5888,7 +5885,7 @@
         <v>35</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5897,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K61">
         <v>2.375</v>
@@ -5974,7 +5971,7 @@
         <v>45032.79166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
         <v>42</v>
@@ -5986,7 +5983,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6075,7 +6072,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K63">
         <v>2.3</v>
@@ -6164,7 +6161,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K64">
         <v>2.9</v>
@@ -6244,7 +6241,7 @@
         <v>41</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6253,7 +6250,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K65">
         <v>1.615</v>
@@ -6342,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K66">
         <v>2.75</v>
@@ -6431,7 +6428,7 @@
         <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K67">
         <v>1.909</v>
@@ -6520,7 +6517,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K68">
         <v>4</v>
@@ -6585,7 +6582,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6156834</v>
+        <v>6156833</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6600,7 +6597,7 @@
         <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6609,64 +6606,64 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K69">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="L69">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M69">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N69">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O69">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S69">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
+        <v>-1</v>
+      </c>
+      <c r="AA69">
+        <v>1</v>
+      </c>
+      <c r="AB69">
         <v>-0.5</v>
       </c>
-      <c r="AA69">
-        <v>0.4875</v>
-      </c>
-      <c r="AB69">
-        <v>0</v>
-      </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6674,7 +6671,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6156833</v>
+        <v>6156834</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6689,7 +6686,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6698,64 +6695,64 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K70">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="L70">
+        <v>3.2</v>
+      </c>
+      <c r="M70">
+        <v>2.75</v>
+      </c>
+      <c r="N70">
+        <v>1.95</v>
+      </c>
+      <c r="O70">
+        <v>3.1</v>
+      </c>
+      <c r="P70">
         <v>3.5</v>
       </c>
-      <c r="M70">
-        <v>5</v>
-      </c>
-      <c r="N70">
-        <v>1.75</v>
-      </c>
-      <c r="O70">
-        <v>3.5</v>
-      </c>
-      <c r="P70">
-        <v>4</v>
-      </c>
       <c r="Q70">
+        <v>-0.25</v>
+      </c>
+      <c r="R70">
+        <v>1.725</v>
+      </c>
+      <c r="S70">
+        <v>1.975</v>
+      </c>
+      <c r="T70">
+        <v>2</v>
+      </c>
+      <c r="U70">
+        <v>1.85</v>
+      </c>
+      <c r="V70">
+        <v>1.95</v>
+      </c>
+      <c r="W70">
+        <v>-1</v>
+      </c>
+      <c r="X70">
+        <v>2.1</v>
+      </c>
+      <c r="Y70">
+        <v>-1</v>
+      </c>
+      <c r="Z70">
         <v>-0.5</v>
       </c>
-      <c r="R70">
-        <v>1.8</v>
-      </c>
-      <c r="S70">
-        <v>2</v>
-      </c>
-      <c r="T70">
-        <v>2.25</v>
-      </c>
-      <c r="U70">
-        <v>1.925</v>
-      </c>
-      <c r="V70">
-        <v>1.875</v>
-      </c>
-      <c r="W70">
-        <v>-1</v>
-      </c>
-      <c r="X70">
-        <v>2.5</v>
-      </c>
-      <c r="Y70">
-        <v>-1</v>
-      </c>
-      <c r="Z70">
-        <v>-1</v>
-      </c>
       <c r="AA70">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC70">
-        <v>0.4375</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6787,7 +6784,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -6867,7 +6864,7 @@
         <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6876,7 +6873,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K72">
         <v>2.625</v>
@@ -6953,10 +6950,10 @@
         <v>45044.66666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6965,7 +6962,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K73">
         <v>2.5</v>
@@ -7045,7 +7042,7 @@
         <v>44</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H74">
         <v>6</v>
@@ -7054,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K74">
         <v>2.3</v>
@@ -7143,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K75">
         <v>2.625</v>
@@ -7220,7 +7217,7 @@
         <v>45046.6875</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
         <v>34</v>
@@ -7232,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K76">
         <v>2.3</v>
@@ -7321,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K77">
         <v>2.625</v>
@@ -7410,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K78">
         <v>2.75</v>
@@ -7499,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K79">
         <v>1.909</v>
@@ -7588,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K80">
         <v>2.2</v>
@@ -7677,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K81">
         <v>2.2</v>
@@ -7754,7 +7751,7 @@
         <v>45056.6875</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>36</v>
@@ -7766,7 +7763,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K82">
         <v>1.909</v>
@@ -7855,7 +7852,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K83">
         <v>2.5</v>
@@ -7920,7 +7917,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6156169</v>
+        <v>6156848</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7932,73 +7929,73 @@
         <v>45057.79166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K84">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L84">
         <v>3.2</v>
       </c>
       <c r="M84">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N84">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O84">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P84">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S84">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T84">
         <v>2.25</v>
       </c>
       <c r="U84">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V84">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA84">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8009,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6156848</v>
+        <v>6156847</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8021,58 +8018,58 @@
         <v>45057.79166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K85">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L85">
         <v>3.2</v>
       </c>
       <c r="M85">
+        <v>3.75</v>
+      </c>
+      <c r="N85">
+        <v>1.533</v>
+      </c>
+      <c r="O85">
         <v>4</v>
       </c>
-      <c r="N85">
-        <v>1.909</v>
-      </c>
-      <c r="O85">
-        <v>3.3</v>
-      </c>
       <c r="P85">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R85">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S85">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T85">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W85">
-        <v>0.909</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8081,13 +8078,13 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8098,7 +8095,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6156847</v>
+        <v>6156169</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,49 +8107,49 @@
         <v>45057.79166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
         <v>3</v>
       </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K86">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L86">
         <v>3.2</v>
       </c>
       <c r="M86">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N86">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P86">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q86">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S86">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U86">
         <v>2</v>
@@ -8161,19 +8158,19 @@
         <v>1.8</v>
       </c>
       <c r="W86">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z86">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB86">
         <v>1</v>
@@ -8199,7 +8196,7 @@
         <v>45057.79166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G87" t="s">
         <v>30</v>
@@ -8211,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K87">
         <v>2.2</v>
@@ -8288,7 +8285,7 @@
         <v>45058.875</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G88" t="s">
         <v>35</v>
@@ -8300,7 +8297,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K88">
         <v>2.2</v>
@@ -8389,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K89">
         <v>2.2</v>
@@ -8478,7 +8475,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K90">
         <v>2.5</v>
@@ -8555,7 +8552,7 @@
         <v>45061.83333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
         <v>43</v>
@@ -8567,7 +8564,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K91">
         <v>1.727</v>
@@ -8632,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6156170</v>
+        <v>6156851</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,76 +8641,76 @@
         <v>45062.6875</v>
       </c>
       <c r="F92" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G92" t="s">
         <v>33</v>
       </c>
       <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
         <v>0</v>
       </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
       <c r="J92" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K92">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="L92">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M92">
         <v>3.75</v>
       </c>
       <c r="N92">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P92">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q92">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S92">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T92">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA92">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8721,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6156851</v>
+        <v>6156170</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,76 +8730,76 @@
         <v>45062.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G93" t="s">
         <v>32</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K93">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L93">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M93">
         <v>3.75</v>
       </c>
       <c r="N93">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O93">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P93">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R93">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S93">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T93">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W93">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z93">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB93">
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8825,7 +8822,7 @@
         <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H94">
         <v>4</v>
@@ -8834,7 +8831,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K94">
         <v>1.833</v>
@@ -8923,7 +8920,7 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K95">
         <v>2.55</v>
@@ -9012,7 +9009,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K96">
         <v>2.625</v>
@@ -9101,7 +9098,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K97">
         <v>2</v>
@@ -9190,7 +9187,7 @@
         <v>4</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K98">
         <v>2.5</v>
@@ -9267,7 +9264,7 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
         <v>35</v>
@@ -9279,7 +9276,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K99">
         <v>2.5</v>
@@ -9359,7 +9356,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9368,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K100">
         <v>2.1</v>
@@ -9457,7 +9454,7 @@
         <v>4</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K101">
         <v>2.1</v>
@@ -9534,7 +9531,7 @@
         <v>45068.79166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -9546,7 +9543,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K102">
         <v>2</v>
@@ -9611,7 +9608,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6155933</v>
+        <v>6156854</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,58 +9620,58 @@
         <v>45068.89583333334</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K103">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L103">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N103">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O103">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P103">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q103">
         <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S103">
         <v>1.95</v>
       </c>
       <c r="T103">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U103">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W103">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9683,16 +9680,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9700,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6156854</v>
+        <v>6155933</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,58 +9709,58 @@
         <v>45068.89583333334</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K104">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M104">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N104">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O104">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P104">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q104">
         <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S104">
         <v>1.95</v>
       </c>
       <c r="T104">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V104">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9772,16 +9769,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC104">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9813,7 +9810,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K105">
         <v>2.1</v>
@@ -9893,7 +9890,7 @@
         <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9902,7 +9899,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K106">
         <v>2</v>
@@ -9979,10 +9976,10 @@
         <v>45073.77083333334</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9991,7 +9988,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K107">
         <v>2.15</v>
@@ -10080,7 +10077,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K108">
         <v>2.2</v>
@@ -10160,7 +10157,7 @@
         <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10169,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K109">
         <v>2</v>
@@ -10258,7 +10255,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K110">
         <v>1.8</v>
@@ -10347,7 +10344,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K111">
         <v>1.5</v>
@@ -10436,7 +10433,7 @@
         <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K112">
         <v>2.625</v>
@@ -10525,7 +10522,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K113">
         <v>2.3</v>
@@ -10614,7 +10611,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K114">
         <v>2.375</v>
@@ -10703,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K115">
         <v>1.666</v>
@@ -10792,7 +10789,7 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K116">
         <v>2.2</v>
@@ -10881,7 +10878,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K117">
         <v>2.2</v>
@@ -10958,7 +10955,7 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G118" t="s">
         <v>34</v>
@@ -10970,7 +10967,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K118">
         <v>2.2</v>
@@ -11047,7 +11044,7 @@
         <v>45081.77083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>30</v>
@@ -11059,7 +11056,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K119">
         <v>2.3</v>
@@ -11136,11 +11133,11 @@
         <v>45081.875</v>
       </c>
       <c r="F120" t="s">
+        <v>39</v>
+      </c>
+      <c r="G120" t="s">
         <v>38</v>
       </c>
-      <c r="G120" t="s">
-        <v>39</v>
-      </c>
       <c r="H120">
         <v>1</v>
       </c>
@@ -11148,7 +11145,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K120">
         <v>2.375</v>
@@ -11237,7 +11234,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K121">
         <v>2.375</v>
@@ -11326,7 +11323,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K122">
         <v>2.1</v>
@@ -11403,10 +11400,10 @@
         <v>45094.77083333334</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11415,7 +11412,7 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K123">
         <v>2.375</v>
@@ -11504,7 +11501,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K124">
         <v>2.5</v>
@@ -11581,7 +11578,7 @@
         <v>45095.5625</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G125" t="s">
         <v>31</v>
@@ -11593,7 +11590,7 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K125">
         <v>1.5</v>
@@ -11673,7 +11670,7 @@
         <v>37</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11682,7 +11679,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K126">
         <v>1.727</v>
@@ -11771,7 +11768,7 @@
         <v>3</v>
       </c>
       <c r="J127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K127">
         <v>2.1</v>
@@ -11860,7 +11857,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K128">
         <v>2</v>
@@ -11949,7 +11946,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K129">
         <v>2.375</v>
@@ -12038,7 +12035,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K130">
         <v>1.727</v>
@@ -12103,7 +12100,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6155941</v>
+        <v>6156878</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,34 +12112,34 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K131">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L131">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M131">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N131">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O131">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P131">
         <v>2.9</v>
@@ -12154,37 +12151,37 @@
         <v>1.975</v>
       </c>
       <c r="S131">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T131">
+        <v>2.75</v>
+      </c>
+      <c r="U131">
+        <v>1.825</v>
+      </c>
+      <c r="V131">
+        <v>1.975</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
         <v>2.25</v>
       </c>
-      <c r="U131">
-        <v>2</v>
-      </c>
-      <c r="V131">
-        <v>1.8</v>
-      </c>
-      <c r="W131">
-        <v>-1</v>
-      </c>
-      <c r="X131">
-        <v>-1</v>
-      </c>
       <c r="Y131">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>0.7250000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB131">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12189,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6156877</v>
+        <v>6155941</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,73 +12201,73 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K132">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L132">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M132">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="N132">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O132">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P132">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q132">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T132">
         <v>2.25</v>
       </c>
       <c r="U132">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V132">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W132">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z132">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB132">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12281,7 +12278,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6156878</v>
+        <v>6156877</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,49 +12290,49 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K133">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L133">
+        <v>3</v>
+      </c>
+      <c r="M133">
+        <v>2.45</v>
+      </c>
+      <c r="N133">
+        <v>1.909</v>
+      </c>
+      <c r="O133">
         <v>3.2</v>
       </c>
-      <c r="M133">
-        <v>3.4</v>
-      </c>
-      <c r="N133">
-        <v>2.15</v>
-      </c>
-      <c r="O133">
-        <v>3.25</v>
-      </c>
       <c r="P133">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S133">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
         <v>1.825</v>
@@ -12344,25 +12341,25 @@
         <v>1.975</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X133">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA133">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC133">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12382,10 +12379,10 @@
         <v>45116.5625</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12394,7 +12391,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K134">
         <v>2.375</v>
@@ -12483,7 +12480,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K135">
         <v>1.833</v>
@@ -12563,7 +12560,7 @@
         <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -12572,7 +12569,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K136">
         <v>2.05</v>
@@ -12652,7 +12649,7 @@
         <v>43</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12661,7 +12658,7 @@
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K137">
         <v>2.2</v>
@@ -12750,7 +12747,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K138">
         <v>2.1</v>
@@ -12815,7 +12812,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6156882</v>
+        <v>6155942</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12824,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
         <v>48</v>
       </c>
       <c r="K139">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L139">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M139">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="N139">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O139">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P139">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S139">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="T139">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U139">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V139">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0.425</v>
+        <v>0.7</v>
       </c>
       <c r="AB139">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC139">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12901,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6155942</v>
+        <v>6156882</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12913,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K140">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="L140">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M140">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N140">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O140">
+        <v>3.1</v>
+      </c>
+      <c r="P140">
         <v>3</v>
       </c>
-      <c r="P140">
-        <v>2.45</v>
-      </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S140">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="T140">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V140">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y140">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA140">
-        <v>0.7</v>
+        <v>0.425</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC140">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13005,7 +13002,7 @@
         <v>45122.77083333334</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s">
         <v>42</v>
@@ -13017,7 +13014,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K141">
         <v>1.909</v>
@@ -13106,7 +13103,7 @@
         <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K142">
         <v>2</v>
@@ -13195,7 +13192,7 @@
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K143">
         <v>1.727</v>
@@ -13275,7 +13272,7 @@
         <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13284,7 +13281,7 @@
         <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K144">
         <v>1.615</v>
@@ -13373,7 +13370,7 @@
         <v>3</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K145">
         <v>1.7</v>
@@ -13450,7 +13447,7 @@
         <v>45129.5625</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G146" t="s">
         <v>41</v>
@@ -13462,7 +13459,7 @@
         <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K146">
         <v>2.2</v>
@@ -13551,7 +13548,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K147">
         <v>2.15</v>
@@ -13628,10 +13625,10 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F148" t="s">
+        <v>33</v>
+      </c>
+      <c r="G148" t="s">
         <v>32</v>
-      </c>
-      <c r="G148" t="s">
-        <v>33</v>
       </c>
       <c r="H148">
         <v>4</v>
@@ -13640,7 +13637,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K148">
         <v>2.75</v>
@@ -13729,7 +13726,7 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K149">
         <v>3</v>
@@ -13818,7 +13815,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K150">
         <v>1.4</v>
@@ -13907,7 +13904,7 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K151">
         <v>2.625</v>
@@ -13984,7 +13981,7 @@
         <v>45131.79166666666</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
         <v>43</v>
@@ -13996,7 +13993,7 @@
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K152">
         <v>2.15</v>
@@ -14076,7 +14073,7 @@
         <v>36</v>
       </c>
       <c r="G153" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14085,7 +14082,7 @@
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K153">
         <v>1.95</v>
@@ -14150,7 +14147,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6393620</v>
+        <v>6155945</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,73 +14159,73 @@
         <v>45136.5625</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>2</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J154" t="s">
         <v>47</v>
       </c>
       <c r="K154">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L154">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M154">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N154">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="O154">
         <v>3.25</v>
       </c>
       <c r="P154">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q154">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R154">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S154">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T154">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U154">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V154">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W154">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA154">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB154">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -14239,7 +14236,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6155945</v>
+        <v>6393620</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14251,73 +14248,73 @@
         <v>45136.5625</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H155">
         <v>2</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K155">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L155">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M155">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N155">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="O155">
         <v>3.25</v>
       </c>
       <c r="P155">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q155">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R155">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S155">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T155">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U155">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V155">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X155">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA155">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB155">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14340,7 +14337,7 @@
         <v>45136.89583333334</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G156" t="s">
         <v>41</v>
@@ -14352,7 +14349,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K156">
         <v>2.2</v>
@@ -14441,7 +14438,7 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K157">
         <v>1.727</v>
@@ -14521,7 +14518,7 @@
         <v>40</v>
       </c>
       <c r="G158" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14530,7 +14527,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K158">
         <v>2</v>
@@ -14619,7 +14616,7 @@
         <v>3</v>
       </c>
       <c r="J159" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K159">
         <v>2.375</v>
@@ -14699,7 +14696,7 @@
         <v>37</v>
       </c>
       <c r="G160" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14708,7 +14705,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K160">
         <v>1.909</v>
@@ -14797,7 +14794,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K161">
         <v>2.5</v>
@@ -14874,7 +14871,7 @@
         <v>45142.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G162" t="s">
         <v>44</v>
@@ -14886,7 +14883,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K162">
         <v>2.6</v>
@@ -14963,7 +14960,7 @@
         <v>45142.85416666666</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G163" t="s">
         <v>31</v>
@@ -14975,7 +14972,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K163">
         <v>1.909</v>
@@ -15055,7 +15052,7 @@
         <v>35</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -15064,7 +15061,7 @@
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K164">
         <v>1.909</v>
@@ -15153,7 +15150,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K165">
         <v>2.2</v>
@@ -15242,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K166">
         <v>2.15</v>
@@ -15331,7 +15328,7 @@
         <v>3</v>
       </c>
       <c r="J167" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K167">
         <v>1.7</v>
@@ -15408,7 +15405,7 @@
         <v>45144.77083333334</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G168" t="s">
         <v>34</v>
@@ -15420,7 +15417,7 @@
         <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K168">
         <v>1.727</v>
@@ -15509,7 +15506,7 @@
         <v>3</v>
       </c>
       <c r="J169" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K169">
         <v>1.8</v>
@@ -15586,7 +15583,7 @@
         <v>45147.79166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G170" t="s">
         <v>29</v>
@@ -15598,7 +15595,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K170">
         <v>2.25</v>
@@ -15687,7 +15684,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K171">
         <v>2.25</v>
@@ -15752,7 +15749,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6156906</v>
+        <v>6156905</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,76 +15761,76 @@
         <v>45150.5625</v>
       </c>
       <c r="F172" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G172" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K172">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L172">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M172">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N172">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O172">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P172">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q172">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R172">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S172">
+        <v>1.925</v>
+      </c>
+      <c r="T172">
+        <v>2.75</v>
+      </c>
+      <c r="U172">
         <v>1.975</v>
       </c>
-      <c r="T172">
-        <v>2.25</v>
-      </c>
-      <c r="U172">
-        <v>1.8</v>
-      </c>
       <c r="V172">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA172">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15841,7 +15838,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6156905</v>
+        <v>6156906</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,76 +15850,76 @@
         <v>45150.5625</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G173" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K173">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L173">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M173">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N173">
+        <v>1.95</v>
+      </c>
+      <c r="O173">
+        <v>3.1</v>
+      </c>
+      <c r="P173">
+        <v>3.75</v>
+      </c>
+      <c r="Q173">
+        <v>-0.25</v>
+      </c>
+      <c r="R173">
+        <v>1.725</v>
+      </c>
+      <c r="S173">
+        <v>1.975</v>
+      </c>
+      <c r="T173">
+        <v>2.25</v>
+      </c>
+      <c r="U173">
         <v>1.8</v>
       </c>
-      <c r="O173">
-        <v>3.3</v>
-      </c>
-      <c r="P173">
-        <v>3.8</v>
-      </c>
-      <c r="Q173">
-        <v>-0.5</v>
-      </c>
-      <c r="R173">
-        <v>1.875</v>
-      </c>
-      <c r="S173">
-        <v>1.925</v>
-      </c>
-      <c r="T173">
+      <c r="V173">
+        <v>2</v>
+      </c>
+      <c r="W173">
+        <v>-1</v>
+      </c>
+      <c r="X173">
+        <v>-1</v>
+      </c>
+      <c r="Y173">
         <v>2.75</v>
       </c>
-      <c r="U173">
-        <v>1.975</v>
-      </c>
-      <c r="V173">
-        <v>1.825</v>
-      </c>
-      <c r="W173">
+      <c r="Z173">
+        <v>-1</v>
+      </c>
+      <c r="AA173">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB173">
         <v>0.8</v>
       </c>
-      <c r="X173">
-        <v>-1</v>
-      </c>
-      <c r="Y173">
-        <v>-1</v>
-      </c>
-      <c r="Z173">
-        <v>0.875</v>
-      </c>
-      <c r="AA173">
-        <v>-1</v>
-      </c>
-      <c r="AB173">
-        <v>0.4875</v>
-      </c>
       <c r="AC173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15945,7 +15942,7 @@
         <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -15954,7 +15951,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K174">
         <v>2.1</v>
@@ -16034,7 +16031,7 @@
         <v>31</v>
       </c>
       <c r="G175" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -16043,7 +16040,7 @@
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K175">
         <v>2.25</v>
@@ -16132,7 +16129,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K176">
         <v>1.727</v>
@@ -16221,7 +16218,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K177">
         <v>2.15</v>
@@ -16310,7 +16307,7 @@
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K178">
         <v>1.909</v>
@@ -16399,7 +16396,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K179">
         <v>1.833</v>
@@ -16464,7 +16461,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6156911</v>
+        <v>6156908</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,58 +16473,58 @@
         <v>45158.5625</v>
       </c>
       <c r="F180" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G180" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H180">
         <v>2</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K180">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L180">
         <v>3.2</v>
       </c>
       <c r="M180">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N180">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O180">
+        <v>3.25</v>
+      </c>
+      <c r="P180">
         <v>3.2</v>
-      </c>
-      <c r="P180">
-        <v>3</v>
       </c>
       <c r="Q180">
         <v>-0.25</v>
       </c>
       <c r="R180">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S180">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T180">
         <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V180">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W180">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16536,16 +16533,16 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC180">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16553,7 +16550,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6156908</v>
+        <v>6156911</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,58 +16562,58 @@
         <v>45158.5625</v>
       </c>
       <c r="F181" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G181" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H181">
         <v>2</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K181">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L181">
         <v>3.2</v>
       </c>
       <c r="M181">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N181">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O181">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P181">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q181">
         <v>-0.25</v>
       </c>
       <c r="R181">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S181">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T181">
         <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V181">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W181">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16625,16 +16622,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16657,7 +16654,7 @@
         <v>30</v>
       </c>
       <c r="G182" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16666,7 +16663,7 @@
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K182">
         <v>1.727</v>
@@ -16755,7 +16752,7 @@
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K183">
         <v>1.65</v>
@@ -16820,7 +16817,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6156180</v>
+        <v>6155954</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,76 +16829,76 @@
         <v>45165.5625</v>
       </c>
       <c r="F184" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K184">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L184">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M184">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N184">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O184">
+        <v>3.2</v>
+      </c>
+      <c r="P184">
         <v>3.75</v>
       </c>
-      <c r="P184">
-        <v>4</v>
-      </c>
       <c r="Q184">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R184">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S184">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U184">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V184">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W184">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z184">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC184">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16909,7 +16906,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6155954</v>
+        <v>6156180</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16921,76 +16918,76 @@
         <v>45165.5625</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G185" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K185">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L185">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M185">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N185">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O185">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P185">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q185">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R185">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S185">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U185">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V185">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA185">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17010,7 +17007,7 @@
         <v>45165.66666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
         <v>41</v>
@@ -17022,7 +17019,7 @@
         <v>3</v>
       </c>
       <c r="J186" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K186">
         <v>2.4</v>
@@ -17111,7 +17108,7 @@
         <v>3</v>
       </c>
       <c r="J187" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K187">
         <v>3.25</v>
@@ -17188,7 +17185,7 @@
         <v>45165.77083333334</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G188" t="s">
         <v>43</v>
@@ -17200,7 +17197,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K188">
         <v>1.833</v>
@@ -17280,7 +17277,7 @@
         <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17289,7 +17286,7 @@
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K189">
         <v>2.1</v>
@@ -17369,7 +17366,7 @@
         <v>34</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -17378,7 +17375,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K190">
         <v>2.7</v>
@@ -17467,7 +17464,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K191">
         <v>2.05</v>
@@ -17544,10 +17541,10 @@
         <v>45171.79166666666</v>
       </c>
       <c r="F192" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G192" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17556,7 +17553,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K192">
         <v>1.909</v>
@@ -17645,7 +17642,7 @@
         <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K193">
         <v>1.95</v>
@@ -17722,7 +17719,7 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F194" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G194" t="s">
         <v>44</v>
@@ -17734,7 +17731,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K194">
         <v>2.4</v>
@@ -17823,7 +17820,7 @@
         <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K195">
         <v>2</v>
@@ -17912,7 +17909,7 @@
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K196">
         <v>2.1</v>
@@ -18001,7 +17998,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K197">
         <v>2.25</v>
@@ -18078,7 +18075,7 @@
         <v>45177.52083333334</v>
       </c>
       <c r="F198" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G198" t="s">
         <v>29</v>
@@ -18090,7 +18087,7 @@
         <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K198">
         <v>2.3</v>
@@ -18179,7 +18176,7 @@
         <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K199">
         <v>2</v>
@@ -18268,7 +18265,7 @@
         <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K200">
         <v>1.85</v>
@@ -18348,7 +18345,7 @@
         <v>30</v>
       </c>
       <c r="G201" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18357,7 +18354,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K201">
         <v>2</v>
@@ -18446,7 +18443,7 @@
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K202">
         <v>1.533</v>
@@ -18526,7 +18523,7 @@
         <v>35</v>
       </c>
       <c r="G203" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -18535,7 +18532,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K203">
         <v>1.85</v>
@@ -18624,7 +18621,7 @@
         <v>3</v>
       </c>
       <c r="J204" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K204">
         <v>2.4</v>
@@ -18704,7 +18701,7 @@
         <v>36</v>
       </c>
       <c r="G205" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18713,7 +18710,7 @@
         <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K205">
         <v>2.25</v>
@@ -18802,7 +18799,7 @@
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K206">
         <v>1.571</v>
@@ -18879,7 +18876,7 @@
         <v>45183.75</v>
       </c>
       <c r="F207" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G207" t="s">
         <v>44</v>
@@ -18891,7 +18888,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K207">
         <v>3</v>
@@ -18971,7 +18968,7 @@
         <v>29</v>
       </c>
       <c r="G208" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H208">
         <v>2</v>
@@ -18980,7 +18977,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K208">
         <v>1.615</v>
@@ -19069,7 +19066,7 @@
         <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K209">
         <v>2.2</v>
@@ -19149,7 +19146,7 @@
         <v>43</v>
       </c>
       <c r="G210" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19158,7 +19155,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K210">
         <v>2.25</v>
@@ -19235,7 +19232,7 @@
         <v>45192.52083333334</v>
       </c>
       <c r="F211" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G211" t="s">
         <v>40</v>
@@ -19247,7 +19244,7 @@
         <v>2</v>
       </c>
       <c r="J211" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K211">
         <v>2.625</v>
@@ -19336,7 +19333,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K212">
         <v>2.3</v>
@@ -19401,7 +19398,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6155958</v>
+        <v>6156183</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,76 +19410,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F213" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G213" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K213">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L213">
         <v>3.2</v>
       </c>
       <c r="M213">
+        <v>3</v>
+      </c>
+      <c r="N213">
         <v>2.2</v>
       </c>
-      <c r="N213">
-        <v>2.05</v>
-      </c>
       <c r="O213">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P213">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q213">
         <v>-0.25</v>
       </c>
       <c r="R213">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S213">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T213">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U213">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V213">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X213">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA213">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC213">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19490,7 +19487,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6156183</v>
+        <v>6155958</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,76 +19499,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F214" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G214" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
         <v>47</v>
       </c>
       <c r="K214">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L214">
         <v>3.2</v>
       </c>
       <c r="M214">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N214">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O214">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P214">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q214">
         <v>-0.25</v>
       </c>
       <c r="R214">
+        <v>1.825</v>
+      </c>
+      <c r="S214">
+        <v>1.975</v>
+      </c>
+      <c r="T214">
+        <v>2.5</v>
+      </c>
+      <c r="U214">
         <v>1.95</v>
       </c>
-      <c r="S214">
-        <v>1.85</v>
-      </c>
-      <c r="T214">
-        <v>2.25</v>
-      </c>
-      <c r="U214">
-        <v>1.8</v>
-      </c>
       <c r="V214">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W214">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB214">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19591,7 +19588,7 @@
         <v>45195.79166666666</v>
       </c>
       <c r="F215" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G215" t="s">
         <v>41</v>
@@ -19603,7 +19600,7 @@
         <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K215">
         <v>2.25</v>
@@ -19683,7 +19680,7 @@
         <v>42</v>
       </c>
       <c r="G216" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -19692,7 +19689,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K216">
         <v>2.375</v>
@@ -19772,7 +19769,7 @@
         <v>35</v>
       </c>
       <c r="G217" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H217">
         <v>1</v>
@@ -19781,7 +19778,7 @@
         <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K217">
         <v>1.8</v>
@@ -19858,7 +19855,7 @@
         <v>45199.72916666666</v>
       </c>
       <c r="F218" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G218" t="s">
         <v>29</v>
@@ -19870,7 +19867,7 @@
         <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K218">
         <v>2.3</v>
@@ -19959,7 +19956,7 @@
         <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K219">
         <v>1.615</v>
@@ -20048,7 +20045,7 @@
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K220">
         <v>2.2</v>
@@ -20137,7 +20134,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K221">
         <v>2.2</v>
@@ -20217,7 +20214,7 @@
         <v>40</v>
       </c>
       <c r="G222" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -20226,7 +20223,7 @@
         <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K222">
         <v>2.5</v>
@@ -20315,7 +20312,7 @@
         <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K223">
         <v>1.727</v>
@@ -20395,7 +20392,7 @@
         <v>36</v>
       </c>
       <c r="G224" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H224">
         <v>3</v>
@@ -20404,7 +20401,7 @@
         <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K224">
         <v>2.1</v>
@@ -20493,7 +20490,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K225">
         <v>2.3</v>
@@ -20582,7 +20579,7 @@
         <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K226">
         <v>1.8</v>
@@ -20647,7 +20644,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6156942</v>
+        <v>6155962</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20659,55 +20656,55 @@
         <v>45208.52083333334</v>
       </c>
       <c r="F227" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G227" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J227" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K227">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L227">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M227">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N227">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="O227">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P227">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q227">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R227">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S227">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T227">
         <v>2.5</v>
       </c>
       <c r="U227">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V227">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W227">
         <v>-1</v>
@@ -20716,16 +20713,16 @@
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Z227">
         <v>-1</v>
       </c>
       <c r="AA227">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB227">
         <v>0.95</v>
-      </c>
-      <c r="AB227">
-        <v>0.8</v>
       </c>
       <c r="AC227">
         <v>-1</v>
@@ -20736,7 +20733,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6155962</v>
+        <v>6156942</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20748,55 +20745,55 @@
         <v>45208.52083333334</v>
       </c>
       <c r="F228" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G228" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I228">
+        <v>2</v>
+      </c>
+      <c r="J228" t="s">
+        <v>48</v>
+      </c>
+      <c r="K228">
+        <v>2.2</v>
+      </c>
+      <c r="L228">
+        <v>3.1</v>
+      </c>
+      <c r="M228">
         <v>3</v>
       </c>
-      <c r="J228" t="s">
-        <v>49</v>
-      </c>
-      <c r="K228">
-        <v>2.3</v>
-      </c>
-      <c r="L228">
+      <c r="N228">
+        <v>2.05</v>
+      </c>
+      <c r="O228">
         <v>3.2</v>
       </c>
-      <c r="M228">
-        <v>2.75</v>
-      </c>
-      <c r="N228">
-        <v>1.833</v>
-      </c>
-      <c r="O228">
-        <v>3.3</v>
-      </c>
       <c r="P228">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q228">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R228">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S228">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T228">
         <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V228">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W228">
         <v>-1</v>
@@ -20805,16 +20802,16 @@
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB228">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC228">
         <v>-1</v>
@@ -20825,7 +20822,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6156939</v>
+        <v>6156184</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,73 +20834,73 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F229" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G229" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I229">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J229" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K229">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L229">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M229">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N229">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="O229">
         <v>3.2</v>
       </c>
       <c r="P229">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="Q229">
         <v>0</v>
       </c>
       <c r="R229">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S229">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T229">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U229">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V229">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA229">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -20914,7 +20911,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6156184</v>
+        <v>6156939</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,73 +20923,73 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F230" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G230" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H230">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I230">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J230" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K230">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L230">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M230">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N230">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="O230">
         <v>3.2</v>
       </c>
       <c r="P230">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="Q230">
         <v>0</v>
       </c>
       <c r="R230">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S230">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V230">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W230">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z230">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB230">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21015,10 +21012,10 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F231" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G231" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H231">
         <v>1</v>
@@ -21027,7 +21024,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K231">
         <v>2.1</v>
@@ -21116,7 +21113,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K232">
         <v>1.8</v>
@@ -21181,7 +21178,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7327855</v>
+        <v>7327856</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,10 +21190,10 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F233" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G233" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -21205,40 +21202,40 @@
         <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K233">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L233">
+        <v>3.5</v>
+      </c>
+      <c r="M233">
+        <v>4</v>
+      </c>
+      <c r="N233">
+        <v>1.8</v>
+      </c>
+      <c r="O233">
         <v>3.4</v>
       </c>
-      <c r="M233">
-        <v>3</v>
-      </c>
-      <c r="N233">
-        <v>2.625</v>
-      </c>
-      <c r="O233">
-        <v>3.3</v>
-      </c>
       <c r="P233">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q233">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R233">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S233">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T233">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U233">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V233">
         <v>1.95</v>
@@ -21250,13 +21247,13 @@
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="Z233">
         <v>-1</v>
       </c>
       <c r="AA233">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB233">
         <v>-1</v>
@@ -21270,7 +21267,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7327856</v>
+        <v>7327855</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21282,10 +21279,10 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F234" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G234" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -21294,40 +21291,40 @@
         <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K234">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L234">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M234">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N234">
+        <v>2.625</v>
+      </c>
+      <c r="O234">
+        <v>3.3</v>
+      </c>
+      <c r="P234">
+        <v>2.4</v>
+      </c>
+      <c r="Q234">
+        <v>0</v>
+      </c>
+      <c r="R234">
+        <v>2</v>
+      </c>
+      <c r="S234">
         <v>1.8</v>
       </c>
-      <c r="O234">
-        <v>3.4</v>
-      </c>
-      <c r="P234">
-        <v>3.75</v>
-      </c>
-      <c r="Q234">
-        <v>-0.5</v>
-      </c>
-      <c r="R234">
+      <c r="T234">
+        <v>2.5</v>
+      </c>
+      <c r="U234">
         <v>1.85</v>
-      </c>
-      <c r="S234">
-        <v>1.95</v>
-      </c>
-      <c r="T234">
-        <v>2.25</v>
-      </c>
-      <c r="U234">
-        <v>1.75</v>
       </c>
       <c r="V234">
         <v>1.95</v>
@@ -21339,13 +21336,13 @@
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="Z234">
         <v>-1</v>
       </c>
       <c r="AA234">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB234">
         <v>-1</v>
@@ -21383,7 +21380,7 @@
         <v>3</v>
       </c>
       <c r="J235" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K235">
         <v>2</v>
@@ -21448,7 +21445,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7327839</v>
+        <v>7327843</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21460,56 +21457,56 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F236" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G236" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I236">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J236" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K236">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="L236">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M236">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N236">
+        <v>1.727</v>
+      </c>
+      <c r="O236">
+        <v>3.4</v>
+      </c>
+      <c r="P236">
         <v>4.2</v>
       </c>
-      <c r="O236">
-        <v>3.6</v>
-      </c>
-      <c r="P236">
-        <v>1.666</v>
-      </c>
       <c r="Q236">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R236">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S236">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T236">
         <v>2.5</v>
       </c>
       <c r="U236">
+        <v>1.925</v>
+      </c>
+      <c r="V236">
         <v>1.875</v>
       </c>
-      <c r="V236">
-        <v>1.925</v>
-      </c>
       <c r="W236">
         <v>-1</v>
       </c>
@@ -21517,16 +21514,16 @@
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>0.6659999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="Z236">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AB236">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC236">
         <v>-1</v>
@@ -21537,7 +21534,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7327840</v>
+        <v>7327839</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,55 +21546,55 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F237" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G237" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K237">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="L237">
         <v>3.3</v>
       </c>
       <c r="M237">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N237">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="O237">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P237">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="Q237">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R237">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S237">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T237">
         <v>2.5</v>
       </c>
       <c r="U237">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V237">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W237">
         <v>-1</v>
@@ -21606,19 +21603,19 @@
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>2.75</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA237">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC237">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21638,11 +21635,11 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F238" t="s">
+        <v>38</v>
+      </c>
+      <c r="G238" t="s">
         <v>39</v>
       </c>
-      <c r="G238" t="s">
-        <v>38</v>
-      </c>
       <c r="H238">
         <v>2</v>
       </c>
@@ -21650,7 +21647,7 @@
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K238">
         <v>1.533</v>
@@ -21730,7 +21727,7 @@
         <v>30</v>
       </c>
       <c r="G239" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H239">
         <v>3</v>
@@ -21739,7 +21736,7 @@
         <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K239">
         <v>2.1</v>
@@ -21804,7 +21801,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7327843</v>
+        <v>7327840</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21816,55 +21813,55 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F240" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G240" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K240">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L240">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M240">
         <v>4</v>
       </c>
       <c r="N240">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O240">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P240">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q240">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R240">
+        <v>1.725</v>
+      </c>
+      <c r="S240">
         <v>1.975</v>
-      </c>
-      <c r="S240">
-        <v>1.825</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V240">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W240">
         <v>-1</v>
@@ -21873,19 +21870,19 @@
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z240">
         <v>-1</v>
       </c>
       <c r="AA240">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB240">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC240">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21908,7 +21905,7 @@
         <v>37</v>
       </c>
       <c r="G241" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -21917,7 +21914,7 @@
         <v>0</v>
       </c>
       <c r="J241" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K241">
         <v>2.1</v>
@@ -22006,7 +22003,7 @@
         <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K242">
         <v>2.15</v>
@@ -22086,7 +22083,7 @@
         <v>35</v>
       </c>
       <c r="G243" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H243">
         <v>2</v>
@@ -22095,7 +22092,7 @@
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K243">
         <v>2.375</v>
@@ -22184,7 +22181,7 @@
         <v>6</v>
       </c>
       <c r="J244" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K244">
         <v>2.3</v>
@@ -22261,7 +22258,7 @@
         <v>45244.85416666666</v>
       </c>
       <c r="F245" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G245" t="s">
         <v>37</v>
@@ -22273,7 +22270,7 @@
         <v>1</v>
       </c>
       <c r="J245" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K245">
         <v>1.727</v>
@@ -22350,7 +22347,7 @@
         <v>45245.79166666666</v>
       </c>
       <c r="F246" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G246" t="s">
         <v>35</v>
@@ -22362,7 +22359,7 @@
         <v>0</v>
       </c>
       <c r="J246" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K246">
         <v>1.615</v>
@@ -22451,7 +22448,7 @@
         <v>2</v>
       </c>
       <c r="J247" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K247">
         <v>2.1</v>
@@ -22528,10 +22525,10 @@
         <v>45249.75</v>
       </c>
       <c r="F248" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G248" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H248">
         <v>2</v>
@@ -22540,7 +22537,7 @@
         <v>3</v>
       </c>
       <c r="J248" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K248">
         <v>2</v>
@@ -22605,7 +22602,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7503209</v>
+        <v>7503210</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22617,55 +22614,55 @@
         <v>45256.75</v>
       </c>
       <c r="F249" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G249" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H249">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I249">
         <v>0</v>
       </c>
       <c r="J249" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K249">
         <v>2.2</v>
       </c>
       <c r="L249">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M249">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N249">
         <v>2.15</v>
       </c>
       <c r="O249">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P249">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q249">
         <v>-0.25</v>
       </c>
       <c r="R249">
+        <v>1.925</v>
+      </c>
+      <c r="S249">
+        <v>1.875</v>
+      </c>
+      <c r="T249">
+        <v>2.5</v>
+      </c>
+      <c r="U249">
         <v>1.975</v>
       </c>
-      <c r="S249">
+      <c r="V249">
         <v>1.825</v>
-      </c>
-      <c r="T249">
-        <v>2.75</v>
-      </c>
-      <c r="U249">
-        <v>1.85</v>
-      </c>
-      <c r="V249">
-        <v>1.95</v>
       </c>
       <c r="W249">
         <v>1.15</v>
@@ -22677,16 +22674,16 @@
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA249">
         <v>-1</v>
       </c>
       <c r="AB249">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC249">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22694,7 +22691,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7503210</v>
+        <v>7503209</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22706,55 +22703,55 @@
         <v>45256.75</v>
       </c>
       <c r="F250" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G250" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I250">
         <v>0</v>
       </c>
       <c r="J250" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K250">
         <v>2.2</v>
       </c>
       <c r="L250">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M250">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N250">
         <v>2.15</v>
       </c>
       <c r="O250">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P250">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q250">
         <v>-0.25</v>
       </c>
       <c r="R250">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S250">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T250">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U250">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V250">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W250">
         <v>1.15</v>
@@ -22766,16 +22763,16 @@
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA250">
         <v>-1</v>
       </c>
       <c r="AB250">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC250">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22795,7 +22792,7 @@
         <v>45264.79166666666</v>
       </c>
       <c r="F251" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G251" t="s">
         <v>30</v>
@@ -22807,7 +22804,7 @@
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K251">
         <v>2.1</v>
@@ -22887,7 +22884,7 @@
         <v>30</v>
       </c>
       <c r="G252" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H252">
         <v>6</v>
@@ -22896,7 +22893,7 @@
         <v>5</v>
       </c>
       <c r="J252" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K252">
         <v>2.1</v>
@@ -22961,7 +22958,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7792873</v>
+        <v>7793609</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22970,49 +22967,49 @@
         <v>28</v>
       </c>
       <c r="E253" s="2">
-        <v>45345.89583333334</v>
+        <v>45346.5</v>
       </c>
       <c r="F253" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G253" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K253">
+        <v>2</v>
+      </c>
+      <c r="L253">
+        <v>3.2</v>
+      </c>
+      <c r="M253">
+        <v>3.4</v>
+      </c>
+      <c r="N253">
         <v>1.8</v>
-      </c>
-      <c r="L253">
-        <v>3.5</v>
-      </c>
-      <c r="M253">
-        <v>4</v>
-      </c>
-      <c r="N253">
-        <v>1.95</v>
       </c>
       <c r="O253">
         <v>3.3</v>
       </c>
       <c r="P253">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q253">
         <v>-0.5</v>
       </c>
       <c r="R253">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S253">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T253">
         <v>2.5</v>
       </c>
       <c r="U253">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V253">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W253">
         <v>0</v>
@@ -23035,7 +23032,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7793609</v>
+        <v>7792875</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23044,34 +23041,34 @@
         <v>28</v>
       </c>
       <c r="E254" s="2">
-        <v>45346.5</v>
+        <v>45346.75</v>
       </c>
       <c r="F254" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G254" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K254">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L254">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M254">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N254">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="O254">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P254">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q254">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R254">
         <v>2</v>
@@ -23083,10 +23080,10 @@
         <v>2.5</v>
       </c>
       <c r="U254">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V254">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W254">
         <v>0</v>
@@ -23109,7 +23106,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7792875</v>
+        <v>7793484</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23118,49 +23115,49 @@
         <v>28</v>
       </c>
       <c r="E255" s="2">
-        <v>45346.75</v>
+        <v>45346.85416666666</v>
       </c>
       <c r="F255" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G255" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K255">
+        <v>2.3</v>
+      </c>
+      <c r="L255">
+        <v>3.3</v>
+      </c>
+      <c r="M255">
+        <v>2.75</v>
+      </c>
+      <c r="N255">
+        <v>2.05</v>
+      </c>
+      <c r="O255">
+        <v>3.3</v>
+      </c>
+      <c r="P255">
+        <v>3.2</v>
+      </c>
+      <c r="Q255">
+        <v>-0.25</v>
+      </c>
+      <c r="R255">
         <v>1.8</v>
       </c>
-      <c r="L255">
-        <v>3.5</v>
-      </c>
-      <c r="M255">
-        <v>3.75</v>
-      </c>
-      <c r="N255">
-        <v>1.8</v>
-      </c>
-      <c r="O255">
-        <v>3.5</v>
-      </c>
-      <c r="P255">
-        <v>3.8</v>
-      </c>
-      <c r="Q255">
-        <v>-0.5</v>
-      </c>
-      <c r="R255">
-        <v>1.825</v>
-      </c>
       <c r="S255">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T255">
         <v>2.5</v>
       </c>
       <c r="U255">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V255">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W255">
         <v>0</v>
@@ -23183,7 +23180,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7793484</v>
+        <v>7793486</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23192,22 +23189,22 @@
         <v>28</v>
       </c>
       <c r="E256" s="2">
-        <v>45346.85416666666</v>
+        <v>45347.85416666666</v>
       </c>
       <c r="F256" t="s">
+        <v>36</v>
+      </c>
+      <c r="G256" t="s">
         <v>38</v>
       </c>
-      <c r="G256" t="s">
-        <v>40</v>
-      </c>
       <c r="K256">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L256">
         <v>3.3</v>
       </c>
       <c r="M256">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N256">
         <v>2.25</v>
@@ -23216,16 +23213,16 @@
         <v>3.3</v>
       </c>
       <c r="P256">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q256">
         <v>-0.25</v>
       </c>
       <c r="R256">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S256">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T256">
         <v>2.5</v>
@@ -23249,80 +23246,6 @@
         <v>0</v>
       </c>
       <c r="AA256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:27">
-      <c r="A257" s="1">
-        <v>255</v>
-      </c>
-      <c r="B257">
-        <v>7793486</v>
-      </c>
-      <c r="C257" t="s">
-        <v>28</v>
-      </c>
-      <c r="D257" t="s">
-        <v>28</v>
-      </c>
-      <c r="E257" s="2">
-        <v>45347.85416666666</v>
-      </c>
-      <c r="F257" t="s">
-        <v>36</v>
-      </c>
-      <c r="G257" t="s">
-        <v>39</v>
-      </c>
-      <c r="K257">
-        <v>2.2</v>
-      </c>
-      <c r="L257">
-        <v>3.3</v>
-      </c>
-      <c r="M257">
-        <v>3</v>
-      </c>
-      <c r="N257">
-        <v>2.25</v>
-      </c>
-      <c r="O257">
-        <v>3.3</v>
-      </c>
-      <c r="P257">
-        <v>2.875</v>
-      </c>
-      <c r="Q257">
-        <v>-0.25</v>
-      </c>
-      <c r="R257">
-        <v>1.975</v>
-      </c>
-      <c r="S257">
-        <v>1.825</v>
-      </c>
-      <c r="T257">
-        <v>2.5</v>
-      </c>
-      <c r="U257">
-        <v>1.95</v>
-      </c>
-      <c r="V257">
-        <v>1.85</v>
-      </c>
-      <c r="W257">
-        <v>0</v>
-      </c>
-      <c r="X257">
-        <v>0</v>
-      </c>
-      <c r="Y257">
-        <v>0</v>
-      </c>
-      <c r="Z257">
-        <v>0</v>
-      </c>
-      <c r="AA257">
         <v>0</v>
       </c>
     </row>

--- a/Chile Primera B/Chile Primera B.xlsx
+++ b/Chile Primera B/Chile Primera B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>Puerto Montt</t>
   </si>
   <si>
-    <t>Santiago Wanderers</t>
+    <t>Deportes Recoleta</t>
   </si>
   <si>
-    <t>Deportes Recoleta</t>
+    <t>Santiago Wanderers</t>
   </si>
   <si>
     <t>Santiago Morning</t>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC256"/>
+  <dimension ref="A1:AC257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6260666</v>
+        <v>6156793</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,37 +901,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5">
+        <v>2.75</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>2.4</v>
+      </c>
+      <c r="N5">
+        <v>2.5</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>2.6</v>
+      </c>
+      <c r="Q5">
         <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5">
-        <v>1.8</v>
-      </c>
-      <c r="L5">
-        <v>3.25</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <v>1.8</v>
-      </c>
-      <c r="O5">
-        <v>3.3</v>
-      </c>
-      <c r="P5">
-        <v>3.8</v>
-      </c>
-      <c r="Q5">
-        <v>-0.5</v>
       </c>
       <c r="R5">
         <v>1.875</v>
@@ -943,19 +943,19 @@
         <v>2</v>
       </c>
       <c r="U5">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z5">
         <v>-1</v>
@@ -967,7 +967,7 @@
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6156793</v>
+        <v>6260666</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -990,37 +990,37 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M6">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N6">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P6">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
         <v>1.875</v>
@@ -1032,19 +1032,19 @@
         <v>2</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y6">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
         <v>-1</v>
@@ -1056,7 +1056,7 @@
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1346,7 +1346,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1435,7 +1435,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6155916</v>
+        <v>6156803</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,58 +1966,58 @@
         <v>44983.5</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H17">
         <v>3</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>46</v>
       </c>
       <c r="K17">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L17">
         <v>3.2</v>
       </c>
       <c r="M17">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N17">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P17">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q17">
         <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T17">
         <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W17">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2026,13 +2026,13 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2043,7 +2043,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6156803</v>
+        <v>6155916</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2055,58 +2055,58 @@
         <v>44983.5</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>3</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>46</v>
       </c>
       <c r="K18">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L18">
         <v>3.2</v>
       </c>
       <c r="M18">
+        <v>2.75</v>
+      </c>
+      <c r="N18">
+        <v>2.15</v>
+      </c>
+      <c r="O18">
+        <v>3.2</v>
+      </c>
+      <c r="P18">
         <v>3</v>
-      </c>
-      <c r="N18">
-        <v>2</v>
-      </c>
-      <c r="O18">
-        <v>3.25</v>
-      </c>
-      <c r="P18">
-        <v>3.4</v>
       </c>
       <c r="Q18">
         <v>-0.25</v>
       </c>
       <c r="R18">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T18">
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2115,13 +2115,13 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2132,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6156804</v>
+        <v>6156802</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,55 +2144,55 @@
         <v>44984.75</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
         <v>48</v>
       </c>
       <c r="K19">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M19">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N19">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="O19">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P19">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="Q19">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S19">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T19">
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2201,19 +2201,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>3.333</v>
+        <v>1.9</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
+        <v>1.05</v>
+      </c>
+      <c r="AB19">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB19">
-        <v>-1</v>
-      </c>
       <c r="AC19">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6156802</v>
+        <v>6156804</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,55 +2233,55 @@
         <v>44984.75</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>48</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L20">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M20">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N20">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="O20">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P20">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R20">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S20">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T20">
         <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2290,19 +2290,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.9</v>
+        <v>3.333</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB20">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2411,7 +2411,7 @@
         <v>44985.75</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>43</v>
@@ -2500,10 +2500,10 @@
         <v>44989.5</v>
       </c>
       <c r="F23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" t="s">
         <v>32</v>
-      </c>
-      <c r="G23" t="s">
-        <v>33</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -3212,7 +3212,7 @@
         <v>44995.75</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -3556,7 +3556,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6317118</v>
+        <v>6156817</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3568,10 +3568,10 @@
         <v>44999.75</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3583,43 +3583,43 @@
         <v>46</v>
       </c>
       <c r="K35">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L35">
         <v>3.2</v>
       </c>
       <c r="M35">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="O35">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P35">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R35">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S35">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T35">
         <v>2.25</v>
       </c>
       <c r="U35">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V35">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>0.833</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3628,13 +3628,13 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.7250000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA35">
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3645,7 +3645,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6156817</v>
+        <v>6317118</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3657,10 +3657,10 @@
         <v>44999.75</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3672,43 +3672,43 @@
         <v>46</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L36">
         <v>3.2</v>
       </c>
       <c r="M36">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N36">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="O36">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P36">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q36">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S36">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T36">
         <v>2.25</v>
       </c>
       <c r="U36">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V36">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W36">
-        <v>0.833</v>
+        <v>1</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3717,13 +3717,13 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.875</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3838,7 +3838,7 @@
         <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -4016,7 +4016,7 @@
         <v>44</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -4357,7 +4357,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6155920</v>
+        <v>6156821</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4369,76 +4369,76 @@
         <v>45005.85416666666</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K44">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L44">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M44">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="N44">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O44">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P44">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q44">
         <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S44">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T44">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4446,7 +4446,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6156821</v>
+        <v>6155920</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4458,76 +4458,76 @@
         <v>45005.85416666666</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K45">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M45">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="N45">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O45">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P45">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q45">
         <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S45">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W45">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z45">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4547,7 +4547,7 @@
         <v>45006.75</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -4636,7 +4636,7 @@
         <v>45010.75</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>31</v>
@@ -4802,7 +4802,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6156826</v>
+        <v>6156165</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4814,58 +4814,58 @@
         <v>45011.75</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H49">
         <v>3</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
         <v>46</v>
       </c>
       <c r="K49">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L49">
         <v>3.2</v>
       </c>
       <c r="M49">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="N49">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O49">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P49">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S49">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T49">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V49">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
-        <v>0.909</v>
+        <v>1.25</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4874,13 +4874,13 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6156165</v>
+        <v>6156826</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,58 +4903,58 @@
         <v>45011.75</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H50">
         <v>3</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
         <v>46</v>
       </c>
       <c r="K50">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L50">
         <v>3.2</v>
       </c>
       <c r="M50">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="N50">
+        <v>1.909</v>
+      </c>
+      <c r="O50">
+        <v>3.25</v>
+      </c>
+      <c r="P50">
+        <v>3.75</v>
+      </c>
+      <c r="Q50">
+        <v>-0.5</v>
+      </c>
+      <c r="R50">
+        <v>1.925</v>
+      </c>
+      <c r="S50">
+        <v>1.875</v>
+      </c>
+      <c r="T50">
         <v>2.25</v>
       </c>
-      <c r="O50">
-        <v>3</v>
-      </c>
-      <c r="P50">
-        <v>3</v>
-      </c>
-      <c r="Q50">
-        <v>-0.25</v>
-      </c>
-      <c r="R50">
-        <v>1.975</v>
-      </c>
-      <c r="S50">
-        <v>1.825</v>
-      </c>
-      <c r="T50">
-        <v>2</v>
-      </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W50">
-        <v>1.25</v>
+        <v>0.909</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4963,13 +4963,13 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6155922</v>
+        <v>6156825</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,76 +4992,76 @@
         <v>45011.85416666666</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L51">
         <v>3.2</v>
       </c>
       <c r="M51">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N51">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O51">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P51">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q51">
         <v>-0.5</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S51">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T51">
         <v>2.25</v>
       </c>
       <c r="U51">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X51">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA51">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
         <v>-0.5</v>
       </c>
       <c r="AC51">
-        <v>0.3875</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5069,7 +5069,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6156825</v>
+        <v>6155922</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5081,76 +5081,76 @@
         <v>45011.85416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K52">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L52">
         <v>3.2</v>
       </c>
       <c r="M52">
+        <v>3.4</v>
+      </c>
+      <c r="N52">
+        <v>1.909</v>
+      </c>
+      <c r="O52">
+        <v>3.1</v>
+      </c>
+      <c r="P52">
         <v>3.75</v>
-      </c>
-      <c r="N52">
-        <v>1.8</v>
-      </c>
-      <c r="O52">
-        <v>3.3</v>
-      </c>
-      <c r="P52">
-        <v>4.333</v>
       </c>
       <c r="Q52">
         <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S52">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T52">
         <v>2.25</v>
       </c>
       <c r="U52">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V52">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W52">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB52">
         <v>-0.5</v>
       </c>
       <c r="AC52">
-        <v>0.45</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5158,7 +5158,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6156823</v>
+        <v>6156827</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5170,56 +5170,56 @@
         <v>45012.75</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
         <v>46</v>
       </c>
       <c r="K53">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L53">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M53">
+        <v>5</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <v>3.2</v>
+      </c>
+      <c r="P53">
         <v>3.4</v>
-      </c>
-      <c r="N53">
-        <v>2</v>
-      </c>
-      <c r="O53">
-        <v>3.1</v>
-      </c>
-      <c r="P53">
-        <v>3.5</v>
       </c>
       <c r="Q53">
         <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S53">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T53">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U53">
+        <v>1.95</v>
+      </c>
+      <c r="V53">
         <v>1.85</v>
       </c>
-      <c r="V53">
-        <v>1.95</v>
-      </c>
       <c r="W53">
         <v>1</v>
       </c>
@@ -5230,16 +5230,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.7749999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
+        <v>-1</v>
+      </c>
+      <c r="AC53">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC53">
-        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5247,7 +5247,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6156827</v>
+        <v>6156823</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5259,56 +5259,56 @@
         <v>45012.75</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
         <v>46</v>
       </c>
       <c r="K54">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <v>3.4</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <v>3.1</v>
+      </c>
+      <c r="P54">
         <v>3.5</v>
-      </c>
-      <c r="M54">
-        <v>5</v>
-      </c>
-      <c r="N54">
-        <v>2</v>
-      </c>
-      <c r="O54">
-        <v>3.2</v>
-      </c>
-      <c r="P54">
-        <v>3.4</v>
       </c>
       <c r="Q54">
         <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S54">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U54">
+        <v>1.85</v>
+      </c>
+      <c r="V54">
         <v>1.95</v>
       </c>
-      <c r="V54">
-        <v>1.85</v>
-      </c>
       <c r="W54">
         <v>1</v>
       </c>
@@ -5319,16 +5319,16 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.7250000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5526,7 +5526,7 @@
         <v>45030.5625</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
         <v>30</v>
@@ -5971,7 +5971,7 @@
         <v>45032.79166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
         <v>42</v>
@@ -6241,7 +6241,7 @@
         <v>41</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6864,7 +6864,7 @@
         <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6950,7 +6950,7 @@
         <v>45044.66666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
         <v>39</v>
@@ -7217,7 +7217,7 @@
         <v>45046.6875</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G76" t="s">
         <v>34</v>
@@ -7472,7 +7472,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6156838</v>
+        <v>6156842</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7484,13 +7484,13 @@
         <v>45049.89583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -7499,43 +7499,43 @@
         <v>46</v>
       </c>
       <c r="K79">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L79">
         <v>3</v>
       </c>
       <c r="M79">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N79">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O79">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P79">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q79">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S79">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W79">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7544,16 +7544,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AA79">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC79">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7561,7 +7561,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6156842</v>
+        <v>6156838</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7573,13 +7573,13 @@
         <v>45049.89583333334</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7588,43 +7588,43 @@
         <v>46</v>
       </c>
       <c r="K80">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L80">
         <v>3</v>
       </c>
       <c r="M80">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N80">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O80">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P80">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U80">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W80">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7633,16 +7633,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7751,7 +7751,7 @@
         <v>45056.6875</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
         <v>36</v>
@@ -7917,7 +7917,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6156848</v>
+        <v>6156847</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7929,58 +7929,58 @@
         <v>45057.79166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
         <v>46</v>
       </c>
       <c r="K84">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L84">
         <v>3.2</v>
       </c>
       <c r="M84">
+        <v>3.75</v>
+      </c>
+      <c r="N84">
+        <v>1.533</v>
+      </c>
+      <c r="O84">
         <v>4</v>
       </c>
-      <c r="N84">
-        <v>1.909</v>
-      </c>
-      <c r="O84">
-        <v>3.3</v>
-      </c>
       <c r="P84">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R84">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S84">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T84">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V84">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W84">
-        <v>0.909</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7989,13 +7989,13 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6156847</v>
+        <v>6156169</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,49 +8018,49 @@
         <v>45057.79166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
         <v>3</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K85">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L85">
         <v>3.2</v>
       </c>
       <c r="M85">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N85">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P85">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R85">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S85">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U85">
         <v>2</v>
@@ -8069,19 +8069,19 @@
         <v>1.8</v>
       </c>
       <c r="W85">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z85">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB85">
         <v>1</v>
@@ -8095,7 +8095,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6156169</v>
+        <v>6156848</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8107,73 +8107,73 @@
         <v>45057.79166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K86">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L86">
         <v>3.2</v>
       </c>
       <c r="M86">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N86">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O86">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P86">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S86">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA86">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8644,7 +8644,7 @@
         <v>40</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8733,7 +8733,7 @@
         <v>44</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8896,7 +8896,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6156849</v>
+        <v>6156850</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8908,73 +8908,73 @@
         <v>45062.89583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I95">
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K95">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="L95">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M95">
         <v>2.5</v>
       </c>
       <c r="N95">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O95">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="P95">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
+        <v>2.025</v>
+      </c>
+      <c r="S95">
+        <v>1.775</v>
+      </c>
+      <c r="T95">
+        <v>2.5</v>
+      </c>
+      <c r="U95">
         <v>1.9</v>
       </c>
-      <c r="S95">
+      <c r="V95">
         <v>1.9</v>
       </c>
-      <c r="T95">
-        <v>1.75</v>
-      </c>
-      <c r="U95">
-        <v>1.8</v>
-      </c>
-      <c r="V95">
-        <v>2</v>
-      </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X95">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA95">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8985,7 +8985,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6156850</v>
+        <v>6156849</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8997,73 +8997,73 @@
         <v>45062.89583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96">
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K96">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="L96">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M96">
         <v>2.5</v>
       </c>
       <c r="N96">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O96">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="P96">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q96">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S96">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T96">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U96">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V96">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB96">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9264,7 +9264,7 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
         <v>35</v>
@@ -9531,7 +9531,7 @@
         <v>45068.79166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -9608,7 +9608,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6156854</v>
+        <v>6155933</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9620,13 +9620,13 @@
         <v>45068.89583333334</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -9635,43 +9635,43 @@
         <v>46</v>
       </c>
       <c r="K103">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M103">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N103">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O103">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P103">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q103">
         <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S103">
         <v>1.95</v>
       </c>
       <c r="T103">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V103">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W103">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9680,16 +9680,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC103">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6155933</v>
+        <v>6156854</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9709,13 +9709,13 @@
         <v>45068.89583333334</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -9724,43 +9724,43 @@
         <v>46</v>
       </c>
       <c r="K104">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L104">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M104">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N104">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O104">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P104">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q104">
         <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S104">
         <v>1.95</v>
       </c>
       <c r="T104">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W104">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9769,16 +9769,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9890,7 +9890,7 @@
         <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9979,7 +9979,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -10955,7 +10955,7 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G118" t="s">
         <v>34</v>
@@ -11044,7 +11044,7 @@
         <v>45081.77083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
         <v>30</v>
@@ -11403,7 +11403,7 @@
         <v>39</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11670,7 +11670,7 @@
         <v>37</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -12290,7 +12290,7 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
         <v>37</v>
@@ -12367,7 +12367,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6156880</v>
+        <v>6156174</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12379,73 +12379,73 @@
         <v>45116.5625</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H134">
         <v>2</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K134">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="L134">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M134">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N134">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O134">
         <v>3.3</v>
       </c>
       <c r="P134">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q134">
         <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S134">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T134">
         <v>2.5</v>
       </c>
       <c r="U134">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V134">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X134">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA134">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC134">
         <v>-1</v>
@@ -12456,7 +12456,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6156174</v>
+        <v>6156880</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12468,73 +12468,73 @@
         <v>45116.5625</v>
       </c>
       <c r="F135" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H135">
         <v>2</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L135">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M135">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N135">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O135">
         <v>3.3</v>
       </c>
       <c r="P135">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q135">
         <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V135">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W135">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB135">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12634,7 +12634,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6156883</v>
+        <v>6156881</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12646,76 +12646,76 @@
         <v>45121.85416666666</v>
       </c>
       <c r="F137" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K137">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L137">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M137">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N137">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O137">
         <v>3.2</v>
       </c>
       <c r="P137">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S137">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T137">
         <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V137">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12723,7 +12723,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6156881</v>
+        <v>6156883</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12735,76 +12735,76 @@
         <v>45121.85416666666</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G138" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K138">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L138">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M138">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N138">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O138">
         <v>3.2</v>
       </c>
       <c r="P138">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R138">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S138">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T138">
         <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V138">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y138">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12827,7 +12827,7 @@
         <v>31</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -13435,7 +13435,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6156888</v>
+        <v>6156886</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13447,34 +13447,34 @@
         <v>45129.5625</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K146">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L146">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M146">
         <v>3.2</v>
       </c>
       <c r="N146">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O146">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P146">
         <v>3.25</v>
@@ -13483,37 +13483,37 @@
         <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S146">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T146">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V146">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA146">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13524,7 +13524,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6156886</v>
+        <v>6156888</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13536,34 +13536,34 @@
         <v>45129.5625</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K147">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L147">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M147">
         <v>3.2</v>
       </c>
       <c r="N147">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O147">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P147">
         <v>3.25</v>
@@ -13572,37 +13572,37 @@
         <v>-0.25</v>
       </c>
       <c r="R147">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z147">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB147">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13625,10 +13625,10 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F148" t="s">
+        <v>32</v>
+      </c>
+      <c r="G148" t="s">
         <v>33</v>
-      </c>
-      <c r="G148" t="s">
-        <v>32</v>
       </c>
       <c r="H148">
         <v>4</v>
@@ -14073,7 +14073,7 @@
         <v>36</v>
       </c>
       <c r="G153" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14147,7 +14147,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6155945</v>
+        <v>6393620</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14159,73 +14159,73 @@
         <v>45136.5625</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H154">
         <v>2</v>
       </c>
       <c r="I154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K154">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L154">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M154">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N154">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="O154">
         <v>3.25</v>
       </c>
       <c r="P154">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q154">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R154">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S154">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T154">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U154">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V154">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X154">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA154">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB154">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -14236,7 +14236,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6393620</v>
+        <v>6155945</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14248,73 +14248,73 @@
         <v>45136.5625</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G155" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H155">
         <v>2</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K155">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L155">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M155">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N155">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="O155">
         <v>3.25</v>
       </c>
       <c r="P155">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q155">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R155">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S155">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T155">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U155">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V155">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W155">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA155">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB155">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14337,7 +14337,7 @@
         <v>45136.89583333334</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G156" t="s">
         <v>41</v>
@@ -14871,7 +14871,7 @@
         <v>45142.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G162" t="s">
         <v>44</v>
@@ -15052,7 +15052,7 @@
         <v>35</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -15583,7 +15583,7 @@
         <v>45147.79166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G170" t="s">
         <v>29</v>
@@ -16031,7 +16031,7 @@
         <v>31</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -16654,7 +16654,7 @@
         <v>30</v>
       </c>
       <c r="G182" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16817,7 +16817,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6155954</v>
+        <v>6156180</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16829,76 +16829,76 @@
         <v>45165.5625</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K184">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L184">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M184">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N184">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O184">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P184">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q184">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R184">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S184">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T184">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U184">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V184">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA184">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16906,7 +16906,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6156180</v>
+        <v>6155954</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16918,76 +16918,76 @@
         <v>45165.5625</v>
       </c>
       <c r="F185" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G185" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K185">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L185">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M185">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N185">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O185">
+        <v>3.2</v>
+      </c>
+      <c r="P185">
         <v>3.75</v>
       </c>
-      <c r="P185">
-        <v>4</v>
-      </c>
       <c r="Q185">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R185">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S185">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T185">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W185">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z185">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC185">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17007,7 +17007,7 @@
         <v>45165.66666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G186" t="s">
         <v>41</v>
@@ -17185,7 +17185,7 @@
         <v>45165.77083333334</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G188" t="s">
         <v>43</v>
@@ -17366,7 +17366,7 @@
         <v>34</v>
       </c>
       <c r="G190" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -17544,7 +17544,7 @@
         <v>39</v>
       </c>
       <c r="G192" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -18075,7 +18075,7 @@
         <v>45177.52083333334</v>
       </c>
       <c r="F198" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G198" t="s">
         <v>29</v>
@@ -18701,7 +18701,7 @@
         <v>36</v>
       </c>
       <c r="G205" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -19232,7 +19232,7 @@
         <v>45192.52083333334</v>
       </c>
       <c r="F211" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G211" t="s">
         <v>40</v>
@@ -19309,7 +19309,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6156929</v>
+        <v>6155958</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19321,76 +19321,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G212" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H212">
         <v>1</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K212">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L212">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M212">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N212">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="O212">
         <v>3.3</v>
       </c>
       <c r="P212">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q212">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R212">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S212">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T212">
         <v>2.5</v>
       </c>
       <c r="U212">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V212">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W212">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB212">
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19398,7 +19398,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6156183</v>
+        <v>6156929</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19410,13 +19410,13 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G213" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -19425,43 +19425,43 @@
         <v>46</v>
       </c>
       <c r="K213">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L213">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M213">
         <v>3</v>
       </c>
       <c r="N213">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O213">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P213">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q213">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S213">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T213">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U213">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V213">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W213">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19470,16 +19470,16 @@
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA213">
         <v>-1</v>
       </c>
       <c r="AB213">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19487,7 +19487,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6155958</v>
+        <v>6156183</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19499,76 +19499,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F214" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G214" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K214">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L214">
         <v>3.2</v>
       </c>
       <c r="M214">
+        <v>3</v>
+      </c>
+      <c r="N214">
         <v>2.2</v>
       </c>
-      <c r="N214">
-        <v>2.05</v>
-      </c>
       <c r="O214">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P214">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q214">
         <v>-0.25</v>
       </c>
       <c r="R214">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S214">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T214">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U214">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V214">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X214">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA214">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC214">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19680,7 +19680,7 @@
         <v>42</v>
       </c>
       <c r="G216" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -19769,7 +19769,7 @@
         <v>35</v>
       </c>
       <c r="G217" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H217">
         <v>1</v>
@@ -20214,7 +20214,7 @@
         <v>40</v>
       </c>
       <c r="G222" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -20466,7 +20466,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6156940</v>
+        <v>6155961</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20478,76 +20478,76 @@
         <v>45207.72916666666</v>
       </c>
       <c r="F225" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G225" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H225">
         <v>0</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K225">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L225">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M225">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N225">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O225">
         <v>3.2</v>
       </c>
       <c r="P225">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q225">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R225">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S225">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T225">
         <v>2.5</v>
       </c>
       <c r="U225">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V225">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z225">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="AB225">
         <v>-1</v>
       </c>
       <c r="AC225">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20555,7 +20555,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6155961</v>
+        <v>6156940</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20567,76 +20567,76 @@
         <v>45207.72916666666</v>
       </c>
       <c r="F226" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G226" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H226">
         <v>0</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K226">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L226">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M226">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N226">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O226">
         <v>3.2</v>
       </c>
       <c r="P226">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q226">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R226">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S226">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T226">
         <v>2.5</v>
       </c>
       <c r="U226">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V226">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y226">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA226">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="AB226">
         <v>-1</v>
       </c>
       <c r="AC226">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20745,7 +20745,7 @@
         <v>45208.52083333334</v>
       </c>
       <c r="F228" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G228" t="s">
         <v>42</v>
@@ -20822,7 +20822,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6156184</v>
+        <v>6156941</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20834,58 +20834,58 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F229" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G229" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H229">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
         <v>46</v>
       </c>
       <c r="K229">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L229">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M229">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N229">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O229">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P229">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R229">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S229">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T229">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U229">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V229">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W229">
-        <v>1.7</v>
+        <v>0.615</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20894,16 +20894,16 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>1.05</v>
+        <v>0.4375</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB229">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21012,7 +21012,7 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F231" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G231" t="s">
         <v>38</v>
@@ -21089,7 +21089,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6156941</v>
+        <v>6156184</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21101,58 +21101,58 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F232" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G232" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J232" t="s">
         <v>46</v>
       </c>
       <c r="K232">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L232">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M232">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N232">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="O232">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P232">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q232">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R232">
+        <v>2.05</v>
+      </c>
+      <c r="S232">
+        <v>1.75</v>
+      </c>
+      <c r="T232">
+        <v>2.75</v>
+      </c>
+      <c r="U232">
         <v>1.875</v>
       </c>
-      <c r="S232">
+      <c r="V232">
         <v>1.925</v>
       </c>
-      <c r="T232">
-        <v>2.25</v>
-      </c>
-      <c r="U232">
-        <v>1.825</v>
-      </c>
-      <c r="V232">
-        <v>1.975</v>
-      </c>
       <c r="W232">
-        <v>0.615</v>
+        <v>1.7</v>
       </c>
       <c r="X232">
         <v>-1</v>
@@ -21161,16 +21161,16 @@
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="AA232">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC232">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21282,7 +21282,7 @@
         <v>34</v>
       </c>
       <c r="G234" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -21727,7 +21727,7 @@
         <v>30</v>
       </c>
       <c r="G239" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H239">
         <v>3</v>
@@ -22083,7 +22083,7 @@
         <v>35</v>
       </c>
       <c r="G243" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H243">
         <v>2</v>
@@ -22347,7 +22347,7 @@
         <v>45245.79166666666</v>
       </c>
       <c r="F246" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G246" t="s">
         <v>35</v>
@@ -22528,7 +22528,7 @@
         <v>38</v>
       </c>
       <c r="G248" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H248">
         <v>2</v>
@@ -22602,7 +22602,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7503210</v>
+        <v>7503209</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22614,13 +22614,13 @@
         <v>45256.75</v>
       </c>
       <c r="F249" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G249" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I249">
         <v>0</v>
@@ -22632,37 +22632,37 @@
         <v>2.2</v>
       </c>
       <c r="L249">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M249">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N249">
         <v>2.15</v>
       </c>
       <c r="O249">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P249">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q249">
         <v>-0.25</v>
       </c>
       <c r="R249">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S249">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T249">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U249">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V249">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W249">
         <v>1.15</v>
@@ -22674,16 +22674,16 @@
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA249">
         <v>-1</v>
       </c>
       <c r="AB249">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC249">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22691,7 +22691,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7503209</v>
+        <v>7503210</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22703,13 +22703,13 @@
         <v>45256.75</v>
       </c>
       <c r="F250" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G250" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H250">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I250">
         <v>0</v>
@@ -22721,37 +22721,37 @@
         <v>2.2</v>
       </c>
       <c r="L250">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M250">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N250">
         <v>2.15</v>
       </c>
       <c r="O250">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P250">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q250">
         <v>-0.25</v>
       </c>
       <c r="R250">
+        <v>1.925</v>
+      </c>
+      <c r="S250">
+        <v>1.875</v>
+      </c>
+      <c r="T250">
+        <v>2.5</v>
+      </c>
+      <c r="U250">
         <v>1.975</v>
       </c>
-      <c r="S250">
+      <c r="V250">
         <v>1.825</v>
-      </c>
-      <c r="T250">
-        <v>2.75</v>
-      </c>
-      <c r="U250">
-        <v>1.85</v>
-      </c>
-      <c r="V250">
-        <v>1.95</v>
       </c>
       <c r="W250">
         <v>1.15</v>
@@ -22763,16 +22763,16 @@
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA250">
         <v>-1</v>
       </c>
       <c r="AB250">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC250">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22792,7 +22792,7 @@
         <v>45264.79166666666</v>
       </c>
       <c r="F251" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G251" t="s">
         <v>30</v>
@@ -22884,7 +22884,7 @@
         <v>30</v>
       </c>
       <c r="G252" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H252">
         <v>6</v>
@@ -23145,10 +23145,10 @@
         <v>-0.25</v>
       </c>
       <c r="R255">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S255">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T255">
         <v>2.5</v>
@@ -23180,7 +23180,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7793486</v>
+        <v>7864299</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23189,49 +23189,49 @@
         <v>28</v>
       </c>
       <c r="E256" s="2">
-        <v>45347.85416666666</v>
+        <v>45347.75</v>
       </c>
       <c r="F256" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G256" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K256">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L256">
         <v>3.3</v>
       </c>
       <c r="M256">
+        <v>2.1</v>
+      </c>
+      <c r="N256">
         <v>3</v>
       </c>
-      <c r="N256">
-        <v>2.25</v>
-      </c>
       <c r="O256">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P256">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="Q256">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R256">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S256">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T256">
         <v>2.5</v>
       </c>
       <c r="U256">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V256">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W256">
         <v>0</v>
@@ -23246,6 +23246,80 @@
         <v>0</v>
       </c>
       <c r="AA256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:27">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>7793486</v>
+      </c>
+      <c r="C257" t="s">
+        <v>28</v>
+      </c>
+      <c r="D257" t="s">
+        <v>28</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45347.85416666666</v>
+      </c>
+      <c r="F257" t="s">
+        <v>36</v>
+      </c>
+      <c r="G257" t="s">
+        <v>38</v>
+      </c>
+      <c r="K257">
+        <v>2.2</v>
+      </c>
+      <c r="L257">
+        <v>3.3</v>
+      </c>
+      <c r="M257">
+        <v>3</v>
+      </c>
+      <c r="N257">
+        <v>2.25</v>
+      </c>
+      <c r="O257">
+        <v>3.3</v>
+      </c>
+      <c r="P257">
+        <v>2.875</v>
+      </c>
+      <c r="Q257">
+        <v>-0.25</v>
+      </c>
+      <c r="R257">
+        <v>1.975</v>
+      </c>
+      <c r="S257">
+        <v>1.825</v>
+      </c>
+      <c r="T257">
+        <v>2.5</v>
+      </c>
+      <c r="U257">
+        <v>1.95</v>
+      </c>
+      <c r="V257">
+        <v>1.85</v>
+      </c>
+      <c r="W257">
+        <v>0</v>
+      </c>
+      <c r="X257">
+        <v>0</v>
+      </c>
+      <c r="Y257">
+        <v>0</v>
+      </c>
+      <c r="Z257">
+        <v>0</v>
+      </c>
+      <c r="AA257">
         <v>0</v>
       </c>
     </row>

--- a/Chile Primera B/Chile Primera B.xlsx
+++ b/Chile Primera B/Chile Primera B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -106,16 +106,16 @@
     <t>Cobreloa</t>
   </si>
   <si>
+    <t>Puerto Montt</t>
+  </si>
+  <si>
     <t>Deportes Iquique</t>
   </si>
   <si>
-    <t>Puerto Montt</t>
+    <t>Santiago Wanderers</t>
   </si>
   <si>
     <t>Deportes Recoleta</t>
-  </si>
-  <si>
-    <t>Santiago Wanderers</t>
   </si>
   <si>
     <t>Santiago Morning</t>
@@ -130,10 +130,10 @@
     <t>La Serena</t>
   </si>
   <si>
-    <t>Deportes Temuco</t>
+    <t>Club Deportes Santa Cruz</t>
   </si>
   <si>
-    <t>Club Deportes Santa Cruz</t>
+    <t>Deportes Temuco</t>
   </si>
   <si>
     <t>Barnechea</t>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>CD Antofagasta</t>
+  </si>
+  <si>
+    <t>Curico Unido</t>
   </si>
   <si>
     <t>Magallanes</t>
@@ -643,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2">
         <v>1.666</v>
@@ -708,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6156160</v>
+        <v>6155912</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,73 +726,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>3</v>
       </c>
       <c r="M3">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N3">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P3">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S3">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V3">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W3">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -797,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6155912</v>
+        <v>6156160</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,10 +815,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -824,61 +827,61 @@
         <v>47</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
       <c r="M4">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N4">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="O4">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P4">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S4">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V4">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X4">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC4">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6156793</v>
+        <v>6260666</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,37 +904,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>48</v>
       </c>
       <c r="K5">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M5">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N5">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P5">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
         <v>1.875</v>
@@ -943,19 +946,19 @@
         <v>2</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y5">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
         <v>-1</v>
@@ -967,7 +970,7 @@
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -975,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6260666</v>
+        <v>6156793</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -990,37 +993,37 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6">
+        <v>2.75</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>2.4</v>
+      </c>
+      <c r="N6">
+        <v>2.5</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>2.6</v>
+      </c>
+      <c r="Q6">
         <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6">
-        <v>1.8</v>
-      </c>
-      <c r="L6">
-        <v>3.25</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6">
-        <v>1.8</v>
-      </c>
-      <c r="O6">
-        <v>3.3</v>
-      </c>
-      <c r="P6">
-        <v>3.8</v>
-      </c>
-      <c r="Q6">
-        <v>-0.5</v>
       </c>
       <c r="R6">
         <v>1.875</v>
@@ -1032,19 +1035,19 @@
         <v>2</v>
       </c>
       <c r="U6">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z6">
         <v>-1</v>
@@ -1056,7 +1059,7 @@
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1088,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7">
         <v>2.2</v>
@@ -1177,7 +1180,7 @@
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8">
         <v>1.85</v>
@@ -1257,7 +1260,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1266,7 +1269,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9">
         <v>2.875</v>
@@ -1346,7 +1349,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1355,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10">
         <v>2.2</v>
@@ -1420,7 +1423,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6156800</v>
+        <v>6156801</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1435,73 +1438,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L11">
         <v>3</v>
       </c>
       <c r="M11">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N11">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="O11">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R11">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S11">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T11">
         <v>2.25</v>
       </c>
       <c r="U11">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AB11">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC11">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1509,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6156801</v>
+        <v>6156800</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1524,73 +1527,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L12">
         <v>3</v>
       </c>
       <c r="M12">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N12">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="O12">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S12">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
+        <v>0.95</v>
+      </c>
+      <c r="AB12">
         <v>-0.5</v>
       </c>
-      <c r="AA12">
-        <v>0.4375</v>
-      </c>
-      <c r="AB12">
-        <v>0.925</v>
-      </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1622,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13">
         <v>2.2</v>
@@ -1711,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14">
         <v>2.3</v>
@@ -1776,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6156806</v>
+        <v>6156162</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,76 +1791,76 @@
         <v>44982.75</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L15">
         <v>3.2</v>
       </c>
       <c r="M15">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N15">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P15">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="S15">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA15">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1865,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6156162</v>
+        <v>6156806</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,76 +1880,76 @@
         <v>44982.75</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L16">
         <v>3.2</v>
       </c>
       <c r="M16">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N16">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="O16">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P16">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T16">
         <v>2.25</v>
       </c>
       <c r="U16">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V16">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W16">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z16">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC16">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1966,7 +1969,7 @@
         <v>44983.5</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>41</v>
@@ -1978,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K17">
         <v>2.2</v>
@@ -2055,10 +2058,10 @@
         <v>44983.5</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -2067,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18">
         <v>2.3</v>
@@ -2132,7 +2135,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6156802</v>
+        <v>6156804</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,55 +2147,55 @@
         <v>44984.75</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L19">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M19">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N19">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P19">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R19">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S19">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T19">
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V19">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2201,19 +2204,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.9</v>
+        <v>3.333</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2221,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6156804</v>
+        <v>6156802</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,55 +2236,55 @@
         <v>44984.75</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N20">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P20">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T20">
         <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2290,19 +2293,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>3.333</v>
+        <v>1.9</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
+        <v>1.05</v>
+      </c>
+      <c r="AB20">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
       <c r="AC20">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2334,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -2411,7 +2414,7 @@
         <v>44985.75</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>43</v>
@@ -2423,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K22">
         <v>2.5</v>
@@ -2488,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6156809</v>
+        <v>6156808</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2500,46 +2503,46 @@
         <v>44989.5</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L23">
         <v>3</v>
       </c>
       <c r="M23">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N23">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P23">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S23">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
         <v>2.25</v>
@@ -2554,16 +2557,16 @@
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB23">
         <v>-0.5</v>
@@ -2577,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6156808</v>
+        <v>6156809</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2589,46 +2592,46 @@
         <v>44989.5</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>48</v>
       </c>
       <c r="K24">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L24">
         <v>3</v>
       </c>
       <c r="M24">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N24">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S24">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T24">
         <v>2.25</v>
@@ -2643,16 +2646,16 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y24">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB24">
         <v>-0.5</v>
@@ -2681,7 +2684,7 @@
         <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2690,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K25">
         <v>1.8</v>
@@ -2779,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K26">
         <v>2.1</v>
@@ -2844,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6156807</v>
+        <v>6156811</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2856,10 +2859,10 @@
         <v>44991.75</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2868,64 +2871,64 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L27">
+        <v>3.3</v>
+      </c>
+      <c r="M27">
+        <v>4.75</v>
+      </c>
+      <c r="N27">
+        <v>1.75</v>
+      </c>
+      <c r="O27">
         <v>3.2</v>
       </c>
-      <c r="M27">
-        <v>2.6</v>
-      </c>
-      <c r="N27">
-        <v>2.6</v>
-      </c>
-      <c r="O27">
-        <v>3</v>
-      </c>
       <c r="P27">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T27">
         <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2933,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6156811</v>
+        <v>6156807</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2945,10 +2948,10 @@
         <v>44991.75</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2957,64 +2960,64 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L28">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M28">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N28">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="O28">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P28">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T28">
         <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3022,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6155917</v>
+        <v>6156812</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3034,13 +3037,13 @@
         <v>44991.85416666666</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -3049,61 +3052,61 @@
         <v>47</v>
       </c>
       <c r="K29">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M29">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N29">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O29">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P29">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q29">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S29">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T29">
         <v>2</v>
       </c>
       <c r="U29">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X29">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA29">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3111,7 +3114,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6156812</v>
+        <v>6155917</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3123,76 +3126,76 @@
         <v>44991.85416666666</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L30">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M30">
+        <v>2.8</v>
+      </c>
+      <c r="N30">
+        <v>1.95</v>
+      </c>
+      <c r="O30">
         <v>3.1</v>
       </c>
-      <c r="N30">
-        <v>2.55</v>
-      </c>
-      <c r="O30">
-        <v>2.875</v>
-      </c>
       <c r="P30">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>1.8</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30">
         <v>1.775</v>
       </c>
-      <c r="S30">
+      <c r="V30">
         <v>2.025</v>
       </c>
-      <c r="T30">
-        <v>2</v>
-      </c>
-      <c r="U30">
-        <v>1.925</v>
-      </c>
-      <c r="V30">
-        <v>1.875</v>
-      </c>
       <c r="W30">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3212,7 +3215,7 @@
         <v>44995.75</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -3224,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31">
         <v>2.1</v>
@@ -3301,7 +3304,7 @@
         <v>44996.75</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
         <v>37</v>
@@ -3313,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32">
         <v>2.6</v>
@@ -3402,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33">
         <v>2.3</v>
@@ -3479,11 +3482,11 @@
         <v>44997.89583333334</v>
       </c>
       <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
         <v>30</v>
       </c>
-      <c r="G34" t="s">
-        <v>31</v>
-      </c>
       <c r="H34">
         <v>1</v>
       </c>
@@ -3491,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34">
         <v>1.833</v>
@@ -3580,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -3669,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K36">
         <v>2.25</v>
@@ -3734,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6156816</v>
+        <v>6156815</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,58 +3749,58 @@
         <v>44999.85416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>2.6</v>
+      </c>
+      <c r="N37">
+        <v>2.15</v>
+      </c>
+      <c r="O37">
+        <v>3</v>
+      </c>
+      <c r="P37">
         <v>3.1</v>
-      </c>
-      <c r="M37">
-        <v>3.1</v>
-      </c>
-      <c r="N37">
-        <v>2</v>
-      </c>
-      <c r="O37">
-        <v>3.2</v>
-      </c>
-      <c r="P37">
-        <v>3.6</v>
       </c>
       <c r="Q37">
         <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
         <v>2.25</v>
       </c>
       <c r="U37">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3806,16 +3809,16 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC37">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3823,7 +3826,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6156815</v>
+        <v>6156816</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,58 +3838,58 @@
         <v>44999.85416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M38">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N38">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P38">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3895,16 +3898,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3936,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K39">
         <v>1.95</v>
@@ -4016,7 +4019,7 @@
         <v>44</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -4025,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4105,7 +4108,7 @@
         <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4114,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41">
         <v>2.25</v>
@@ -4179,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6156818</v>
+        <v>6156822</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4191,76 +4194,76 @@
         <v>45005.75</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K42">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L42">
         <v>3</v>
       </c>
       <c r="M42">
+        <v>3.1</v>
+      </c>
+      <c r="N42">
+        <v>2.15</v>
+      </c>
+      <c r="O42">
         <v>2.9</v>
       </c>
-      <c r="N42">
-        <v>2.3</v>
-      </c>
-      <c r="O42">
-        <v>3</v>
-      </c>
       <c r="P42">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q42">
         <v>-0.25</v>
       </c>
       <c r="R42">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
         <v>2.25</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB42">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC42">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4268,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6156822</v>
+        <v>6156818</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4280,76 +4283,76 @@
         <v>45005.75</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
         <v>48</v>
       </c>
       <c r="K43">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L43">
         <v>3</v>
       </c>
       <c r="M43">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N43">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O43">
+        <v>3</v>
+      </c>
+      <c r="P43">
         <v>2.9</v>
-      </c>
-      <c r="P43">
-        <v>3.3</v>
       </c>
       <c r="Q43">
         <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S43">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T43">
         <v>2.25</v>
       </c>
       <c r="U43">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V43">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y43">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA43">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB43">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4357,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6156821</v>
+        <v>6155920</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4369,76 +4372,76 @@
         <v>45005.85416666666</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K44">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L44">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M44">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="N44">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O44">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P44">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q44">
         <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S44">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W44">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z44">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4446,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6155920</v>
+        <v>6156821</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4458,76 +4461,76 @@
         <v>45005.85416666666</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K45">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L45">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M45">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="N45">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O45">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P45">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q45">
         <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S45">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T45">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4547,7 +4550,7 @@
         <v>45006.75</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -4559,7 +4562,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K46">
         <v>2.25</v>
@@ -4636,10 +4639,10 @@
         <v>45010.75</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4648,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K47">
         <v>2.15</v>
@@ -4725,7 +4728,7 @@
         <v>45011.5</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>35</v>
@@ -4737,7 +4740,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K48">
         <v>1.833</v>
@@ -4802,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6156165</v>
+        <v>6156826</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4814,58 +4817,58 @@
         <v>45011.75</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H49">
         <v>3</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K49">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L49">
         <v>3.2</v>
       </c>
       <c r="M49">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="N49">
+        <v>1.909</v>
+      </c>
+      <c r="O49">
+        <v>3.25</v>
+      </c>
+      <c r="P49">
+        <v>3.75</v>
+      </c>
+      <c r="Q49">
+        <v>-0.5</v>
+      </c>
+      <c r="R49">
+        <v>1.925</v>
+      </c>
+      <c r="S49">
+        <v>1.875</v>
+      </c>
+      <c r="T49">
         <v>2.25</v>
       </c>
-      <c r="O49">
-        <v>3</v>
-      </c>
-      <c r="P49">
-        <v>3</v>
-      </c>
-      <c r="Q49">
-        <v>-0.25</v>
-      </c>
-      <c r="R49">
-        <v>1.975</v>
-      </c>
-      <c r="S49">
-        <v>1.825</v>
-      </c>
-      <c r="T49">
-        <v>2</v>
-      </c>
       <c r="U49">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V49">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W49">
-        <v>1.25</v>
+        <v>0.909</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4874,13 +4877,13 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4891,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6156826</v>
+        <v>6156165</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,58 +4906,58 @@
         <v>45011.75</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H50">
         <v>3</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K50">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L50">
         <v>3.2</v>
       </c>
       <c r="M50">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="N50">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O50">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P50">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S50">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W50">
-        <v>0.909</v>
+        <v>1.25</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4963,13 +4966,13 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4980,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6156825</v>
+        <v>6155922</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,76 +4995,76 @@
         <v>45011.85416666666</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K51">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L51">
         <v>3.2</v>
       </c>
       <c r="M51">
+        <v>3.4</v>
+      </c>
+      <c r="N51">
+        <v>1.909</v>
+      </c>
+      <c r="O51">
+        <v>3.1</v>
+      </c>
+      <c r="P51">
         <v>3.75</v>
-      </c>
-      <c r="N51">
-        <v>1.8</v>
-      </c>
-      <c r="O51">
-        <v>3.3</v>
-      </c>
-      <c r="P51">
-        <v>4.333</v>
       </c>
       <c r="Q51">
         <v>-0.5</v>
       </c>
       <c r="R51">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
         <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB51">
         <v>-0.5</v>
       </c>
       <c r="AC51">
-        <v>0.45</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5069,7 +5072,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6155922</v>
+        <v>6156825</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5081,76 +5084,76 @@
         <v>45011.85416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>47</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L52">
         <v>3.2</v>
       </c>
       <c r="M52">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N52">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O52">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P52">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q52">
         <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S52">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T52">
         <v>2.25</v>
       </c>
       <c r="U52">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V52">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X52">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA52">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
         <v>-0.5</v>
       </c>
       <c r="AC52">
-        <v>0.3875</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5158,7 +5161,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6156827</v>
+        <v>6156823</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5170,56 +5173,56 @@
         <v>45012.75</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K53">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>3.4</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <v>3.1</v>
+      </c>
+      <c r="P53">
         <v>3.5</v>
-      </c>
-      <c r="M53">
-        <v>5</v>
-      </c>
-      <c r="N53">
-        <v>2</v>
-      </c>
-      <c r="O53">
-        <v>3.2</v>
-      </c>
-      <c r="P53">
-        <v>3.4</v>
       </c>
       <c r="Q53">
         <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S53">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U53">
+        <v>1.85</v>
+      </c>
+      <c r="V53">
         <v>1.95</v>
       </c>
-      <c r="V53">
-        <v>1.85</v>
-      </c>
       <c r="W53">
         <v>1</v>
       </c>
@@ -5230,16 +5233,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.7250000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5247,7 +5250,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6156823</v>
+        <v>6156827</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5259,56 +5262,56 @@
         <v>45012.75</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K54">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M54">
+        <v>5</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <v>3.2</v>
+      </c>
+      <c r="P54">
         <v>3.4</v>
-      </c>
-      <c r="N54">
-        <v>2</v>
-      </c>
-      <c r="O54">
-        <v>3.1</v>
-      </c>
-      <c r="P54">
-        <v>3.5</v>
       </c>
       <c r="Q54">
         <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S54">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T54">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
+        <v>1.95</v>
+      </c>
+      <c r="V54">
         <v>1.85</v>
       </c>
-      <c r="V54">
-        <v>1.95</v>
-      </c>
       <c r="W54">
         <v>1</v>
       </c>
@@ -5319,16 +5322,16 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.7749999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
+        <v>-1</v>
+      </c>
+      <c r="AC54">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC54">
-        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5360,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K55">
         <v>2.05</v>
@@ -5449,7 +5452,7 @@
         <v>4</v>
       </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K56">
         <v>1.909</v>
@@ -5526,10 +5529,10 @@
         <v>45030.5625</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5538,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K57">
         <v>2.5</v>
@@ -5615,7 +5618,7 @@
         <v>45031.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
         <v>41</v>
@@ -5627,7 +5630,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K58">
         <v>2.5</v>
@@ -5707,7 +5710,7 @@
         <v>44</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5716,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K59">
         <v>2</v>
@@ -5805,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K60">
         <v>2.2</v>
@@ -5885,7 +5888,7 @@
         <v>35</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5894,7 +5897,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K61">
         <v>2.375</v>
@@ -5971,7 +5974,7 @@
         <v>45032.79166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
         <v>42</v>
@@ -5983,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6072,7 +6075,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K63">
         <v>2.3</v>
@@ -6161,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K64">
         <v>2.9</v>
@@ -6241,7 +6244,7 @@
         <v>41</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6250,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K65">
         <v>1.615</v>
@@ -6339,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K66">
         <v>2.75</v>
@@ -6428,7 +6431,7 @@
         <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K67">
         <v>1.909</v>
@@ -6505,7 +6508,7 @@
         <v>45038.72916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
         <v>37</v>
@@ -6517,7 +6520,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K68">
         <v>4</v>
@@ -6582,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6156833</v>
+        <v>6155926</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6594,61 +6597,61 @@
         <v>45039.5625</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K69">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="L69">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M69">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N69">
         <v>1.75</v>
       </c>
       <c r="O69">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P69">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q69">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
+        <v>2</v>
+      </c>
+      <c r="S69">
         <v>1.8</v>
       </c>
-      <c r="S69">
-        <v>2</v>
-      </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V69">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y69">
         <v>-1</v>
@@ -6657,13 +6660,13 @@
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB69">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC69">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6683,7 +6686,7 @@
         <v>45039.5625</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G70" t="s">
         <v>29</v>
@@ -6695,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K70">
         <v>2.3</v>
@@ -6760,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6155926</v>
+        <v>6156833</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6772,62 +6775,62 @@
         <v>45039.5625</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K71">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L71">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M71">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N71">
         <v>1.75</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P71">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q71">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T71">
+        <v>2.25</v>
+      </c>
+      <c r="U71">
+        <v>1.925</v>
+      </c>
+      <c r="V71">
+        <v>1.875</v>
+      </c>
+      <c r="W71">
+        <v>-1</v>
+      </c>
+      <c r="X71">
         <v>2.5</v>
       </c>
-      <c r="U71">
-        <v>2</v>
-      </c>
-      <c r="V71">
-        <v>1.8</v>
-      </c>
-      <c r="W71">
-        <v>-1</v>
-      </c>
-      <c r="X71">
-        <v>2.4</v>
-      </c>
       <c r="Y71">
         <v>-1</v>
       </c>
@@ -6835,13 +6838,13 @@
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB71">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6864,7 +6867,7 @@
         <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6873,7 +6876,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K72">
         <v>2.625</v>
@@ -6950,10 +6953,10 @@
         <v>45044.66666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6962,7 +6965,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K73">
         <v>2.5</v>
@@ -7042,7 +7045,7 @@
         <v>44</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H74">
         <v>6</v>
@@ -7051,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K74">
         <v>2.3</v>
@@ -7128,7 +7131,7 @@
         <v>45046.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
         <v>42</v>
@@ -7140,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K75">
         <v>2.625</v>
@@ -7217,7 +7220,7 @@
         <v>45046.6875</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
         <v>34</v>
@@ -7229,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K76">
         <v>2.3</v>
@@ -7318,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K77">
         <v>2.625</v>
@@ -7407,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K78">
         <v>2.75</v>
@@ -7496,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K79">
         <v>2.2</v>
@@ -7576,7 +7579,7 @@
         <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7585,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K80">
         <v>1.909</v>
@@ -7662,7 +7665,7 @@
         <v>45055.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
         <v>34</v>
@@ -7674,7 +7677,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K81">
         <v>2.2</v>
@@ -7751,7 +7754,7 @@
         <v>45056.6875</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>36</v>
@@ -7763,7 +7766,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K82">
         <v>1.909</v>
@@ -7852,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K83">
         <v>2.5</v>
@@ -7917,7 +7920,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6156847</v>
+        <v>6156848</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7929,58 +7932,58 @@
         <v>45057.79166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K84">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L84">
         <v>3.2</v>
       </c>
       <c r="M84">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N84">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P84">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
+        <v>1.95</v>
+      </c>
+      <c r="S84">
+        <v>1.85</v>
+      </c>
+      <c r="T84">
+        <v>2.25</v>
+      </c>
+      <c r="U84">
+        <v>1.875</v>
+      </c>
+      <c r="V84">
         <v>1.925</v>
       </c>
-      <c r="S84">
-        <v>1.875</v>
-      </c>
-      <c r="T84">
-        <v>2.5</v>
-      </c>
-      <c r="U84">
-        <v>2</v>
-      </c>
-      <c r="V84">
-        <v>1.8</v>
-      </c>
       <c r="W84">
-        <v>0.5329999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7989,13 +7992,13 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8030,7 +8033,7 @@
         <v>3</v>
       </c>
       <c r="J85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K85">
         <v>2.75</v>
@@ -8095,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6156848</v>
+        <v>6156844</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8107,58 +8110,58 @@
         <v>45057.79166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G86" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K86">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L86">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N86">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O86">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P86">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W86">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8167,13 +8170,13 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8184,7 +8187,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6156844</v>
+        <v>6156847</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8196,58 +8199,58 @@
         <v>45057.79166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K87">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L87">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M87">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N87">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O87">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P87">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R87">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S87">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
+        <v>2</v>
+      </c>
+      <c r="V87">
         <v>1.8</v>
       </c>
-      <c r="V87">
-        <v>2</v>
-      </c>
       <c r="W87">
-        <v>1.1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8256,13 +8259,13 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8285,7 +8288,7 @@
         <v>45058.875</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G88" t="s">
         <v>35</v>
@@ -8297,7 +8300,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K88">
         <v>2.2</v>
@@ -8377,7 +8380,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8386,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K89">
         <v>2.2</v>
@@ -8475,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K90">
         <v>2.5</v>
@@ -8552,7 +8555,7 @@
         <v>45061.83333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
         <v>43</v>
@@ -8564,7 +8567,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K91">
         <v>1.727</v>
@@ -8629,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6156851</v>
+        <v>6156170</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8641,76 +8644,76 @@
         <v>45062.6875</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G92" t="s">
         <v>32</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K92">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L92">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M92">
         <v>3.75</v>
       </c>
       <c r="N92">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O92">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P92">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q92">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R92">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T92">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V92">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W92">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z92">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB92">
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8718,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6156170</v>
+        <v>6156851</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,76 +8733,76 @@
         <v>45062.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
         <v>33</v>
       </c>
       <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
         <v>0</v>
       </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="L93">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M93">
         <v>3.75</v>
       </c>
       <c r="N93">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O93">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P93">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R93">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S93">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T93">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U93">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA93">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8822,7 +8825,7 @@
         <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H94">
         <v>4</v>
@@ -8831,7 +8834,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K94">
         <v>1.833</v>
@@ -8908,7 +8911,7 @@
         <v>45062.89583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
         <v>37</v>
@@ -8920,7 +8923,7 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K95">
         <v>2.625</v>
@@ -9009,7 +9012,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K96">
         <v>2.55</v>
@@ -9098,7 +9101,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K97">
         <v>2</v>
@@ -9175,7 +9178,7 @@
         <v>45067.5625</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
         <v>44</v>
@@ -9187,7 +9190,7 @@
         <v>4</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K98">
         <v>2.5</v>
@@ -9264,7 +9267,7 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
         <v>35</v>
@@ -9276,7 +9279,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K99">
         <v>2.5</v>
@@ -9356,7 +9359,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9365,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K100">
         <v>2.1</v>
@@ -9445,7 +9448,7 @@
         <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9454,7 +9457,7 @@
         <v>4</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K101">
         <v>2.1</v>
@@ -9531,7 +9534,7 @@
         <v>45068.79166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -9543,7 +9546,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K102">
         <v>2</v>
@@ -9632,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K103">
         <v>2.75</v>
@@ -9709,7 +9712,7 @@
         <v>45068.89583333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G104" t="s">
         <v>36</v>
@@ -9721,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K104">
         <v>2.2</v>
@@ -9801,7 +9804,7 @@
         <v>40</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -9810,7 +9813,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K105">
         <v>2.1</v>
@@ -9890,7 +9893,7 @@
         <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9899,7 +9902,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K106">
         <v>2</v>
@@ -9976,10 +9979,10 @@
         <v>45073.77083333334</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9988,7 +9991,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K107">
         <v>2.15</v>
@@ -10077,7 +10080,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K108">
         <v>2.2</v>
@@ -10154,10 +10157,10 @@
         <v>45074.5625</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10166,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K109">
         <v>2</v>
@@ -10255,7 +10258,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K110">
         <v>1.8</v>
@@ -10344,7 +10347,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K111">
         <v>1.5</v>
@@ -10433,7 +10436,7 @@
         <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K112">
         <v>2.625</v>
@@ -10522,7 +10525,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K113">
         <v>2.3</v>
@@ -10599,7 +10602,7 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
         <v>35</v>
@@ -10611,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K114">
         <v>2.375</v>
@@ -10700,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K115">
         <v>1.666</v>
@@ -10789,7 +10792,7 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K116">
         <v>2.2</v>
@@ -10878,7 +10881,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K117">
         <v>2.2</v>
@@ -10955,7 +10958,7 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G118" t="s">
         <v>34</v>
@@ -10967,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K118">
         <v>2.2</v>
@@ -11044,10 +11047,10 @@
         <v>45081.77083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11056,7 +11059,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K119">
         <v>2.3</v>
@@ -11133,11 +11136,11 @@
         <v>45081.875</v>
       </c>
       <c r="F120" t="s">
+        <v>38</v>
+      </c>
+      <c r="G120" t="s">
         <v>39</v>
       </c>
-      <c r="G120" t="s">
-        <v>38</v>
-      </c>
       <c r="H120">
         <v>1</v>
       </c>
@@ -11145,7 +11148,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K120">
         <v>2.375</v>
@@ -11225,7 +11228,7 @@
         <v>43</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11234,7 +11237,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K121">
         <v>2.375</v>
@@ -11323,7 +11326,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K122">
         <v>2.1</v>
@@ -11400,10 +11403,10 @@
         <v>45094.77083333334</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11412,7 +11415,7 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K123">
         <v>2.375</v>
@@ -11501,7 +11504,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K124">
         <v>2.5</v>
@@ -11578,10 +11581,10 @@
         <v>45095.5625</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11590,7 +11593,7 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K125">
         <v>1.5</v>
@@ -11670,7 +11673,7 @@
         <v>37</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11679,7 +11682,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K126">
         <v>1.727</v>
@@ -11759,7 +11762,7 @@
         <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11768,7 +11771,7 @@
         <v>3</v>
       </c>
       <c r="J127" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K127">
         <v>2.1</v>
@@ -11857,7 +11860,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K128">
         <v>2</v>
@@ -11946,7 +11949,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K129">
         <v>2.375</v>
@@ -12023,7 +12026,7 @@
         <v>45114.89583333334</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
         <v>36</v>
@@ -12035,7 +12038,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K130">
         <v>1.727</v>
@@ -12100,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6156878</v>
+        <v>6156877</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12112,49 +12115,49 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
         <v>47</v>
       </c>
       <c r="K131">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L131">
+        <v>3</v>
+      </c>
+      <c r="M131">
+        <v>2.45</v>
+      </c>
+      <c r="N131">
+        <v>1.909</v>
+      </c>
+      <c r="O131">
         <v>3.2</v>
       </c>
-      <c r="M131">
-        <v>3.4</v>
-      </c>
-      <c r="N131">
-        <v>2.15</v>
-      </c>
-      <c r="O131">
-        <v>3.25</v>
-      </c>
       <c r="P131">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U131">
         <v>1.825</v>
@@ -12163,25 +12166,25 @@
         <v>1.975</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X131">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA131">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC131">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12189,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6155941</v>
+        <v>6156878</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12201,34 +12204,34 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G132" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
         <v>48</v>
       </c>
       <c r="K132">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L132">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M132">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N132">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O132">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P132">
         <v>2.9</v>
@@ -12240,37 +12243,37 @@
         <v>1.975</v>
       </c>
       <c r="S132">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T132">
+        <v>2.75</v>
+      </c>
+      <c r="U132">
+        <v>1.825</v>
+      </c>
+      <c r="V132">
+        <v>1.975</v>
+      </c>
+      <c r="W132">
+        <v>-1</v>
+      </c>
+      <c r="X132">
         <v>2.25</v>
       </c>
-      <c r="U132">
-        <v>2</v>
-      </c>
-      <c r="V132">
-        <v>1.8</v>
-      </c>
-      <c r="W132">
-        <v>-1</v>
-      </c>
-      <c r="X132">
-        <v>-1</v>
-      </c>
       <c r="Y132">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>0.7250000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB132">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12278,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6156877</v>
+        <v>6155941</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12290,73 +12293,73 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K133">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L133">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M133">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="N133">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O133">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P133">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S133">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T133">
         <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V133">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB133">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12367,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6156174</v>
+        <v>6156880</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12379,73 +12382,73 @@
         <v>45116.5625</v>
       </c>
       <c r="F134" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H134">
         <v>2</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K134">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L134">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M134">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N134">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O134">
         <v>3.3</v>
       </c>
       <c r="P134">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q134">
         <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S134">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T134">
         <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V134">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB134">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC134">
         <v>-1</v>
@@ -12456,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6156880</v>
+        <v>6156174</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12468,73 +12471,73 @@
         <v>45116.5625</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H135">
         <v>2</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
         <v>47</v>
       </c>
       <c r="K135">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="L135">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M135">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N135">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O135">
         <v>3.3</v>
       </c>
       <c r="P135">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q135">
         <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V135">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X135">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12560,7 +12563,7 @@
         <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -12569,7 +12572,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K136">
         <v>2.05</v>
@@ -12649,7 +12652,7 @@
         <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12658,7 +12661,7 @@
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K137">
         <v>2.1</v>
@@ -12738,7 +12741,7 @@
         <v>43</v>
       </c>
       <c r="G138" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12747,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K138">
         <v>2.2</v>
@@ -12824,10 +12827,10 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -12836,7 +12839,7 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K139">
         <v>2.625</v>
@@ -12925,7 +12928,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K140">
         <v>2.375</v>
@@ -13002,7 +13005,7 @@
         <v>45122.77083333334</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
         <v>42</v>
@@ -13014,7 +13017,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K141">
         <v>1.909</v>
@@ -13103,7 +13106,7 @@
         <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K142">
         <v>2</v>
@@ -13192,7 +13195,7 @@
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K143">
         <v>1.727</v>
@@ -13272,7 +13275,7 @@
         <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13281,7 +13284,7 @@
         <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K144">
         <v>1.615</v>
@@ -13358,7 +13361,7 @@
         <v>45128.89583333334</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
         <v>40</v>
@@ -13370,7 +13373,7 @@
         <v>3</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K145">
         <v>1.7</v>
@@ -13459,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K146">
         <v>2.15</v>
@@ -13536,7 +13539,7 @@
         <v>45129.5625</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G147" t="s">
         <v>41</v>
@@ -13548,7 +13551,7 @@
         <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K147">
         <v>2.2</v>
@@ -13625,10 +13628,10 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F148" t="s">
+        <v>33</v>
+      </c>
+      <c r="G148" t="s">
         <v>32</v>
-      </c>
-      <c r="G148" t="s">
-        <v>33</v>
       </c>
       <c r="H148">
         <v>4</v>
@@ -13637,7 +13640,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K148">
         <v>2.75</v>
@@ -13702,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6158713</v>
+        <v>6155944</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13714,76 +13717,76 @@
         <v>45130.5625</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K149">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L149">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M149">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="N149">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O149">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P149">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R149">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S149">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T149">
         <v>2.25</v>
       </c>
       <c r="U149">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA149">
-        <v>0.7749999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AB149">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13791,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6155944</v>
+        <v>6158713</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13803,76 +13806,76 @@
         <v>45130.5625</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150" t="s">
+        <v>49</v>
+      </c>
+      <c r="K150">
+        <v>3</v>
+      </c>
+      <c r="L150">
+        <v>3.25</v>
+      </c>
+      <c r="M150">
+        <v>2.1</v>
+      </c>
+      <c r="N150">
+        <v>2.625</v>
+      </c>
+      <c r="O150">
+        <v>3.2</v>
+      </c>
+      <c r="P150">
+        <v>2.3</v>
+      </c>
+      <c r="Q150">
         <v>0</v>
       </c>
-      <c r="J150" t="s">
-        <v>46</v>
-      </c>
-      <c r="K150">
-        <v>1.4</v>
-      </c>
-      <c r="L150">
-        <v>3.75</v>
-      </c>
-      <c r="M150">
-        <v>7.5</v>
-      </c>
-      <c r="N150">
-        <v>1.45</v>
-      </c>
-      <c r="O150">
-        <v>3.6</v>
-      </c>
-      <c r="P150">
-        <v>6.5</v>
-      </c>
-      <c r="Q150">
-        <v>-1.25</v>
-      </c>
       <c r="R150">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S150">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T150">
         <v>2.25</v>
       </c>
       <c r="U150">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V150">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W150">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>0.375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC150">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13904,7 +13907,7 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K151">
         <v>2.625</v>
@@ -13981,7 +13984,7 @@
         <v>45131.79166666666</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G152" t="s">
         <v>43</v>
@@ -13993,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K152">
         <v>2.15</v>
@@ -14073,7 +14076,7 @@
         <v>36</v>
       </c>
       <c r="G153" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14082,7 +14085,7 @@
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K153">
         <v>1.95</v>
@@ -14171,7 +14174,7 @@
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K154">
         <v>1.95</v>
@@ -14248,11 +14251,11 @@
         <v>45136.5625</v>
       </c>
       <c r="F155" t="s">
+        <v>30</v>
+      </c>
+      <c r="G155" t="s">
         <v>31</v>
       </c>
-      <c r="G155" t="s">
-        <v>30</v>
-      </c>
       <c r="H155">
         <v>2</v>
       </c>
@@ -14260,7 +14263,7 @@
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K155">
         <v>2.625</v>
@@ -14337,7 +14340,7 @@
         <v>45136.89583333334</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G156" t="s">
         <v>41</v>
@@ -14349,7 +14352,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K156">
         <v>2.2</v>
@@ -14438,7 +14441,7 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K157">
         <v>1.727</v>
@@ -14518,7 +14521,7 @@
         <v>40</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14527,7 +14530,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K158">
         <v>2</v>
@@ -14616,7 +14619,7 @@
         <v>3</v>
       </c>
       <c r="J159" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K159">
         <v>2.375</v>
@@ -14696,7 +14699,7 @@
         <v>37</v>
       </c>
       <c r="G160" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14705,7 +14708,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K160">
         <v>1.909</v>
@@ -14794,7 +14797,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K161">
         <v>2.5</v>
@@ -14871,7 +14874,7 @@
         <v>45142.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G162" t="s">
         <v>44</v>
@@ -14883,7 +14886,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K162">
         <v>2.6</v>
@@ -14960,10 +14963,10 @@
         <v>45142.85416666666</v>
       </c>
       <c r="F163" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14972,7 +14975,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K163">
         <v>1.909</v>
@@ -15052,7 +15055,7 @@
         <v>35</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -15061,7 +15064,7 @@
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K164">
         <v>1.909</v>
@@ -15150,7 +15153,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K165">
         <v>2.2</v>
@@ -15239,7 +15242,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K166">
         <v>2.15</v>
@@ -15316,7 +15319,7 @@
         <v>45144.5625</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G167" t="s">
         <v>43</v>
@@ -15328,7 +15331,7 @@
         <v>3</v>
       </c>
       <c r="J167" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K167">
         <v>1.7</v>
@@ -15405,7 +15408,7 @@
         <v>45144.77083333334</v>
       </c>
       <c r="F168" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G168" t="s">
         <v>34</v>
@@ -15417,7 +15420,7 @@
         <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K168">
         <v>1.727</v>
@@ -15506,7 +15509,7 @@
         <v>3</v>
       </c>
       <c r="J169" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K169">
         <v>1.8</v>
@@ -15583,7 +15586,7 @@
         <v>45147.79166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G170" t="s">
         <v>29</v>
@@ -15595,7 +15598,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K170">
         <v>2.25</v>
@@ -15684,7 +15687,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K171">
         <v>2.25</v>
@@ -15749,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6156905</v>
+        <v>6156906</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15761,76 +15764,76 @@
         <v>45150.5625</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G172" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K172">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L172">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M172">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N172">
+        <v>1.95</v>
+      </c>
+      <c r="O172">
+        <v>3.1</v>
+      </c>
+      <c r="P172">
+        <v>3.75</v>
+      </c>
+      <c r="Q172">
+        <v>-0.25</v>
+      </c>
+      <c r="R172">
+        <v>1.725</v>
+      </c>
+      <c r="S172">
+        <v>1.975</v>
+      </c>
+      <c r="T172">
+        <v>2.25</v>
+      </c>
+      <c r="U172">
         <v>1.8</v>
       </c>
-      <c r="O172">
-        <v>3.3</v>
-      </c>
-      <c r="P172">
-        <v>3.8</v>
-      </c>
-      <c r="Q172">
-        <v>-0.5</v>
-      </c>
-      <c r="R172">
-        <v>1.875</v>
-      </c>
-      <c r="S172">
-        <v>1.925</v>
-      </c>
-      <c r="T172">
+      <c r="V172">
+        <v>2</v>
+      </c>
+      <c r="W172">
+        <v>-1</v>
+      </c>
+      <c r="X172">
+        <v>-1</v>
+      </c>
+      <c r="Y172">
         <v>2.75</v>
       </c>
-      <c r="U172">
-        <v>1.975</v>
-      </c>
-      <c r="V172">
-        <v>1.825</v>
-      </c>
-      <c r="W172">
+      <c r="Z172">
+        <v>-1</v>
+      </c>
+      <c r="AA172">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB172">
         <v>0.8</v>
       </c>
-      <c r="X172">
-        <v>-1</v>
-      </c>
-      <c r="Y172">
-        <v>-1</v>
-      </c>
-      <c r="Z172">
-        <v>0.875</v>
-      </c>
-      <c r="AA172">
-        <v>-1</v>
-      </c>
-      <c r="AB172">
-        <v>0.4875</v>
-      </c>
       <c r="AC172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15838,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6156906</v>
+        <v>6156905</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15850,76 +15853,76 @@
         <v>45150.5625</v>
       </c>
       <c r="F173" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K173">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L173">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M173">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N173">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O173">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P173">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q173">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S173">
+        <v>1.925</v>
+      </c>
+      <c r="T173">
+        <v>2.75</v>
+      </c>
+      <c r="U173">
         <v>1.975</v>
       </c>
-      <c r="T173">
-        <v>2.25</v>
-      </c>
-      <c r="U173">
-        <v>1.8</v>
-      </c>
       <c r="V173">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA173">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15942,7 +15945,7 @@
         <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -15951,7 +15954,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K174">
         <v>2.1</v>
@@ -16028,10 +16031,10 @@
         <v>45151.5625</v>
       </c>
       <c r="F175" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G175" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -16040,7 +16043,7 @@
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K175">
         <v>2.25</v>
@@ -16129,7 +16132,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K176">
         <v>1.727</v>
@@ -16209,7 +16212,7 @@
         <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16218,7 +16221,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K177">
         <v>2.15</v>
@@ -16307,7 +16310,7 @@
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K178">
         <v>1.909</v>
@@ -16387,7 +16390,7 @@
         <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16396,7 +16399,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K179">
         <v>1.833</v>
@@ -16473,7 +16476,7 @@
         <v>45158.5625</v>
       </c>
       <c r="F180" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G180" t="s">
         <v>35</v>
@@ -16485,7 +16488,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K180">
         <v>2.3</v>
@@ -16574,7 +16577,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K181">
         <v>2.1</v>
@@ -16651,10 +16654,10 @@
         <v>45158.89583333334</v>
       </c>
       <c r="F182" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G182" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16663,7 +16666,7 @@
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K182">
         <v>1.727</v>
@@ -16752,7 +16755,7 @@
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K183">
         <v>1.65</v>
@@ -16817,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6156180</v>
+        <v>6155954</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16829,76 +16832,76 @@
         <v>45165.5625</v>
       </c>
       <c r="F184" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K184">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L184">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M184">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N184">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O184">
+        <v>3.2</v>
+      </c>
+      <c r="P184">
         <v>3.75</v>
       </c>
-      <c r="P184">
-        <v>4</v>
-      </c>
       <c r="Q184">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R184">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S184">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U184">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V184">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W184">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z184">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC184">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16906,7 +16909,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6155954</v>
+        <v>6156180</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16918,76 +16921,76 @@
         <v>45165.5625</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G185" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K185">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L185">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M185">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N185">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O185">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P185">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q185">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R185">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S185">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U185">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V185">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA185">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16995,7 +16998,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6156912</v>
+        <v>6155953</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17007,37 +17010,37 @@
         <v>45165.66666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186">
         <v>3</v>
       </c>
       <c r="J186" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K186">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="L186">
         <v>3</v>
       </c>
       <c r="M186">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="N186">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O186">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P186">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q186">
         <v>-0.25</v>
@@ -17049,13 +17052,13 @@
         <v>1.85</v>
       </c>
       <c r="T186">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V186">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W186">
         <v>-1</v>
@@ -17064,7 +17067,7 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z186">
         <v>-1</v>
@@ -17073,10 +17076,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB186">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17084,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6155953</v>
+        <v>6156912</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17096,37 +17099,37 @@
         <v>45165.66666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G187" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187">
         <v>3</v>
       </c>
       <c r="J187" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K187">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="L187">
         <v>3</v>
       </c>
       <c r="M187">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="N187">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O187">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P187">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q187">
         <v>-0.25</v>
@@ -17138,13 +17141,13 @@
         <v>1.85</v>
       </c>
       <c r="T187">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U187">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V187">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W187">
         <v>-1</v>
@@ -17153,7 +17156,7 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z187">
         <v>-1</v>
@@ -17162,10 +17165,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB187">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AC187">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17185,7 +17188,7 @@
         <v>45165.77083333334</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G188" t="s">
         <v>43</v>
@@ -17197,7 +17200,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K188">
         <v>1.833</v>
@@ -17277,7 +17280,7 @@
         <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17286,7 +17289,7 @@
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K189">
         <v>2.1</v>
@@ -17366,7 +17369,7 @@
         <v>34</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -17375,7 +17378,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K190">
         <v>2.7</v>
@@ -17455,7 +17458,7 @@
         <v>42</v>
       </c>
       <c r="G191" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H191">
         <v>3</v>
@@ -17464,7 +17467,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K191">
         <v>2.05</v>
@@ -17541,10 +17544,10 @@
         <v>45171.79166666666</v>
       </c>
       <c r="F192" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G192" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17553,7 +17556,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K192">
         <v>1.909</v>
@@ -17642,7 +17645,7 @@
         <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K193">
         <v>1.95</v>
@@ -17719,7 +17722,7 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F194" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G194" t="s">
         <v>44</v>
@@ -17731,7 +17734,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K194">
         <v>2.4</v>
@@ -17808,7 +17811,7 @@
         <v>45172.83333333334</v>
       </c>
       <c r="F195" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G195" t="s">
         <v>29</v>
@@ -17820,7 +17823,7 @@
         <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K195">
         <v>2</v>
@@ -17909,7 +17912,7 @@
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K196">
         <v>2.1</v>
@@ -17998,7 +18001,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K197">
         <v>2.25</v>
@@ -18075,7 +18078,7 @@
         <v>45177.52083333334</v>
       </c>
       <c r="F198" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G198" t="s">
         <v>29</v>
@@ -18087,7 +18090,7 @@
         <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K198">
         <v>2.3</v>
@@ -18167,7 +18170,7 @@
         <v>34</v>
       </c>
       <c r="G199" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H199">
         <v>2</v>
@@ -18176,7 +18179,7 @@
         <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K199">
         <v>2</v>
@@ -18265,7 +18268,7 @@
         <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K200">
         <v>1.85</v>
@@ -18342,10 +18345,10 @@
         <v>45178.83333333334</v>
       </c>
       <c r="F201" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G201" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18354,7 +18357,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K201">
         <v>2</v>
@@ -18443,7 +18446,7 @@
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K202">
         <v>1.533</v>
@@ -18523,7 +18526,7 @@
         <v>35</v>
       </c>
       <c r="G203" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -18532,7 +18535,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K203">
         <v>1.85</v>
@@ -18621,7 +18624,7 @@
         <v>3</v>
       </c>
       <c r="J204" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K204">
         <v>2.4</v>
@@ -18701,7 +18704,7 @@
         <v>36</v>
       </c>
       <c r="G205" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18710,7 +18713,7 @@
         <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K205">
         <v>2.25</v>
@@ -18799,7 +18802,7 @@
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K206">
         <v>1.571</v>
@@ -18876,7 +18879,7 @@
         <v>45183.75</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G207" t="s">
         <v>44</v>
@@ -18888,7 +18891,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K207">
         <v>3</v>
@@ -18968,7 +18971,7 @@
         <v>29</v>
       </c>
       <c r="G208" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H208">
         <v>2</v>
@@ -18977,7 +18980,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K208">
         <v>1.615</v>
@@ -19066,7 +19069,7 @@
         <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K209">
         <v>2.2</v>
@@ -19146,7 +19149,7 @@
         <v>43</v>
       </c>
       <c r="G210" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19155,7 +19158,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K210">
         <v>2.25</v>
@@ -19232,7 +19235,7 @@
         <v>45192.52083333334</v>
       </c>
       <c r="F211" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G211" t="s">
         <v>40</v>
@@ -19244,7 +19247,7 @@
         <v>2</v>
       </c>
       <c r="J211" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K211">
         <v>2.625</v>
@@ -19309,7 +19312,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6155958</v>
+        <v>6156929</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19321,76 +19324,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F212" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G212" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H212">
         <v>1</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
         <v>47</v>
       </c>
       <c r="K212">
+        <v>2.3</v>
+      </c>
+      <c r="L212">
+        <v>2.9</v>
+      </c>
+      <c r="M212">
         <v>3</v>
       </c>
-      <c r="L212">
-        <v>3.2</v>
-      </c>
-      <c r="M212">
-        <v>2.2</v>
-      </c>
       <c r="N212">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O212">
         <v>3.3</v>
       </c>
       <c r="P212">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q212">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R212">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S212">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T212">
         <v>2.5</v>
       </c>
       <c r="U212">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V212">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X212">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA212">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19398,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6156929</v>
+        <v>6155958</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19410,76 +19413,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F213" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H213">
         <v>1</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K213">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L213">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M213">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N213">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="O213">
         <v>3.3</v>
       </c>
       <c r="P213">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q213">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R213">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S213">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T213">
         <v>2.5</v>
       </c>
       <c r="U213">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V213">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W213">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB213">
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19499,7 +19502,7 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F214" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G214" t="s">
         <v>44</v>
@@ -19511,7 +19514,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K214">
         <v>2.2</v>
@@ -19588,7 +19591,7 @@
         <v>45195.79166666666</v>
       </c>
       <c r="F215" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G215" t="s">
         <v>41</v>
@@ -19600,7 +19603,7 @@
         <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K215">
         <v>2.25</v>
@@ -19680,7 +19683,7 @@
         <v>42</v>
       </c>
       <c r="G216" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -19689,7 +19692,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K216">
         <v>2.375</v>
@@ -19769,7 +19772,7 @@
         <v>35</v>
       </c>
       <c r="G217" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H217">
         <v>1</v>
@@ -19778,7 +19781,7 @@
         <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K217">
         <v>1.8</v>
@@ -19855,7 +19858,7 @@
         <v>45199.72916666666</v>
       </c>
       <c r="F218" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G218" t="s">
         <v>29</v>
@@ -19867,7 +19870,7 @@
         <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K218">
         <v>2.3</v>
@@ -19947,7 +19950,7 @@
         <v>44</v>
       </c>
       <c r="G219" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -19956,7 +19959,7 @@
         <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K219">
         <v>1.615</v>
@@ -20045,7 +20048,7 @@
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K220">
         <v>2.2</v>
@@ -20134,7 +20137,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K221">
         <v>2.2</v>
@@ -20214,7 +20217,7 @@
         <v>40</v>
       </c>
       <c r="G222" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -20223,7 +20226,7 @@
         <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K222">
         <v>2.5</v>
@@ -20300,7 +20303,7 @@
         <v>45201.89583333334</v>
       </c>
       <c r="F223" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G223" t="s">
         <v>42</v>
@@ -20312,7 +20315,7 @@
         <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K223">
         <v>1.727</v>
@@ -20392,7 +20395,7 @@
         <v>36</v>
       </c>
       <c r="G224" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H224">
         <v>3</v>
@@ -20401,7 +20404,7 @@
         <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K224">
         <v>2.1</v>
@@ -20490,7 +20493,7 @@
         <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K225">
         <v>1.8</v>
@@ -20579,7 +20582,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K226">
         <v>2.3</v>
@@ -20644,7 +20647,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6155962</v>
+        <v>6156942</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20656,55 +20659,55 @@
         <v>45208.52083333334</v>
       </c>
       <c r="F227" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G227" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I227">
+        <v>2</v>
+      </c>
+      <c r="J227" t="s">
+        <v>49</v>
+      </c>
+      <c r="K227">
+        <v>2.2</v>
+      </c>
+      <c r="L227">
+        <v>3.1</v>
+      </c>
+      <c r="M227">
         <v>3</v>
       </c>
-      <c r="J227" t="s">
-        <v>48</v>
-      </c>
-      <c r="K227">
-        <v>2.3</v>
-      </c>
-      <c r="L227">
+      <c r="N227">
+        <v>2.05</v>
+      </c>
+      <c r="O227">
         <v>3.2</v>
       </c>
-      <c r="M227">
-        <v>2.75</v>
-      </c>
-      <c r="N227">
-        <v>1.833</v>
-      </c>
-      <c r="O227">
-        <v>3.3</v>
-      </c>
       <c r="P227">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q227">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R227">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S227">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T227">
         <v>2.5</v>
       </c>
       <c r="U227">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V227">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W227">
         <v>-1</v>
@@ -20713,16 +20716,16 @@
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Z227">
         <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB227">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC227">
         <v>-1</v>
@@ -20733,7 +20736,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6156942</v>
+        <v>6155962</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20745,55 +20748,55 @@
         <v>45208.52083333334</v>
       </c>
       <c r="F228" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G228" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J228" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K228">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L228">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M228">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N228">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="O228">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P228">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q228">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R228">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S228">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T228">
         <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V228">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W228">
         <v>-1</v>
@@ -20802,16 +20805,16 @@
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB228">
         <v>0.95</v>
-      </c>
-      <c r="AB228">
-        <v>0.8</v>
       </c>
       <c r="AC228">
         <v>-1</v>
@@ -20822,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6156941</v>
+        <v>6156184</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20834,58 +20837,58 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F229" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G229" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I229">
+        <v>3</v>
+      </c>
+      <c r="J229" t="s">
+        <v>47</v>
+      </c>
+      <c r="K229">
+        <v>2.5</v>
+      </c>
+      <c r="L229">
+        <v>3.2</v>
+      </c>
+      <c r="M229">
+        <v>2.5</v>
+      </c>
+      <c r="N229">
+        <v>2.7</v>
+      </c>
+      <c r="O229">
+        <v>3.2</v>
+      </c>
+      <c r="P229">
+        <v>2.375</v>
+      </c>
+      <c r="Q229">
         <v>0</v>
       </c>
-      <c r="J229" t="s">
-        <v>46</v>
-      </c>
-      <c r="K229">
-        <v>1.8</v>
-      </c>
-      <c r="L229">
-        <v>3.3</v>
-      </c>
-      <c r="M229">
-        <v>4</v>
-      </c>
-      <c r="N229">
-        <v>1.615</v>
-      </c>
-      <c r="O229">
-        <v>3.6</v>
-      </c>
-      <c r="P229">
-        <v>4.75</v>
-      </c>
-      <c r="Q229">
-        <v>-0.75</v>
-      </c>
       <c r="R229">
+        <v>2.05</v>
+      </c>
+      <c r="S229">
+        <v>1.75</v>
+      </c>
+      <c r="T229">
+        <v>2.75</v>
+      </c>
+      <c r="U229">
         <v>1.875</v>
       </c>
-      <c r="S229">
+      <c r="V229">
         <v>1.925</v>
       </c>
-      <c r="T229">
-        <v>2.25</v>
-      </c>
-      <c r="U229">
-        <v>1.825</v>
-      </c>
-      <c r="V229">
-        <v>1.975</v>
-      </c>
       <c r="W229">
-        <v>0.615</v>
+        <v>1.7</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20894,16 +20897,16 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="AA229">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC229">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20923,10 +20926,10 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F230" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G230" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H230">
         <v>1</v>
@@ -20935,7 +20938,7 @@
         <v>2</v>
       </c>
       <c r="J230" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K230">
         <v>2.375</v>
@@ -21000,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6156943</v>
+        <v>6156941</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21012,10 +21015,10 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F231" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G231" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H231">
         <v>1</v>
@@ -21024,34 +21027,34 @@
         <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K231">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L231">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M231">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N231">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O231">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P231">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q231">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R231">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S231">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T231">
         <v>2.25</v>
@@ -21063,7 +21066,7 @@
         <v>1.975</v>
       </c>
       <c r="W231">
-        <v>0.909</v>
+        <v>0.615</v>
       </c>
       <c r="X231">
         <v>-1</v>
@@ -21072,10 +21075,10 @@
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB231">
         <v>-1</v>
@@ -21089,7 +21092,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6156184</v>
+        <v>6156943</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21101,58 +21104,58 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F232" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G232" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H232">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I232">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K232">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L232">
         <v>3.2</v>
       </c>
       <c r="M232">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N232">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="O232">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P232">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="Q232">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R232">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S232">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T232">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U232">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V232">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W232">
-        <v>1.7</v>
+        <v>0.909</v>
       </c>
       <c r="X232">
         <v>-1</v>
@@ -21161,16 +21164,16 @@
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA232">
         <v>-1</v>
       </c>
       <c r="AB232">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC232">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21193,7 +21196,7 @@
         <v>35</v>
       </c>
       <c r="G233" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -21202,7 +21205,7 @@
         <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K233">
         <v>1.727</v>
@@ -21282,7 +21285,7 @@
         <v>34</v>
       </c>
       <c r="G234" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -21291,7 +21294,7 @@
         <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K234">
         <v>2.1</v>
@@ -21380,7 +21383,7 @@
         <v>3</v>
       </c>
       <c r="J235" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K235">
         <v>2</v>
@@ -21469,7 +21472,7 @@
         <v>3</v>
       </c>
       <c r="J236" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K236">
         <v>1.727</v>
@@ -21534,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7327839</v>
+        <v>7327842</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21546,40 +21549,40 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F237" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G237" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K237">
-        <v>3.2</v>
+        <v>1.533</v>
       </c>
       <c r="L237">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M237">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N237">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="O237">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P237">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="Q237">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R237">
         <v>1.9</v>
@@ -21588,31 +21591,31 @@
         <v>1.9</v>
       </c>
       <c r="T237">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U237">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V237">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
+        <v>0.45</v>
+      </c>
+      <c r="AA237">
         <v>-0.5</v>
       </c>
-      <c r="AA237">
-        <v>0.45</v>
-      </c>
       <c r="AB237">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC237">
         <v>-1</v>
@@ -21623,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7327842</v>
+        <v>7327841</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21635,58 +21638,58 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F238" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G238" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J238" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K238">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L238">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M238">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N238">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O238">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P238">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q238">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R238">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S238">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T238">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U238">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V238">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W238">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="X238">
         <v>-1</v>
@@ -21695,13 +21698,13 @@
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA238">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC238">
         <v>-1</v>
@@ -21712,7 +21715,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7327841</v>
+        <v>7327840</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21724,43 +21727,43 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F239" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G239" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H239">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K239">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L239">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M239">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N239">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O239">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P239">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q239">
         <v>-0.25</v>
       </c>
       <c r="R239">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S239">
         <v>1.975</v>
@@ -21769,31 +21772,31 @@
         <v>2.5</v>
       </c>
       <c r="U239">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V239">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W239">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z239">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB239">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21801,7 +21804,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7327840</v>
+        <v>7327839</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21813,55 +21816,55 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F240" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G240" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J240" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K240">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="L240">
         <v>3.3</v>
       </c>
       <c r="M240">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N240">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="O240">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P240">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="Q240">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R240">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S240">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V240">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W240">
         <v>-1</v>
@@ -21870,19 +21873,19 @@
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>2.75</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA240">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB240">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC240">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21905,7 +21908,7 @@
         <v>37</v>
       </c>
       <c r="G241" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -21914,7 +21917,7 @@
         <v>0</v>
       </c>
       <c r="J241" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K241">
         <v>2.1</v>
@@ -22003,7 +22006,7 @@
         <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K242">
         <v>2.15</v>
@@ -22083,7 +22086,7 @@
         <v>35</v>
       </c>
       <c r="G243" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H243">
         <v>2</v>
@@ -22092,7 +22095,7 @@
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K243">
         <v>2.375</v>
@@ -22181,7 +22184,7 @@
         <v>6</v>
       </c>
       <c r="J244" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K244">
         <v>2.3</v>
@@ -22258,7 +22261,7 @@
         <v>45244.85416666666</v>
       </c>
       <c r="F245" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G245" t="s">
         <v>37</v>
@@ -22270,7 +22273,7 @@
         <v>1</v>
       </c>
       <c r="J245" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K245">
         <v>1.727</v>
@@ -22347,7 +22350,7 @@
         <v>45245.79166666666</v>
       </c>
       <c r="F246" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G246" t="s">
         <v>35</v>
@@ -22359,7 +22362,7 @@
         <v>0</v>
       </c>
       <c r="J246" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K246">
         <v>1.615</v>
@@ -22424,7 +22427,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7487575</v>
+        <v>7487574</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22436,49 +22439,49 @@
         <v>45249.75</v>
       </c>
       <c r="F247" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G247" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H247">
         <v>2</v>
       </c>
       <c r="I247">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J247" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K247">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L247">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M247">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N247">
         <v>1.95</v>
       </c>
       <c r="O247">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P247">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q247">
         <v>-0.5</v>
       </c>
       <c r="R247">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S247">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T247">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U247">
         <v>1.975</v>
@@ -22490,16 +22493,16 @@
         <v>-1</v>
       </c>
       <c r="X247">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z247">
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB247">
         <v>0.9750000000000001</v>
@@ -22513,7 +22516,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7487574</v>
+        <v>7487575</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22525,49 +22528,49 @@
         <v>45249.75</v>
       </c>
       <c r="F248" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G248" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H248">
         <v>2</v>
       </c>
       <c r="I248">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J248" t="s">
         <v>48</v>
       </c>
       <c r="K248">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L248">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M248">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N248">
         <v>1.95</v>
       </c>
       <c r="O248">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P248">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q248">
         <v>-0.5</v>
       </c>
       <c r="R248">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S248">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T248">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U248">
         <v>1.975</v>
@@ -22579,16 +22582,16 @@
         <v>-1</v>
       </c>
       <c r="X248">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y248">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
         <v>-1</v>
       </c>
       <c r="AA248">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB248">
         <v>0.9750000000000001</v>
@@ -22614,7 +22617,7 @@
         <v>45256.75</v>
       </c>
       <c r="F249" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G249" t="s">
         <v>44</v>
@@ -22626,7 +22629,7 @@
         <v>0</v>
       </c>
       <c r="J249" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K249">
         <v>2.2</v>
@@ -22703,10 +22706,10 @@
         <v>45256.75</v>
       </c>
       <c r="F250" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G250" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -22715,7 +22718,7 @@
         <v>0</v>
       </c>
       <c r="J250" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K250">
         <v>2.2</v>
@@ -22792,10 +22795,10 @@
         <v>45264.79166666666</v>
       </c>
       <c r="F251" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G251" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H251">
         <v>1</v>
@@ -22804,7 +22807,7 @@
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K251">
         <v>2.1</v>
@@ -22881,10 +22884,10 @@
         <v>45270.79166666666</v>
       </c>
       <c r="F252" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G252" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H252">
         <v>6</v>
@@ -22893,7 +22896,7 @@
         <v>5</v>
       </c>
       <c r="J252" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K252">
         <v>2.1</v>
@@ -22958,7 +22961,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7793609</v>
+        <v>7792873</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22967,64 +22970,79 @@
         <v>28</v>
       </c>
       <c r="E253" s="2">
-        <v>45346.5</v>
+        <v>45345.89583333334</v>
       </c>
       <c r="F253" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G253" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="H253">
+        <v>2</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253" t="s">
+        <v>47</v>
       </c>
       <c r="K253">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L253">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M253">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N253">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O253">
         <v>3.3</v>
       </c>
       <c r="P253">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q253">
+        <v>-0.25</v>
+      </c>
+      <c r="R253">
+        <v>1.725</v>
+      </c>
+      <c r="S253">
+        <v>1.975</v>
+      </c>
+      <c r="T253">
+        <v>2.25</v>
+      </c>
+      <c r="U253">
+        <v>1.8</v>
+      </c>
+      <c r="V253">
+        <v>2</v>
+      </c>
+      <c r="W253">
+        <v>1</v>
+      </c>
+      <c r="X253">
+        <v>-1</v>
+      </c>
+      <c r="Y253">
+        <v>-1</v>
+      </c>
+      <c r="Z253">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AA253">
+        <v>-1</v>
+      </c>
+      <c r="AB253">
         <v>-0.5</v>
       </c>
-      <c r="R253">
-        <v>1.85</v>
-      </c>
-      <c r="S253">
-        <v>1.95</v>
-      </c>
-      <c r="T253">
-        <v>2.5</v>
-      </c>
-      <c r="U253">
-        <v>1.975</v>
-      </c>
-      <c r="V253">
-        <v>1.825</v>
-      </c>
-      <c r="W253">
-        <v>0</v>
-      </c>
-      <c r="X253">
-        <v>0</v>
-      </c>
-      <c r="Y253">
-        <v>0</v>
-      </c>
-      <c r="Z253">
-        <v>0</v>
-      </c>
-      <c r="AA253">
-        <v>0</v>
+      <c r="AC253">
+        <v>0.5</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -23032,7 +23050,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7792875</v>
+        <v>7793609</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23041,28 +23059,37 @@
         <v>28</v>
       </c>
       <c r="E254" s="2">
-        <v>45346.75</v>
+        <v>45346.5</v>
       </c>
       <c r="F254" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G254" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254">
+        <v>1</v>
+      </c>
+      <c r="J254" t="s">
+        <v>49</v>
       </c>
       <c r="K254">
+        <v>2</v>
+      </c>
+      <c r="L254">
+        <v>3.2</v>
+      </c>
+      <c r="M254">
+        <v>3.4</v>
+      </c>
+      <c r="N254">
         <v>1.8</v>
       </c>
-      <c r="L254">
-        <v>3.5</v>
-      </c>
-      <c r="M254">
-        <v>3.75</v>
-      </c>
-      <c r="N254">
-        <v>1.727</v>
-      </c>
       <c r="O254">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P254">
         <v>4</v>
@@ -23071,34 +23098,40 @@
         <v>-0.75</v>
       </c>
       <c r="R254">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S254">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T254">
         <v>2.5</v>
       </c>
       <c r="U254">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V254">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W254">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X254">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y254">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z254">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA254">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB254">
+        <v>-1</v>
+      </c>
+      <c r="AC254">
+        <v>0.825</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23106,7 +23139,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7793484</v>
+        <v>7792875</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23115,64 +23148,79 @@
         <v>28</v>
       </c>
       <c r="E255" s="2">
-        <v>45346.85416666666</v>
+        <v>45346.75</v>
       </c>
       <c r="F255" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G255" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+      <c r="J255" t="s">
+        <v>49</v>
       </c>
       <c r="K255">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L255">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M255">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N255">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O255">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P255">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q255">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R255">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S255">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T255">
         <v>2.5</v>
       </c>
       <c r="U255">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V255">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W255">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X255">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y255">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z255">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA255">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB255">
+        <v>-1</v>
+      </c>
+      <c r="AC255">
+        <v>0.95</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23192,10 +23240,10 @@
         <v>45347.75</v>
       </c>
       <c r="F256" t="s">
+        <v>33</v>
+      </c>
+      <c r="G256" t="s">
         <v>32</v>
-      </c>
-      <c r="G256" t="s">
-        <v>33</v>
       </c>
       <c r="K256">
         <v>3</v>
@@ -23207,31 +23255,31 @@
         <v>2.1</v>
       </c>
       <c r="N256">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O256">
         <v>3.25</v>
       </c>
       <c r="P256">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q256">
         <v>0.25</v>
       </c>
       <c r="R256">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S256">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T256">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U256">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V256">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W256">
         <v>0</v>
@@ -23269,7 +23317,7 @@
         <v>36</v>
       </c>
       <c r="G257" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K257">
         <v>2.2</v>

--- a/Chile Primera B/Chile Primera B.xlsx
+++ b/Chile Primera B/Chile Primera B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC146"/>
+  <dimension ref="A1:AC147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6156883</v>
+        <v>6156881</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2770,76 +2770,76 @@
         <v>45121.85416666666</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M26">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N26">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O26">
         <v>3.2</v>
       </c>
       <c r="P26">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S26">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V26">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6156881</v>
+        <v>6156883</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,76 +2859,76 @@
         <v>45121.85416666666</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L27">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M27">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N27">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O27">
         <v>3.2</v>
       </c>
       <c r="P27">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V27">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y27">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6156882</v>
+        <v>6155942</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L28">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M28">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="N28">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O28">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S28">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.425</v>
+        <v>0.7</v>
       </c>
       <c r="AB28">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6155942</v>
+        <v>6156882</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3037,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="L29">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M29">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N29">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O29">
+        <v>3.1</v>
+      </c>
+      <c r="P29">
         <v>3</v>
       </c>
-      <c r="P29">
-        <v>2.45</v>
-      </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S29">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V29">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y29">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA29">
-        <v>0.7</v>
+        <v>0.425</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC29">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6156888</v>
+        <v>6156886</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,34 +3571,34 @@
         <v>45129.5625</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L35">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M35">
         <v>3.2</v>
       </c>
       <c r="N35">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O35">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P35">
         <v>3.25</v>
@@ -3607,37 +3607,37 @@
         <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S35">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T35">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V35">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA35">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6156886</v>
+        <v>6156888</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,34 +3660,34 @@
         <v>45129.5625</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M36">
         <v>3.2</v>
       </c>
       <c r="N36">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O36">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P36">
         <v>3.25</v>
@@ -3696,37 +3696,37 @@
         <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S36">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U36">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V36">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W36">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z36">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB36">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3826,7 +3826,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6155944</v>
+        <v>6158713</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3838,76 +3838,76 @@
         <v>45130.5625</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38">
+        <v>3.25</v>
+      </c>
+      <c r="M38">
+        <v>2.1</v>
+      </c>
+      <c r="N38">
+        <v>2.625</v>
+      </c>
+      <c r="O38">
+        <v>3.2</v>
+      </c>
+      <c r="P38">
+        <v>2.3</v>
+      </c>
+      <c r="Q38">
         <v>0</v>
       </c>
-      <c r="J38" t="s">
-        <v>47</v>
-      </c>
-      <c r="K38">
-        <v>1.4</v>
-      </c>
-      <c r="L38">
-        <v>3.75</v>
-      </c>
-      <c r="M38">
-        <v>7.5</v>
-      </c>
-      <c r="N38">
-        <v>1.45</v>
-      </c>
-      <c r="O38">
-        <v>3.6</v>
-      </c>
-      <c r="P38">
-        <v>6.5</v>
-      </c>
-      <c r="Q38">
-        <v>-1.25</v>
-      </c>
       <c r="R38">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S38">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V38">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W38">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6158713</v>
+        <v>6155944</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>45130.5625</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L39">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M39">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="N39">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P39">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R39">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S39">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V39">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>0.7749999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AB39">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6393620</v>
+        <v>6155945</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,73 +4283,73 @@
         <v>45136.5625</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K43">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L43">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M43">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N43">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="O43">
         <v>3.25</v>
       </c>
       <c r="P43">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q43">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S43">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U43">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V43">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W43">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA43">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB43">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6155945</v>
+        <v>6393620</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,73 +4372,73 @@
         <v>45136.5625</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K44">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M44">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N44">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="O44">
         <v>3.25</v>
       </c>
       <c r="P44">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S44">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X44">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA44">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB44">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -5873,7 +5873,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6156906</v>
+        <v>6156905</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5885,76 +5885,76 @@
         <v>45150.5625</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K61">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L61">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M61">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N61">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O61">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P61">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S61">
+        <v>1.925</v>
+      </c>
+      <c r="T61">
+        <v>2.75</v>
+      </c>
+      <c r="U61">
         <v>1.975</v>
       </c>
-      <c r="T61">
-        <v>2.25</v>
-      </c>
-      <c r="U61">
-        <v>1.8</v>
-      </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA61">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6156905</v>
+        <v>6156906</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,76 +5974,76 @@
         <v>45150.5625</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L62">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M62">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N62">
+        <v>1.95</v>
+      </c>
+      <c r="O62">
+        <v>3.1</v>
+      </c>
+      <c r="P62">
+        <v>3.75</v>
+      </c>
+      <c r="Q62">
+        <v>-0.25</v>
+      </c>
+      <c r="R62">
+        <v>1.725</v>
+      </c>
+      <c r="S62">
+        <v>1.975</v>
+      </c>
+      <c r="T62">
+        <v>2.25</v>
+      </c>
+      <c r="U62">
         <v>1.8</v>
       </c>
-      <c r="O62">
-        <v>3.3</v>
-      </c>
-      <c r="P62">
-        <v>3.8</v>
-      </c>
-      <c r="Q62">
-        <v>-0.5</v>
-      </c>
-      <c r="R62">
-        <v>1.875</v>
-      </c>
-      <c r="S62">
-        <v>1.925</v>
-      </c>
-      <c r="T62">
+      <c r="V62">
+        <v>2</v>
+      </c>
+      <c r="W62">
+        <v>-1</v>
+      </c>
+      <c r="X62">
+        <v>-1</v>
+      </c>
+      <c r="Y62">
         <v>2.75</v>
       </c>
-      <c r="U62">
-        <v>1.975</v>
-      </c>
-      <c r="V62">
-        <v>1.825</v>
-      </c>
-      <c r="W62">
+      <c r="Z62">
+        <v>-1</v>
+      </c>
+      <c r="AA62">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB62">
         <v>0.8</v>
       </c>
-      <c r="X62">
-        <v>-1</v>
-      </c>
-      <c r="Y62">
-        <v>-1</v>
-      </c>
-      <c r="Z62">
-        <v>0.875</v>
-      </c>
-      <c r="AA62">
-        <v>-1</v>
-      </c>
-      <c r="AB62">
-        <v>0.4875</v>
-      </c>
       <c r="AC62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6156908</v>
+        <v>6156911</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,58 +6597,58 @@
         <v>45158.5625</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H69">
         <v>2</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>47</v>
       </c>
       <c r="K69">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L69">
         <v>3.2</v>
       </c>
       <c r="M69">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N69">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O69">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P69">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q69">
         <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
         <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V69">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6657,16 +6657,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6156911</v>
+        <v>6156908</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,58 +6686,58 @@
         <v>45158.5625</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H70">
         <v>2</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
         <v>47</v>
       </c>
       <c r="K70">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L70">
         <v>3.2</v>
       </c>
       <c r="M70">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N70">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O70">
+        <v>3.25</v>
+      </c>
+      <c r="P70">
         <v>3.2</v>
-      </c>
-      <c r="P70">
-        <v>3</v>
       </c>
       <c r="Q70">
         <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S70">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T70">
         <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6746,16 +6746,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC70">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6156929</v>
+        <v>6155958</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K101">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L101">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M101">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N101">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="O101">
         <v>3.3</v>
       </c>
       <c r="P101">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q101">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S101">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T101">
         <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W101">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6155958</v>
+        <v>6156183</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K102">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L102">
         <v>3.2</v>
       </c>
       <c r="M102">
+        <v>3</v>
+      </c>
+      <c r="N102">
         <v>2.2</v>
       </c>
-      <c r="N102">
-        <v>2.05</v>
-      </c>
       <c r="O102">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P102">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q102">
         <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T102">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V102">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X102">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA102">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC102">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6156183</v>
+        <v>6156929</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,13 +9623,13 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -9638,43 +9638,43 @@
         <v>47</v>
       </c>
       <c r="K103">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L103">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M103">
         <v>3</v>
       </c>
       <c r="N103">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O103">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S103">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T103">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W103">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9683,16 +9683,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6156937</v>
+        <v>6156938</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,76 +10424,76 @@
         <v>45201.89583333334</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G112" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K112">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L112">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N112">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="O112">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P112">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R112">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W112">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z112">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB112">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6156938</v>
+        <v>6156937</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,76 +10513,76 @@
         <v>45201.89583333334</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G113" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K113">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L113">
+        <v>3.2</v>
+      </c>
+      <c r="M113">
+        <v>3.2</v>
+      </c>
+      <c r="N113">
+        <v>2.05</v>
+      </c>
+      <c r="O113">
+        <v>3.2</v>
+      </c>
+      <c r="P113">
         <v>3.5</v>
       </c>
-      <c r="M113">
-        <v>4</v>
-      </c>
-      <c r="N113">
-        <v>1.571</v>
-      </c>
-      <c r="O113">
-        <v>3.75</v>
-      </c>
-      <c r="P113">
-        <v>4.75</v>
-      </c>
       <c r="Q113">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S113">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T113">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V113">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA113">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC113">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6156942</v>
+        <v>6155962</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,55 +10780,55 @@
         <v>45208.52083333334</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
         <v>49</v>
       </c>
       <c r="K116">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L116">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M116">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N116">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="O116">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P116">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V116">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
         <v>-1</v>
@@ -10837,16 +10837,16 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB116">
         <v>0.95</v>
-      </c>
-      <c r="AB116">
-        <v>0.8</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6155962</v>
+        <v>6156942</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,55 +10869,55 @@
         <v>45208.52083333334</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>49</v>
       </c>
       <c r="K117">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L117">
+        <v>3.1</v>
+      </c>
+      <c r="M117">
+        <v>3</v>
+      </c>
+      <c r="N117">
+        <v>2.05</v>
+      </c>
+      <c r="O117">
         <v>3.2</v>
       </c>
-      <c r="M117">
-        <v>2.75</v>
-      </c>
-      <c r="N117">
-        <v>1.833</v>
-      </c>
-      <c r="O117">
-        <v>3.3</v>
-      </c>
       <c r="P117">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q117">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S117">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V117">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W117">
         <v>-1</v>
@@ -10926,16 +10926,16 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB117">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6156941</v>
+        <v>6156943</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,10 +10958,10 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -10973,31 +10973,31 @@
         <v>47</v>
       </c>
       <c r="K118">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L118">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M118">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N118">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P118">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R118">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S118">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T118">
         <v>2.25</v>
@@ -11009,7 +11009,7 @@
         <v>1.975</v>
       </c>
       <c r="W118">
-        <v>0.615</v>
+        <v>0.909</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11018,10 +11018,10 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
         <v>-1</v>
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6156943</v>
+        <v>6156941</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,10 +11136,10 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11151,31 +11151,31 @@
         <v>47</v>
       </c>
       <c r="K120">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L120">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M120">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N120">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O120">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P120">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R120">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S120">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T120">
         <v>2.25</v>
@@ -11187,7 +11187,7 @@
         <v>1.975</v>
       </c>
       <c r="W120">
-        <v>0.909</v>
+        <v>0.615</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11196,10 +11196,10 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB120">
         <v>-1</v>
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7327855</v>
+        <v>7327856</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,10 +11314,10 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11329,37 +11329,37 @@
         <v>49</v>
       </c>
       <c r="K122">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L122">
+        <v>3.5</v>
+      </c>
+      <c r="M122">
+        <v>4</v>
+      </c>
+      <c r="N122">
+        <v>1.8</v>
+      </c>
+      <c r="O122">
         <v>3.4</v>
       </c>
-      <c r="M122">
-        <v>3</v>
-      </c>
-      <c r="N122">
-        <v>2.625</v>
-      </c>
-      <c r="O122">
-        <v>3.3</v>
-      </c>
       <c r="P122">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S122">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V122">
         <v>1.95</v>
@@ -11371,13 +11371,13 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB122">
         <v>-1</v>
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7327838</v>
+        <v>7327855</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>49</v>
+      </c>
+      <c r="K123">
+        <v>2.1</v>
+      </c>
+      <c r="L123">
+        <v>3.4</v>
+      </c>
+      <c r="M123">
         <v>3</v>
       </c>
-      <c r="I123">
-        <v>3</v>
-      </c>
-      <c r="J123" t="s">
-        <v>48</v>
-      </c>
-      <c r="K123">
-        <v>2</v>
-      </c>
-      <c r="L123">
-        <v>3.3</v>
-      </c>
-      <c r="M123">
-        <v>3.2</v>
-      </c>
       <c r="N123">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="O123">
         <v>3.3</v>
       </c>
       <c r="P123">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S123">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T123">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V123">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z123">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB123">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7327856</v>
+        <v>7327838</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K124">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L124">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M124">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N124">
+        <v>2.1</v>
+      </c>
+      <c r="O124">
+        <v>3.3</v>
+      </c>
+      <c r="P124">
+        <v>3</v>
+      </c>
+      <c r="Q124">
+        <v>-0.25</v>
+      </c>
+      <c r="R124">
+        <v>1.9</v>
+      </c>
+      <c r="S124">
+        <v>1.9</v>
+      </c>
+      <c r="T124">
+        <v>3</v>
+      </c>
+      <c r="U124">
+        <v>2</v>
+      </c>
+      <c r="V124">
         <v>1.8</v>
       </c>
-      <c r="O124">
-        <v>3.4</v>
-      </c>
-      <c r="P124">
-        <v>3.75</v>
-      </c>
-      <c r="Q124">
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
+        <v>2.3</v>
+      </c>
+      <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
         <v>-0.5</v>
       </c>
-      <c r="R124">
-        <v>1.85</v>
-      </c>
-      <c r="S124">
-        <v>1.95</v>
-      </c>
-      <c r="T124">
-        <v>2.25</v>
-      </c>
-      <c r="U124">
-        <v>1.75</v>
-      </c>
-      <c r="V124">
-        <v>1.95</v>
-      </c>
-      <c r="W124">
-        <v>-1</v>
-      </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
-      <c r="Y124">
-        <v>2.75</v>
-      </c>
-      <c r="Z124">
-        <v>-1</v>
-      </c>
       <c r="AA124">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC124">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7327843</v>
+        <v>7327841</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,46 +11581,46 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K125">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L125">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M125">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N125">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="O125">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P125">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q125">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
+        <v>1.825</v>
+      </c>
+      <c r="S125">
         <v>1.975</v>
-      </c>
-      <c r="S125">
-        <v>1.825</v>
       </c>
       <c r="T125">
         <v>2.5</v>
@@ -11632,19 +11632,19 @@
         <v>1.875</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA125">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
         <v>0.925</v>
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7327842</v>
+        <v>7327840</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,76 +11670,76 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K126">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="L126">
+        <v>3.3</v>
+      </c>
+      <c r="M126">
         <v>4</v>
       </c>
-      <c r="M126">
-        <v>5</v>
-      </c>
       <c r="N126">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O126">
+        <v>2.9</v>
+      </c>
+      <c r="P126">
         <v>3.75</v>
       </c>
-      <c r="P126">
-        <v>4</v>
-      </c>
       <c r="Q126">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S126">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W126">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z126">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB126">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7327841</v>
+        <v>7327839</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,73 +11759,73 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I127">
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K127">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="L127">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M127">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N127">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="O127">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P127">
-        <v>3.25</v>
+        <v>1.666</v>
       </c>
       <c r="Q127">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R127">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S127">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T127">
         <v>2.5</v>
       </c>
       <c r="U127">
+        <v>1.875</v>
+      </c>
+      <c r="V127">
         <v>1.925</v>
       </c>
-      <c r="V127">
-        <v>1.875</v>
-      </c>
       <c r="W127">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z127">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB127">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7327839</v>
+        <v>7327843</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,56 +11848,56 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G128" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J128" t="s">
         <v>49</v>
       </c>
       <c r="K128">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="L128">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M128">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N128">
+        <v>1.727</v>
+      </c>
+      <c r="O128">
+        <v>3.4</v>
+      </c>
+      <c r="P128">
         <v>4.2</v>
       </c>
-      <c r="O128">
-        <v>3.6</v>
-      </c>
-      <c r="P128">
-        <v>1.666</v>
-      </c>
       <c r="Q128">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S128">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T128">
         <v>2.5</v>
       </c>
       <c r="U128">
+        <v>1.925</v>
+      </c>
+      <c r="V128">
         <v>1.875</v>
       </c>
-      <c r="V128">
-        <v>1.925</v>
-      </c>
       <c r="W128">
         <v>-1</v>
       </c>
@@ -11905,16 +11905,16 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.6659999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="Z128">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AB128">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7327840</v>
+        <v>7327842</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,76 +11937,76 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129">
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K129">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="L129">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M129">
+        <v>5</v>
+      </c>
+      <c r="N129">
+        <v>1.7</v>
+      </c>
+      <c r="O129">
+        <v>3.75</v>
+      </c>
+      <c r="P129">
         <v>4</v>
       </c>
-      <c r="N129">
-        <v>2</v>
-      </c>
-      <c r="O129">
-        <v>2.9</v>
-      </c>
-      <c r="P129">
-        <v>3.75</v>
-      </c>
       <c r="Q129">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R129">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S129">
+        <v>1.9</v>
+      </c>
+      <c r="T129">
+        <v>2.25</v>
+      </c>
+      <c r="U129">
+        <v>1.825</v>
+      </c>
+      <c r="V129">
         <v>1.975</v>
       </c>
-      <c r="T129">
-        <v>2.5</v>
-      </c>
-      <c r="U129">
-        <v>1.85</v>
-      </c>
-      <c r="V129">
-        <v>1.95</v>
-      </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA129">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC129">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12726,7 +12726,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7503209</v>
+        <v>7503210</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12738,13 +12738,13 @@
         <v>45256.75</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -12756,37 +12756,37 @@
         <v>2.2</v>
       </c>
       <c r="L138">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M138">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N138">
         <v>2.15</v>
       </c>
       <c r="O138">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P138">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q138">
         <v>-0.25</v>
       </c>
       <c r="R138">
+        <v>1.925</v>
+      </c>
+      <c r="S138">
+        <v>1.875</v>
+      </c>
+      <c r="T138">
+        <v>2.5</v>
+      </c>
+      <c r="U138">
         <v>1.975</v>
       </c>
-      <c r="S138">
+      <c r="V138">
         <v>1.825</v>
-      </c>
-      <c r="T138">
-        <v>2.75</v>
-      </c>
-      <c r="U138">
-        <v>1.85</v>
-      </c>
-      <c r="V138">
-        <v>1.95</v>
       </c>
       <c r="W138">
         <v>1.15</v>
@@ -12798,16 +12798,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA138">
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7503210</v>
+        <v>7503209</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,13 +12827,13 @@
         <v>45256.75</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -12845,37 +12845,37 @@
         <v>2.2</v>
       </c>
       <c r="L139">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M139">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N139">
         <v>2.15</v>
       </c>
       <c r="O139">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P139">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q139">
         <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S139">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T139">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V139">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W139">
         <v>1.15</v>
@@ -12887,16 +12887,16 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC139">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13520,6 +13520,95 @@
       </c>
       <c r="AC146">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>7793486</v>
+      </c>
+      <c r="C147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" t="s">
+        <v>28</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45347.85416666666</v>
+      </c>
+      <c r="F147" t="s">
+        <v>29</v>
+      </c>
+      <c r="G147" t="s">
+        <v>38</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147" t="s">
+        <v>49</v>
+      </c>
+      <c r="K147">
+        <v>2.2</v>
+      </c>
+      <c r="L147">
+        <v>3.3</v>
+      </c>
+      <c r="M147">
+        <v>3</v>
+      </c>
+      <c r="N147">
+        <v>1.95</v>
+      </c>
+      <c r="O147">
+        <v>3.4</v>
+      </c>
+      <c r="P147">
+        <v>3.4</v>
+      </c>
+      <c r="Q147">
+        <v>-0.5</v>
+      </c>
+      <c r="R147">
+        <v>1.95</v>
+      </c>
+      <c r="S147">
+        <v>1.85</v>
+      </c>
+      <c r="T147">
+        <v>2.5</v>
+      </c>
+      <c r="U147">
+        <v>1.9</v>
+      </c>
+      <c r="V147">
+        <v>1.9</v>
+      </c>
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
+        <v>-1</v>
+      </c>
+      <c r="Y147">
+        <v>2.4</v>
+      </c>
+      <c r="Z147">
+        <v>-1</v>
+      </c>
+      <c r="AA147">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB147">
+        <v>-1</v>
+      </c>
+      <c r="AC147">
+        <v>0.8999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Chile Primera B/Chile Primera B.xlsx
+++ b/Chile Primera B/Chile Primera B.xlsx
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6155941</v>
+        <v>6156877</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,73 +2236,73 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L20">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="N20">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O20">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P20">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
         <v>2.25</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V20">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA20">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6156877</v>
+        <v>6156878</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,49 +2325,49 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M21">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="N21">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O21">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P21">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
         <v>1.825</v>
@@ -2376,25 +2376,25 @@
         <v>1.975</v>
       </c>
       <c r="W21">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2402,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6156878</v>
+        <v>6155941</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2414,34 +2414,34 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L22">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M22">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N22">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O22">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P22">
         <v>2.9</v>
@@ -2453,37 +2453,37 @@
         <v>1.975</v>
       </c>
       <c r="S22">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U22">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.4125</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6156174</v>
+        <v>6156880</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,73 +2503,73 @@
         <v>45116.5625</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L23">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M23">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N23">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O23">
         <v>3.3</v>
       </c>
       <c r="P23">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q23">
         <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S23">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T23">
         <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB23">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6156880</v>
+        <v>6156174</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,73 +2592,73 @@
         <v>45116.5625</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M24">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N24">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O24">
         <v>3.3</v>
       </c>
       <c r="P24">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q24">
         <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X24">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -3826,7 +3826,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6158713</v>
+        <v>6155944</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3838,76 +3838,76 @@
         <v>45130.5625</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L38">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="N38">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O38">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P38">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R38">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S38">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V38">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA38">
-        <v>0.7749999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AB38">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6155944</v>
+        <v>6158713</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>45130.5625</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39" t="s">
+        <v>49</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>3.25</v>
+      </c>
+      <c r="M39">
+        <v>2.1</v>
+      </c>
+      <c r="N39">
+        <v>2.625</v>
+      </c>
+      <c r="O39">
+        <v>3.2</v>
+      </c>
+      <c r="P39">
+        <v>2.3</v>
+      </c>
+      <c r="Q39">
         <v>0</v>
       </c>
-      <c r="J39" t="s">
-        <v>47</v>
-      </c>
-      <c r="K39">
-        <v>1.4</v>
-      </c>
-      <c r="L39">
-        <v>3.75</v>
-      </c>
-      <c r="M39">
-        <v>7.5</v>
-      </c>
-      <c r="N39">
-        <v>1.45</v>
-      </c>
-      <c r="O39">
-        <v>3.6</v>
-      </c>
-      <c r="P39">
-        <v>6.5</v>
-      </c>
-      <c r="Q39">
-        <v>-1.25</v>
-      </c>
       <c r="R39">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S39">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V39">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W39">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -5873,7 +5873,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6156905</v>
+        <v>6156906</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5885,76 +5885,76 @@
         <v>45150.5625</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L61">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M61">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N61">
+        <v>1.95</v>
+      </c>
+      <c r="O61">
+        <v>3.1</v>
+      </c>
+      <c r="P61">
+        <v>3.75</v>
+      </c>
+      <c r="Q61">
+        <v>-0.25</v>
+      </c>
+      <c r="R61">
+        <v>1.725</v>
+      </c>
+      <c r="S61">
+        <v>1.975</v>
+      </c>
+      <c r="T61">
+        <v>2.25</v>
+      </c>
+      <c r="U61">
         <v>1.8</v>
       </c>
-      <c r="O61">
-        <v>3.3</v>
-      </c>
-      <c r="P61">
-        <v>3.8</v>
-      </c>
-      <c r="Q61">
-        <v>-0.5</v>
-      </c>
-      <c r="R61">
-        <v>1.875</v>
-      </c>
-      <c r="S61">
-        <v>1.925</v>
-      </c>
-      <c r="T61">
+      <c r="V61">
+        <v>2</v>
+      </c>
+      <c r="W61">
+        <v>-1</v>
+      </c>
+      <c r="X61">
+        <v>-1</v>
+      </c>
+      <c r="Y61">
         <v>2.75</v>
       </c>
-      <c r="U61">
-        <v>1.975</v>
-      </c>
-      <c r="V61">
-        <v>1.825</v>
-      </c>
-      <c r="W61">
+      <c r="Z61">
+        <v>-1</v>
+      </c>
+      <c r="AA61">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB61">
         <v>0.8</v>
       </c>
-      <c r="X61">
-        <v>-1</v>
-      </c>
-      <c r="Y61">
-        <v>-1</v>
-      </c>
-      <c r="Z61">
-        <v>0.875</v>
-      </c>
-      <c r="AA61">
-        <v>-1</v>
-      </c>
-      <c r="AB61">
-        <v>0.4875</v>
-      </c>
       <c r="AC61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6156906</v>
+        <v>6156905</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,76 +5974,76 @@
         <v>45150.5625</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K62">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L62">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M62">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N62">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O62">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P62">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R62">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S62">
+        <v>1.925</v>
+      </c>
+      <c r="T62">
+        <v>2.75</v>
+      </c>
+      <c r="U62">
         <v>1.975</v>
       </c>
-      <c r="T62">
-        <v>2.25</v>
-      </c>
-      <c r="U62">
-        <v>1.8</v>
-      </c>
       <c r="V62">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA62">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6140,7 +6140,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6156178</v>
+        <v>6155949</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6152,58 +6152,58 @@
         <v>45151.5625</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
         <v>47</v>
       </c>
       <c r="K64">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L64">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M64">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N64">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P64">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q64">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R64">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S64">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
+        <v>1.875</v>
+      </c>
+      <c r="V64">
         <v>1.925</v>
       </c>
-      <c r="V64">
-        <v>1.875</v>
-      </c>
       <c r="W64">
-        <v>0.75</v>
+        <v>1.15</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6212,16 +6212,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC64">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6155949</v>
+        <v>6156178</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,58 +6241,58 @@
         <v>45151.5625</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
         <v>47</v>
       </c>
       <c r="K65">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L65">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M65">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N65">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="O65">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P65">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
+        <v>1.8</v>
+      </c>
+      <c r="S65">
+        <v>2</v>
+      </c>
+      <c r="T65">
+        <v>2.5</v>
+      </c>
+      <c r="U65">
         <v>1.925</v>
       </c>
-      <c r="S65">
+      <c r="V65">
         <v>1.875</v>
       </c>
-      <c r="T65">
-        <v>2.25</v>
-      </c>
-      <c r="U65">
-        <v>1.875</v>
-      </c>
-      <c r="V65">
-        <v>1.925</v>
-      </c>
       <c r="W65">
-        <v>1.15</v>
+        <v>0.75</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6301,16 +6301,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
+        <v>-1</v>
+      </c>
+      <c r="AC65">
         <v>0.875</v>
-      </c>
-      <c r="AC65">
-        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6156911</v>
+        <v>6156908</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,58 +6597,58 @@
         <v>45158.5625</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H69">
         <v>2</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
         <v>47</v>
       </c>
       <c r="K69">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L69">
         <v>3.2</v>
       </c>
       <c r="M69">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N69">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O69">
+        <v>3.25</v>
+      </c>
+      <c r="P69">
         <v>3.2</v>
-      </c>
-      <c r="P69">
-        <v>3</v>
       </c>
       <c r="Q69">
         <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S69">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T69">
         <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W69">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6657,16 +6657,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC69">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6156908</v>
+        <v>6156911</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,58 +6686,58 @@
         <v>45158.5625</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H70">
         <v>2</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
         <v>47</v>
       </c>
       <c r="K70">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L70">
         <v>3.2</v>
       </c>
       <c r="M70">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N70">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O70">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P70">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q70">
         <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S70">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T70">
         <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W70">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6746,16 +6746,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6156180</v>
+        <v>6155954</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,76 +6953,76 @@
         <v>45165.5625</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K73">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M73">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N73">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O73">
+        <v>3.2</v>
+      </c>
+      <c r="P73">
         <v>3.75</v>
       </c>
-      <c r="P73">
-        <v>4</v>
-      </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S73">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V73">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W73">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z73">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC73">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6155954</v>
+        <v>6156180</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,76 +7042,76 @@
         <v>45165.5625</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K74">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L74">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N74">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O74">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P74">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6155958</v>
+        <v>6156929</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K101">
+        <v>2.3</v>
+      </c>
+      <c r="L101">
+        <v>2.9</v>
+      </c>
+      <c r="M101">
         <v>3</v>
       </c>
-      <c r="L101">
-        <v>3.2</v>
-      </c>
-      <c r="M101">
-        <v>2.2</v>
-      </c>
       <c r="N101">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O101">
         <v>3.3</v>
       </c>
       <c r="P101">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R101">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
         <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X101">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA101">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6156929</v>
+        <v>6155958</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,76 +9623,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K103">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L103">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M103">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N103">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="O103">
         <v>3.3</v>
       </c>
       <c r="P103">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S103">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T103">
         <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V103">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB103">
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6156938</v>
+        <v>6156937</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,76 +10424,76 @@
         <v>45201.89583333334</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K112">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L112">
+        <v>3.2</v>
+      </c>
+      <c r="M112">
+        <v>3.2</v>
+      </c>
+      <c r="N112">
+        <v>2.05</v>
+      </c>
+      <c r="O112">
+        <v>3.2</v>
+      </c>
+      <c r="P112">
         <v>3.5</v>
       </c>
-      <c r="M112">
-        <v>4</v>
-      </c>
-      <c r="N112">
-        <v>1.571</v>
-      </c>
-      <c r="O112">
-        <v>3.75</v>
-      </c>
-      <c r="P112">
-        <v>4.75</v>
-      </c>
       <c r="Q112">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T112">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC112">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6156937</v>
+        <v>6156938</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,76 +10513,76 @@
         <v>45201.89583333334</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K113">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L113">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M113">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N113">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="O113">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P113">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R113">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S113">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V113">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W113">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z113">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB113">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6155962</v>
+        <v>6156942</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,55 +10780,55 @@
         <v>45208.52083333334</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
         <v>49</v>
       </c>
       <c r="K116">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L116">
+        <v>3.1</v>
+      </c>
+      <c r="M116">
+        <v>3</v>
+      </c>
+      <c r="N116">
+        <v>2.05</v>
+      </c>
+      <c r="O116">
         <v>3.2</v>
       </c>
-      <c r="M116">
-        <v>2.75</v>
-      </c>
-      <c r="N116">
-        <v>1.833</v>
-      </c>
-      <c r="O116">
-        <v>3.3</v>
-      </c>
       <c r="P116">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q116">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V116">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W116">
         <v>-1</v>
@@ -10837,16 +10837,16 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB116">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6156942</v>
+        <v>6155962</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,55 +10869,55 @@
         <v>45208.52083333334</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G117" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J117" t="s">
         <v>49</v>
       </c>
       <c r="K117">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L117">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M117">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N117">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="O117">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P117">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R117">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S117">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V117">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W117">
         <v>-1</v>
@@ -10926,16 +10926,16 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB117">
         <v>0.95</v>
-      </c>
-      <c r="AB117">
-        <v>0.8</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6156943</v>
+        <v>6156941</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,10 +10958,10 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -10973,31 +10973,31 @@
         <v>47</v>
       </c>
       <c r="K118">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L118">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M118">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N118">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O118">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q118">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S118">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T118">
         <v>2.25</v>
@@ -11009,7 +11009,7 @@
         <v>1.975</v>
       </c>
       <c r="W118">
-        <v>0.909</v>
+        <v>0.615</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11018,10 +11018,10 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB118">
         <v>-1</v>
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6156939</v>
+        <v>6156943</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H119">
         <v>1</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K119">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L119">
+        <v>3.2</v>
+      </c>
+      <c r="M119">
         <v>3.1</v>
       </c>
-      <c r="M119">
-        <v>2.75</v>
-      </c>
       <c r="N119">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O119">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P119">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S119">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V119">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA119">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6156941</v>
+        <v>6156184</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,58 +11136,58 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J120" t="s">
         <v>47</v>
       </c>
       <c r="K120">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L120">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M120">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N120">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P120">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q120">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R120">
+        <v>2.05</v>
+      </c>
+      <c r="S120">
+        <v>1.75</v>
+      </c>
+      <c r="T120">
+        <v>2.75</v>
+      </c>
+      <c r="U120">
         <v>1.875</v>
       </c>
-      <c r="S120">
+      <c r="V120">
         <v>1.925</v>
       </c>
-      <c r="T120">
-        <v>2.25</v>
-      </c>
-      <c r="U120">
-        <v>1.825</v>
-      </c>
-      <c r="V120">
-        <v>1.975</v>
-      </c>
       <c r="W120">
-        <v>0.615</v>
+        <v>1.7</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11196,16 +11196,16 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="AA120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC120">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6156184</v>
+        <v>6156939</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,73 +11225,73 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K121">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L121">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M121">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N121">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="O121">
         <v>3.2</v>
       </c>
       <c r="P121">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="Q121">
         <v>0</v>
       </c>
       <c r="R121">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S121">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T121">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V121">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W121">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z121">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB121">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7327856</v>
+        <v>7327855</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,10 +11314,10 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11329,37 +11329,37 @@
         <v>49</v>
       </c>
       <c r="K122">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L122">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N122">
+        <v>2.625</v>
+      </c>
+      <c r="O122">
+        <v>3.3</v>
+      </c>
+      <c r="P122">
+        <v>2.4</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>2</v>
+      </c>
+      <c r="S122">
         <v>1.8</v>
       </c>
-      <c r="O122">
-        <v>3.4</v>
-      </c>
-      <c r="P122">
-        <v>3.75</v>
-      </c>
-      <c r="Q122">
-        <v>-0.5</v>
-      </c>
-      <c r="R122">
+      <c r="T122">
+        <v>2.5</v>
+      </c>
+      <c r="U122">
         <v>1.85</v>
-      </c>
-      <c r="S122">
-        <v>1.95</v>
-      </c>
-      <c r="T122">
-        <v>2.25</v>
-      </c>
-      <c r="U122">
-        <v>1.75</v>
       </c>
       <c r="V122">
         <v>1.95</v>
@@ -11371,13 +11371,13 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB122">
         <v>-1</v>
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7327855</v>
+        <v>7327856</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,10 +11403,10 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11418,37 +11418,37 @@
         <v>49</v>
       </c>
       <c r="K123">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L123">
+        <v>3.5</v>
+      </c>
+      <c r="M123">
+        <v>4</v>
+      </c>
+      <c r="N123">
+        <v>1.8</v>
+      </c>
+      <c r="O123">
         <v>3.4</v>
       </c>
-      <c r="M123">
-        <v>3</v>
-      </c>
-      <c r="N123">
-        <v>2.625</v>
-      </c>
-      <c r="O123">
-        <v>3.3</v>
-      </c>
       <c r="P123">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R123">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S123">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U123">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V123">
         <v>1.95</v>
@@ -11460,13 +11460,13 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB123">
         <v>-1</v>
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7327840</v>
+        <v>7327843</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,55 +11670,55 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J126" t="s">
         <v>49</v>
       </c>
       <c r="K126">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L126">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M126">
         <v>4</v>
       </c>
       <c r="N126">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="O126">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P126">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R126">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S126">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T126">
         <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V126">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -11727,19 +11727,19 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC126">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7327839</v>
+        <v>7327842</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,40 +11759,40 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F127" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K127">
-        <v>3.2</v>
+        <v>1.533</v>
       </c>
       <c r="L127">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M127">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N127">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="O127">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P127">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="Q127">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R127">
         <v>1.9</v>
@@ -11801,31 +11801,31 @@
         <v>1.9</v>
       </c>
       <c r="T127">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V127">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
+        <v>0.45</v>
+      </c>
+      <c r="AA127">
         <v>-0.5</v>
       </c>
-      <c r="AA127">
-        <v>0.45</v>
-      </c>
       <c r="AB127">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7327843</v>
+        <v>7327840</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,55 +11848,55 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
         <v>49</v>
       </c>
       <c r="K128">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L128">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M128">
         <v>4</v>
       </c>
       <c r="N128">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O128">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P128">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R128">
+        <v>1.725</v>
+      </c>
+      <c r="S128">
         <v>1.975</v>
-      </c>
-      <c r="S128">
-        <v>1.825</v>
       </c>
       <c r="T128">
         <v>2.5</v>
       </c>
       <c r="U128">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V128">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11905,19 +11905,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB128">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7327842</v>
+        <v>7327839</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,40 +11937,40 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K129">
-        <v>1.533</v>
+        <v>3.2</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M129">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N129">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="O129">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P129">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="Q129">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R129">
         <v>1.9</v>
@@ -11979,31 +11979,31 @@
         <v>1.9</v>
       </c>
       <c r="T129">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V129">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W129">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z129">
+        <v>-0.5</v>
+      </c>
+      <c r="AA129">
         <v>0.45</v>
       </c>
-      <c r="AA129">
-        <v>-0.5</v>
-      </c>
       <c r="AB129">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7487574</v>
+        <v>7487575</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,49 +12560,49 @@
         <v>45249.75</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H136">
         <v>2</v>
       </c>
       <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136" t="s">
+        <v>48</v>
+      </c>
+      <c r="K136">
+        <v>2.1</v>
+      </c>
+      <c r="L136">
+        <v>3.5</v>
+      </c>
+      <c r="M136">
         <v>3</v>
-      </c>
-      <c r="J136" t="s">
-        <v>49</v>
-      </c>
-      <c r="K136">
-        <v>2</v>
-      </c>
-      <c r="L136">
-        <v>3.2</v>
-      </c>
-      <c r="M136">
-        <v>3.4</v>
       </c>
       <c r="N136">
         <v>1.95</v>
       </c>
       <c r="O136">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P136">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q136">
         <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
         <v>1.975</v>
@@ -12614,16 +12614,16 @@
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y136">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB136">
         <v>0.9750000000000001</v>
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7487575</v>
+        <v>7487574</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,49 +12649,49 @@
         <v>45249.75</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>2</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K137">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L137">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M137">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N137">
         <v>1.95</v>
       </c>
       <c r="O137">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P137">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q137">
         <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T137">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
         <v>1.975</v>
@@ -12703,16 +12703,16 @@
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB137">
         <v>0.9750000000000001</v>
@@ -12726,7 +12726,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7503210</v>
+        <v>7503209</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12738,13 +12738,13 @@
         <v>45256.75</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -12756,37 +12756,37 @@
         <v>2.2</v>
       </c>
       <c r="L138">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M138">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N138">
         <v>2.15</v>
       </c>
       <c r="O138">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P138">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q138">
         <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
         <v>1.15</v>
@@ -12798,16 +12798,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA138">
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC138">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7503209</v>
+        <v>7503210</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,13 +12827,13 @@
         <v>45256.75</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -12845,37 +12845,37 @@
         <v>2.2</v>
       </c>
       <c r="L139">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M139">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N139">
         <v>2.15</v>
       </c>
       <c r="O139">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P139">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q139">
         <v>-0.25</v>
       </c>
       <c r="R139">
+        <v>1.925</v>
+      </c>
+      <c r="S139">
+        <v>1.875</v>
+      </c>
+      <c r="T139">
+        <v>2.5</v>
+      </c>
+      <c r="U139">
         <v>1.975</v>
       </c>
-      <c r="S139">
+      <c r="V139">
         <v>1.825</v>
-      </c>
-      <c r="T139">
-        <v>2.75</v>
-      </c>
-      <c r="U139">
-        <v>1.85</v>
-      </c>
-      <c r="V139">
-        <v>1.95</v>
       </c>
       <c r="W139">
         <v>1.15</v>
@@ -12887,16 +12887,16 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="140" spans="1:29">

--- a/Chile Primera B/Chile Primera B.xlsx
+++ b/Chile Primera B/Chile Primera B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Magallanes</t>
+  </si>
+  <si>
+    <t>Deportes Limache</t>
   </si>
   <si>
     <t>H</t>
@@ -525,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC147"/>
+  <dimension ref="A1:AC155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2">
         <v>2.3</v>
@@ -735,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3">
         <v>2.375</v>
@@ -824,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4">
         <v>1.666</v>
@@ -913,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5">
         <v>2.2</v>
@@ -1002,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6">
         <v>2.2</v>
@@ -1091,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7">
         <v>2.2</v>
@@ -1180,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8">
         <v>2.3</v>
@@ -1269,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9">
         <v>2.375</v>
@@ -1358,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10">
         <v>2.375</v>
@@ -1447,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1536,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K12">
         <v>2.375</v>
@@ -1625,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13">
         <v>2.5</v>
@@ -1714,7 +1717,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K14">
         <v>1.5</v>
@@ -1803,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15">
         <v>1.727</v>
@@ -1892,7 +1895,7 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16">
         <v>2.1</v>
@@ -1981,7 +1984,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -2070,7 +2073,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K18">
         <v>2.375</v>
@@ -2159,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19">
         <v>1.727</v>
@@ -2248,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K20">
         <v>2.7</v>
@@ -2337,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -2426,7 +2429,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K22">
         <v>2.25</v>
@@ -2515,7 +2518,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23">
         <v>2.375</v>
@@ -2604,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K24">
         <v>1.833</v>
@@ -2693,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25">
         <v>2.05</v>
@@ -2782,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26">
         <v>2.1</v>
@@ -2871,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27">
         <v>2.2</v>
@@ -2936,7 +2939,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6155942</v>
+        <v>6156882</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2951,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
         <v>49</v>
       </c>
       <c r="K28">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="L28">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M28">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N28">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O28">
+        <v>3.1</v>
+      </c>
+      <c r="P28">
         <v>3</v>
       </c>
-      <c r="P28">
-        <v>2.45</v>
-      </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S28">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="T28">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V28">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y28">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>0.7</v>
+        <v>0.425</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC28">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3025,7 +3028,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6156882</v>
+        <v>6155942</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3040,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L29">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M29">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="N29">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O29">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U29">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.425</v>
+        <v>0.7</v>
       </c>
       <c r="AB29">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3138,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K30">
         <v>1.909</v>
@@ -3227,7 +3230,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -3316,7 +3319,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32">
         <v>1.727</v>
@@ -3405,7 +3408,7 @@
         <v>3</v>
       </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33">
         <v>1.615</v>
@@ -3494,7 +3497,7 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34">
         <v>1.7</v>
@@ -3583,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35">
         <v>2.15</v>
@@ -3672,7 +3675,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K36">
         <v>2.2</v>
@@ -3761,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K37">
         <v>2.75</v>
@@ -3850,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38">
         <v>1.4</v>
@@ -3939,7 +3942,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -4028,7 +4031,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K40">
         <v>2.625</v>
@@ -4117,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41">
         <v>2.15</v>
@@ -4206,7 +4209,7 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K42">
         <v>1.95</v>
@@ -4271,7 +4274,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6155945</v>
+        <v>6393620</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,73 +4286,73 @@
         <v>45136.5625</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
         <v>48</v>
       </c>
       <c r="K43">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L43">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M43">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N43">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="O43">
         <v>3.25</v>
       </c>
       <c r="P43">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S43">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T43">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X43">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA43">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB43">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4360,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6393620</v>
+        <v>6155945</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,73 +4375,73 @@
         <v>45136.5625</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K44">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L44">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N44">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="O44">
         <v>3.25</v>
       </c>
       <c r="P44">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB44">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4473,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K45">
         <v>2.2</v>
@@ -4562,7 +4565,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K46">
         <v>1.727</v>
@@ -4651,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -4740,7 +4743,7 @@
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K48">
         <v>2.375</v>
@@ -4829,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K49">
         <v>1.909</v>
@@ -4918,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50">
         <v>2.5</v>
@@ -5007,7 +5010,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K51">
         <v>2.6</v>
@@ -5096,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K52">
         <v>1.909</v>
@@ -5185,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K53">
         <v>1.909</v>
@@ -5274,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K54">
         <v>2.2</v>
@@ -5363,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K55">
         <v>2.15</v>
@@ -5452,7 +5455,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K56">
         <v>1.7</v>
@@ -5541,7 +5544,7 @@
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K57">
         <v>1.727</v>
@@ -5630,7 +5633,7 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K58">
         <v>1.8</v>
@@ -5719,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K59">
         <v>2.25</v>
@@ -5808,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K60">
         <v>2.25</v>
@@ -5897,7 +5900,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K61">
         <v>2.2</v>
@@ -5986,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -6075,7 +6078,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K63">
         <v>2.1</v>
@@ -6140,7 +6143,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6155949</v>
+        <v>6156178</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6152,58 +6155,58 @@
         <v>45151.5625</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K64">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L64">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M64">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N64">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="O64">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P64">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q64">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
+        <v>1.8</v>
+      </c>
+      <c r="S64">
+        <v>2</v>
+      </c>
+      <c r="T64">
+        <v>2.5</v>
+      </c>
+      <c r="U64">
         <v>1.925</v>
       </c>
-      <c r="S64">
+      <c r="V64">
         <v>1.875</v>
       </c>
-      <c r="T64">
-        <v>2.25</v>
-      </c>
-      <c r="U64">
-        <v>1.875</v>
-      </c>
-      <c r="V64">
-        <v>1.925</v>
-      </c>
       <c r="W64">
-        <v>1.15</v>
+        <v>0.75</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6212,16 +6215,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
+        <v>-1</v>
+      </c>
+      <c r="AC64">
         <v>0.875</v>
-      </c>
-      <c r="AC64">
-        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6229,7 +6232,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6156178</v>
+        <v>6155949</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,58 +6244,58 @@
         <v>45151.5625</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65">
         <v>1</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K65">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L65">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M65">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N65">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O65">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P65">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q65">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T65">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U65">
+        <v>1.875</v>
+      </c>
+      <c r="V65">
         <v>1.925</v>
       </c>
-      <c r="V65">
-        <v>1.875</v>
-      </c>
       <c r="W65">
-        <v>0.75</v>
+        <v>1.15</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6301,16 +6304,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC65">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6342,7 +6345,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K66">
         <v>2.15</v>
@@ -6431,7 +6434,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K67">
         <v>1.909</v>
@@ -6520,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K68">
         <v>1.833</v>
@@ -6609,7 +6612,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K69">
         <v>2.3</v>
@@ -6698,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K70">
         <v>2.1</v>
@@ -6787,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K71">
         <v>1.727</v>
@@ -6876,7 +6879,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K72">
         <v>1.65</v>
@@ -6965,7 +6968,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K73">
         <v>1.75</v>
@@ -7054,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K74">
         <v>1.615</v>
@@ -7119,7 +7122,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6156912</v>
+        <v>6155953</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,37 +7134,37 @@
         <v>45165.66666666666</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K75">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="L75">
         <v>3</v>
       </c>
       <c r="M75">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="N75">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O75">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P75">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q75">
         <v>-0.25</v>
@@ -7173,13 +7176,13 @@
         <v>1.85</v>
       </c>
       <c r="T75">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V75">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7188,7 +7191,7 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z75">
         <v>-1</v>
@@ -7197,10 +7200,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB75">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6155953</v>
+        <v>6156912</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,37 +7223,37 @@
         <v>45165.66666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76">
         <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K76">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="L76">
         <v>3</v>
       </c>
       <c r="M76">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="N76">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O76">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P76">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q76">
         <v>-0.25</v>
@@ -7262,13 +7265,13 @@
         <v>1.85</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V76">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7277,7 +7280,7 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z76">
         <v>-1</v>
@@ -7286,10 +7289,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB76">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7321,7 +7324,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K77">
         <v>1.833</v>
@@ -7410,7 +7413,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K78">
         <v>2.1</v>
@@ -7499,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K79">
         <v>2.7</v>
@@ -7588,7 +7591,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K80">
         <v>2.05</v>
@@ -7677,7 +7680,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K81">
         <v>1.909</v>
@@ -7766,7 +7769,7 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K82">
         <v>1.95</v>
@@ -7855,7 +7858,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K83">
         <v>2.4</v>
@@ -7944,7 +7947,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K84">
         <v>2</v>
@@ -8033,7 +8036,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K85">
         <v>2.1</v>
@@ -8122,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K86">
         <v>2.25</v>
@@ -8211,7 +8214,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K87">
         <v>2.3</v>
@@ -8300,7 +8303,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K88">
         <v>2</v>
@@ -8389,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K89">
         <v>1.85</v>
@@ -8478,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K90">
         <v>2</v>
@@ -8567,7 +8570,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K91">
         <v>1.533</v>
@@ -8656,7 +8659,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K92">
         <v>1.85</v>
@@ -8745,7 +8748,7 @@
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K93">
         <v>2.4</v>
@@ -8834,7 +8837,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K94">
         <v>2.25</v>
@@ -8923,7 +8926,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K95">
         <v>1.571</v>
@@ -9012,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K96">
         <v>3</v>
@@ -9101,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K97">
         <v>1.615</v>
@@ -9190,7 +9193,7 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K98">
         <v>2.2</v>
@@ -9279,7 +9282,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K99">
         <v>2.25</v>
@@ -9368,7 +9371,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K100">
         <v>2.625</v>
@@ -9457,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K101">
         <v>2.3</v>
@@ -9522,7 +9525,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6156183</v>
+        <v>6155958</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9537,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102" t="s">
+        <v>49</v>
+      </c>
+      <c r="K102">
         <v>3</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102" t="s">
-        <v>47</v>
-      </c>
-      <c r="K102">
-        <v>2.2</v>
       </c>
       <c r="L102">
         <v>3.2</v>
       </c>
       <c r="M102">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N102">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O102">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P102">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q102">
         <v>-0.25</v>
       </c>
       <c r="R102">
+        <v>1.825</v>
+      </c>
+      <c r="S102">
+        <v>1.975</v>
+      </c>
+      <c r="T102">
+        <v>2.5</v>
+      </c>
+      <c r="U102">
         <v>1.95</v>
       </c>
-      <c r="S102">
-        <v>1.85</v>
-      </c>
-      <c r="T102">
-        <v>2.25</v>
-      </c>
-      <c r="U102">
-        <v>1.8</v>
-      </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W102">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9614,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6155958</v>
+        <v>6156183</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,76 +9626,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>48</v>
       </c>
       <c r="K103">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L103">
         <v>3.2</v>
       </c>
       <c r="M103">
+        <v>3</v>
+      </c>
+      <c r="N103">
         <v>2.2</v>
       </c>
-      <c r="N103">
-        <v>2.05</v>
-      </c>
       <c r="O103">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P103">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q103">
         <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S103">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T103">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V103">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X103">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA103">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC103">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9724,7 +9727,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K104">
         <v>2.25</v>
@@ -9813,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K105">
         <v>2.375</v>
@@ -9902,7 +9905,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K106">
         <v>1.8</v>
@@ -9991,7 +9994,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K107">
         <v>2.3</v>
@@ -10080,7 +10083,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K108">
         <v>1.615</v>
@@ -10169,7 +10172,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K109">
         <v>2.2</v>
@@ -10258,7 +10261,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K110">
         <v>2.2</v>
@@ -10347,7 +10350,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K111">
         <v>2.5</v>
@@ -10436,7 +10439,7 @@
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K112">
         <v>2.1</v>
@@ -10525,7 +10528,7 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K113">
         <v>1.727</v>
@@ -10614,7 +10617,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K114">
         <v>1.8</v>
@@ -10703,7 +10706,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K115">
         <v>2.3</v>
@@ -10768,7 +10771,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6156942</v>
+        <v>6155962</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,55 +10783,55 @@
         <v>45208.52083333334</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K116">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L116">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M116">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N116">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="O116">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P116">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V116">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
         <v>-1</v>
@@ -10837,16 +10840,16 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB116">
         <v>0.95</v>
-      </c>
-      <c r="AB116">
-        <v>0.8</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10857,7 +10860,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6155962</v>
+        <v>6156942</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,55 +10872,55 @@
         <v>45208.52083333334</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
+        <v>2</v>
+      </c>
+      <c r="J117" t="s">
+        <v>50</v>
+      </c>
+      <c r="K117">
+        <v>2.2</v>
+      </c>
+      <c r="L117">
+        <v>3.1</v>
+      </c>
+      <c r="M117">
         <v>3</v>
       </c>
-      <c r="J117" t="s">
-        <v>49</v>
-      </c>
-      <c r="K117">
-        <v>2.3</v>
-      </c>
-      <c r="L117">
+      <c r="N117">
+        <v>2.05</v>
+      </c>
+      <c r="O117">
         <v>3.2</v>
       </c>
-      <c r="M117">
-        <v>2.75</v>
-      </c>
-      <c r="N117">
-        <v>1.833</v>
-      </c>
-      <c r="O117">
-        <v>3.3</v>
-      </c>
       <c r="P117">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q117">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S117">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V117">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W117">
         <v>-1</v>
@@ -10926,16 +10929,16 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB117">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10946,7 +10949,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6156941</v>
+        <v>6156184</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,58 +10961,58 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I118">
+        <v>3</v>
+      </c>
+      <c r="J118" t="s">
+        <v>48</v>
+      </c>
+      <c r="K118">
+        <v>2.5</v>
+      </c>
+      <c r="L118">
+        <v>3.2</v>
+      </c>
+      <c r="M118">
+        <v>2.5</v>
+      </c>
+      <c r="N118">
+        <v>2.7</v>
+      </c>
+      <c r="O118">
+        <v>3.2</v>
+      </c>
+      <c r="P118">
+        <v>2.375</v>
+      </c>
+      <c r="Q118">
         <v>0</v>
       </c>
-      <c r="J118" t="s">
-        <v>47</v>
-      </c>
-      <c r="K118">
-        <v>1.8</v>
-      </c>
-      <c r="L118">
-        <v>3.3</v>
-      </c>
-      <c r="M118">
-        <v>4</v>
-      </c>
-      <c r="N118">
-        <v>1.615</v>
-      </c>
-      <c r="O118">
-        <v>3.6</v>
-      </c>
-      <c r="P118">
-        <v>4.75</v>
-      </c>
-      <c r="Q118">
-        <v>-0.75</v>
-      </c>
       <c r="R118">
+        <v>2.05</v>
+      </c>
+      <c r="S118">
+        <v>1.75</v>
+      </c>
+      <c r="T118">
+        <v>2.75</v>
+      </c>
+      <c r="U118">
         <v>1.875</v>
       </c>
-      <c r="S118">
+      <c r="V118">
         <v>1.925</v>
       </c>
-      <c r="T118">
-        <v>2.25</v>
-      </c>
-      <c r="U118">
-        <v>1.825</v>
-      </c>
-      <c r="V118">
-        <v>1.975</v>
-      </c>
       <c r="W118">
-        <v>0.615</v>
+        <v>1.7</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11018,16 +11021,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11035,7 +11038,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6156943</v>
+        <v>6156941</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,10 +11050,10 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11059,34 +11062,34 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K119">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L119">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M119">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N119">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O119">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P119">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q119">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S119">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T119">
         <v>2.25</v>
@@ -11098,7 +11101,7 @@
         <v>1.975</v>
       </c>
       <c r="W119">
-        <v>0.909</v>
+        <v>0.615</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11107,10 +11110,10 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB119">
         <v>-1</v>
@@ -11124,7 +11127,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6156184</v>
+        <v>6156939</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,73 +11139,73 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F120" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G120" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H120">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K120">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L120">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M120">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N120">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="O120">
         <v>3.2</v>
       </c>
       <c r="P120">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="Q120">
         <v>0</v>
       </c>
       <c r="R120">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S120">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W120">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z120">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB120">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11213,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6156939</v>
+        <v>6156943</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,76 +11228,76 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K121">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L121">
+        <v>3.2</v>
+      </c>
+      <c r="M121">
         <v>3.1</v>
       </c>
-      <c r="M121">
-        <v>2.75</v>
-      </c>
       <c r="N121">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O121">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P121">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S121">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U121">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V121">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA121">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11302,7 +11305,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7327855</v>
+        <v>7327838</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,76 +11317,76 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J122" t="s">
         <v>49</v>
       </c>
       <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>3.3</v>
+      </c>
+      <c r="M122">
+        <v>3.2</v>
+      </c>
+      <c r="N122">
         <v>2.1</v>
-      </c>
-      <c r="L122">
-        <v>3.4</v>
-      </c>
-      <c r="M122">
-        <v>3</v>
-      </c>
-      <c r="N122">
-        <v>2.625</v>
       </c>
       <c r="O122">
         <v>3.3</v>
       </c>
       <c r="P122">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
+        <v>1.9</v>
+      </c>
+      <c r="T122">
+        <v>3</v>
+      </c>
+      <c r="U122">
+        <v>2</v>
+      </c>
+      <c r="V122">
         <v>1.8</v>
       </c>
-      <c r="T122">
-        <v>2.5</v>
-      </c>
-      <c r="U122">
-        <v>1.85</v>
-      </c>
-      <c r="V122">
-        <v>1.95</v>
-      </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y122">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA122">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC122">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11394,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7327856</v>
+        <v>7327855</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,10 +11406,10 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G123" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11415,40 +11418,40 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K123">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L123">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N123">
+        <v>2.625</v>
+      </c>
+      <c r="O123">
+        <v>3.3</v>
+      </c>
+      <c r="P123">
+        <v>2.4</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>2</v>
+      </c>
+      <c r="S123">
         <v>1.8</v>
       </c>
-      <c r="O123">
-        <v>3.4</v>
-      </c>
-      <c r="P123">
-        <v>3.75</v>
-      </c>
-      <c r="Q123">
-        <v>-0.5</v>
-      </c>
-      <c r="R123">
+      <c r="T123">
+        <v>2.5</v>
+      </c>
+      <c r="U123">
         <v>1.85</v>
-      </c>
-      <c r="S123">
-        <v>1.95</v>
-      </c>
-      <c r="T123">
-        <v>2.25</v>
-      </c>
-      <c r="U123">
-        <v>1.75</v>
       </c>
       <c r="V123">
         <v>1.95</v>
@@ -11460,13 +11463,13 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB123">
         <v>-1</v>
@@ -11480,7 +11483,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7327838</v>
+        <v>7327856</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11495,76 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K124">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L124">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N124">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O124">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P124">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q124">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB124">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11572,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7327841</v>
+        <v>7327839</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,73 +11584,73 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K125">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="L125">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M125">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N125">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="O125">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P125">
-        <v>3.25</v>
+        <v>1.666</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R125">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
         <v>2.5</v>
       </c>
       <c r="U125">
+        <v>1.875</v>
+      </c>
+      <c r="V125">
         <v>1.925</v>
       </c>
-      <c r="V125">
-        <v>1.875</v>
-      </c>
       <c r="W125">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z125">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB125">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11658,7 +11661,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7327843</v>
+        <v>7327840</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,55 +11673,55 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K126">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L126">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M126">
         <v>4</v>
       </c>
       <c r="N126">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O126">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P126">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q126">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
+        <v>1.725</v>
+      </c>
+      <c r="S126">
         <v>1.975</v>
-      </c>
-      <c r="S126">
-        <v>1.825</v>
       </c>
       <c r="T126">
         <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V126">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -11727,19 +11730,19 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB126">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11771,7 +11774,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K127">
         <v>1.533</v>
@@ -11836,7 +11839,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7327840</v>
+        <v>7327843</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,55 +11851,55 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J128" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K128">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L128">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M128">
         <v>4</v>
       </c>
       <c r="N128">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="O128">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P128">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q128">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S128">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T128">
         <v>2.5</v>
       </c>
       <c r="U128">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V128">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11905,19 +11908,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC128">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11925,7 +11928,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7327839</v>
+        <v>7327841</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,73 +11940,73 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I129">
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K129">
+        <v>2.1</v>
+      </c>
+      <c r="L129">
         <v>3.2</v>
       </c>
-      <c r="L129">
-        <v>3.3</v>
-      </c>
       <c r="M129">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N129">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="O129">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P129">
-        <v>1.666</v>
+        <v>3.25</v>
       </c>
       <c r="Q129">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R129">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S129">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T129">
         <v>2.5</v>
       </c>
       <c r="U129">
+        <v>1.925</v>
+      </c>
+      <c r="V129">
         <v>1.875</v>
       </c>
-      <c r="V129">
-        <v>1.925</v>
-      </c>
       <c r="W129">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA129">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12038,7 +12041,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K130">
         <v>2.1</v>
@@ -12127,7 +12130,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K131">
         <v>2.15</v>
@@ -12216,7 +12219,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K132">
         <v>2.375</v>
@@ -12305,7 +12308,7 @@
         <v>6</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K133">
         <v>2.3</v>
@@ -12394,7 +12397,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K134">
         <v>1.727</v>
@@ -12483,7 +12486,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K135">
         <v>1.615</v>
@@ -12572,7 +12575,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K136">
         <v>2.1</v>
@@ -12661,7 +12664,7 @@
         <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K137">
         <v>2</v>
@@ -12726,7 +12729,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7503209</v>
+        <v>7503210</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12738,55 +12741,55 @@
         <v>45256.75</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I138">
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K138">
         <v>2.2</v>
       </c>
       <c r="L138">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M138">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N138">
         <v>2.15</v>
       </c>
       <c r="O138">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P138">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q138">
         <v>-0.25</v>
       </c>
       <c r="R138">
+        <v>1.925</v>
+      </c>
+      <c r="S138">
+        <v>1.875</v>
+      </c>
+      <c r="T138">
+        <v>2.5</v>
+      </c>
+      <c r="U138">
         <v>1.975</v>
       </c>
-      <c r="S138">
+      <c r="V138">
         <v>1.825</v>
-      </c>
-      <c r="T138">
-        <v>2.75</v>
-      </c>
-      <c r="U138">
-        <v>1.85</v>
-      </c>
-      <c r="V138">
-        <v>1.95</v>
       </c>
       <c r="W138">
         <v>1.15</v>
@@ -12798,16 +12801,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA138">
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12815,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7503210</v>
+        <v>7503209</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,55 +12830,55 @@
         <v>45256.75</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K139">
         <v>2.2</v>
       </c>
       <c r="L139">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M139">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N139">
         <v>2.15</v>
       </c>
       <c r="O139">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P139">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q139">
         <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S139">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T139">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V139">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W139">
         <v>1.15</v>
@@ -12887,16 +12890,16 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC139">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12928,7 +12931,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K140">
         <v>2.1</v>
@@ -13017,7 +13020,7 @@
         <v>5</v>
       </c>
       <c r="J141" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K141">
         <v>2.1</v>
@@ -13106,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K142">
         <v>1.8</v>
@@ -13195,7 +13198,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K143">
         <v>2</v>
@@ -13284,7 +13287,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K144">
         <v>1.8</v>
@@ -13373,7 +13376,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K145">
         <v>2.3</v>
@@ -13462,7 +13465,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K146">
         <v>3</v>
@@ -13551,7 +13554,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K147">
         <v>2.2</v>
@@ -13609,6 +13612,613 @@
       </c>
       <c r="AC147">
         <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>7793490</v>
+      </c>
+      <c r="C148" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45352.75</v>
+      </c>
+      <c r="F148" t="s">
+        <v>44</v>
+      </c>
+      <c r="G148" t="s">
+        <v>40</v>
+      </c>
+      <c r="H148">
+        <v>4</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148" t="s">
+        <v>48</v>
+      </c>
+      <c r="K148">
+        <v>2.2</v>
+      </c>
+      <c r="L148">
+        <v>3.2</v>
+      </c>
+      <c r="M148">
+        <v>3</v>
+      </c>
+      <c r="N148">
+        <v>2.55</v>
+      </c>
+      <c r="O148">
+        <v>3.2</v>
+      </c>
+      <c r="P148">
+        <v>2.45</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+      <c r="R148">
+        <v>1.975</v>
+      </c>
+      <c r="S148">
+        <v>1.825</v>
+      </c>
+      <c r="T148">
+        <v>2.25</v>
+      </c>
+      <c r="U148">
+        <v>1.925</v>
+      </c>
+      <c r="V148">
+        <v>1.875</v>
+      </c>
+      <c r="W148">
+        <v>1.55</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
+        <v>-1</v>
+      </c>
+      <c r="Z148">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA148">
+        <v>-1</v>
+      </c>
+      <c r="AB148">
+        <v>0.925</v>
+      </c>
+      <c r="AC148">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>7792876</v>
+      </c>
+      <c r="C149" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" t="s">
+        <v>28</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45353.5</v>
+      </c>
+      <c r="F149" t="s">
+        <v>35</v>
+      </c>
+      <c r="G149" t="s">
+        <v>36</v>
+      </c>
+      <c r="K149">
+        <v>1.95</v>
+      </c>
+      <c r="L149">
+        <v>3.3</v>
+      </c>
+      <c r="M149">
+        <v>3.5</v>
+      </c>
+      <c r="N149">
+        <v>1.8</v>
+      </c>
+      <c r="O149">
+        <v>3.4</v>
+      </c>
+      <c r="P149">
+        <v>4</v>
+      </c>
+      <c r="Q149">
+        <v>-0.5</v>
+      </c>
+      <c r="R149">
+        <v>1.825</v>
+      </c>
+      <c r="S149">
+        <v>1.975</v>
+      </c>
+      <c r="T149">
+        <v>2.25</v>
+      </c>
+      <c r="U149">
+        <v>1.9</v>
+      </c>
+      <c r="V149">
+        <v>1.9</v>
+      </c>
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149">
+        <v>0</v>
+      </c>
+      <c r="Y149">
+        <v>0</v>
+      </c>
+      <c r="Z149">
+        <v>0</v>
+      </c>
+      <c r="AA149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>7793610</v>
+      </c>
+      <c r="C150" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45353.5</v>
+      </c>
+      <c r="F150" t="s">
+        <v>33</v>
+      </c>
+      <c r="G150" t="s">
+        <v>46</v>
+      </c>
+      <c r="K150">
+        <v>2.375</v>
+      </c>
+      <c r="L150">
+        <v>3</v>
+      </c>
+      <c r="M150">
+        <v>2.875</v>
+      </c>
+      <c r="N150">
+        <v>2.375</v>
+      </c>
+      <c r="O150">
+        <v>3</v>
+      </c>
+      <c r="P150">
+        <v>2.9</v>
+      </c>
+      <c r="Q150">
+        <v>-0.25</v>
+      </c>
+      <c r="R150">
+        <v>2.05</v>
+      </c>
+      <c r="S150">
+        <v>1.75</v>
+      </c>
+      <c r="T150">
+        <v>2.25</v>
+      </c>
+      <c r="U150">
+        <v>1.775</v>
+      </c>
+      <c r="V150">
+        <v>2.025</v>
+      </c>
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <v>0</v>
+      </c>
+      <c r="Y150">
+        <v>0</v>
+      </c>
+      <c r="Z150">
+        <v>0</v>
+      </c>
+      <c r="AA150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>7793489</v>
+      </c>
+      <c r="C151" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45353.75</v>
+      </c>
+      <c r="F151" t="s">
+        <v>38</v>
+      </c>
+      <c r="G151" t="s">
+        <v>47</v>
+      </c>
+      <c r="K151">
+        <v>1.8</v>
+      </c>
+      <c r="L151">
+        <v>3.2</v>
+      </c>
+      <c r="M151">
+        <v>4</v>
+      </c>
+      <c r="N151">
+        <v>2.25</v>
+      </c>
+      <c r="O151">
+        <v>3</v>
+      </c>
+      <c r="P151">
+        <v>3</v>
+      </c>
+      <c r="Q151">
+        <v>-0.25</v>
+      </c>
+      <c r="R151">
+        <v>2.025</v>
+      </c>
+      <c r="S151">
+        <v>1.775</v>
+      </c>
+      <c r="T151">
+        <v>2.25</v>
+      </c>
+      <c r="U151">
+        <v>1.95</v>
+      </c>
+      <c r="V151">
+        <v>1.85</v>
+      </c>
+      <c r="W151">
+        <v>0</v>
+      </c>
+      <c r="X151">
+        <v>0</v>
+      </c>
+      <c r="Y151">
+        <v>0</v>
+      </c>
+      <c r="Z151">
+        <v>0</v>
+      </c>
+      <c r="AA151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>7793487</v>
+      </c>
+      <c r="C152" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45354.5</v>
+      </c>
+      <c r="F152" t="s">
+        <v>32</v>
+      </c>
+      <c r="G152" t="s">
+        <v>29</v>
+      </c>
+      <c r="K152">
+        <v>2.1</v>
+      </c>
+      <c r="L152">
+        <v>3.2</v>
+      </c>
+      <c r="M152">
+        <v>3.2</v>
+      </c>
+      <c r="N152">
+        <v>2</v>
+      </c>
+      <c r="O152">
+        <v>3.4</v>
+      </c>
+      <c r="P152">
+        <v>3.3</v>
+      </c>
+      <c r="Q152">
+        <v>-0.5</v>
+      </c>
+      <c r="R152">
+        <v>2.025</v>
+      </c>
+      <c r="S152">
+        <v>1.775</v>
+      </c>
+      <c r="T152">
+        <v>2.5</v>
+      </c>
+      <c r="U152">
+        <v>1.975</v>
+      </c>
+      <c r="V152">
+        <v>1.825</v>
+      </c>
+      <c r="W152">
+        <v>0</v>
+      </c>
+      <c r="X152">
+        <v>0</v>
+      </c>
+      <c r="Y152">
+        <v>0</v>
+      </c>
+      <c r="Z152">
+        <v>0</v>
+      </c>
+      <c r="AA152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>7792878</v>
+      </c>
+      <c r="C153" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" t="s">
+        <v>28</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45354.75</v>
+      </c>
+      <c r="F153" t="s">
+        <v>43</v>
+      </c>
+      <c r="G153" t="s">
+        <v>39</v>
+      </c>
+      <c r="K153">
+        <v>2.2</v>
+      </c>
+      <c r="L153">
+        <v>3.2</v>
+      </c>
+      <c r="M153">
+        <v>3</v>
+      </c>
+      <c r="N153">
+        <v>2.625</v>
+      </c>
+      <c r="O153">
+        <v>3.2</v>
+      </c>
+      <c r="P153">
+        <v>2.45</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <v>1.975</v>
+      </c>
+      <c r="S153">
+        <v>1.825</v>
+      </c>
+      <c r="T153">
+        <v>2.25</v>
+      </c>
+      <c r="U153">
+        <v>1.85</v>
+      </c>
+      <c r="V153">
+        <v>1.95</v>
+      </c>
+      <c r="W153">
+        <v>0</v>
+      </c>
+      <c r="X153">
+        <v>0</v>
+      </c>
+      <c r="Y153">
+        <v>0</v>
+      </c>
+      <c r="Z153">
+        <v>0</v>
+      </c>
+      <c r="AA153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>7792877</v>
+      </c>
+      <c r="C154" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154" t="s">
+        <v>28</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45354.85416666666</v>
+      </c>
+      <c r="F154" t="s">
+        <v>42</v>
+      </c>
+      <c r="G154" t="s">
+        <v>34</v>
+      </c>
+      <c r="K154">
+        <v>2</v>
+      </c>
+      <c r="L154">
+        <v>3.2</v>
+      </c>
+      <c r="M154">
+        <v>3.3</v>
+      </c>
+      <c r="N154">
+        <v>2</v>
+      </c>
+      <c r="O154">
+        <v>3.25</v>
+      </c>
+      <c r="P154">
+        <v>3.2</v>
+      </c>
+      <c r="Q154">
+        <v>-0.25</v>
+      </c>
+      <c r="R154">
+        <v>1.8</v>
+      </c>
+      <c r="S154">
+        <v>2</v>
+      </c>
+      <c r="T154">
+        <v>2.25</v>
+      </c>
+      <c r="U154">
+        <v>1.825</v>
+      </c>
+      <c r="V154">
+        <v>1.975</v>
+      </c>
+      <c r="W154">
+        <v>0</v>
+      </c>
+      <c r="X154">
+        <v>0</v>
+      </c>
+      <c r="Y154">
+        <v>0</v>
+      </c>
+      <c r="Z154">
+        <v>0</v>
+      </c>
+      <c r="AA154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>7793488</v>
+      </c>
+      <c r="C155" t="s">
+        <v>28</v>
+      </c>
+      <c r="D155" t="s">
+        <v>28</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45355.60416666666</v>
+      </c>
+      <c r="F155" t="s">
+        <v>37</v>
+      </c>
+      <c r="G155" t="s">
+        <v>45</v>
+      </c>
+      <c r="K155">
+        <v>2.5</v>
+      </c>
+      <c r="L155">
+        <v>3</v>
+      </c>
+      <c r="M155">
+        <v>2.75</v>
+      </c>
+      <c r="N155">
+        <v>2.25</v>
+      </c>
+      <c r="O155">
+        <v>3.1</v>
+      </c>
+      <c r="P155">
+        <v>3</v>
+      </c>
+      <c r="Q155">
+        <v>-0.25</v>
+      </c>
+      <c r="R155">
+        <v>2</v>
+      </c>
+      <c r="S155">
+        <v>1.8</v>
+      </c>
+      <c r="T155">
+        <v>2.25</v>
+      </c>
+      <c r="U155">
+        <v>1.775</v>
+      </c>
+      <c r="V155">
+        <v>2.025</v>
+      </c>
+      <c r="W155">
+        <v>0</v>
+      </c>
+      <c r="X155">
+        <v>0</v>
+      </c>
+      <c r="Y155">
+        <v>0</v>
+      </c>
+      <c r="Z155">
+        <v>0</v>
+      </c>
+      <c r="AA155">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Chile Primera B/Chile Primera B.xlsx
+++ b/Chile Primera B/Chile Primera B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>Magallanes</t>
-  </si>
-  <si>
-    <t>Deportes Limache</t>
   </si>
   <si>
     <t>H</t>
@@ -528,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC155"/>
+  <dimension ref="A1:AC154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K2">
         <v>2.3</v>
@@ -738,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K3">
         <v>2.375</v>
@@ -827,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4">
         <v>1.666</v>
@@ -916,7 +913,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5">
         <v>2.2</v>
@@ -1005,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6">
         <v>2.2</v>
@@ -1094,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7">
         <v>2.2</v>
@@ -1183,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8">
         <v>2.3</v>
@@ -1272,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9">
         <v>2.375</v>
@@ -1361,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10">
         <v>2.375</v>
@@ -1450,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1539,7 +1536,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K12">
         <v>2.375</v>
@@ -1628,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13">
         <v>2.5</v>
@@ -1717,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14">
         <v>1.5</v>
@@ -1806,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K15">
         <v>1.727</v>
@@ -1895,7 +1892,7 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16">
         <v>2.1</v>
@@ -1984,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -2073,7 +2070,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18">
         <v>2.375</v>
@@ -2162,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19">
         <v>1.727</v>
@@ -2251,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K20">
         <v>2.7</v>
@@ -2340,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -2429,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K22">
         <v>2.25</v>
@@ -2518,7 +2515,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23">
         <v>2.375</v>
@@ -2607,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K24">
         <v>1.833</v>
@@ -2696,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K25">
         <v>2.05</v>
@@ -2785,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K26">
         <v>2.1</v>
@@ -2874,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27">
         <v>2.2</v>
@@ -2963,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K28">
         <v>2.375</v>
@@ -3052,7 +3049,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K29">
         <v>2.625</v>
@@ -3141,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K30">
         <v>1.909</v>
@@ -3230,7 +3227,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -3319,7 +3316,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K32">
         <v>1.727</v>
@@ -3408,7 +3405,7 @@
         <v>3</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33">
         <v>1.615</v>
@@ -3497,7 +3494,7 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34">
         <v>1.7</v>
@@ -3562,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6156886</v>
+        <v>6156888</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3574,34 +3571,34 @@
         <v>45129.5625</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M35">
         <v>3.2</v>
       </c>
       <c r="N35">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O35">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P35">
         <v>3.25</v>
@@ -3610,37 +3607,37 @@
         <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S35">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U35">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V35">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W35">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z35">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB35">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3651,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6156888</v>
+        <v>6156886</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3663,34 +3660,34 @@
         <v>45129.5625</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L36">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M36">
         <v>3.2</v>
       </c>
       <c r="N36">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O36">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P36">
         <v>3.25</v>
@@ -3699,37 +3696,37 @@
         <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T36">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA36">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3764,7 +3761,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K37">
         <v>2.75</v>
@@ -3853,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K38">
         <v>1.4</v>
@@ -3942,7 +3939,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -4031,7 +4028,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K40">
         <v>2.625</v>
@@ -4120,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K41">
         <v>2.15</v>
@@ -4209,7 +4206,7 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K42">
         <v>1.95</v>
@@ -4274,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6393620</v>
+        <v>6155945</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4286,73 +4283,73 @@
         <v>45136.5625</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
         <v>48</v>
       </c>
       <c r="K43">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L43">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M43">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N43">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="O43">
         <v>3.25</v>
       </c>
       <c r="P43">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q43">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S43">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U43">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V43">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W43">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA43">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB43">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4363,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6155945</v>
+        <v>6393620</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4375,73 +4372,73 @@
         <v>45136.5625</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K44">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M44">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N44">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="O44">
         <v>3.25</v>
       </c>
       <c r="P44">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S44">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X44">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA44">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB44">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4476,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K45">
         <v>2.2</v>
@@ -4565,7 +4562,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K46">
         <v>1.727</v>
@@ -4654,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -4743,7 +4740,7 @@
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K48">
         <v>2.375</v>
@@ -4832,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K49">
         <v>1.909</v>
@@ -4921,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K50">
         <v>2.5</v>
@@ -5010,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K51">
         <v>2.6</v>
@@ -5099,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K52">
         <v>1.909</v>
@@ -5188,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K53">
         <v>1.909</v>
@@ -5277,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K54">
         <v>2.2</v>
@@ -5366,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K55">
         <v>2.15</v>
@@ -5455,7 +5452,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K56">
         <v>1.7</v>
@@ -5544,7 +5541,7 @@
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K57">
         <v>1.727</v>
@@ -5633,7 +5630,7 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K58">
         <v>1.8</v>
@@ -5722,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K59">
         <v>2.25</v>
@@ -5811,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K60">
         <v>2.25</v>
@@ -5900,7 +5897,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K61">
         <v>2.2</v>
@@ -5989,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -6078,7 +6075,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K63">
         <v>2.1</v>
@@ -6143,7 +6140,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6156178</v>
+        <v>6155949</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6155,58 +6152,58 @@
         <v>45151.5625</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
         <v>1</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K64">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L64">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M64">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N64">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P64">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q64">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R64">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S64">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
+        <v>1.875</v>
+      </c>
+      <c r="V64">
         <v>1.925</v>
       </c>
-      <c r="V64">
-        <v>1.875</v>
-      </c>
       <c r="W64">
-        <v>0.75</v>
+        <v>1.15</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6215,16 +6212,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC64">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6232,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6155949</v>
+        <v>6156178</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6244,58 +6241,58 @@
         <v>45151.5625</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K65">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L65">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M65">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N65">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="O65">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P65">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
+        <v>1.8</v>
+      </c>
+      <c r="S65">
+        <v>2</v>
+      </c>
+      <c r="T65">
+        <v>2.5</v>
+      </c>
+      <c r="U65">
         <v>1.925</v>
       </c>
-      <c r="S65">
+      <c r="V65">
         <v>1.875</v>
       </c>
-      <c r="T65">
-        <v>2.25</v>
-      </c>
-      <c r="U65">
-        <v>1.875</v>
-      </c>
-      <c r="V65">
-        <v>1.925</v>
-      </c>
       <c r="W65">
-        <v>1.15</v>
+        <v>0.75</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6304,16 +6301,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
+        <v>-1</v>
+      </c>
+      <c r="AC65">
         <v>0.875</v>
-      </c>
-      <c r="AC65">
-        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6345,7 +6342,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K66">
         <v>2.15</v>
@@ -6434,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K67">
         <v>1.909</v>
@@ -6523,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K68">
         <v>1.833</v>
@@ -6612,7 +6609,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K69">
         <v>2.3</v>
@@ -6701,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K70">
         <v>2.1</v>
@@ -6790,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K71">
         <v>1.727</v>
@@ -6879,7 +6876,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K72">
         <v>1.65</v>
@@ -6968,7 +6965,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K73">
         <v>1.75</v>
@@ -7057,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K74">
         <v>1.615</v>
@@ -7122,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6155953</v>
+        <v>6156912</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7134,37 +7131,37 @@
         <v>45165.66666666666</v>
       </c>
       <c r="F75" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
         <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K75">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="L75">
         <v>3</v>
       </c>
       <c r="M75">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="N75">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O75">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P75">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q75">
         <v>-0.25</v>
@@ -7176,13 +7173,13 @@
         <v>1.85</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V75">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7191,7 +7188,7 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z75">
         <v>-1</v>
@@ -7200,10 +7197,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB75">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AC75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7211,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6156912</v>
+        <v>6155953</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7223,37 +7220,37 @@
         <v>45165.66666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K76">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="L76">
         <v>3</v>
       </c>
       <c r="M76">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="N76">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O76">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P76">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q76">
         <v>-0.25</v>
@@ -7265,13 +7262,13 @@
         <v>1.85</v>
       </c>
       <c r="T76">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V76">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7280,7 +7277,7 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z76">
         <v>-1</v>
@@ -7289,10 +7286,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB76">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7324,7 +7321,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K77">
         <v>1.833</v>
@@ -7413,7 +7410,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K78">
         <v>2.1</v>
@@ -7502,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K79">
         <v>2.7</v>
@@ -7591,7 +7588,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K80">
         <v>2.05</v>
@@ -7680,7 +7677,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K81">
         <v>1.909</v>
@@ -7769,7 +7766,7 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K82">
         <v>1.95</v>
@@ -7858,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K83">
         <v>2.4</v>
@@ -7947,7 +7944,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K84">
         <v>2</v>
@@ -8036,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K85">
         <v>2.1</v>
@@ -8125,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K86">
         <v>2.25</v>
@@ -8214,7 +8211,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K87">
         <v>2.3</v>
@@ -8303,7 +8300,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K88">
         <v>2</v>
@@ -8392,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K89">
         <v>1.85</v>
@@ -8481,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K90">
         <v>2</v>
@@ -8570,7 +8567,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K91">
         <v>1.533</v>
@@ -8659,7 +8656,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K92">
         <v>1.85</v>
@@ -8748,7 +8745,7 @@
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K93">
         <v>2.4</v>
@@ -8837,7 +8834,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K94">
         <v>2.25</v>
@@ -8926,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K95">
         <v>1.571</v>
@@ -9015,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K96">
         <v>3</v>
@@ -9104,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K97">
         <v>1.615</v>
@@ -9193,7 +9190,7 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K98">
         <v>2.2</v>
@@ -9282,7 +9279,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K99">
         <v>2.25</v>
@@ -9371,7 +9368,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K100">
         <v>2.625</v>
@@ -9460,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K101">
         <v>2.3</v>
@@ -9549,7 +9546,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K102">
         <v>3</v>
@@ -9638,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K103">
         <v>2.2</v>
@@ -9727,7 +9724,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K104">
         <v>2.25</v>
@@ -9816,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K105">
         <v>2.375</v>
@@ -9905,7 +9902,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K106">
         <v>1.8</v>
@@ -9994,7 +9991,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K107">
         <v>2.3</v>
@@ -10083,7 +10080,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K108">
         <v>1.615</v>
@@ -10172,7 +10169,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K109">
         <v>2.2</v>
@@ -10261,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K110">
         <v>2.2</v>
@@ -10350,7 +10347,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K111">
         <v>2.5</v>
@@ -10415,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6156937</v>
+        <v>6156938</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10427,76 +10424,76 @@
         <v>45201.89583333334</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G112" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K112">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L112">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N112">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="O112">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P112">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R112">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W112">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z112">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB112">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10504,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6156938</v>
+        <v>6156937</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10516,76 +10513,76 @@
         <v>45201.89583333334</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G113" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K113">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L113">
+        <v>3.2</v>
+      </c>
+      <c r="M113">
+        <v>3.2</v>
+      </c>
+      <c r="N113">
+        <v>2.05</v>
+      </c>
+      <c r="O113">
+        <v>3.2</v>
+      </c>
+      <c r="P113">
         <v>3.5</v>
       </c>
-      <c r="M113">
-        <v>4</v>
-      </c>
-      <c r="N113">
-        <v>1.571</v>
-      </c>
-      <c r="O113">
-        <v>3.75</v>
-      </c>
-      <c r="P113">
-        <v>4.75</v>
-      </c>
       <c r="Q113">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S113">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T113">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V113">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA113">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC113">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10617,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K114">
         <v>1.8</v>
@@ -10706,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K115">
         <v>2.3</v>
@@ -10795,7 +10792,7 @@
         <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K116">
         <v>2.3</v>
@@ -10884,7 +10881,7 @@
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K117">
         <v>2.2</v>
@@ -10949,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6156184</v>
+        <v>6156941</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10961,58 +10958,58 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118" t="s">
+        <v>47</v>
+      </c>
+      <c r="K118">
+        <v>1.8</v>
+      </c>
+      <c r="L118">
+        <v>3.3</v>
+      </c>
+      <c r="M118">
         <v>4</v>
       </c>
-      <c r="I118">
-        <v>3</v>
-      </c>
-      <c r="J118" t="s">
-        <v>48</v>
-      </c>
-      <c r="K118">
-        <v>2.5</v>
-      </c>
-      <c r="L118">
-        <v>3.2</v>
-      </c>
-      <c r="M118">
-        <v>2.5</v>
-      </c>
       <c r="N118">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O118">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S118">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
-        <v>1.7</v>
+        <v>0.615</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11021,16 +11018,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>1.05</v>
+        <v>0.4375</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB118">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11038,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6156941</v>
+        <v>6156184</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11050,58 +11047,58 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I119">
+        <v>3</v>
+      </c>
+      <c r="J119" t="s">
+        <v>47</v>
+      </c>
+      <c r="K119">
+        <v>2.5</v>
+      </c>
+      <c r="L119">
+        <v>3.2</v>
+      </c>
+      <c r="M119">
+        <v>2.5</v>
+      </c>
+      <c r="N119">
+        <v>2.7</v>
+      </c>
+      <c r="O119">
+        <v>3.2</v>
+      </c>
+      <c r="P119">
+        <v>2.375</v>
+      </c>
+      <c r="Q119">
         <v>0</v>
       </c>
-      <c r="J119" t="s">
-        <v>48</v>
-      </c>
-      <c r="K119">
-        <v>1.8</v>
-      </c>
-      <c r="L119">
-        <v>3.3</v>
-      </c>
-      <c r="M119">
-        <v>4</v>
-      </c>
-      <c r="N119">
-        <v>1.615</v>
-      </c>
-      <c r="O119">
-        <v>3.6</v>
-      </c>
-      <c r="P119">
-        <v>4.75</v>
-      </c>
-      <c r="Q119">
-        <v>-0.75</v>
-      </c>
       <c r="R119">
+        <v>2.05</v>
+      </c>
+      <c r="S119">
+        <v>1.75</v>
+      </c>
+      <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
         <v>1.875</v>
       </c>
-      <c r="S119">
+      <c r="V119">
         <v>1.925</v>
       </c>
-      <c r="T119">
-        <v>2.25</v>
-      </c>
-      <c r="U119">
-        <v>1.825</v>
-      </c>
-      <c r="V119">
-        <v>1.975</v>
-      </c>
       <c r="W119">
-        <v>0.615</v>
+        <v>1.7</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11110,16 +11107,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="AA119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC119">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11151,7 +11148,7 @@
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K120">
         <v>2.375</v>
@@ -11240,7 +11237,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K121">
         <v>2.1</v>
@@ -11305,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7327838</v>
+        <v>7327855</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11317,76 +11314,76 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
         <v>49</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L122">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N122">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="O122">
         <v>3.3</v>
       </c>
       <c r="P122">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T122">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V122">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB122">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11394,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7327855</v>
+        <v>7327856</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11406,10 +11403,10 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11418,40 +11415,40 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K123">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L123">
+        <v>3.5</v>
+      </c>
+      <c r="M123">
+        <v>4</v>
+      </c>
+      <c r="N123">
+        <v>1.8</v>
+      </c>
+      <c r="O123">
         <v>3.4</v>
       </c>
-      <c r="M123">
-        <v>3</v>
-      </c>
-      <c r="N123">
-        <v>2.625</v>
-      </c>
-      <c r="O123">
-        <v>3.3</v>
-      </c>
       <c r="P123">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R123">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S123">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U123">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V123">
         <v>1.95</v>
@@ -11463,13 +11460,13 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB123">
         <v>-1</v>
@@ -11483,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7327856</v>
+        <v>7327838</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11495,76 +11492,76 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I124">
+        <v>3</v>
+      </c>
+      <c r="J124" t="s">
+        <v>48</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>3.3</v>
+      </c>
+      <c r="M124">
+        <v>3.2</v>
+      </c>
+      <c r="N124">
+        <v>2.1</v>
+      </c>
+      <c r="O124">
+        <v>3.3</v>
+      </c>
+      <c r="P124">
+        <v>3</v>
+      </c>
+      <c r="Q124">
+        <v>-0.25</v>
+      </c>
+      <c r="R124">
+        <v>1.9</v>
+      </c>
+      <c r="S124">
+        <v>1.9</v>
+      </c>
+      <c r="T124">
+        <v>3</v>
+      </c>
+      <c r="U124">
+        <v>2</v>
+      </c>
+      <c r="V124">
+        <v>1.8</v>
+      </c>
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
+        <v>2.3</v>
+      </c>
+      <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
+        <v>-0.5</v>
+      </c>
+      <c r="AA124">
+        <v>0.45</v>
+      </c>
+      <c r="AB124">
         <v>1</v>
       </c>
-      <c r="J124" t="s">
-        <v>50</v>
-      </c>
-      <c r="K124">
-        <v>1.727</v>
-      </c>
-      <c r="L124">
-        <v>3.5</v>
-      </c>
-      <c r="M124">
-        <v>4</v>
-      </c>
-      <c r="N124">
-        <v>1.8</v>
-      </c>
-      <c r="O124">
-        <v>3.4</v>
-      </c>
-      <c r="P124">
-        <v>3.75</v>
-      </c>
-      <c r="Q124">
-        <v>-0.5</v>
-      </c>
-      <c r="R124">
-        <v>1.85</v>
-      </c>
-      <c r="S124">
-        <v>1.95</v>
-      </c>
-      <c r="T124">
-        <v>2.25</v>
-      </c>
-      <c r="U124">
-        <v>1.75</v>
-      </c>
-      <c r="V124">
-        <v>1.95</v>
-      </c>
-      <c r="W124">
-        <v>-1</v>
-      </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
-      <c r="Y124">
-        <v>2.75</v>
-      </c>
-      <c r="Z124">
-        <v>-1</v>
-      </c>
-      <c r="AA124">
-        <v>0.95</v>
-      </c>
-      <c r="AB124">
-        <v>-1</v>
-      </c>
       <c r="AC124">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11572,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7327839</v>
+        <v>7327843</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11584,56 +11581,56 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K125">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="L125">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M125">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N125">
+        <v>1.727</v>
+      </c>
+      <c r="O125">
+        <v>3.4</v>
+      </c>
+      <c r="P125">
         <v>4.2</v>
       </c>
-      <c r="O125">
-        <v>3.6</v>
-      </c>
-      <c r="P125">
-        <v>1.666</v>
-      </c>
       <c r="Q125">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R125">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S125">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T125">
         <v>2.5</v>
       </c>
       <c r="U125">
+        <v>1.925</v>
+      </c>
+      <c r="V125">
         <v>1.875</v>
       </c>
-      <c r="V125">
-        <v>1.925</v>
-      </c>
       <c r="W125">
         <v>-1</v>
       </c>
@@ -11641,16 +11638,16 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>0.6659999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="Z125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AB125">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11661,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7327840</v>
+        <v>7327841</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11673,43 +11670,43 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K126">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L126">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M126">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N126">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O126">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P126">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q126">
         <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S126">
         <v>1.975</v>
@@ -11718,31 +11715,31 @@
         <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V126">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA126">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC126">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11750,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7327842</v>
+        <v>7327839</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11762,40 +11759,40 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K127">
-        <v>1.533</v>
+        <v>3.2</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M127">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N127">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="O127">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P127">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="Q127">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R127">
         <v>1.9</v>
@@ -11804,31 +11801,31 @@
         <v>1.9</v>
       </c>
       <c r="T127">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W127">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z127">
+        <v>-0.5</v>
+      </c>
+      <c r="AA127">
         <v>0.45</v>
       </c>
-      <c r="AA127">
-        <v>-0.5</v>
-      </c>
       <c r="AB127">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11839,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7327843</v>
+        <v>7327842</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11851,73 +11848,73 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H128">
         <v>2</v>
       </c>
       <c r="I128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K128">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L128">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M128">
+        <v>5</v>
+      </c>
+      <c r="N128">
+        <v>1.7</v>
+      </c>
+      <c r="O128">
+        <v>3.75</v>
+      </c>
+      <c r="P128">
         <v>4</v>
-      </c>
-      <c r="N128">
-        <v>1.727</v>
-      </c>
-      <c r="O128">
-        <v>3.4</v>
-      </c>
-      <c r="P128">
-        <v>4.2</v>
       </c>
       <c r="Q128">
         <v>-0.75</v>
       </c>
       <c r="R128">
+        <v>1.9</v>
+      </c>
+      <c r="S128">
+        <v>1.9</v>
+      </c>
+      <c r="T128">
+        <v>2.25</v>
+      </c>
+      <c r="U128">
+        <v>1.825</v>
+      </c>
+      <c r="V128">
         <v>1.975</v>
       </c>
-      <c r="S128">
-        <v>1.825</v>
-      </c>
-      <c r="T128">
-        <v>2.5</v>
-      </c>
-      <c r="U128">
-        <v>1.925</v>
-      </c>
-      <c r="V128">
-        <v>1.875</v>
-      </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA128">
+        <v>-0.5</v>
+      </c>
+      <c r="AB128">
         <v>0.825</v>
-      </c>
-      <c r="AB128">
-        <v>0.925</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11928,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7327841</v>
+        <v>7327840</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11940,43 +11937,43 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K129">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L129">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M129">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N129">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O129">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P129">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q129">
         <v>-0.25</v>
       </c>
       <c r="R129">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S129">
         <v>1.975</v>
@@ -11985,31 +11982,31 @@
         <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z129">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB129">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12041,7 +12038,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K130">
         <v>2.1</v>
@@ -12130,7 +12127,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K131">
         <v>2.15</v>
@@ -12219,7 +12216,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K132">
         <v>2.375</v>
@@ -12308,7 +12305,7 @@
         <v>6</v>
       </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K133">
         <v>2.3</v>
@@ -12397,7 +12394,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K134">
         <v>1.727</v>
@@ -12486,7 +12483,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K135">
         <v>1.615</v>
@@ -12551,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7487575</v>
+        <v>7487574</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12563,49 +12560,49 @@
         <v>45249.75</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H136">
         <v>2</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J136" t="s">
         <v>49</v>
       </c>
       <c r="K136">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L136">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M136">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N136">
         <v>1.95</v>
       </c>
       <c r="O136">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P136">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q136">
         <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T136">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
         <v>1.975</v>
@@ -12617,16 +12614,16 @@
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB136">
         <v>0.9750000000000001</v>
@@ -12640,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7487574</v>
+        <v>7487575</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12652,49 +12649,49 @@
         <v>45249.75</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H137">
         <v>2</v>
       </c>
       <c r="I137">
+        <v>2</v>
+      </c>
+      <c r="J137" t="s">
+        <v>48</v>
+      </c>
+      <c r="K137">
+        <v>2.1</v>
+      </c>
+      <c r="L137">
+        <v>3.5</v>
+      </c>
+      <c r="M137">
         <v>3</v>
-      </c>
-      <c r="J137" t="s">
-        <v>50</v>
-      </c>
-      <c r="K137">
-        <v>2</v>
-      </c>
-      <c r="L137">
-        <v>3.2</v>
-      </c>
-      <c r="M137">
-        <v>3.4</v>
       </c>
       <c r="N137">
         <v>1.95</v>
       </c>
       <c r="O137">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P137">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q137">
         <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
         <v>1.975</v>
@@ -12706,16 +12703,16 @@
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y137">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB137">
         <v>0.9750000000000001</v>
@@ -12729,7 +12726,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7503210</v>
+        <v>7503209</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12741,55 +12738,55 @@
         <v>45256.75</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I138">
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K138">
         <v>2.2</v>
       </c>
       <c r="L138">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M138">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N138">
         <v>2.15</v>
       </c>
       <c r="O138">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P138">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q138">
         <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
         <v>1.15</v>
@@ -12801,16 +12798,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA138">
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC138">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12818,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7503209</v>
+        <v>7503210</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,55 +12827,55 @@
         <v>45256.75</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K139">
         <v>2.2</v>
       </c>
       <c r="L139">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M139">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N139">
         <v>2.15</v>
       </c>
       <c r="O139">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P139">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q139">
         <v>-0.25</v>
       </c>
       <c r="R139">
+        <v>1.925</v>
+      </c>
+      <c r="S139">
+        <v>1.875</v>
+      </c>
+      <c r="T139">
+        <v>2.5</v>
+      </c>
+      <c r="U139">
         <v>1.975</v>
       </c>
-      <c r="S139">
+      <c r="V139">
         <v>1.825</v>
-      </c>
-      <c r="T139">
-        <v>2.75</v>
-      </c>
-      <c r="U139">
-        <v>1.85</v>
-      </c>
-      <c r="V139">
-        <v>1.95</v>
       </c>
       <c r="W139">
         <v>1.15</v>
@@ -12890,16 +12887,16 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12931,7 +12928,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K140">
         <v>2.1</v>
@@ -13020,7 +13017,7 @@
         <v>5</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K141">
         <v>2.1</v>
@@ -13109,7 +13106,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K142">
         <v>1.8</v>
@@ -13198,7 +13195,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K143">
         <v>2</v>
@@ -13287,7 +13284,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K144">
         <v>1.8</v>
@@ -13376,7 +13373,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K145">
         <v>2.3</v>
@@ -13465,7 +13462,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K146">
         <v>3</v>
@@ -13554,7 +13551,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K147">
         <v>2.2</v>
@@ -13643,7 +13640,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K148">
         <v>2.2</v>
@@ -13708,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7792876</v>
+        <v>7793610</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13720,61 +13717,76 @@
         <v>45353.5</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>46</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149" t="s">
+        <v>47</v>
       </c>
       <c r="K149">
+        <v>2.375</v>
+      </c>
+      <c r="L149">
+        <v>3</v>
+      </c>
+      <c r="M149">
+        <v>2.875</v>
+      </c>
+      <c r="N149">
+        <v>2.375</v>
+      </c>
+      <c r="O149">
+        <v>3</v>
+      </c>
+      <c r="P149">
+        <v>2.9</v>
+      </c>
+      <c r="Q149">
+        <v>-0.25</v>
+      </c>
+      <c r="R149">
+        <v>2.05</v>
+      </c>
+      <c r="S149">
+        <v>1.75</v>
+      </c>
+      <c r="T149">
+        <v>2.5</v>
+      </c>
+      <c r="U149">
         <v>1.95</v>
       </c>
-      <c r="L149">
-        <v>3.3</v>
-      </c>
-      <c r="M149">
-        <v>3.5</v>
-      </c>
-      <c r="N149">
-        <v>1.8</v>
-      </c>
-      <c r="O149">
-        <v>3.4</v>
-      </c>
-      <c r="P149">
-        <v>4</v>
-      </c>
-      <c r="Q149">
-        <v>-0.5</v>
-      </c>
-      <c r="R149">
-        <v>1.825</v>
-      </c>
-      <c r="S149">
-        <v>1.975</v>
-      </c>
-      <c r="T149">
-        <v>2.25</v>
-      </c>
-      <c r="U149">
-        <v>1.9</v>
-      </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W149">
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="X149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA149">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB149">
+        <v>-1</v>
+      </c>
+      <c r="AC149">
+        <v>0.75</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13782,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7793610</v>
+        <v>7793487</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13791,49 +13803,49 @@
         <v>28</v>
       </c>
       <c r="E150" s="2">
-        <v>45353.5</v>
+        <v>45354.5</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="K150">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L150">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M150">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N150">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O150">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P150">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q150">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R150">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S150">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T150">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U150">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V150">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W150">
         <v>0</v>
@@ -13856,7 +13868,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7793489</v>
+        <v>7792878</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13865,49 +13877,49 @@
         <v>28</v>
       </c>
       <c r="E151" s="2">
-        <v>45353.75</v>
+        <v>45354.75</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G151" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="K151">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L151">
         <v>3.2</v>
       </c>
       <c r="M151">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N151">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="O151">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P151">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q151">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R151">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S151">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T151">
         <v>2.25</v>
       </c>
       <c r="U151">
+        <v>1.85</v>
+      </c>
+      <c r="V151">
         <v>1.95</v>
-      </c>
-      <c r="V151">
-        <v>1.85</v>
       </c>
       <c r="W151">
         <v>0</v>
@@ -13930,7 +13942,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7793487</v>
+        <v>7792877</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13939,49 +13951,49 @@
         <v>28</v>
       </c>
       <c r="E152" s="2">
-        <v>45354.5</v>
+        <v>45354.85416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K152">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L152">
         <v>3.2</v>
       </c>
       <c r="M152">
+        <v>3.3</v>
+      </c>
+      <c r="N152">
+        <v>2</v>
+      </c>
+      <c r="O152">
+        <v>3.25</v>
+      </c>
+      <c r="P152">
         <v>3.2</v>
       </c>
-      <c r="N152">
-        <v>2</v>
-      </c>
-      <c r="O152">
-        <v>3.4</v>
-      </c>
-      <c r="P152">
-        <v>3.3</v>
-      </c>
       <c r="Q152">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S152">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T152">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U152">
+        <v>1.825</v>
+      </c>
+      <c r="V152">
         <v>1.975</v>
-      </c>
-      <c r="V152">
-        <v>1.825</v>
       </c>
       <c r="W152">
         <v>0</v>
@@ -14004,7 +14016,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7792878</v>
+        <v>7793488</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14013,49 +14025,49 @@
         <v>28</v>
       </c>
       <c r="E153" s="2">
-        <v>45354.75</v>
+        <v>45355.60416666666</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K153">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L153">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M153">
+        <v>2.75</v>
+      </c>
+      <c r="N153">
+        <v>2.25</v>
+      </c>
+      <c r="O153">
+        <v>3.1</v>
+      </c>
+      <c r="P153">
         <v>3</v>
       </c>
-      <c r="N153">
-        <v>2.625</v>
-      </c>
-      <c r="O153">
-        <v>3.2</v>
-      </c>
-      <c r="P153">
-        <v>2.45</v>
-      </c>
       <c r="Q153">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S153">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T153">
         <v>2.25</v>
       </c>
       <c r="U153">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V153">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W153">
         <v>0</v>
@@ -14078,7 +14090,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7792877</v>
+        <v>7792876</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14087,49 +14099,49 @@
         <v>28</v>
       </c>
       <c r="E154" s="2">
-        <v>45354.85416666666</v>
+        <v>45355.75</v>
       </c>
       <c r="F154" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G154" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K154">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L154">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M154">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N154">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O154">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P154">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q154">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S154">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T154">
         <v>2.25</v>
       </c>
       <c r="U154">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V154">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W154">
         <v>0</v>
@@ -14144,80 +14156,6 @@
         <v>0</v>
       </c>
       <c r="AA154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:29">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155">
-        <v>7793488</v>
-      </c>
-      <c r="C155" t="s">
-        <v>28</v>
-      </c>
-      <c r="D155" t="s">
-        <v>28</v>
-      </c>
-      <c r="E155" s="2">
-        <v>45355.60416666666</v>
-      </c>
-      <c r="F155" t="s">
-        <v>37</v>
-      </c>
-      <c r="G155" t="s">
-        <v>45</v>
-      </c>
-      <c r="K155">
-        <v>2.5</v>
-      </c>
-      <c r="L155">
-        <v>3</v>
-      </c>
-      <c r="M155">
-        <v>2.75</v>
-      </c>
-      <c r="N155">
-        <v>2.25</v>
-      </c>
-      <c r="O155">
-        <v>3.1</v>
-      </c>
-      <c r="P155">
-        <v>3</v>
-      </c>
-      <c r="Q155">
-        <v>-0.25</v>
-      </c>
-      <c r="R155">
-        <v>2</v>
-      </c>
-      <c r="S155">
-        <v>1.8</v>
-      </c>
-      <c r="T155">
-        <v>2.25</v>
-      </c>
-      <c r="U155">
-        <v>1.775</v>
-      </c>
-      <c r="V155">
-        <v>2.025</v>
-      </c>
-      <c r="W155">
-        <v>0</v>
-      </c>
-      <c r="X155">
-        <v>0</v>
-      </c>
-      <c r="Y155">
-        <v>0</v>
-      </c>
-      <c r="Z155">
-        <v>0</v>
-      </c>
-      <c r="AA155">
         <v>0</v>
       </c>
     </row>

--- a/Chile Primera B/Chile Primera B.xlsx
+++ b/Chile Primera B/Chile Primera B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Magallanes</t>
+  </si>
+  <si>
+    <t>Deportes Limache</t>
   </si>
   <si>
     <t>H</t>
@@ -525,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC154"/>
+  <dimension ref="A1:AC159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2">
         <v>2.3</v>
@@ -735,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3">
         <v>2.375</v>
@@ -824,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4">
         <v>1.666</v>
@@ -913,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5">
         <v>2.2</v>
@@ -1002,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6">
         <v>2.2</v>
@@ -1091,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7">
         <v>2.2</v>
@@ -1180,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8">
         <v>2.3</v>
@@ -1269,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9">
         <v>2.375</v>
@@ -1358,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10">
         <v>2.375</v>
@@ -1447,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1536,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K12">
         <v>2.375</v>
@@ -1625,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13">
         <v>2.5</v>
@@ -1714,7 +1717,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K14">
         <v>1.5</v>
@@ -1803,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15">
         <v>1.727</v>
@@ -1892,7 +1895,7 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16">
         <v>2.1</v>
@@ -1981,7 +1984,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -2070,7 +2073,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K18">
         <v>2.375</v>
@@ -2159,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19">
         <v>1.727</v>
@@ -2224,7 +2227,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6156877</v>
+        <v>6155941</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,73 +2239,73 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M20">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="N20">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O20">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P20">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T20">
         <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V20">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W20">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z20">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB20">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2337,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -2402,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6155941</v>
+        <v>6156877</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2414,73 +2417,73 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>2</v>
-      </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K22">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L22">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M22">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="N22">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O22">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P22">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S22">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T22">
         <v>2.25</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V22">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA22">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2515,7 +2518,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23">
         <v>2.375</v>
@@ -2604,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K24">
         <v>1.833</v>
@@ -2693,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25">
         <v>2.05</v>
@@ -2782,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26">
         <v>2.1</v>
@@ -2871,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27">
         <v>2.2</v>
@@ -2936,7 +2939,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6156882</v>
+        <v>6155942</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2951,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K28">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L28">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M28">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="N28">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O28">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S28">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.425</v>
+        <v>0.7</v>
       </c>
       <c r="AB28">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3025,7 +3028,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6155942</v>
+        <v>6156882</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3040,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>49</v>
       </c>
       <c r="K29">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="L29">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M29">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N29">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O29">
+        <v>3.1</v>
+      </c>
+      <c r="P29">
         <v>3</v>
       </c>
-      <c r="P29">
-        <v>2.45</v>
-      </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S29">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V29">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y29">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA29">
-        <v>0.7</v>
+        <v>0.425</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC29">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3138,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K30">
         <v>1.909</v>
@@ -3227,7 +3230,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -3316,7 +3319,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32">
         <v>1.727</v>
@@ -3405,7 +3408,7 @@
         <v>3</v>
       </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33">
         <v>1.615</v>
@@ -3494,7 +3497,7 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34">
         <v>1.7</v>
@@ -3559,7 +3562,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6156888</v>
+        <v>6156886</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,34 +3574,34 @@
         <v>45129.5625</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L35">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M35">
         <v>3.2</v>
       </c>
       <c r="N35">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O35">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P35">
         <v>3.25</v>
@@ -3607,37 +3610,37 @@
         <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S35">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T35">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V35">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA35">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3648,7 +3651,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6156886</v>
+        <v>6156888</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,34 +3663,34 @@
         <v>45129.5625</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M36">
         <v>3.2</v>
       </c>
       <c r="N36">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O36">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P36">
         <v>3.25</v>
@@ -3696,37 +3699,37 @@
         <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S36">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U36">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V36">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W36">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z36">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB36">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3761,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K37">
         <v>2.75</v>
@@ -3850,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38">
         <v>1.4</v>
@@ -3939,7 +3942,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -4028,7 +4031,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K40">
         <v>2.625</v>
@@ -4117,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41">
         <v>2.15</v>
@@ -4206,7 +4209,7 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K42">
         <v>1.95</v>
@@ -4271,7 +4274,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6155945</v>
+        <v>6393620</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,73 +4286,73 @@
         <v>45136.5625</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
         <v>48</v>
       </c>
       <c r="K43">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L43">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M43">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N43">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="O43">
         <v>3.25</v>
       </c>
       <c r="P43">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S43">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T43">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X43">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA43">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB43">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4360,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6393620</v>
+        <v>6155945</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,73 +4375,73 @@
         <v>45136.5625</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K44">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L44">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N44">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="O44">
         <v>3.25</v>
       </c>
       <c r="P44">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB44">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4473,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K45">
         <v>2.2</v>
@@ -4562,7 +4565,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K46">
         <v>1.727</v>
@@ -4651,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -4740,7 +4743,7 @@
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K48">
         <v>2.375</v>
@@ -4829,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K49">
         <v>1.909</v>
@@ -4918,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50">
         <v>2.5</v>
@@ -5007,7 +5010,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K51">
         <v>2.6</v>
@@ -5096,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K52">
         <v>1.909</v>
@@ -5185,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K53">
         <v>1.909</v>
@@ -5274,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K54">
         <v>2.2</v>
@@ -5363,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K55">
         <v>2.15</v>
@@ -5452,7 +5455,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K56">
         <v>1.7</v>
@@ -5541,7 +5544,7 @@
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K57">
         <v>1.727</v>
@@ -5630,7 +5633,7 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K58">
         <v>1.8</v>
@@ -5719,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K59">
         <v>2.25</v>
@@ -5808,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K60">
         <v>2.25</v>
@@ -5873,7 +5876,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6156906</v>
+        <v>6156905</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5885,76 +5888,76 @@
         <v>45150.5625</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
         <v>1</v>
       </c>
-      <c r="I61">
-        <v>2</v>
-      </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K61">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L61">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M61">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N61">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O61">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P61">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S61">
+        <v>1.925</v>
+      </c>
+      <c r="T61">
+        <v>2.75</v>
+      </c>
+      <c r="U61">
         <v>1.975</v>
       </c>
-      <c r="T61">
-        <v>2.25</v>
-      </c>
-      <c r="U61">
-        <v>1.8</v>
-      </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA61">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5962,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6156905</v>
+        <v>6156906</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,76 +5977,76 @@
         <v>45150.5625</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L62">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M62">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N62">
+        <v>1.95</v>
+      </c>
+      <c r="O62">
+        <v>3.1</v>
+      </c>
+      <c r="P62">
+        <v>3.75</v>
+      </c>
+      <c r="Q62">
+        <v>-0.25</v>
+      </c>
+      <c r="R62">
+        <v>1.725</v>
+      </c>
+      <c r="S62">
+        <v>1.975</v>
+      </c>
+      <c r="T62">
+        <v>2.25</v>
+      </c>
+      <c r="U62">
         <v>1.8</v>
       </c>
-      <c r="O62">
-        <v>3.3</v>
-      </c>
-      <c r="P62">
-        <v>3.8</v>
-      </c>
-      <c r="Q62">
-        <v>-0.5</v>
-      </c>
-      <c r="R62">
-        <v>1.875</v>
-      </c>
-      <c r="S62">
-        <v>1.925</v>
-      </c>
-      <c r="T62">
+      <c r="V62">
+        <v>2</v>
+      </c>
+      <c r="W62">
+        <v>-1</v>
+      </c>
+      <c r="X62">
+        <v>-1</v>
+      </c>
+      <c r="Y62">
         <v>2.75</v>
       </c>
-      <c r="U62">
-        <v>1.975</v>
-      </c>
-      <c r="V62">
-        <v>1.825</v>
-      </c>
-      <c r="W62">
+      <c r="Z62">
+        <v>-1</v>
+      </c>
+      <c r="AA62">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB62">
         <v>0.8</v>
       </c>
-      <c r="X62">
-        <v>-1</v>
-      </c>
-      <c r="Y62">
-        <v>-1</v>
-      </c>
-      <c r="Z62">
-        <v>0.875</v>
-      </c>
-      <c r="AA62">
-        <v>-1</v>
-      </c>
-      <c r="AB62">
-        <v>0.4875</v>
-      </c>
       <c r="AC62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6075,7 +6078,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K63">
         <v>2.1</v>
@@ -6140,7 +6143,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6155949</v>
+        <v>6156178</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6152,58 +6155,58 @@
         <v>45151.5625</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K64">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L64">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M64">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N64">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="O64">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P64">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q64">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
+        <v>1.8</v>
+      </c>
+      <c r="S64">
+        <v>2</v>
+      </c>
+      <c r="T64">
+        <v>2.5</v>
+      </c>
+      <c r="U64">
         <v>1.925</v>
       </c>
-      <c r="S64">
+      <c r="V64">
         <v>1.875</v>
       </c>
-      <c r="T64">
-        <v>2.25</v>
-      </c>
-      <c r="U64">
-        <v>1.875</v>
-      </c>
-      <c r="V64">
-        <v>1.925</v>
-      </c>
       <c r="W64">
-        <v>1.15</v>
+        <v>0.75</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6212,16 +6215,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
+        <v>-1</v>
+      </c>
+      <c r="AC64">
         <v>0.875</v>
-      </c>
-      <c r="AC64">
-        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6229,7 +6232,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6156178</v>
+        <v>6155949</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,58 +6244,58 @@
         <v>45151.5625</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65">
         <v>1</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K65">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L65">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M65">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N65">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O65">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P65">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q65">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T65">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U65">
+        <v>1.875</v>
+      </c>
+      <c r="V65">
         <v>1.925</v>
       </c>
-      <c r="V65">
-        <v>1.875</v>
-      </c>
       <c r="W65">
-        <v>0.75</v>
+        <v>1.15</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6301,16 +6304,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC65">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6342,7 +6345,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K66">
         <v>2.15</v>
@@ -6431,7 +6434,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K67">
         <v>1.909</v>
@@ -6520,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K68">
         <v>1.833</v>
@@ -6585,7 +6588,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6156908</v>
+        <v>6156911</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,58 +6600,58 @@
         <v>45158.5625</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H69">
         <v>2</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K69">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L69">
         <v>3.2</v>
       </c>
       <c r="M69">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N69">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O69">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P69">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q69">
         <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
         <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V69">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6657,16 +6660,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6674,7 +6677,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6156911</v>
+        <v>6156908</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,58 +6689,58 @@
         <v>45158.5625</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H70">
         <v>2</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K70">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L70">
         <v>3.2</v>
       </c>
       <c r="M70">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N70">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O70">
+        <v>3.25</v>
+      </c>
+      <c r="P70">
         <v>3.2</v>
-      </c>
-      <c r="P70">
-        <v>3</v>
       </c>
       <c r="Q70">
         <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S70">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T70">
         <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6746,16 +6749,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC70">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6787,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K71">
         <v>1.727</v>
@@ -6876,7 +6879,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K72">
         <v>1.65</v>
@@ -6965,7 +6968,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K73">
         <v>1.75</v>
@@ -7054,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K74">
         <v>1.615</v>
@@ -7119,7 +7122,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6156912</v>
+        <v>6155953</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,37 +7134,37 @@
         <v>45165.66666666666</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K75">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="L75">
         <v>3</v>
       </c>
       <c r="M75">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="N75">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O75">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P75">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q75">
         <v>-0.25</v>
@@ -7173,13 +7176,13 @@
         <v>1.85</v>
       </c>
       <c r="T75">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V75">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7188,7 +7191,7 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z75">
         <v>-1</v>
@@ -7197,10 +7200,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB75">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6155953</v>
+        <v>6156912</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,37 +7223,37 @@
         <v>45165.66666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76">
         <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K76">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="L76">
         <v>3</v>
       </c>
       <c r="M76">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="N76">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O76">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P76">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q76">
         <v>-0.25</v>
@@ -7262,13 +7265,13 @@
         <v>1.85</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V76">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7277,7 +7280,7 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z76">
         <v>-1</v>
@@ -7286,10 +7289,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB76">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7321,7 +7324,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K77">
         <v>1.833</v>
@@ -7410,7 +7413,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K78">
         <v>2.1</v>
@@ -7499,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K79">
         <v>2.7</v>
@@ -7588,7 +7591,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K80">
         <v>2.05</v>
@@ -7677,7 +7680,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K81">
         <v>1.909</v>
@@ -7766,7 +7769,7 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K82">
         <v>1.95</v>
@@ -7855,7 +7858,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K83">
         <v>2.4</v>
@@ -7944,7 +7947,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K84">
         <v>2</v>
@@ -8033,7 +8036,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K85">
         <v>2.1</v>
@@ -8122,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K86">
         <v>2.25</v>
@@ -8211,7 +8214,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K87">
         <v>2.3</v>
@@ -8300,7 +8303,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K88">
         <v>2</v>
@@ -8389,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K89">
         <v>1.85</v>
@@ -8478,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K90">
         <v>2</v>
@@ -8567,7 +8570,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K91">
         <v>1.533</v>
@@ -8656,7 +8659,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K92">
         <v>1.85</v>
@@ -8745,7 +8748,7 @@
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K93">
         <v>2.4</v>
@@ -8834,7 +8837,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K94">
         <v>2.25</v>
@@ -8923,7 +8926,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K95">
         <v>1.571</v>
@@ -9012,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K96">
         <v>3</v>
@@ -9101,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K97">
         <v>1.615</v>
@@ -9190,7 +9193,7 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K98">
         <v>2.2</v>
@@ -9279,7 +9282,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K99">
         <v>2.25</v>
@@ -9368,7 +9371,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K100">
         <v>2.625</v>
@@ -9433,7 +9436,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6156929</v>
+        <v>6155958</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9448,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K101">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L101">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M101">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N101">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="O101">
         <v>3.3</v>
       </c>
       <c r="P101">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q101">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S101">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T101">
         <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W101">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9525,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6155958</v>
+        <v>6156183</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9537,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>48</v>
       </c>
       <c r="K102">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L102">
         <v>3.2</v>
       </c>
       <c r="M102">
+        <v>3</v>
+      </c>
+      <c r="N102">
         <v>2.2</v>
       </c>
-      <c r="N102">
-        <v>2.05</v>
-      </c>
       <c r="O102">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P102">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q102">
         <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T102">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V102">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X102">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA102">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC102">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9614,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6156183</v>
+        <v>6156929</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,58 +9626,58 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K103">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L103">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M103">
         <v>3</v>
       </c>
       <c r="N103">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O103">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S103">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T103">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W103">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9683,16 +9686,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9724,7 +9727,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K104">
         <v>2.25</v>
@@ -9813,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K105">
         <v>2.375</v>
@@ -9902,7 +9905,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K106">
         <v>1.8</v>
@@ -9991,7 +9994,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K107">
         <v>2.3</v>
@@ -10080,7 +10083,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K108">
         <v>1.615</v>
@@ -10169,7 +10172,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K109">
         <v>2.2</v>
@@ -10258,7 +10261,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K110">
         <v>2.2</v>
@@ -10347,7 +10350,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K111">
         <v>2.5</v>
@@ -10436,7 +10439,7 @@
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K112">
         <v>1.727</v>
@@ -10525,7 +10528,7 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K113">
         <v>2.1</v>
@@ -10614,7 +10617,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K114">
         <v>1.8</v>
@@ -10703,7 +10706,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K115">
         <v>2.3</v>
@@ -10792,7 +10795,7 @@
         <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K116">
         <v>2.3</v>
@@ -10881,7 +10884,7 @@
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K117">
         <v>2.2</v>
@@ -10946,7 +10949,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6156941</v>
+        <v>6156939</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,76 +10961,76 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
       <c r="I118">
+        <v>2</v>
+      </c>
+      <c r="J118" t="s">
+        <v>50</v>
+      </c>
+      <c r="K118">
+        <v>2.375</v>
+      </c>
+      <c r="L118">
+        <v>3.1</v>
+      </c>
+      <c r="M118">
+        <v>2.75</v>
+      </c>
+      <c r="N118">
+        <v>2.45</v>
+      </c>
+      <c r="O118">
+        <v>3.2</v>
+      </c>
+      <c r="P118">
+        <v>2.625</v>
+      </c>
+      <c r="Q118">
         <v>0</v>
       </c>
-      <c r="J118" t="s">
-        <v>47</v>
-      </c>
-      <c r="K118">
-        <v>1.8</v>
-      </c>
-      <c r="L118">
-        <v>3.3</v>
-      </c>
-      <c r="M118">
-        <v>4</v>
-      </c>
-      <c r="N118">
-        <v>1.615</v>
-      </c>
-      <c r="O118">
-        <v>3.6</v>
-      </c>
-      <c r="P118">
-        <v>4.75</v>
-      </c>
-      <c r="Q118">
-        <v>-0.75</v>
-      </c>
       <c r="R118">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S118">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U118">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z118">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11035,7 +11038,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6156184</v>
+        <v>6156941</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,58 +11050,58 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>48</v>
+      </c>
+      <c r="K119">
+        <v>1.8</v>
+      </c>
+      <c r="L119">
+        <v>3.3</v>
+      </c>
+      <c r="M119">
         <v>4</v>
       </c>
-      <c r="I119">
-        <v>3</v>
-      </c>
-      <c r="J119" t="s">
-        <v>47</v>
-      </c>
-      <c r="K119">
-        <v>2.5</v>
-      </c>
-      <c r="L119">
-        <v>3.2</v>
-      </c>
-      <c r="M119">
-        <v>2.5</v>
-      </c>
       <c r="N119">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O119">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P119">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S119">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W119">
-        <v>1.7</v>
+        <v>0.615</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11107,16 +11110,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>1.05</v>
+        <v>0.4375</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB119">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11127,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6156939</v>
+        <v>6156943</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11139,76 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H120">
         <v>1</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K120">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L120">
+        <v>3.2</v>
+      </c>
+      <c r="M120">
         <v>3.1</v>
       </c>
-      <c r="M120">
-        <v>2.75</v>
-      </c>
       <c r="N120">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O120">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P120">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S120">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V120">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA120">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6156943</v>
+        <v>6156184</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,58 +11228,58 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K121">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L121">
         <v>3.2</v>
       </c>
       <c r="M121">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="N121">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O121">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P121">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R121">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S121">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T121">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U121">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V121">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W121">
-        <v>0.909</v>
+        <v>1.7</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11285,16 +11288,16 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC121">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11302,7 +11305,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7327855</v>
+        <v>7327856</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,10 +11317,10 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11326,40 +11329,40 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K122">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L122">
+        <v>3.5</v>
+      </c>
+      <c r="M122">
+        <v>4</v>
+      </c>
+      <c r="N122">
+        <v>1.8</v>
+      </c>
+      <c r="O122">
         <v>3.4</v>
       </c>
-      <c r="M122">
-        <v>3</v>
-      </c>
-      <c r="N122">
-        <v>2.625</v>
-      </c>
-      <c r="O122">
-        <v>3.3</v>
-      </c>
       <c r="P122">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S122">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V122">
         <v>1.95</v>
@@ -11371,13 +11374,13 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB122">
         <v>-1</v>
@@ -11391,7 +11394,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7327856</v>
+        <v>7327838</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11406,76 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J123" t="s">
         <v>49</v>
       </c>
       <c r="K123">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L123">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M123">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N123">
+        <v>2.1</v>
+      </c>
+      <c r="O123">
+        <v>3.3</v>
+      </c>
+      <c r="P123">
+        <v>3</v>
+      </c>
+      <c r="Q123">
+        <v>-0.25</v>
+      </c>
+      <c r="R123">
+        <v>1.9</v>
+      </c>
+      <c r="S123">
+        <v>1.9</v>
+      </c>
+      <c r="T123">
+        <v>3</v>
+      </c>
+      <c r="U123">
+        <v>2</v>
+      </c>
+      <c r="V123">
         <v>1.8</v>
       </c>
-      <c r="O123">
-        <v>3.4</v>
-      </c>
-      <c r="P123">
-        <v>3.75</v>
-      </c>
-      <c r="Q123">
+      <c r="W123">
+        <v>-1</v>
+      </c>
+      <c r="X123">
+        <v>2.3</v>
+      </c>
+      <c r="Y123">
+        <v>-1</v>
+      </c>
+      <c r="Z123">
         <v>-0.5</v>
       </c>
-      <c r="R123">
-        <v>1.85</v>
-      </c>
-      <c r="S123">
-        <v>1.95</v>
-      </c>
-      <c r="T123">
-        <v>2.25</v>
-      </c>
-      <c r="U123">
-        <v>1.75</v>
-      </c>
-      <c r="V123">
-        <v>1.95</v>
-      </c>
-      <c r="W123">
-        <v>-1</v>
-      </c>
-      <c r="X123">
-        <v>-1</v>
-      </c>
-      <c r="Y123">
-        <v>2.75</v>
-      </c>
-      <c r="Z123">
-        <v>-1</v>
-      </c>
       <c r="AA123">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC123">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11483,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7327838</v>
+        <v>7327855</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11495,76 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>50</v>
+      </c>
+      <c r="K124">
+        <v>2.1</v>
+      </c>
+      <c r="L124">
+        <v>3.4</v>
+      </c>
+      <c r="M124">
         <v>3</v>
       </c>
-      <c r="I124">
-        <v>3</v>
-      </c>
-      <c r="J124" t="s">
-        <v>48</v>
-      </c>
-      <c r="K124">
-        <v>2</v>
-      </c>
-      <c r="L124">
-        <v>3.3</v>
-      </c>
-      <c r="M124">
-        <v>3.2</v>
-      </c>
       <c r="N124">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="O124">
         <v>3.3</v>
       </c>
       <c r="P124">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Q124">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB124">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11572,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7327843</v>
+        <v>7327841</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,46 +11584,46 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K125">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L125">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M125">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N125">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="O125">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P125">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q125">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
+        <v>1.825</v>
+      </c>
+      <c r="S125">
         <v>1.975</v>
-      </c>
-      <c r="S125">
-        <v>1.825</v>
       </c>
       <c r="T125">
         <v>2.5</v>
@@ -11632,19 +11635,19 @@
         <v>1.875</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA125">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
         <v>0.925</v>
@@ -11658,7 +11661,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7327841</v>
+        <v>7327842</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,58 +11673,58 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K126">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L126">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M126">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N126">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O126">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P126">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R126">
+        <v>1.9</v>
+      </c>
+      <c r="S126">
+        <v>1.9</v>
+      </c>
+      <c r="T126">
+        <v>2.25</v>
+      </c>
+      <c r="U126">
         <v>1.825</v>
       </c>
-      <c r="S126">
+      <c r="V126">
         <v>1.975</v>
       </c>
-      <c r="T126">
-        <v>2.5</v>
-      </c>
-      <c r="U126">
-        <v>1.925</v>
-      </c>
-      <c r="V126">
-        <v>1.875</v>
-      </c>
       <c r="W126">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11730,13 +11733,13 @@
         <v>-1</v>
       </c>
       <c r="Z126">
+        <v>0.45</v>
+      </c>
+      <c r="AA126">
+        <v>-0.5</v>
+      </c>
+      <c r="AB126">
         <v>0.825</v>
-      </c>
-      <c r="AA126">
-        <v>-1</v>
-      </c>
-      <c r="AB126">
-        <v>0.925</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11747,7 +11750,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7327839</v>
+        <v>7327840</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,55 +11762,55 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F127" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
         <v>1</v>
       </c>
-      <c r="I127">
-        <v>2</v>
-      </c>
       <c r="J127" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K127">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="L127">
         <v>3.3</v>
       </c>
       <c r="M127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N127">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="O127">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P127">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="Q127">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R127">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S127">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T127">
         <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V127">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11816,19 +11819,19 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.6659999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="Z127">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB127">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11836,7 +11839,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7327842</v>
+        <v>7327839</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,40 +11851,40 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K128">
-        <v>1.533</v>
+        <v>3.2</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M128">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N128">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="O128">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P128">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R128">
         <v>1.9</v>
@@ -11890,31 +11893,31 @@
         <v>1.9</v>
       </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U128">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V128">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W128">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z128">
+        <v>-0.5</v>
+      </c>
+      <c r="AA128">
         <v>0.45</v>
       </c>
-      <c r="AA128">
-        <v>-0.5</v>
-      </c>
       <c r="AB128">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11925,7 +11928,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7327840</v>
+        <v>7327843</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,55 +11940,55 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K129">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L129">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M129">
         <v>4</v>
       </c>
       <c r="N129">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="O129">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P129">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q129">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R129">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T129">
         <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -11994,19 +11997,19 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC129">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12038,7 +12041,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K130">
         <v>2.1</v>
@@ -12127,7 +12130,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K131">
         <v>2.15</v>
@@ -12216,7 +12219,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K132">
         <v>2.375</v>
@@ -12305,7 +12308,7 @@
         <v>6</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K133">
         <v>2.3</v>
@@ -12394,7 +12397,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K134">
         <v>1.727</v>
@@ -12483,7 +12486,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K135">
         <v>1.615</v>
@@ -12572,7 +12575,7 @@
         <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K136">
         <v>2</v>
@@ -12661,7 +12664,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K137">
         <v>2.1</v>
@@ -12726,7 +12729,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7503209</v>
+        <v>7503210</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12738,55 +12741,55 @@
         <v>45256.75</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I138">
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K138">
         <v>2.2</v>
       </c>
       <c r="L138">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M138">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N138">
         <v>2.15</v>
       </c>
       <c r="O138">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P138">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q138">
         <v>-0.25</v>
       </c>
       <c r="R138">
+        <v>1.925</v>
+      </c>
+      <c r="S138">
+        <v>1.875</v>
+      </c>
+      <c r="T138">
+        <v>2.5</v>
+      </c>
+      <c r="U138">
         <v>1.975</v>
       </c>
-      <c r="S138">
+      <c r="V138">
         <v>1.825</v>
-      </c>
-      <c r="T138">
-        <v>2.75</v>
-      </c>
-      <c r="U138">
-        <v>1.85</v>
-      </c>
-      <c r="V138">
-        <v>1.95</v>
       </c>
       <c r="W138">
         <v>1.15</v>
@@ -12798,16 +12801,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA138">
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12815,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7503210</v>
+        <v>7503209</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,55 +12830,55 @@
         <v>45256.75</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K139">
         <v>2.2</v>
       </c>
       <c r="L139">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M139">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N139">
         <v>2.15</v>
       </c>
       <c r="O139">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P139">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q139">
         <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S139">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T139">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V139">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W139">
         <v>1.15</v>
@@ -12887,16 +12890,16 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC139">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12928,7 +12931,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K140">
         <v>2.1</v>
@@ -13017,7 +13020,7 @@
         <v>5</v>
       </c>
       <c r="J141" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K141">
         <v>2.1</v>
@@ -13106,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K142">
         <v>1.8</v>
@@ -13195,7 +13198,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K143">
         <v>2</v>
@@ -13284,7 +13287,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K144">
         <v>1.8</v>
@@ -13373,7 +13376,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K145">
         <v>2.3</v>
@@ -13462,7 +13465,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K146">
         <v>3</v>
@@ -13551,7 +13554,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K147">
         <v>2.2</v>
@@ -13640,7 +13643,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K148">
         <v>2.2</v>
@@ -13729,7 +13732,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K149">
         <v>2.375</v>
@@ -13794,7 +13797,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7793487</v>
+        <v>7793489</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13803,64 +13806,79 @@
         <v>28</v>
       </c>
       <c r="E150" s="2">
-        <v>45354.5</v>
+        <v>45353.75</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="H150">
+        <v>2</v>
+      </c>
+      <c r="I150">
+        <v>3</v>
+      </c>
+      <c r="J150" t="s">
+        <v>50</v>
       </c>
       <c r="K150">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L150">
         <v>3.2</v>
       </c>
       <c r="M150">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N150">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O150">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P150">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q150">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R150">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S150">
-        <v>1.775</v>
+        <v>1.7</v>
       </c>
       <c r="T150">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U150">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V150">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>0</v>
+        <v>0.7</v>
+      </c>
+      <c r="AB150">
+        <v>0.95</v>
+      </c>
+      <c r="AC150">
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13868,7 +13886,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7792878</v>
+        <v>7793487</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13877,64 +13895,79 @@
         <v>28</v>
       </c>
       <c r="E151" s="2">
-        <v>45354.75</v>
+        <v>45354.5</v>
       </c>
       <c r="F151" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
+        <v>3</v>
+      </c>
+      <c r="J151" t="s">
+        <v>50</v>
       </c>
       <c r="K151">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L151">
         <v>3.2</v>
       </c>
       <c r="M151">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N151">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="O151">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P151">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q151">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R151">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S151">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T151">
         <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V151">
         <v>1.95</v>
       </c>
       <c r="W151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Z151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB151">
+        <v>0.75</v>
+      </c>
+      <c r="AC151">
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13942,7 +13975,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7792877</v>
+        <v>7792878</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13951,64 +13984,79 @@
         <v>28</v>
       </c>
       <c r="E152" s="2">
-        <v>45354.85416666666</v>
+        <v>45354.75</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G152" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="H152">
+        <v>4</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152" t="s">
+        <v>48</v>
       </c>
       <c r="K152">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L152">
         <v>3.2</v>
       </c>
       <c r="M152">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N152">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O152">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P152">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q152">
         <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S152">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T152">
         <v>2.25</v>
       </c>
       <c r="U152">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V152">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W152">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA152">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB152">
+        <v>0.875</v>
+      </c>
+      <c r="AC152">
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14016,7 +14064,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7793488</v>
+        <v>7792877</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14025,64 +14073,79 @@
         <v>28</v>
       </c>
       <c r="E153" s="2">
-        <v>45355.60416666666</v>
+        <v>45354.85416666666</v>
       </c>
       <c r="F153" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G153" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153" t="s">
+        <v>50</v>
       </c>
       <c r="K153">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L153">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M153">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="N153">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O153">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P153">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q153">
         <v>-0.25</v>
       </c>
       <c r="R153">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S153">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T153">
         <v>2.25</v>
       </c>
       <c r="U153">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V153">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Z153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB153">
+        <v>-1</v>
+      </c>
+      <c r="AC153">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14107,6 +14170,15 @@
       <c r="G154" t="s">
         <v>36</v>
       </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154" t="s">
+        <v>50</v>
+      </c>
       <c r="K154">
         <v>1.95</v>
       </c>
@@ -14117,45 +14189,436 @@
         <v>3.5</v>
       </c>
       <c r="N154">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O154">
         <v>3.4</v>
       </c>
       <c r="P154">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q154">
         <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S154">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T154">
         <v>2.25</v>
       </c>
       <c r="U154">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V154">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W154">
+        <v>-1</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
+        <v>3.2</v>
+      </c>
+      <c r="Z154">
+        <v>-1</v>
+      </c>
+      <c r="AA154">
+        <v>1</v>
+      </c>
+      <c r="AB154">
+        <v>1.025</v>
+      </c>
+      <c r="AC154">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>7793488</v>
+      </c>
+      <c r="C155" t="s">
+        <v>28</v>
+      </c>
+      <c r="D155" t="s">
+        <v>28</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45355.85416666666</v>
+      </c>
+      <c r="F155" t="s">
+        <v>37</v>
+      </c>
+      <c r="G155" t="s">
+        <v>45</v>
+      </c>
+      <c r="H155">
+        <v>4</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155" t="s">
+        <v>48</v>
+      </c>
+      <c r="K155">
+        <v>2.5</v>
+      </c>
+      <c r="L155">
+        <v>3</v>
+      </c>
+      <c r="M155">
+        <v>2.75</v>
+      </c>
+      <c r="N155">
+        <v>2.25</v>
+      </c>
+      <c r="O155">
+        <v>3.1</v>
+      </c>
+      <c r="P155">
+        <v>3</v>
+      </c>
+      <c r="Q155">
+        <v>-0.25</v>
+      </c>
+      <c r="R155">
+        <v>2.025</v>
+      </c>
+      <c r="S155">
+        <v>1.775</v>
+      </c>
+      <c r="T155">
+        <v>2.25</v>
+      </c>
+      <c r="U155">
+        <v>1.8</v>
+      </c>
+      <c r="V155">
+        <v>2</v>
+      </c>
+      <c r="W155">
+        <v>1.25</v>
+      </c>
+      <c r="X155">
+        <v>-1</v>
+      </c>
+      <c r="Y155">
+        <v>-1</v>
+      </c>
+      <c r="Z155">
+        <v>1.025</v>
+      </c>
+      <c r="AA155">
+        <v>-1</v>
+      </c>
+      <c r="AB155">
+        <v>0.8</v>
+      </c>
+      <c r="AC155">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>7794219</v>
+      </c>
+      <c r="C156" t="s">
+        <v>28</v>
+      </c>
+      <c r="D156" t="s">
+        <v>28</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45359.75</v>
+      </c>
+      <c r="F156" t="s">
+        <v>47</v>
+      </c>
+      <c r="G156" t="s">
+        <v>43</v>
+      </c>
+      <c r="K156">
+        <v>2.2</v>
+      </c>
+      <c r="L156">
+        <v>3.3</v>
+      </c>
+      <c r="M156">
+        <v>2.9</v>
+      </c>
+      <c r="N156">
+        <v>2.1</v>
+      </c>
+      <c r="O156">
+        <v>3.3</v>
+      </c>
+      <c r="P156">
+        <v>3.1</v>
+      </c>
+      <c r="Q156">
+        <v>-0.25</v>
+      </c>
+      <c r="R156">
+        <v>1.85</v>
+      </c>
+      <c r="S156">
+        <v>1.95</v>
+      </c>
+      <c r="T156">
+        <v>2.5</v>
+      </c>
+      <c r="U156">
+        <v>1.95</v>
+      </c>
+      <c r="V156">
+        <v>1.85</v>
+      </c>
+      <c r="W156">
         <v>0</v>
       </c>
-      <c r="X154">
+      <c r="X156">
         <v>0</v>
       </c>
-      <c r="Y154">
+      <c r="Y156">
         <v>0</v>
       </c>
-      <c r="Z154">
+      <c r="Z156">
         <v>0</v>
       </c>
-      <c r="AA154">
+      <c r="AA156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>7793612</v>
+      </c>
+      <c r="C157" t="s">
+        <v>28</v>
+      </c>
+      <c r="D157" t="s">
+        <v>28</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45359.75</v>
+      </c>
+      <c r="F157" t="s">
+        <v>34</v>
+      </c>
+      <c r="G157" t="s">
+        <v>37</v>
+      </c>
+      <c r="K157">
+        <v>1.909</v>
+      </c>
+      <c r="L157">
+        <v>3.3</v>
+      </c>
+      <c r="M157">
+        <v>3.75</v>
+      </c>
+      <c r="N157">
+        <v>2.3</v>
+      </c>
+      <c r="O157">
+        <v>3.4</v>
+      </c>
+      <c r="P157">
+        <v>2.75</v>
+      </c>
+      <c r="Q157">
+        <v>-0.25</v>
+      </c>
+      <c r="R157">
+        <v>2.025</v>
+      </c>
+      <c r="S157">
+        <v>1.775</v>
+      </c>
+      <c r="T157">
+        <v>2.75</v>
+      </c>
+      <c r="U157">
+        <v>1.95</v>
+      </c>
+      <c r="V157">
+        <v>1.85</v>
+      </c>
+      <c r="W157">
+        <v>0</v>
+      </c>
+      <c r="X157">
+        <v>0</v>
+      </c>
+      <c r="Y157">
+        <v>0</v>
+      </c>
+      <c r="Z157">
+        <v>0</v>
+      </c>
+      <c r="AA157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>7793493</v>
+      </c>
+      <c r="C158" t="s">
+        <v>28</v>
+      </c>
+      <c r="D158" t="s">
+        <v>28</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45359.85416666666</v>
+      </c>
+      <c r="F158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G158" t="s">
+        <v>44</v>
+      </c>
+      <c r="K158">
+        <v>2</v>
+      </c>
+      <c r="L158">
+        <v>3.3</v>
+      </c>
+      <c r="M158">
+        <v>3.3</v>
+      </c>
+      <c r="N158">
+        <v>2</v>
+      </c>
+      <c r="O158">
+        <v>3.4</v>
+      </c>
+      <c r="P158">
+        <v>3.25</v>
+      </c>
+      <c r="Q158">
+        <v>-0.25</v>
+      </c>
+      <c r="R158">
+        <v>1.775</v>
+      </c>
+      <c r="S158">
+        <v>2.025</v>
+      </c>
+      <c r="T158">
+        <v>2.75</v>
+      </c>
+      <c r="U158">
+        <v>2</v>
+      </c>
+      <c r="V158">
+        <v>1.8</v>
+      </c>
+      <c r="W158">
+        <v>0</v>
+      </c>
+      <c r="X158">
+        <v>0</v>
+      </c>
+      <c r="Y158">
+        <v>0</v>
+      </c>
+      <c r="Z158">
+        <v>0</v>
+      </c>
+      <c r="AA158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>7793492</v>
+      </c>
+      <c r="C159" t="s">
+        <v>28</v>
+      </c>
+      <c r="D159" t="s">
+        <v>28</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45359.85416666666</v>
+      </c>
+      <c r="F159" t="s">
+        <v>45</v>
+      </c>
+      <c r="G159" t="s">
+        <v>36</v>
+      </c>
+      <c r="K159">
+        <v>1.8</v>
+      </c>
+      <c r="L159">
+        <v>3.4</v>
+      </c>
+      <c r="M159">
+        <v>4</v>
+      </c>
+      <c r="N159">
+        <v>1.833</v>
+      </c>
+      <c r="O159">
+        <v>3.4</v>
+      </c>
+      <c r="P159">
+        <v>3.8</v>
+      </c>
+      <c r="Q159">
+        <v>-0.5</v>
+      </c>
+      <c r="R159">
+        <v>1.85</v>
+      </c>
+      <c r="S159">
+        <v>1.95</v>
+      </c>
+      <c r="T159">
+        <v>2.5</v>
+      </c>
+      <c r="U159">
+        <v>1.925</v>
+      </c>
+      <c r="V159">
+        <v>1.875</v>
+      </c>
+      <c r="W159">
+        <v>0</v>
+      </c>
+      <c r="X159">
+        <v>0</v>
+      </c>
+      <c r="Y159">
+        <v>0</v>
+      </c>
+      <c r="Z159">
+        <v>0</v>
+      </c>
+      <c r="AA159">
         <v>0</v>
       </c>
     </row>

--- a/Chile Primera B/Chile Primera B.xlsx
+++ b/Chile Primera B/Chile Primera B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC159"/>
+  <dimension ref="A1:AC163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2227,7 +2227,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6155941</v>
+        <v>6156878</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2239,34 +2239,34 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M20">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N20">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O20">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P20">
         <v>2.9</v>
@@ -2278,37 +2278,37 @@
         <v>1.975</v>
       </c>
       <c r="S20">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T20">
+        <v>2.75</v>
+      </c>
+      <c r="U20">
+        <v>1.825</v>
+      </c>
+      <c r="V20">
+        <v>1.975</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
         <v>2.25</v>
       </c>
-      <c r="U20">
-        <v>2</v>
-      </c>
-      <c r="V20">
-        <v>1.8</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
       <c r="Y20">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>0.7250000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2316,7 +2316,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6156878</v>
+        <v>6156877</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2328,49 +2328,49 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>2.45</v>
+      </c>
+      <c r="N21">
+        <v>1.909</v>
+      </c>
+      <c r="O21">
         <v>3.2</v>
       </c>
-      <c r="M21">
-        <v>3.4</v>
-      </c>
-      <c r="N21">
-        <v>2.15</v>
-      </c>
-      <c r="O21">
-        <v>3.25</v>
-      </c>
       <c r="P21">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S21">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U21">
         <v>1.825</v>
@@ -2379,25 +2379,25 @@
         <v>1.975</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X21">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA21">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC21">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2405,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6156877</v>
+        <v>6155941</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2417,73 +2417,73 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M22">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="N22">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O22">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P22">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q22">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S22">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T22">
         <v>2.25</v>
       </c>
       <c r="U22">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W22">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB22">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2494,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6156880</v>
+        <v>6156174</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2506,73 +2506,73 @@
         <v>45116.5625</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M23">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N23">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O23">
         <v>3.3</v>
       </c>
       <c r="P23">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q23">
         <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
         <v>2.5</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X23">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2583,7 +2583,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6156174</v>
+        <v>6156880</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2595,73 +2595,73 @@
         <v>45116.5625</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L24">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M24">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N24">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O24">
         <v>3.3</v>
       </c>
       <c r="P24">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q24">
         <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB24">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -4274,7 +4274,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6393620</v>
+        <v>6155945</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4286,73 +4286,73 @@
         <v>45136.5625</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K43">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L43">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M43">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N43">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="O43">
         <v>3.25</v>
       </c>
       <c r="P43">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q43">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S43">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U43">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V43">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W43">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA43">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB43">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4363,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6155945</v>
+        <v>6393620</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4375,73 +4375,73 @@
         <v>45136.5625</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K44">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M44">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N44">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="O44">
         <v>3.25</v>
       </c>
       <c r="P44">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S44">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X44">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA44">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB44">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -5876,7 +5876,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6156905</v>
+        <v>6156906</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5888,76 +5888,76 @@
         <v>45150.5625</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L61">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M61">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N61">
+        <v>1.95</v>
+      </c>
+      <c r="O61">
+        <v>3.1</v>
+      </c>
+      <c r="P61">
+        <v>3.75</v>
+      </c>
+      <c r="Q61">
+        <v>-0.25</v>
+      </c>
+      <c r="R61">
+        <v>1.725</v>
+      </c>
+      <c r="S61">
+        <v>1.975</v>
+      </c>
+      <c r="T61">
+        <v>2.25</v>
+      </c>
+      <c r="U61">
         <v>1.8</v>
       </c>
-      <c r="O61">
-        <v>3.3</v>
-      </c>
-      <c r="P61">
-        <v>3.8</v>
-      </c>
-      <c r="Q61">
-        <v>-0.5</v>
-      </c>
-      <c r="R61">
-        <v>1.875</v>
-      </c>
-      <c r="S61">
-        <v>1.925</v>
-      </c>
-      <c r="T61">
+      <c r="V61">
+        <v>2</v>
+      </c>
+      <c r="W61">
+        <v>-1</v>
+      </c>
+      <c r="X61">
+        <v>-1</v>
+      </c>
+      <c r="Y61">
         <v>2.75</v>
       </c>
-      <c r="U61">
-        <v>1.975</v>
-      </c>
-      <c r="V61">
-        <v>1.825</v>
-      </c>
-      <c r="W61">
+      <c r="Z61">
+        <v>-1</v>
+      </c>
+      <c r="AA61">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB61">
         <v>0.8</v>
       </c>
-      <c r="X61">
-        <v>-1</v>
-      </c>
-      <c r="Y61">
-        <v>-1</v>
-      </c>
-      <c r="Z61">
-        <v>0.875</v>
-      </c>
-      <c r="AA61">
-        <v>-1</v>
-      </c>
-      <c r="AB61">
-        <v>0.4875</v>
-      </c>
       <c r="AC61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6156906</v>
+        <v>6156905</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5977,76 +5977,76 @@
         <v>45150.5625</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
         <v>1</v>
       </c>
-      <c r="I62">
-        <v>2</v>
-      </c>
       <c r="J62" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K62">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L62">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M62">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N62">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O62">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P62">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R62">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S62">
+        <v>1.925</v>
+      </c>
+      <c r="T62">
+        <v>2.75</v>
+      </c>
+      <c r="U62">
         <v>1.975</v>
       </c>
-      <c r="T62">
-        <v>2.25</v>
-      </c>
-      <c r="U62">
-        <v>1.8</v>
-      </c>
       <c r="V62">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA62">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6143,7 +6143,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6156178</v>
+        <v>6155949</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6155,58 +6155,58 @@
         <v>45151.5625</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
         <v>1</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
       </c>
       <c r="J64" t="s">
         <v>48</v>
       </c>
       <c r="K64">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L64">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M64">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N64">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P64">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q64">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R64">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S64">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
+        <v>1.875</v>
+      </c>
+      <c r="V64">
         <v>1.925</v>
       </c>
-      <c r="V64">
-        <v>1.875</v>
-      </c>
       <c r="W64">
-        <v>0.75</v>
+        <v>1.15</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6215,16 +6215,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC64">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6232,7 +6232,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6155949</v>
+        <v>6156178</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6244,58 +6244,58 @@
         <v>45151.5625</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
         <v>48</v>
       </c>
       <c r="K65">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L65">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M65">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N65">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="O65">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P65">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
+        <v>1.8</v>
+      </c>
+      <c r="S65">
+        <v>2</v>
+      </c>
+      <c r="T65">
+        <v>2.5</v>
+      </c>
+      <c r="U65">
         <v>1.925</v>
       </c>
-      <c r="S65">
+      <c r="V65">
         <v>1.875</v>
       </c>
-      <c r="T65">
-        <v>2.25</v>
-      </c>
-      <c r="U65">
-        <v>1.875</v>
-      </c>
-      <c r="V65">
-        <v>1.925</v>
-      </c>
       <c r="W65">
-        <v>1.15</v>
+        <v>0.75</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6304,16 +6304,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
+        <v>-1</v>
+      </c>
+      <c r="AC65">
         <v>0.875</v>
-      </c>
-      <c r="AC65">
-        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -10593,7 +10593,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6155961</v>
+        <v>6156940</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10605,76 +10605,76 @@
         <v>45207.72916666666</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G114" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K114">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L114">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M114">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N114">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O114">
         <v>3.2</v>
       </c>
       <c r="P114">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S114">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T114">
         <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V114">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y114">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA114">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10682,7 +10682,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6156940</v>
+        <v>6155961</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10694,76 +10694,76 @@
         <v>45207.72916666666</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K115">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L115">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M115">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N115">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O115">
         <v>3.2</v>
       </c>
       <c r="P115">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T115">
         <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V115">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10949,7 +10949,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6156939</v>
+        <v>6156943</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10961,76 +10961,76 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K118">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L118">
+        <v>3.2</v>
+      </c>
+      <c r="M118">
         <v>3.1</v>
       </c>
-      <c r="M118">
-        <v>2.75</v>
-      </c>
       <c r="N118">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O118">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P118">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R118">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S118">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA118">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11038,7 +11038,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6156941</v>
+        <v>6156184</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11050,58 +11050,58 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J119" t="s">
         <v>48</v>
       </c>
       <c r="K119">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L119">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M119">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N119">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="O119">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P119">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q119">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R119">
+        <v>2.05</v>
+      </c>
+      <c r="S119">
+        <v>1.75</v>
+      </c>
+      <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
         <v>1.875</v>
       </c>
-      <c r="S119">
+      <c r="V119">
         <v>1.925</v>
       </c>
-      <c r="T119">
-        <v>2.25</v>
-      </c>
-      <c r="U119">
-        <v>1.825</v>
-      </c>
-      <c r="V119">
-        <v>1.975</v>
-      </c>
       <c r="W119">
-        <v>0.615</v>
+        <v>1.7</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11110,16 +11110,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="AA119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC119">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11127,7 +11127,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6156943</v>
+        <v>6156939</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11139,76 +11139,76 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G120" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H120">
         <v>1</v>
       </c>
       <c r="I120">
+        <v>2</v>
+      </c>
+      <c r="J120" t="s">
+        <v>50</v>
+      </c>
+      <c r="K120">
+        <v>2.375</v>
+      </c>
+      <c r="L120">
+        <v>3.1</v>
+      </c>
+      <c r="M120">
+        <v>2.75</v>
+      </c>
+      <c r="N120">
+        <v>2.45</v>
+      </c>
+      <c r="O120">
+        <v>3.2</v>
+      </c>
+      <c r="P120">
+        <v>2.625</v>
+      </c>
+      <c r="Q120">
         <v>0</v>
       </c>
-      <c r="J120" t="s">
-        <v>48</v>
-      </c>
-      <c r="K120">
-        <v>2.1</v>
-      </c>
-      <c r="L120">
-        <v>3.2</v>
-      </c>
-      <c r="M120">
-        <v>3.1</v>
-      </c>
-      <c r="N120">
-        <v>1.909</v>
-      </c>
-      <c r="O120">
-        <v>3.4</v>
-      </c>
-      <c r="P120">
-        <v>3.4</v>
-      </c>
-      <c r="Q120">
-        <v>-0.5</v>
-      </c>
       <c r="R120">
+        <v>1.775</v>
+      </c>
+      <c r="S120">
+        <v>2.025</v>
+      </c>
+      <c r="T120">
+        <v>2.5</v>
+      </c>
+      <c r="U120">
+        <v>1.85</v>
+      </c>
+      <c r="V120">
         <v>1.95</v>
       </c>
-      <c r="S120">
-        <v>1.85</v>
-      </c>
-      <c r="T120">
-        <v>2.25</v>
-      </c>
-      <c r="U120">
-        <v>1.825</v>
-      </c>
-      <c r="V120">
-        <v>1.975</v>
-      </c>
       <c r="W120">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC120">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6156184</v>
+        <v>6156941</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,58 +11228,58 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
         <v>48</v>
       </c>
       <c r="K121">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L121">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M121">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N121">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O121">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P121">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R121">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S121">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T121">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U121">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V121">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W121">
-        <v>1.7</v>
+        <v>0.615</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11288,16 +11288,16 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>1.05</v>
+        <v>0.4375</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB121">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11305,7 +11305,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7327856</v>
+        <v>7327838</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11317,76 +11317,76 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I122">
+        <v>3</v>
+      </c>
+      <c r="J122" t="s">
+        <v>49</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>3.3</v>
+      </c>
+      <c r="M122">
+        <v>3.2</v>
+      </c>
+      <c r="N122">
+        <v>2.1</v>
+      </c>
+      <c r="O122">
+        <v>3.3</v>
+      </c>
+      <c r="P122">
+        <v>3</v>
+      </c>
+      <c r="Q122">
+        <v>-0.25</v>
+      </c>
+      <c r="R122">
+        <v>1.9</v>
+      </c>
+      <c r="S122">
+        <v>1.9</v>
+      </c>
+      <c r="T122">
+        <v>3</v>
+      </c>
+      <c r="U122">
+        <v>2</v>
+      </c>
+      <c r="V122">
+        <v>1.8</v>
+      </c>
+      <c r="W122">
+        <v>-1</v>
+      </c>
+      <c r="X122">
+        <v>2.3</v>
+      </c>
+      <c r="Y122">
+        <v>-1</v>
+      </c>
+      <c r="Z122">
+        <v>-0.5</v>
+      </c>
+      <c r="AA122">
+        <v>0.45</v>
+      </c>
+      <c r="AB122">
         <v>1</v>
       </c>
-      <c r="J122" t="s">
-        <v>50</v>
-      </c>
-      <c r="K122">
-        <v>1.727</v>
-      </c>
-      <c r="L122">
-        <v>3.5</v>
-      </c>
-      <c r="M122">
-        <v>4</v>
-      </c>
-      <c r="N122">
-        <v>1.8</v>
-      </c>
-      <c r="O122">
-        <v>3.4</v>
-      </c>
-      <c r="P122">
-        <v>3.75</v>
-      </c>
-      <c r="Q122">
-        <v>-0.5</v>
-      </c>
-      <c r="R122">
-        <v>1.85</v>
-      </c>
-      <c r="S122">
-        <v>1.95</v>
-      </c>
-      <c r="T122">
-        <v>2.25</v>
-      </c>
-      <c r="U122">
-        <v>1.75</v>
-      </c>
-      <c r="V122">
-        <v>1.95</v>
-      </c>
-      <c r="W122">
-        <v>-1</v>
-      </c>
-      <c r="X122">
-        <v>-1</v>
-      </c>
-      <c r="Y122">
-        <v>2.75</v>
-      </c>
-      <c r="Z122">
-        <v>-1</v>
-      </c>
-      <c r="AA122">
-        <v>0.95</v>
-      </c>
-      <c r="AB122">
-        <v>-1</v>
-      </c>
       <c r="AC122">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11394,7 +11394,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7327838</v>
+        <v>7327855</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11406,76 +11406,76 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>50</v>
+      </c>
+      <c r="K123">
+        <v>2.1</v>
+      </c>
+      <c r="L123">
+        <v>3.4</v>
+      </c>
+      <c r="M123">
         <v>3</v>
       </c>
-      <c r="I123">
-        <v>3</v>
-      </c>
-      <c r="J123" t="s">
-        <v>49</v>
-      </c>
-      <c r="K123">
-        <v>2</v>
-      </c>
-      <c r="L123">
-        <v>3.3</v>
-      </c>
-      <c r="M123">
-        <v>3.2</v>
-      </c>
       <c r="N123">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="O123">
         <v>3.3</v>
       </c>
       <c r="P123">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S123">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T123">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V123">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z123">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB123">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11483,7 +11483,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7327855</v>
+        <v>7327856</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11495,10 +11495,10 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11510,37 +11510,37 @@
         <v>50</v>
       </c>
       <c r="K124">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L124">
+        <v>3.5</v>
+      </c>
+      <c r="M124">
+        <v>4</v>
+      </c>
+      <c r="N124">
+        <v>1.8</v>
+      </c>
+      <c r="O124">
         <v>3.4</v>
       </c>
-      <c r="M124">
-        <v>3</v>
-      </c>
-      <c r="N124">
-        <v>2.625</v>
-      </c>
-      <c r="O124">
-        <v>3.3</v>
-      </c>
       <c r="P124">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S124">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V124">
         <v>1.95</v>
@@ -11552,13 +11552,13 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB124">
         <v>-1</v>
@@ -11572,7 +11572,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7327841</v>
+        <v>7327840</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11584,43 +11584,43 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K125">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L125">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M125">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N125">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O125">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P125">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q125">
         <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S125">
         <v>1.975</v>
@@ -11629,31 +11629,31 @@
         <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V125">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W125">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z125">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB125">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11661,7 +11661,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7327842</v>
+        <v>7327841</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11673,58 +11673,58 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
         <v>48</v>
       </c>
       <c r="K126">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L126">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M126">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N126">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O126">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P126">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q126">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S126">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W126">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11733,13 +11733,13 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA126">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11750,7 +11750,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7327840</v>
+        <v>7327842</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11762,76 +11762,76 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G127" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127">
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K127">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="L127">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M127">
+        <v>5</v>
+      </c>
+      <c r="N127">
+        <v>1.7</v>
+      </c>
+      <c r="O127">
+        <v>3.75</v>
+      </c>
+      <c r="P127">
         <v>4</v>
       </c>
-      <c r="N127">
-        <v>2</v>
-      </c>
-      <c r="O127">
-        <v>2.9</v>
-      </c>
-      <c r="P127">
-        <v>3.75</v>
-      </c>
       <c r="Q127">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R127">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S127">
+        <v>1.9</v>
+      </c>
+      <c r="T127">
+        <v>2.25</v>
+      </c>
+      <c r="U127">
+        <v>1.825</v>
+      </c>
+      <c r="V127">
         <v>1.975</v>
       </c>
-      <c r="T127">
-        <v>2.5</v>
-      </c>
-      <c r="U127">
-        <v>1.85</v>
-      </c>
-      <c r="V127">
-        <v>1.95</v>
-      </c>
       <c r="W127">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA127">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC127">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11839,7 +11839,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7327839</v>
+        <v>7327843</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11851,56 +11851,56 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G128" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J128" t="s">
         <v>50</v>
       </c>
       <c r="K128">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="L128">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M128">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N128">
+        <v>1.727</v>
+      </c>
+      <c r="O128">
+        <v>3.4</v>
+      </c>
+      <c r="P128">
         <v>4.2</v>
       </c>
-      <c r="O128">
-        <v>3.6</v>
-      </c>
-      <c r="P128">
-        <v>1.666</v>
-      </c>
       <c r="Q128">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S128">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T128">
         <v>2.5</v>
       </c>
       <c r="U128">
+        <v>1.925</v>
+      </c>
+      <c r="V128">
         <v>1.875</v>
       </c>
-      <c r="V128">
-        <v>1.925</v>
-      </c>
       <c r="W128">
         <v>-1</v>
       </c>
@@ -11908,16 +11908,16 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.6659999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="Z128">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AB128">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11928,7 +11928,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7327843</v>
+        <v>7327839</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11940,56 +11940,56 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
         <v>50</v>
       </c>
       <c r="K129">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="L129">
+        <v>3.3</v>
+      </c>
+      <c r="M129">
+        <v>2</v>
+      </c>
+      <c r="N129">
+        <v>4.2</v>
+      </c>
+      <c r="O129">
         <v>3.6</v>
       </c>
-      <c r="M129">
-        <v>4</v>
-      </c>
-      <c r="N129">
-        <v>1.727</v>
-      </c>
-      <c r="O129">
-        <v>3.4</v>
-      </c>
       <c r="P129">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="Q129">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R129">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S129">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T129">
         <v>2.5</v>
       </c>
       <c r="U129">
+        <v>1.875</v>
+      </c>
+      <c r="V129">
         <v>1.925</v>
       </c>
-      <c r="V129">
-        <v>1.875</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
@@ -11997,16 +11997,16 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>3.2</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA129">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB129">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -14331,7 +14331,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7794219</v>
+        <v>7793612</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14343,61 +14343,76 @@
         <v>45359.75</v>
       </c>
       <c r="F156" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G156" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <v>2</v>
+      </c>
+      <c r="J156" t="s">
+        <v>50</v>
       </c>
       <c r="K156">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L156">
         <v>3.3</v>
       </c>
       <c r="M156">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N156">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O156">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P156">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q156">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R156">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S156">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U156">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V156">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Z156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0</v>
+        <v>1.05</v>
+      </c>
+      <c r="AB156">
+        <v>0.4875</v>
+      </c>
+      <c r="AC156">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14405,7 +14420,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7793612</v>
+        <v>7794219</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14417,61 +14432,76 @@
         <v>45359.75</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157" t="s">
+        <v>50</v>
       </c>
       <c r="K157">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L157">
         <v>3.3</v>
       </c>
       <c r="M157">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N157">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O157">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P157">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q157">
         <v>-0.25</v>
       </c>
       <c r="R157">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S157">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V157">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB157">
+        <v>-1</v>
+      </c>
+      <c r="AC157">
+        <v>0.825</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14496,6 +14526,15 @@
       <c r="G158" t="s">
         <v>44</v>
       </c>
+      <c r="H158">
+        <v>2</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158" t="s">
+        <v>48</v>
+      </c>
       <c r="K158">
         <v>2</v>
       </c>
@@ -14506,22 +14545,22 @@
         <v>3.3</v>
       </c>
       <c r="N158">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O158">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P158">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q158">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S158">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T158">
         <v>2.75</v>
@@ -14533,19 +14572,25 @@
         <v>1.8</v>
       </c>
       <c r="W158">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA158">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB158">
+        <v>-1</v>
+      </c>
+      <c r="AC158">
+        <v>0.8</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14570,6 +14615,15 @@
       <c r="G159" t="s">
         <v>36</v>
       </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159">
+        <v>2</v>
+      </c>
+      <c r="J159" t="s">
+        <v>50</v>
+      </c>
       <c r="K159">
         <v>1.8</v>
       </c>
@@ -14580,45 +14634,347 @@
         <v>4</v>
       </c>
       <c r="N159">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O159">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P159">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q159">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R159">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S159">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T159">
         <v>2.5</v>
       </c>
       <c r="U159">
+        <v>1.975</v>
+      </c>
+      <c r="V159">
+        <v>1.825</v>
+      </c>
+      <c r="W159">
+        <v>-1</v>
+      </c>
+      <c r="X159">
+        <v>-1</v>
+      </c>
+      <c r="Y159">
+        <v>1.9</v>
+      </c>
+      <c r="Z159">
+        <v>-1</v>
+      </c>
+      <c r="AA159">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB159">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC159">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>7792879</v>
+      </c>
+      <c r="C160" t="s">
+        <v>28</v>
+      </c>
+      <c r="D160" t="s">
+        <v>28</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45360.5</v>
+      </c>
+      <c r="F160" t="s">
+        <v>33</v>
+      </c>
+      <c r="G160" t="s">
+        <v>35</v>
+      </c>
+      <c r="K160">
+        <v>2.2</v>
+      </c>
+      <c r="L160">
+        <v>3.2</v>
+      </c>
+      <c r="M160">
+        <v>3</v>
+      </c>
+      <c r="N160">
+        <v>2.5</v>
+      </c>
+      <c r="O160">
+        <v>3.1</v>
+      </c>
+      <c r="P160">
+        <v>2.625</v>
+      </c>
+      <c r="Q160">
+        <v>0</v>
+      </c>
+      <c r="R160">
+        <v>1.825</v>
+      </c>
+      <c r="S160">
+        <v>1.975</v>
+      </c>
+      <c r="T160">
+        <v>2.25</v>
+      </c>
+      <c r="U160">
+        <v>1.975</v>
+      </c>
+      <c r="V160">
+        <v>1.825</v>
+      </c>
+      <c r="W160">
+        <v>0</v>
+      </c>
+      <c r="X160">
+        <v>0</v>
+      </c>
+      <c r="Y160">
+        <v>0</v>
+      </c>
+      <c r="Z160">
+        <v>0</v>
+      </c>
+      <c r="AA160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>7793491</v>
+      </c>
+      <c r="C161" t="s">
+        <v>28</v>
+      </c>
+      <c r="D161" t="s">
+        <v>28</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45360.75</v>
+      </c>
+      <c r="F161" t="s">
+        <v>46</v>
+      </c>
+      <c r="G161" t="s">
+        <v>38</v>
+      </c>
+      <c r="K161">
+        <v>1.909</v>
+      </c>
+      <c r="L161">
+        <v>3.3</v>
+      </c>
+      <c r="M161">
+        <v>3.5</v>
+      </c>
+      <c r="N161">
+        <v>1.8</v>
+      </c>
+      <c r="O161">
+        <v>3.4</v>
+      </c>
+      <c r="P161">
+        <v>3.8</v>
+      </c>
+      <c r="Q161">
+        <v>-0.5</v>
+      </c>
+      <c r="R161">
+        <v>1.9</v>
+      </c>
+      <c r="S161">
+        <v>1.9</v>
+      </c>
+      <c r="T161">
+        <v>2.25</v>
+      </c>
+      <c r="U161">
+        <v>1.9</v>
+      </c>
+      <c r="V161">
+        <v>1.9</v>
+      </c>
+      <c r="W161">
+        <v>0</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="Y161">
+        <v>0</v>
+      </c>
+      <c r="Z161">
+        <v>0</v>
+      </c>
+      <c r="AA161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>7793611</v>
+      </c>
+      <c r="C162" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162" t="s">
+        <v>28</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45361.5</v>
+      </c>
+      <c r="F162" t="s">
+        <v>39</v>
+      </c>
+      <c r="G162" t="s">
+        <v>32</v>
+      </c>
+      <c r="K162">
+        <v>2.2</v>
+      </c>
+      <c r="L162">
+        <v>3.2</v>
+      </c>
+      <c r="M162">
+        <v>3</v>
+      </c>
+      <c r="N162">
+        <v>2.1</v>
+      </c>
+      <c r="O162">
+        <v>3.25</v>
+      </c>
+      <c r="P162">
+        <v>3.2</v>
+      </c>
+      <c r="Q162">
+        <v>-0.25</v>
+      </c>
+      <c r="R162">
+        <v>1.825</v>
+      </c>
+      <c r="S162">
+        <v>1.975</v>
+      </c>
+      <c r="T162">
+        <v>2.25</v>
+      </c>
+      <c r="U162">
+        <v>1.825</v>
+      </c>
+      <c r="V162">
+        <v>1.975</v>
+      </c>
+      <c r="W162">
+        <v>0</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
+      </c>
+      <c r="Y162">
+        <v>0</v>
+      </c>
+      <c r="Z162">
+        <v>0</v>
+      </c>
+      <c r="AA162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>7792880</v>
+      </c>
+      <c r="C163" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" t="s">
+        <v>28</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45361.875</v>
+      </c>
+      <c r="F163" t="s">
+        <v>40</v>
+      </c>
+      <c r="G163" t="s">
+        <v>42</v>
+      </c>
+      <c r="K163">
+        <v>2.3</v>
+      </c>
+      <c r="L163">
+        <v>3.2</v>
+      </c>
+      <c r="M163">
+        <v>2.9</v>
+      </c>
+      <c r="N163">
+        <v>2.1</v>
+      </c>
+      <c r="O163">
+        <v>3.25</v>
+      </c>
+      <c r="P163">
+        <v>3.3</v>
+      </c>
+      <c r="Q163">
+        <v>-0.25</v>
+      </c>
+      <c r="R163">
+        <v>1.8</v>
+      </c>
+      <c r="S163">
+        <v>2</v>
+      </c>
+      <c r="T163">
+        <v>2.25</v>
+      </c>
+      <c r="U163">
+        <v>1.875</v>
+      </c>
+      <c r="V163">
         <v>1.925</v>
       </c>
-      <c r="V159">
-        <v>1.875</v>
-      </c>
-      <c r="W159">
+      <c r="W163">
         <v>0</v>
       </c>
-      <c r="X159">
+      <c r="X163">
         <v>0</v>
       </c>
-      <c r="Y159">
+      <c r="Y163">
         <v>0</v>
       </c>
-      <c r="Z159">
+      <c r="Z163">
         <v>0</v>
       </c>
-      <c r="AA159">
+      <c r="AA163">
         <v>0</v>
       </c>
     </row>

--- a/Chile Primera B/Chile Primera B.xlsx
+++ b/Chile Primera B/Chile Primera B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -2227,7 +2227,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6156878</v>
+        <v>6155941</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2239,34 +2239,34 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L20">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M20">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N20">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O20">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P20">
         <v>2.9</v>
@@ -2278,37 +2278,37 @@
         <v>1.975</v>
       </c>
       <c r="S20">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V20">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.4125</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2405,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6155941</v>
+        <v>6156878</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2417,34 +2417,34 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M22">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N22">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O22">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P22">
         <v>2.9</v>
@@ -2456,37 +2456,37 @@
         <v>1.975</v>
       </c>
       <c r="S22">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T22">
+        <v>2.75</v>
+      </c>
+      <c r="U22">
+        <v>1.825</v>
+      </c>
+      <c r="V22">
+        <v>1.975</v>
+      </c>
+      <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
         <v>2.25</v>
       </c>
-      <c r="U22">
-        <v>2</v>
-      </c>
-      <c r="V22">
-        <v>1.8</v>
-      </c>
-      <c r="W22">
-        <v>-1</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
       <c r="Y22">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA22">
-        <v>0.7250000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2494,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6156174</v>
+        <v>6156880</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2506,73 +2506,73 @@
         <v>45116.5625</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L23">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M23">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N23">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O23">
         <v>3.3</v>
       </c>
       <c r="P23">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q23">
         <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S23">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T23">
         <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB23">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2583,7 +2583,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6156880</v>
+        <v>6156174</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2595,73 +2595,73 @@
         <v>45116.5625</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M24">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N24">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O24">
         <v>3.3</v>
       </c>
       <c r="P24">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q24">
         <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X24">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -3829,7 +3829,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6155944</v>
+        <v>6158713</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3841,76 +3841,76 @@
         <v>45130.5625</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38">
+        <v>3.25</v>
+      </c>
+      <c r="M38">
+        <v>2.1</v>
+      </c>
+      <c r="N38">
+        <v>2.625</v>
+      </c>
+      <c r="O38">
+        <v>3.2</v>
+      </c>
+      <c r="P38">
+        <v>2.3</v>
+      </c>
+      <c r="Q38">
         <v>0</v>
       </c>
-      <c r="J38" t="s">
-        <v>48</v>
-      </c>
-      <c r="K38">
-        <v>1.4</v>
-      </c>
-      <c r="L38">
-        <v>3.75</v>
-      </c>
-      <c r="M38">
-        <v>7.5</v>
-      </c>
-      <c r="N38">
-        <v>1.45</v>
-      </c>
-      <c r="O38">
-        <v>3.6</v>
-      </c>
-      <c r="P38">
-        <v>6.5</v>
-      </c>
-      <c r="Q38">
-        <v>-1.25</v>
-      </c>
       <c r="R38">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S38">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V38">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W38">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3918,7 +3918,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6158713</v>
+        <v>6155944</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3930,76 +3930,76 @@
         <v>45130.5625</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L39">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M39">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="N39">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P39">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R39">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S39">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V39">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>0.7749999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AB39">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4274,7 +4274,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6155945</v>
+        <v>6393620</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4286,73 +4286,73 @@
         <v>45136.5625</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K43">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L43">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M43">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N43">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="O43">
         <v>3.25</v>
       </c>
       <c r="P43">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S43">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T43">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X43">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA43">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB43">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4363,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6393620</v>
+        <v>6155945</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4375,73 +4375,73 @@
         <v>45136.5625</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K44">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L44">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N44">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="O44">
         <v>3.25</v>
       </c>
       <c r="P44">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB44">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -6143,7 +6143,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6155949</v>
+        <v>6156178</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6155,58 +6155,58 @@
         <v>45151.5625</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
         <v>48</v>
       </c>
       <c r="K64">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L64">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M64">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N64">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="O64">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P64">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q64">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
+        <v>1.8</v>
+      </c>
+      <c r="S64">
+        <v>2</v>
+      </c>
+      <c r="T64">
+        <v>2.5</v>
+      </c>
+      <c r="U64">
         <v>1.925</v>
       </c>
-      <c r="S64">
+      <c r="V64">
         <v>1.875</v>
       </c>
-      <c r="T64">
-        <v>2.25</v>
-      </c>
-      <c r="U64">
-        <v>1.875</v>
-      </c>
-      <c r="V64">
-        <v>1.925</v>
-      </c>
       <c r="W64">
-        <v>1.15</v>
+        <v>0.75</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6215,16 +6215,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
+        <v>-1</v>
+      </c>
+      <c r="AC64">
         <v>0.875</v>
-      </c>
-      <c r="AC64">
-        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6232,7 +6232,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6156178</v>
+        <v>6155949</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6244,58 +6244,58 @@
         <v>45151.5625</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
         <v>48</v>
       </c>
       <c r="K65">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L65">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M65">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N65">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O65">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P65">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q65">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T65">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U65">
+        <v>1.875</v>
+      </c>
+      <c r="V65">
         <v>1.925</v>
       </c>
-      <c r="V65">
-        <v>1.875</v>
-      </c>
       <c r="W65">
-        <v>0.75</v>
+        <v>1.15</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6304,16 +6304,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC65">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -9436,7 +9436,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6155958</v>
+        <v>6156183</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9448,76 +9448,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K101">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L101">
         <v>3.2</v>
       </c>
       <c r="M101">
+        <v>3</v>
+      </c>
+      <c r="N101">
         <v>2.2</v>
       </c>
-      <c r="N101">
-        <v>2.05</v>
-      </c>
       <c r="O101">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P101">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q101">
         <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T101">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V101">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X101">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA101">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC101">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9525,7 +9525,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6156183</v>
+        <v>6155958</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9537,76 +9537,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102" t="s">
+        <v>49</v>
+      </c>
+      <c r="K102">
         <v>3</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102" t="s">
-        <v>48</v>
-      </c>
-      <c r="K102">
-        <v>2.2</v>
       </c>
       <c r="L102">
         <v>3.2</v>
       </c>
       <c r="M102">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N102">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O102">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P102">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q102">
         <v>-0.25</v>
       </c>
       <c r="R102">
+        <v>1.825</v>
+      </c>
+      <c r="S102">
+        <v>1.975</v>
+      </c>
+      <c r="T102">
+        <v>2.5</v>
+      </c>
+      <c r="U102">
         <v>1.95</v>
       </c>
-      <c r="S102">
-        <v>1.85</v>
-      </c>
-      <c r="T102">
-        <v>2.25</v>
-      </c>
-      <c r="U102">
-        <v>1.8</v>
-      </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W102">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10593,7 +10593,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6156940</v>
+        <v>6155961</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10605,76 +10605,76 @@
         <v>45207.72916666666</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K114">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L114">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M114">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N114">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O114">
         <v>3.2</v>
       </c>
       <c r="P114">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q114">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S114">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T114">
         <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10682,7 +10682,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6155961</v>
+        <v>6156940</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10694,76 +10694,76 @@
         <v>45207.72916666666</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K115">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L115">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M115">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N115">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O115">
         <v>3.2</v>
       </c>
       <c r="P115">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R115">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S115">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T115">
         <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y115">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA115">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10949,7 +10949,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6156943</v>
+        <v>6156941</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10961,10 +10961,10 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -10976,31 +10976,31 @@
         <v>48</v>
       </c>
       <c r="K118">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L118">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M118">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N118">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O118">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q118">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S118">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T118">
         <v>2.25</v>
@@ -11012,7 +11012,7 @@
         <v>1.975</v>
       </c>
       <c r="W118">
-        <v>0.909</v>
+        <v>0.615</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11021,10 +11021,10 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB118">
         <v>-1</v>
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6156941</v>
+        <v>6156943</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,10 +11228,10 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11243,31 +11243,31 @@
         <v>48</v>
       </c>
       <c r="K121">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L121">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M121">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N121">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O121">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P121">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q121">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S121">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T121">
         <v>2.25</v>
@@ -11279,7 +11279,7 @@
         <v>1.975</v>
       </c>
       <c r="W121">
-        <v>0.615</v>
+        <v>0.909</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11288,10 +11288,10 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AA121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
         <v>-1</v>
@@ -11305,7 +11305,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7327838</v>
+        <v>7327856</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11317,76 +11317,76 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L122">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M122">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N122">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O122">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P122">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T122">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V122">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB122">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11483,7 +11483,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7327856</v>
+        <v>7327838</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11495,76 +11495,76 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J124" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K124">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L124">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M124">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N124">
+        <v>2.1</v>
+      </c>
+      <c r="O124">
+        <v>3.3</v>
+      </c>
+      <c r="P124">
+        <v>3</v>
+      </c>
+      <c r="Q124">
+        <v>-0.25</v>
+      </c>
+      <c r="R124">
+        <v>1.9</v>
+      </c>
+      <c r="S124">
+        <v>1.9</v>
+      </c>
+      <c r="T124">
+        <v>3</v>
+      </c>
+      <c r="U124">
+        <v>2</v>
+      </c>
+      <c r="V124">
         <v>1.8</v>
       </c>
-      <c r="O124">
-        <v>3.4</v>
-      </c>
-      <c r="P124">
-        <v>3.75</v>
-      </c>
-      <c r="Q124">
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
+        <v>2.3</v>
+      </c>
+      <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
         <v>-0.5</v>
       </c>
-      <c r="R124">
-        <v>1.85</v>
-      </c>
-      <c r="S124">
-        <v>1.95</v>
-      </c>
-      <c r="T124">
-        <v>2.25</v>
-      </c>
-      <c r="U124">
-        <v>1.75</v>
-      </c>
-      <c r="V124">
-        <v>1.95</v>
-      </c>
-      <c r="W124">
-        <v>-1</v>
-      </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
-      <c r="Y124">
-        <v>2.75</v>
-      </c>
-      <c r="Z124">
-        <v>-1</v>
-      </c>
       <c r="AA124">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC124">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11661,7 +11661,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7327841</v>
+        <v>7327842</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11673,58 +11673,58 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
         <v>48</v>
       </c>
       <c r="K126">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L126">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M126">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N126">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O126">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P126">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R126">
+        <v>1.9</v>
+      </c>
+      <c r="S126">
+        <v>1.9</v>
+      </c>
+      <c r="T126">
+        <v>2.25</v>
+      </c>
+      <c r="U126">
         <v>1.825</v>
       </c>
-      <c r="S126">
+      <c r="V126">
         <v>1.975</v>
       </c>
-      <c r="T126">
-        <v>2.5</v>
-      </c>
-      <c r="U126">
-        <v>1.925</v>
-      </c>
-      <c r="V126">
-        <v>1.875</v>
-      </c>
       <c r="W126">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11733,13 +11733,13 @@
         <v>-1</v>
       </c>
       <c r="Z126">
+        <v>0.45</v>
+      </c>
+      <c r="AA126">
+        <v>-0.5</v>
+      </c>
+      <c r="AB126">
         <v>0.825</v>
-      </c>
-      <c r="AA126">
-        <v>-1</v>
-      </c>
-      <c r="AB126">
-        <v>0.925</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11750,7 +11750,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7327842</v>
+        <v>7327843</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11762,73 +11762,73 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H127">
         <v>2</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J127" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K127">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L127">
+        <v>3.6</v>
+      </c>
+      <c r="M127">
         <v>4</v>
       </c>
-      <c r="M127">
-        <v>5</v>
-      </c>
       <c r="N127">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O127">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P127">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q127">
         <v>-0.75</v>
       </c>
       <c r="R127">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S127">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T127">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V127">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W127">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z127">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB127">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11839,7 +11839,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7327843</v>
+        <v>7327841</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11851,46 +11851,46 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K128">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L128">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M128">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N128">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="O128">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P128">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R128">
+        <v>1.825</v>
+      </c>
+      <c r="S128">
         <v>1.975</v>
-      </c>
-      <c r="S128">
-        <v>1.825</v>
       </c>
       <c r="T128">
         <v>2.5</v>
@@ -11902,19 +11902,19 @@
         <v>1.875</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA128">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
         <v>0.925</v>
@@ -14509,7 +14509,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7793493</v>
+        <v>7793492</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14521,76 +14521,76 @@
         <v>45359.85416666666</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G158" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K158">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L158">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N158">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="O158">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P158">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q158">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S158">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U158">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V158">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W158">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z158">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC158">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14598,7 +14598,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7793492</v>
+        <v>7793493</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14610,76 +14610,76 @@
         <v>45359.85416666666</v>
       </c>
       <c r="F159" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G159" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K159">
+        <v>2</v>
+      </c>
+      <c r="L159">
+        <v>3.3</v>
+      </c>
+      <c r="M159">
+        <v>3.3</v>
+      </c>
+      <c r="N159">
+        <v>1.85</v>
+      </c>
+      <c r="O159">
+        <v>3.5</v>
+      </c>
+      <c r="P159">
+        <v>3.6</v>
+      </c>
+      <c r="Q159">
+        <v>-0.5</v>
+      </c>
+      <c r="R159">
+        <v>1.925</v>
+      </c>
+      <c r="S159">
+        <v>1.875</v>
+      </c>
+      <c r="T159">
+        <v>2.75</v>
+      </c>
+      <c r="U159">
+        <v>2</v>
+      </c>
+      <c r="V159">
         <v>1.8</v>
       </c>
-      <c r="L159">
-        <v>3.4</v>
-      </c>
-      <c r="M159">
-        <v>4</v>
-      </c>
-      <c r="N159">
-        <v>2.3</v>
-      </c>
-      <c r="O159">
-        <v>3.1</v>
-      </c>
-      <c r="P159">
-        <v>2.9</v>
-      </c>
-      <c r="Q159">
-        <v>-0.25</v>
-      </c>
-      <c r="R159">
-        <v>2.025</v>
-      </c>
-      <c r="S159">
-        <v>1.775</v>
-      </c>
-      <c r="T159">
-        <v>2.5</v>
-      </c>
-      <c r="U159">
-        <v>1.975</v>
-      </c>
-      <c r="V159">
-        <v>1.825</v>
-      </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA159">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14704,6 +14704,15 @@
       <c r="G160" t="s">
         <v>35</v>
       </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <v>2</v>
+      </c>
+      <c r="J160" t="s">
+        <v>50</v>
+      </c>
       <c r="K160">
         <v>2.2</v>
       </c>
@@ -14741,22 +14750,28 @@
         <v>1.825</v>
       </c>
       <c r="W160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="Z160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:27">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB160">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC160">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:29">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -14778,6 +14793,15 @@
       <c r="G161" t="s">
         <v>38</v>
       </c>
+      <c r="H161">
+        <v>3</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161" t="s">
+        <v>48</v>
+      </c>
       <c r="K161">
         <v>1.909</v>
       </c>
@@ -14788,22 +14812,22 @@
         <v>3.5</v>
       </c>
       <c r="N161">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O161">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P161">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q161">
         <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S161">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T161">
         <v>2.25</v>
@@ -14815,22 +14839,28 @@
         <v>1.9</v>
       </c>
       <c r="W161">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB161">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC161">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:29">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -14852,6 +14882,15 @@
       <c r="G162" t="s">
         <v>32</v>
       </c>
+      <c r="H162">
+        <v>3</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162" t="s">
+        <v>48</v>
+      </c>
       <c r="K162">
         <v>2.2</v>
       </c>
@@ -14862,49 +14901,55 @@
         <v>3</v>
       </c>
       <c r="N162">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O162">
         <v>3.25</v>
       </c>
       <c r="P162">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q162">
         <v>-0.25</v>
       </c>
       <c r="R162">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S162">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T162">
         <v>2.25</v>
       </c>
       <c r="U162">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V162">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X162">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB162">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC162">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -14926,6 +14971,15 @@
       <c r="G163" t="s">
         <v>42</v>
       </c>
+      <c r="H163">
+        <v>3</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163" t="s">
+        <v>48</v>
+      </c>
       <c r="K163">
         <v>2.3</v>
       </c>
@@ -14936,22 +14990,22 @@
         <v>2.9</v>
       </c>
       <c r="N163">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O163">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P163">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R163">
+        <v>2</v>
+      </c>
+      <c r="S163">
         <v>1.8</v>
-      </c>
-      <c r="S163">
-        <v>2</v>
       </c>
       <c r="T163">
         <v>2.25</v>
@@ -14963,19 +15017,25 @@
         <v>1.925</v>
       </c>
       <c r="W163">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="X163">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA163">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB163">
+        <v>0.875</v>
+      </c>
+      <c r="AC163">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Chile Primera B/Chile Primera B.xlsx
+++ b/Chile Primera B/Chile Primera B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC163"/>
+  <dimension ref="A1:AC170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2494,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6156880</v>
+        <v>6156174</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2506,73 +2506,73 @@
         <v>45116.5625</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M23">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N23">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O23">
         <v>3.3</v>
       </c>
       <c r="P23">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q23">
         <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
         <v>2.5</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X23">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2583,7 +2583,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6156174</v>
+        <v>6156880</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2595,73 +2595,73 @@
         <v>45116.5625</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L24">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M24">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N24">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O24">
         <v>3.3</v>
       </c>
       <c r="P24">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q24">
         <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB24">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2939,7 +2939,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6155942</v>
+        <v>6156882</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2951,76 +2951,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="L28">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M28">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N28">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O28">
+        <v>3.1</v>
+      </c>
+      <c r="P28">
         <v>3</v>
       </c>
-      <c r="P28">
-        <v>2.45</v>
-      </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S28">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="T28">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V28">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y28">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>0.7</v>
+        <v>0.425</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC28">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3028,7 +3028,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6156882</v>
+        <v>6155942</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3040,76 +3040,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L29">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M29">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="N29">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O29">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U29">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.425</v>
+        <v>0.7</v>
       </c>
       <c r="AB29">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3562,7 +3562,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6156886</v>
+        <v>6156888</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3574,34 +3574,34 @@
         <v>45129.5625</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M35">
         <v>3.2</v>
       </c>
       <c r="N35">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O35">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P35">
         <v>3.25</v>
@@ -3610,37 +3610,37 @@
         <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S35">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U35">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V35">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W35">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z35">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB35">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3651,7 +3651,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6156888</v>
+        <v>6156886</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3663,34 +3663,34 @@
         <v>45129.5625</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L36">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M36">
         <v>3.2</v>
       </c>
       <c r="N36">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O36">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P36">
         <v>3.25</v>
@@ -3699,37 +3699,37 @@
         <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T36">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA36">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3829,7 +3829,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6158713</v>
+        <v>6155944</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3841,76 +3841,76 @@
         <v>45130.5625</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L38">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="N38">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O38">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P38">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R38">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S38">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V38">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA38">
-        <v>0.7749999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AB38">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3918,7 +3918,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6155944</v>
+        <v>6158713</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3930,76 +3930,76 @@
         <v>45130.5625</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39" t="s">
+        <v>50</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>3.25</v>
+      </c>
+      <c r="M39">
+        <v>2.1</v>
+      </c>
+      <c r="N39">
+        <v>2.625</v>
+      </c>
+      <c r="O39">
+        <v>3.2</v>
+      </c>
+      <c r="P39">
+        <v>2.3</v>
+      </c>
+      <c r="Q39">
         <v>0</v>
       </c>
-      <c r="J39" t="s">
-        <v>48</v>
-      </c>
-      <c r="K39">
-        <v>1.4</v>
-      </c>
-      <c r="L39">
-        <v>3.75</v>
-      </c>
-      <c r="M39">
-        <v>7.5</v>
-      </c>
-      <c r="N39">
-        <v>1.45</v>
-      </c>
-      <c r="O39">
-        <v>3.6</v>
-      </c>
-      <c r="P39">
-        <v>6.5</v>
-      </c>
-      <c r="Q39">
-        <v>-1.25</v>
-      </c>
       <c r="R39">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S39">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V39">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W39">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4274,7 +4274,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6393620</v>
+        <v>6155945</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4286,73 +4286,73 @@
         <v>45136.5625</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K43">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L43">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M43">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N43">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="O43">
         <v>3.25</v>
       </c>
       <c r="P43">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q43">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S43">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U43">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V43">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W43">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA43">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB43">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4363,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6155945</v>
+        <v>6393620</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4375,73 +4375,73 @@
         <v>45136.5625</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K44">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M44">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N44">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="O44">
         <v>3.25</v>
       </c>
       <c r="P44">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S44">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X44">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA44">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB44">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -10415,7 +10415,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6156938</v>
+        <v>6156937</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10427,76 +10427,76 @@
         <v>45201.89583333334</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K112">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L112">
+        <v>3.2</v>
+      </c>
+      <c r="M112">
+        <v>3.2</v>
+      </c>
+      <c r="N112">
+        <v>2.05</v>
+      </c>
+      <c r="O112">
+        <v>3.2</v>
+      </c>
+      <c r="P112">
         <v>3.5</v>
       </c>
-      <c r="M112">
-        <v>4</v>
-      </c>
-      <c r="N112">
-        <v>1.571</v>
-      </c>
-      <c r="O112">
-        <v>3.75</v>
-      </c>
-      <c r="P112">
-        <v>4.75</v>
-      </c>
       <c r="Q112">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T112">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC112">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10504,7 +10504,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6156937</v>
+        <v>6156938</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10516,76 +10516,76 @@
         <v>45201.89583333334</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K113">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L113">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M113">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N113">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="O113">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P113">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R113">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S113">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V113">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W113">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z113">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB113">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10949,7 +10949,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6156941</v>
+        <v>6156184</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10961,58 +10961,58 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
         <v>48</v>
       </c>
       <c r="K118">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L118">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M118">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N118">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P118">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R118">
+        <v>2.05</v>
+      </c>
+      <c r="S118">
+        <v>1.75</v>
+      </c>
+      <c r="T118">
+        <v>2.75</v>
+      </c>
+      <c r="U118">
         <v>1.875</v>
       </c>
-      <c r="S118">
+      <c r="V118">
         <v>1.925</v>
       </c>
-      <c r="T118">
-        <v>2.25</v>
-      </c>
-      <c r="U118">
-        <v>1.825</v>
-      </c>
-      <c r="V118">
-        <v>1.975</v>
-      </c>
       <c r="W118">
-        <v>0.615</v>
+        <v>1.7</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11021,16 +11021,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11038,7 +11038,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6156184</v>
+        <v>6156939</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11050,73 +11050,73 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K119">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L119">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M119">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N119">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="O119">
         <v>3.2</v>
       </c>
       <c r="P119">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="Q119">
         <v>0</v>
       </c>
       <c r="R119">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S119">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W119">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z119">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB119">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11127,7 +11127,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6156939</v>
+        <v>6156943</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11139,76 +11139,76 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H120">
         <v>1</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K120">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L120">
+        <v>3.2</v>
+      </c>
+      <c r="M120">
         <v>3.1</v>
       </c>
-      <c r="M120">
-        <v>2.75</v>
-      </c>
       <c r="N120">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O120">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P120">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S120">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V120">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA120">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6156943</v>
+        <v>6156941</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,10 +11228,10 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11243,31 +11243,31 @@
         <v>48</v>
       </c>
       <c r="K121">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L121">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M121">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N121">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O121">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P121">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R121">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S121">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T121">
         <v>2.25</v>
@@ -11279,7 +11279,7 @@
         <v>1.975</v>
       </c>
       <c r="W121">
-        <v>0.909</v>
+        <v>0.615</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11288,10 +11288,10 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB121">
         <v>-1</v>
@@ -11305,7 +11305,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7327856</v>
+        <v>7327838</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11317,76 +11317,76 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I122">
+        <v>3</v>
+      </c>
+      <c r="J122" t="s">
+        <v>49</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>3.3</v>
+      </c>
+      <c r="M122">
+        <v>3.2</v>
+      </c>
+      <c r="N122">
+        <v>2.1</v>
+      </c>
+      <c r="O122">
+        <v>3.3</v>
+      </c>
+      <c r="P122">
+        <v>3</v>
+      </c>
+      <c r="Q122">
+        <v>-0.25</v>
+      </c>
+      <c r="R122">
+        <v>1.9</v>
+      </c>
+      <c r="S122">
+        <v>1.9</v>
+      </c>
+      <c r="T122">
+        <v>3</v>
+      </c>
+      <c r="U122">
+        <v>2</v>
+      </c>
+      <c r="V122">
+        <v>1.8</v>
+      </c>
+      <c r="W122">
+        <v>-1</v>
+      </c>
+      <c r="X122">
+        <v>2.3</v>
+      </c>
+      <c r="Y122">
+        <v>-1</v>
+      </c>
+      <c r="Z122">
+        <v>-0.5</v>
+      </c>
+      <c r="AA122">
+        <v>0.45</v>
+      </c>
+      <c r="AB122">
         <v>1</v>
       </c>
-      <c r="J122" t="s">
-        <v>50</v>
-      </c>
-      <c r="K122">
-        <v>1.727</v>
-      </c>
-      <c r="L122">
-        <v>3.5</v>
-      </c>
-      <c r="M122">
-        <v>4</v>
-      </c>
-      <c r="N122">
-        <v>1.8</v>
-      </c>
-      <c r="O122">
-        <v>3.4</v>
-      </c>
-      <c r="P122">
-        <v>3.75</v>
-      </c>
-      <c r="Q122">
-        <v>-0.5</v>
-      </c>
-      <c r="R122">
-        <v>1.85</v>
-      </c>
-      <c r="S122">
-        <v>1.95</v>
-      </c>
-      <c r="T122">
-        <v>2.25</v>
-      </c>
-      <c r="U122">
-        <v>1.75</v>
-      </c>
-      <c r="V122">
-        <v>1.95</v>
-      </c>
-      <c r="W122">
-        <v>-1</v>
-      </c>
-      <c r="X122">
-        <v>-1</v>
-      </c>
-      <c r="Y122">
-        <v>2.75</v>
-      </c>
-      <c r="Z122">
-        <v>-1</v>
-      </c>
-      <c r="AA122">
-        <v>0.95</v>
-      </c>
-      <c r="AB122">
-        <v>-1</v>
-      </c>
       <c r="AC122">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11394,7 +11394,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7327855</v>
+        <v>7327856</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11406,10 +11406,10 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11421,37 +11421,37 @@
         <v>50</v>
       </c>
       <c r="K123">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L123">
+        <v>3.5</v>
+      </c>
+      <c r="M123">
+        <v>4</v>
+      </c>
+      <c r="N123">
+        <v>1.8</v>
+      </c>
+      <c r="O123">
         <v>3.4</v>
       </c>
-      <c r="M123">
-        <v>3</v>
-      </c>
-      <c r="N123">
-        <v>2.625</v>
-      </c>
-      <c r="O123">
-        <v>3.3</v>
-      </c>
       <c r="P123">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R123">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S123">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U123">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V123">
         <v>1.95</v>
@@ -11463,13 +11463,13 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB123">
         <v>-1</v>
@@ -11483,7 +11483,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7327838</v>
+        <v>7327855</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11495,76 +11495,76 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>50</v>
+      </c>
+      <c r="K124">
+        <v>2.1</v>
+      </c>
+      <c r="L124">
+        <v>3.4</v>
+      </c>
+      <c r="M124">
         <v>3</v>
       </c>
-      <c r="I124">
-        <v>3</v>
-      </c>
-      <c r="J124" t="s">
-        <v>49</v>
-      </c>
-      <c r="K124">
-        <v>2</v>
-      </c>
-      <c r="L124">
-        <v>3.3</v>
-      </c>
-      <c r="M124">
-        <v>3.2</v>
-      </c>
       <c r="N124">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="O124">
         <v>3.3</v>
       </c>
       <c r="P124">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Q124">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB124">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11572,7 +11572,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7327840</v>
+        <v>7327843</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11584,55 +11584,55 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J125" t="s">
         <v>50</v>
       </c>
       <c r="K125">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L125">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M125">
         <v>4</v>
       </c>
       <c r="N125">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="O125">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P125">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R125">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S125">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T125">
         <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W125">
         <v>-1</v>
@@ -11641,19 +11641,19 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC125">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11661,7 +11661,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7327842</v>
+        <v>7327840</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11673,76 +11673,76 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K126">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="L126">
+        <v>3.3</v>
+      </c>
+      <c r="M126">
         <v>4</v>
       </c>
-      <c r="M126">
-        <v>5</v>
-      </c>
       <c r="N126">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O126">
+        <v>2.9</v>
+      </c>
+      <c r="P126">
         <v>3.75</v>
       </c>
-      <c r="P126">
-        <v>4</v>
-      </c>
       <c r="Q126">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S126">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W126">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z126">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB126">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11750,7 +11750,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7327843</v>
+        <v>7327839</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11762,56 +11762,56 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
         <v>50</v>
       </c>
       <c r="K127">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="L127">
+        <v>3.3</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127">
+        <v>4.2</v>
+      </c>
+      <c r="O127">
         <v>3.6</v>
       </c>
-      <c r="M127">
-        <v>4</v>
-      </c>
-      <c r="N127">
-        <v>1.727</v>
-      </c>
-      <c r="O127">
-        <v>3.4</v>
-      </c>
       <c r="P127">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="Q127">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R127">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S127">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T127">
         <v>2.5</v>
       </c>
       <c r="U127">
+        <v>1.875</v>
+      </c>
+      <c r="V127">
         <v>1.925</v>
       </c>
-      <c r="V127">
-        <v>1.875</v>
-      </c>
       <c r="W127">
         <v>-1</v>
       </c>
@@ -11819,16 +11819,16 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>3.2</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA127">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB127">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11839,7 +11839,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7327841</v>
+        <v>7327842</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11851,58 +11851,58 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
         <v>48</v>
       </c>
       <c r="K128">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L128">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M128">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N128">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O128">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P128">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q128">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
+        <v>1.9</v>
+      </c>
+      <c r="S128">
+        <v>1.9</v>
+      </c>
+      <c r="T128">
+        <v>2.25</v>
+      </c>
+      <c r="U128">
         <v>1.825</v>
       </c>
-      <c r="S128">
+      <c r="V128">
         <v>1.975</v>
       </c>
-      <c r="T128">
-        <v>2.5</v>
-      </c>
-      <c r="U128">
-        <v>1.925</v>
-      </c>
-      <c r="V128">
-        <v>1.875</v>
-      </c>
       <c r="W128">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11911,13 +11911,13 @@
         <v>-1</v>
       </c>
       <c r="Z128">
+        <v>0.45</v>
+      </c>
+      <c r="AA128">
+        <v>-0.5</v>
+      </c>
+      <c r="AB128">
         <v>0.825</v>
-      </c>
-      <c r="AA128">
-        <v>-1</v>
-      </c>
-      <c r="AB128">
-        <v>0.925</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11928,7 +11928,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7327839</v>
+        <v>7327841</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11940,73 +11940,73 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I129">
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K129">
+        <v>2.1</v>
+      </c>
+      <c r="L129">
         <v>3.2</v>
       </c>
-      <c r="L129">
-        <v>3.3</v>
-      </c>
       <c r="M129">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N129">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="O129">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P129">
-        <v>1.666</v>
+        <v>3.25</v>
       </c>
       <c r="Q129">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R129">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S129">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T129">
         <v>2.5</v>
       </c>
       <c r="U129">
+        <v>1.925</v>
+      </c>
+      <c r="V129">
         <v>1.875</v>
       </c>
-      <c r="V129">
-        <v>1.925</v>
-      </c>
       <c r="W129">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA129">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12551,7 +12551,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7487574</v>
+        <v>7487575</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12563,49 +12563,49 @@
         <v>45249.75</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H136">
         <v>2</v>
       </c>
       <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136" t="s">
+        <v>49</v>
+      </c>
+      <c r="K136">
+        <v>2.1</v>
+      </c>
+      <c r="L136">
+        <v>3.5</v>
+      </c>
+      <c r="M136">
         <v>3</v>
-      </c>
-      <c r="J136" t="s">
-        <v>50</v>
-      </c>
-      <c r="K136">
-        <v>2</v>
-      </c>
-      <c r="L136">
-        <v>3.2</v>
-      </c>
-      <c r="M136">
-        <v>3.4</v>
       </c>
       <c r="N136">
         <v>1.95</v>
       </c>
       <c r="O136">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P136">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q136">
         <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
         <v>1.975</v>
@@ -12617,16 +12617,16 @@
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y136">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB136">
         <v>0.9750000000000001</v>
@@ -12640,7 +12640,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7487575</v>
+        <v>7487574</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12652,49 +12652,49 @@
         <v>45249.75</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>2</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K137">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L137">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M137">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N137">
         <v>1.95</v>
       </c>
       <c r="O137">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P137">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q137">
         <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T137">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
         <v>1.975</v>
@@ -12706,16 +12706,16 @@
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB137">
         <v>0.9750000000000001</v>
@@ -12729,7 +12729,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7503210</v>
+        <v>7503209</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12741,13 +12741,13 @@
         <v>45256.75</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -12759,37 +12759,37 @@
         <v>2.2</v>
       </c>
       <c r="L138">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M138">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N138">
         <v>2.15</v>
       </c>
       <c r="O138">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P138">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q138">
         <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
         <v>1.15</v>
@@ -12801,16 +12801,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA138">
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC138">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7503209</v>
+        <v>7503210</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,13 +12830,13 @@
         <v>45256.75</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -12848,37 +12848,37 @@
         <v>2.2</v>
       </c>
       <c r="L139">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M139">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N139">
         <v>2.15</v>
       </c>
       <c r="O139">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P139">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q139">
         <v>-0.25</v>
       </c>
       <c r="R139">
+        <v>1.925</v>
+      </c>
+      <c r="S139">
+        <v>1.875</v>
+      </c>
+      <c r="T139">
+        <v>2.5</v>
+      </c>
+      <c r="U139">
         <v>1.975</v>
       </c>
-      <c r="S139">
+      <c r="V139">
         <v>1.825</v>
-      </c>
-      <c r="T139">
-        <v>2.75</v>
-      </c>
-      <c r="U139">
-        <v>1.85</v>
-      </c>
-      <c r="V139">
-        <v>1.95</v>
       </c>
       <c r="W139">
         <v>1.15</v>
@@ -12890,16 +12890,16 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -14509,7 +14509,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7793492</v>
+        <v>7793493</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14521,76 +14521,76 @@
         <v>45359.85416666666</v>
       </c>
       <c r="F158" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K158">
+        <v>2</v>
+      </c>
+      <c r="L158">
+        <v>3.3</v>
+      </c>
+      <c r="M158">
+        <v>3.3</v>
+      </c>
+      <c r="N158">
+        <v>1.85</v>
+      </c>
+      <c r="O158">
+        <v>3.5</v>
+      </c>
+      <c r="P158">
+        <v>3.6</v>
+      </c>
+      <c r="Q158">
+        <v>-0.5</v>
+      </c>
+      <c r="R158">
+        <v>1.925</v>
+      </c>
+      <c r="S158">
+        <v>1.875</v>
+      </c>
+      <c r="T158">
+        <v>2.75</v>
+      </c>
+      <c r="U158">
+        <v>2</v>
+      </c>
+      <c r="V158">
         <v>1.8</v>
       </c>
-      <c r="L158">
-        <v>3.4</v>
-      </c>
-      <c r="M158">
-        <v>4</v>
-      </c>
-      <c r="N158">
-        <v>2.3</v>
-      </c>
-      <c r="O158">
-        <v>3.1</v>
-      </c>
-      <c r="P158">
-        <v>2.9</v>
-      </c>
-      <c r="Q158">
-        <v>-0.25</v>
-      </c>
-      <c r="R158">
-        <v>2.025</v>
-      </c>
-      <c r="S158">
-        <v>1.775</v>
-      </c>
-      <c r="T158">
-        <v>2.5</v>
-      </c>
-      <c r="U158">
-        <v>1.975</v>
-      </c>
-      <c r="V158">
-        <v>1.825</v>
-      </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA158">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14598,7 +14598,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7793493</v>
+        <v>7793492</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14610,76 +14610,76 @@
         <v>45359.85416666666</v>
       </c>
       <c r="F159" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G159" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K159">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L159">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M159">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N159">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="O159">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P159">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q159">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R159">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S159">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V159">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W159">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z159">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC159">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -15036,6 +15036,569 @@
       </c>
       <c r="AC163">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:29">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>7793496</v>
+      </c>
+      <c r="C164" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" t="s">
+        <v>28</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45366.77083333334</v>
+      </c>
+      <c r="F164" t="s">
+        <v>44</v>
+      </c>
+      <c r="G164" t="s">
+        <v>33</v>
+      </c>
+      <c r="H164">
+        <v>2</v>
+      </c>
+      <c r="I164">
+        <v>4</v>
+      </c>
+      <c r="J164" t="s">
+        <v>50</v>
+      </c>
+      <c r="K164">
+        <v>2.5</v>
+      </c>
+      <c r="L164">
+        <v>3.2</v>
+      </c>
+      <c r="M164">
+        <v>2.5</v>
+      </c>
+      <c r="N164">
+        <v>2.4</v>
+      </c>
+      <c r="O164">
+        <v>2.875</v>
+      </c>
+      <c r="P164">
+        <v>2.9</v>
+      </c>
+      <c r="Q164">
+        <v>-0.25</v>
+      </c>
+      <c r="R164">
+        <v>2.05</v>
+      </c>
+      <c r="S164">
+        <v>1.75</v>
+      </c>
+      <c r="T164">
+        <v>2</v>
+      </c>
+      <c r="U164">
+        <v>1.8</v>
+      </c>
+      <c r="V164">
+        <v>2</v>
+      </c>
+      <c r="W164">
+        <v>-1</v>
+      </c>
+      <c r="X164">
+        <v>-1</v>
+      </c>
+      <c r="Y164">
+        <v>1.9</v>
+      </c>
+      <c r="Z164">
+        <v>-1</v>
+      </c>
+      <c r="AA164">
+        <v>0.75</v>
+      </c>
+      <c r="AB164">
+        <v>0.8</v>
+      </c>
+      <c r="AC164">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:29">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>7793497</v>
+      </c>
+      <c r="C165" t="s">
+        <v>28</v>
+      </c>
+      <c r="D165" t="s">
+        <v>28</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45366.85416666666</v>
+      </c>
+      <c r="F165" t="s">
+        <v>40</v>
+      </c>
+      <c r="G165" t="s">
+        <v>47</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>5</v>
+      </c>
+      <c r="J165" t="s">
+        <v>50</v>
+      </c>
+      <c r="K165">
+        <v>1.909</v>
+      </c>
+      <c r="L165">
+        <v>3.2</v>
+      </c>
+      <c r="M165">
+        <v>3.75</v>
+      </c>
+      <c r="N165">
+        <v>2.25</v>
+      </c>
+      <c r="O165">
+        <v>3.1</v>
+      </c>
+      <c r="P165">
+        <v>3</v>
+      </c>
+      <c r="Q165">
+        <v>-0.25</v>
+      </c>
+      <c r="R165">
+        <v>1.975</v>
+      </c>
+      <c r="S165">
+        <v>1.825</v>
+      </c>
+      <c r="T165">
+        <v>2.5</v>
+      </c>
+      <c r="U165">
+        <v>1.95</v>
+      </c>
+      <c r="V165">
+        <v>1.75</v>
+      </c>
+      <c r="W165">
+        <v>-1</v>
+      </c>
+      <c r="X165">
+        <v>-1</v>
+      </c>
+      <c r="Y165">
+        <v>2</v>
+      </c>
+      <c r="Z165">
+        <v>-1</v>
+      </c>
+      <c r="AA165">
+        <v>0.825</v>
+      </c>
+      <c r="AB165">
+        <v>0.95</v>
+      </c>
+      <c r="AC165">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>7793495</v>
+      </c>
+      <c r="C166" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166" t="s">
+        <v>28</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45367.75</v>
+      </c>
+      <c r="F166" t="s">
+        <v>38</v>
+      </c>
+      <c r="G166" t="s">
+        <v>39</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166" t="s">
+        <v>48</v>
+      </c>
+      <c r="K166">
+        <v>1.909</v>
+      </c>
+      <c r="L166">
+        <v>3.3</v>
+      </c>
+      <c r="M166">
+        <v>3.5</v>
+      </c>
+      <c r="N166">
+        <v>2.4</v>
+      </c>
+      <c r="O166">
+        <v>3</v>
+      </c>
+      <c r="P166">
+        <v>2.8</v>
+      </c>
+      <c r="Q166">
+        <v>0</v>
+      </c>
+      <c r="R166">
+        <v>1.75</v>
+      </c>
+      <c r="S166">
+        <v>2.05</v>
+      </c>
+      <c r="T166">
+        <v>2.25</v>
+      </c>
+      <c r="U166">
+        <v>1.775</v>
+      </c>
+      <c r="V166">
+        <v>2.025</v>
+      </c>
+      <c r="W166">
+        <v>1.4</v>
+      </c>
+      <c r="X166">
+        <v>-1</v>
+      </c>
+      <c r="Y166">
+        <v>-1</v>
+      </c>
+      <c r="Z166">
+        <v>0.75</v>
+      </c>
+      <c r="AA166">
+        <v>-1</v>
+      </c>
+      <c r="AB166">
+        <v>-1</v>
+      </c>
+      <c r="AC166">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="167" spans="1:29">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>7793498</v>
+      </c>
+      <c r="C167" t="s">
+        <v>28</v>
+      </c>
+      <c r="D167" t="s">
+        <v>28</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45368.75</v>
+      </c>
+      <c r="F167" t="s">
+        <v>36</v>
+      </c>
+      <c r="G167" t="s">
+        <v>34</v>
+      </c>
+      <c r="K167">
+        <v>2.1</v>
+      </c>
+      <c r="L167">
+        <v>3.2</v>
+      </c>
+      <c r="M167">
+        <v>3.2</v>
+      </c>
+      <c r="N167">
+        <v>1.95</v>
+      </c>
+      <c r="O167">
+        <v>3.4</v>
+      </c>
+      <c r="P167">
+        <v>3.4</v>
+      </c>
+      <c r="Q167">
+        <v>-0.5</v>
+      </c>
+      <c r="R167">
+        <v>2</v>
+      </c>
+      <c r="S167">
+        <v>1.8</v>
+      </c>
+      <c r="T167">
+        <v>2.25</v>
+      </c>
+      <c r="U167">
+        <v>1.775</v>
+      </c>
+      <c r="V167">
+        <v>2.025</v>
+      </c>
+      <c r="W167">
+        <v>0</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <v>0</v>
+      </c>
+      <c r="Z167">
+        <v>0</v>
+      </c>
+      <c r="AA167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:29">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>7792881</v>
+      </c>
+      <c r="C168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D168" t="s">
+        <v>28</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45368.85416666666</v>
+      </c>
+      <c r="F168" t="s">
+        <v>42</v>
+      </c>
+      <c r="G168" t="s">
+        <v>35</v>
+      </c>
+      <c r="K168">
+        <v>2.75</v>
+      </c>
+      <c r="L168">
+        <v>3.2</v>
+      </c>
+      <c r="M168">
+        <v>2.375</v>
+      </c>
+      <c r="N168">
+        <v>2.7</v>
+      </c>
+      <c r="O168">
+        <v>3.1</v>
+      </c>
+      <c r="P168">
+        <v>2.5</v>
+      </c>
+      <c r="Q168">
+        <v>0</v>
+      </c>
+      <c r="R168">
+        <v>1.975</v>
+      </c>
+      <c r="S168">
+        <v>1.825</v>
+      </c>
+      <c r="T168">
+        <v>2</v>
+      </c>
+      <c r="U168">
+        <v>1.775</v>
+      </c>
+      <c r="V168">
+        <v>2.025</v>
+      </c>
+      <c r="W168">
+        <v>0</v>
+      </c>
+      <c r="X168">
+        <v>0</v>
+      </c>
+      <c r="Y168">
+        <v>0</v>
+      </c>
+      <c r="Z168">
+        <v>0</v>
+      </c>
+      <c r="AA168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:29">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>7792882</v>
+      </c>
+      <c r="C169" t="s">
+        <v>28</v>
+      </c>
+      <c r="D169" t="s">
+        <v>28</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45369.75</v>
+      </c>
+      <c r="F169" t="s">
+        <v>37</v>
+      </c>
+      <c r="G169" t="s">
+        <v>43</v>
+      </c>
+      <c r="K169">
+        <v>1.8</v>
+      </c>
+      <c r="L169">
+        <v>3.4</v>
+      </c>
+      <c r="M169">
+        <v>4</v>
+      </c>
+      <c r="N169">
+        <v>1.85</v>
+      </c>
+      <c r="O169">
+        <v>3.4</v>
+      </c>
+      <c r="P169">
+        <v>3.75</v>
+      </c>
+      <c r="Q169">
+        <v>-0.5</v>
+      </c>
+      <c r="R169">
+        <v>1.9</v>
+      </c>
+      <c r="S169">
+        <v>1.9</v>
+      </c>
+      <c r="T169">
+        <v>2.5</v>
+      </c>
+      <c r="U169">
+        <v>1.95</v>
+      </c>
+      <c r="V169">
+        <v>1.85</v>
+      </c>
+      <c r="W169">
+        <v>0</v>
+      </c>
+      <c r="X169">
+        <v>0</v>
+      </c>
+      <c r="Y169">
+        <v>0</v>
+      </c>
+      <c r="Z169">
+        <v>0</v>
+      </c>
+      <c r="AA169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:29">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>7793613</v>
+      </c>
+      <c r="C170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D170" t="s">
+        <v>28</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45369.85416666666</v>
+      </c>
+      <c r="F170" t="s">
+        <v>32</v>
+      </c>
+      <c r="G170" t="s">
+        <v>46</v>
+      </c>
+      <c r="K170">
+        <v>2.75</v>
+      </c>
+      <c r="L170">
+        <v>3.2</v>
+      </c>
+      <c r="M170">
+        <v>2.375</v>
+      </c>
+      <c r="N170">
+        <v>2.8</v>
+      </c>
+      <c r="O170">
+        <v>3.2</v>
+      </c>
+      <c r="P170">
+        <v>2.3</v>
+      </c>
+      <c r="Q170">
+        <v>0.25</v>
+      </c>
+      <c r="R170">
+        <v>1.75</v>
+      </c>
+      <c r="S170">
+        <v>2.05</v>
+      </c>
+      <c r="T170">
+        <v>2.75</v>
+      </c>
+      <c r="U170">
+        <v>2</v>
+      </c>
+      <c r="V170">
+        <v>1.8</v>
+      </c>
+      <c r="W170">
+        <v>0</v>
+      </c>
+      <c r="X170">
+        <v>0</v>
+      </c>
+      <c r="Y170">
+        <v>0</v>
+      </c>
+      <c r="Z170">
+        <v>0</v>
+      </c>
+      <c r="AA170">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Chile Primera B/Chile Primera B.xlsx
+++ b/Chile Primera B/Chile Primera B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC170"/>
+  <dimension ref="A1:AC179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2761,7 +2761,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6156881</v>
+        <v>6156883</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2773,76 +2773,76 @@
         <v>45121.85416666666</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L26">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M26">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N26">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O26">
         <v>3.2</v>
       </c>
       <c r="P26">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V26">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y26">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2850,7 +2850,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6156883</v>
+        <v>6156881</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2862,76 +2862,76 @@
         <v>45121.85416666666</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M27">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N27">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O27">
         <v>3.2</v>
       </c>
       <c r="P27">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V27">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2939,7 +2939,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6156882</v>
+        <v>6155942</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2951,76 +2951,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L28">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M28">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="N28">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O28">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S28">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.425</v>
+        <v>0.7</v>
       </c>
       <c r="AB28">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3028,7 +3028,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6155942</v>
+        <v>6156882</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3040,76 +3040,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K29">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="L29">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M29">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N29">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O29">
+        <v>3.1</v>
+      </c>
+      <c r="P29">
         <v>3</v>
       </c>
-      <c r="P29">
-        <v>2.45</v>
-      </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S29">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V29">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y29">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA29">
-        <v>0.7</v>
+        <v>0.425</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC29">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -4274,7 +4274,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6155945</v>
+        <v>6393620</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4286,73 +4286,73 @@
         <v>45136.5625</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K43">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L43">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M43">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N43">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="O43">
         <v>3.25</v>
       </c>
       <c r="P43">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S43">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T43">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X43">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA43">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB43">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4363,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6393620</v>
+        <v>6155945</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4375,73 +4375,73 @@
         <v>45136.5625</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K44">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L44">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N44">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="O44">
         <v>3.25</v>
       </c>
       <c r="P44">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB44">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -5876,7 +5876,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6156906</v>
+        <v>6156905</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5888,76 +5888,76 @@
         <v>45150.5625</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K61">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L61">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M61">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N61">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O61">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P61">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S61">
+        <v>1.925</v>
+      </c>
+      <c r="T61">
+        <v>2.75</v>
+      </c>
+      <c r="U61">
         <v>1.975</v>
       </c>
-      <c r="T61">
-        <v>2.25</v>
-      </c>
-      <c r="U61">
-        <v>1.8</v>
-      </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA61">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6156905</v>
+        <v>6156906</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5977,76 +5977,76 @@
         <v>45150.5625</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L62">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M62">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N62">
+        <v>1.95</v>
+      </c>
+      <c r="O62">
+        <v>3.1</v>
+      </c>
+      <c r="P62">
+        <v>3.75</v>
+      </c>
+      <c r="Q62">
+        <v>-0.25</v>
+      </c>
+      <c r="R62">
+        <v>1.725</v>
+      </c>
+      <c r="S62">
+        <v>1.975</v>
+      </c>
+      <c r="T62">
+        <v>2.25</v>
+      </c>
+      <c r="U62">
         <v>1.8</v>
       </c>
-      <c r="O62">
-        <v>3.3</v>
-      </c>
-      <c r="P62">
-        <v>3.8</v>
-      </c>
-      <c r="Q62">
-        <v>-0.5</v>
-      </c>
-      <c r="R62">
-        <v>1.875</v>
-      </c>
-      <c r="S62">
-        <v>1.925</v>
-      </c>
-      <c r="T62">
+      <c r="V62">
+        <v>2</v>
+      </c>
+      <c r="W62">
+        <v>-1</v>
+      </c>
+      <c r="X62">
+        <v>-1</v>
+      </c>
+      <c r="Y62">
         <v>2.75</v>
       </c>
-      <c r="U62">
-        <v>1.975</v>
-      </c>
-      <c r="V62">
-        <v>1.825</v>
-      </c>
-      <c r="W62">
+      <c r="Z62">
+        <v>-1</v>
+      </c>
+      <c r="AA62">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB62">
         <v>0.8</v>
       </c>
-      <c r="X62">
-        <v>-1</v>
-      </c>
-      <c r="Y62">
-        <v>-1</v>
-      </c>
-      <c r="Z62">
-        <v>0.875</v>
-      </c>
-      <c r="AA62">
-        <v>-1</v>
-      </c>
-      <c r="AB62">
-        <v>0.4875</v>
-      </c>
       <c r="AC62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6944,7 +6944,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6155954</v>
+        <v>6156180</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6956,76 +6956,76 @@
         <v>45165.5625</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K73">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L73">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M73">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N73">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O73">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P73">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q73">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S73">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T73">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U73">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7033,7 +7033,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6156180</v>
+        <v>6155954</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7045,76 +7045,76 @@
         <v>45165.5625</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K74">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M74">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N74">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O74">
+        <v>3.2</v>
+      </c>
+      <c r="P74">
         <v>3.75</v>
       </c>
-      <c r="P74">
-        <v>4</v>
-      </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V74">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W74">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z74">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC74">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7122,7 +7122,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6155953</v>
+        <v>6156912</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7134,13 +7134,13 @@
         <v>45165.66666666666</v>
       </c>
       <c r="F75" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
         <v>3</v>
@@ -7149,22 +7149,22 @@
         <v>50</v>
       </c>
       <c r="K75">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="L75">
         <v>3</v>
       </c>
       <c r="M75">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="N75">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O75">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P75">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q75">
         <v>-0.25</v>
@@ -7176,13 +7176,13 @@
         <v>1.85</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V75">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7191,7 +7191,7 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z75">
         <v>-1</v>
@@ -7200,10 +7200,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB75">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AC75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7211,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6156912</v>
+        <v>6155953</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7223,13 +7223,13 @@
         <v>45165.66666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>3</v>
@@ -7238,22 +7238,22 @@
         <v>50</v>
       </c>
       <c r="K76">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="L76">
         <v>3</v>
       </c>
       <c r="M76">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="N76">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O76">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P76">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q76">
         <v>-0.25</v>
@@ -7265,13 +7265,13 @@
         <v>1.85</v>
       </c>
       <c r="T76">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V76">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7280,7 +7280,7 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z76">
         <v>-1</v>
@@ -7289,10 +7289,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB76">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -9436,7 +9436,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6156183</v>
+        <v>6155958</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9448,76 +9448,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101" t="s">
+        <v>49</v>
+      </c>
+      <c r="K101">
         <v>3</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101" t="s">
-        <v>48</v>
-      </c>
-      <c r="K101">
-        <v>2.2</v>
       </c>
       <c r="L101">
         <v>3.2</v>
       </c>
       <c r="M101">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N101">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O101">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P101">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q101">
         <v>-0.25</v>
       </c>
       <c r="R101">
+        <v>1.825</v>
+      </c>
+      <c r="S101">
+        <v>1.975</v>
+      </c>
+      <c r="T101">
+        <v>2.5</v>
+      </c>
+      <c r="U101">
         <v>1.95</v>
       </c>
-      <c r="S101">
-        <v>1.85</v>
-      </c>
-      <c r="T101">
-        <v>2.25</v>
-      </c>
-      <c r="U101">
-        <v>1.8</v>
-      </c>
       <c r="V101">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W101">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB101">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9525,7 +9525,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6155958</v>
+        <v>6156183</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9537,76 +9537,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K102">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L102">
         <v>3.2</v>
       </c>
       <c r="M102">
+        <v>3</v>
+      </c>
+      <c r="N102">
         <v>2.2</v>
       </c>
-      <c r="N102">
-        <v>2.05</v>
-      </c>
       <c r="O102">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P102">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q102">
         <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T102">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V102">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X102">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA102">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC102">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10415,7 +10415,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6156937</v>
+        <v>6156938</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10427,76 +10427,76 @@
         <v>45201.89583333334</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G112" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K112">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L112">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N112">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="O112">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P112">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R112">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W112">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z112">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB112">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10504,7 +10504,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6156938</v>
+        <v>6156937</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10516,76 +10516,76 @@
         <v>45201.89583333334</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G113" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K113">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L113">
+        <v>3.2</v>
+      </c>
+      <c r="M113">
+        <v>3.2</v>
+      </c>
+      <c r="N113">
+        <v>2.05</v>
+      </c>
+      <c r="O113">
+        <v>3.2</v>
+      </c>
+      <c r="P113">
         <v>3.5</v>
       </c>
-      <c r="M113">
-        <v>4</v>
-      </c>
-      <c r="N113">
-        <v>1.571</v>
-      </c>
-      <c r="O113">
-        <v>3.75</v>
-      </c>
-      <c r="P113">
-        <v>4.75</v>
-      </c>
       <c r="Q113">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S113">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T113">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V113">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA113">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC113">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10949,7 +10949,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6156184</v>
+        <v>6156943</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10961,58 +10961,58 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>48</v>
       </c>
       <c r="K118">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L118">
         <v>3.2</v>
       </c>
       <c r="M118">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N118">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="O118">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P118">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R118">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S118">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
-        <v>1.7</v>
+        <v>0.909</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11021,16 +11021,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11038,7 +11038,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6156939</v>
+        <v>6156941</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11050,76 +11050,76 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H119">
         <v>1</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K119">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L119">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M119">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N119">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="O119">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P119">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S119">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V119">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA119">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11127,7 +11127,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6156943</v>
+        <v>6156184</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11139,58 +11139,58 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J120" t="s">
         <v>48</v>
       </c>
       <c r="K120">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L120">
         <v>3.2</v>
       </c>
       <c r="M120">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="N120">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O120">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P120">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R120">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S120">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V120">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
-        <v>0.909</v>
+        <v>1.7</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11199,16 +11199,16 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC120">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6156941</v>
+        <v>6156939</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,76 +11228,76 @@
         <v>45208.72916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
       <c r="I121">
+        <v>2</v>
+      </c>
+      <c r="J121" t="s">
+        <v>50</v>
+      </c>
+      <c r="K121">
+        <v>2.375</v>
+      </c>
+      <c r="L121">
+        <v>3.1</v>
+      </c>
+      <c r="M121">
+        <v>2.75</v>
+      </c>
+      <c r="N121">
+        <v>2.45</v>
+      </c>
+      <c r="O121">
+        <v>3.2</v>
+      </c>
+      <c r="P121">
+        <v>2.625</v>
+      </c>
+      <c r="Q121">
         <v>0</v>
       </c>
-      <c r="J121" t="s">
-        <v>48</v>
-      </c>
-      <c r="K121">
-        <v>1.8</v>
-      </c>
-      <c r="L121">
-        <v>3.3</v>
-      </c>
-      <c r="M121">
-        <v>4</v>
-      </c>
-      <c r="N121">
-        <v>1.615</v>
-      </c>
-      <c r="O121">
-        <v>3.6</v>
-      </c>
-      <c r="P121">
-        <v>4.75</v>
-      </c>
-      <c r="Q121">
-        <v>-0.75</v>
-      </c>
       <c r="R121">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S121">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T121">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V121">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W121">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z121">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC121">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11305,7 +11305,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7327838</v>
+        <v>7327855</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11317,76 +11317,76 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122" t="s">
+        <v>50</v>
+      </c>
+      <c r="K122">
+        <v>2.1</v>
+      </c>
+      <c r="L122">
+        <v>3.4</v>
+      </c>
+      <c r="M122">
         <v>3</v>
       </c>
-      <c r="I122">
-        <v>3</v>
-      </c>
-      <c r="J122" t="s">
-        <v>49</v>
-      </c>
-      <c r="K122">
-        <v>2</v>
-      </c>
-      <c r="L122">
-        <v>3.3</v>
-      </c>
-      <c r="M122">
-        <v>3.2</v>
-      </c>
       <c r="N122">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="O122">
         <v>3.3</v>
       </c>
       <c r="P122">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T122">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V122">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB122">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11394,7 +11394,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7327856</v>
+        <v>7327838</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11406,76 +11406,76 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K123">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L123">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M123">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N123">
+        <v>2.1</v>
+      </c>
+      <c r="O123">
+        <v>3.3</v>
+      </c>
+      <c r="P123">
+        <v>3</v>
+      </c>
+      <c r="Q123">
+        <v>-0.25</v>
+      </c>
+      <c r="R123">
+        <v>1.9</v>
+      </c>
+      <c r="S123">
+        <v>1.9</v>
+      </c>
+      <c r="T123">
+        <v>3</v>
+      </c>
+      <c r="U123">
+        <v>2</v>
+      </c>
+      <c r="V123">
         <v>1.8</v>
       </c>
-      <c r="O123">
-        <v>3.4</v>
-      </c>
-      <c r="P123">
-        <v>3.75</v>
-      </c>
-      <c r="Q123">
+      <c r="W123">
+        <v>-1</v>
+      </c>
+      <c r="X123">
+        <v>2.3</v>
+      </c>
+      <c r="Y123">
+        <v>-1</v>
+      </c>
+      <c r="Z123">
         <v>-0.5</v>
       </c>
-      <c r="R123">
-        <v>1.85</v>
-      </c>
-      <c r="S123">
-        <v>1.95</v>
-      </c>
-      <c r="T123">
-        <v>2.25</v>
-      </c>
-      <c r="U123">
-        <v>1.75</v>
-      </c>
-      <c r="V123">
-        <v>1.95</v>
-      </c>
-      <c r="W123">
-        <v>-1</v>
-      </c>
-      <c r="X123">
-        <v>-1</v>
-      </c>
-      <c r="Y123">
-        <v>2.75</v>
-      </c>
-      <c r="Z123">
-        <v>-1</v>
-      </c>
       <c r="AA123">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC123">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11483,7 +11483,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7327855</v>
+        <v>7327856</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11495,10 +11495,10 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11510,37 +11510,37 @@
         <v>50</v>
       </c>
       <c r="K124">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L124">
+        <v>3.5</v>
+      </c>
+      <c r="M124">
+        <v>4</v>
+      </c>
+      <c r="N124">
+        <v>1.8</v>
+      </c>
+      <c r="O124">
         <v>3.4</v>
       </c>
-      <c r="M124">
-        <v>3</v>
-      </c>
-      <c r="N124">
-        <v>2.625</v>
-      </c>
-      <c r="O124">
-        <v>3.3</v>
-      </c>
       <c r="P124">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S124">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V124">
         <v>1.95</v>
@@ -11552,13 +11552,13 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB124">
         <v>-1</v>
@@ -11661,7 +11661,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7327840</v>
+        <v>7327842</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11673,76 +11673,76 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K126">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="L126">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M126">
+        <v>5</v>
+      </c>
+      <c r="N126">
+        <v>1.7</v>
+      </c>
+      <c r="O126">
+        <v>3.75</v>
+      </c>
+      <c r="P126">
         <v>4</v>
       </c>
-      <c r="N126">
-        <v>2</v>
-      </c>
-      <c r="O126">
-        <v>2.9</v>
-      </c>
-      <c r="P126">
-        <v>3.75</v>
-      </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R126">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S126">
+        <v>1.9</v>
+      </c>
+      <c r="T126">
+        <v>2.25</v>
+      </c>
+      <c r="U126">
+        <v>1.825</v>
+      </c>
+      <c r="V126">
         <v>1.975</v>
       </c>
-      <c r="T126">
-        <v>2.5</v>
-      </c>
-      <c r="U126">
-        <v>1.85</v>
-      </c>
-      <c r="V126">
-        <v>1.95</v>
-      </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA126">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC126">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11839,7 +11839,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7327842</v>
+        <v>7327841</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11851,58 +11851,58 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128" t="s">
         <v>48</v>
       </c>
       <c r="K128">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M128">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N128">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O128">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P128">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R128">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S128">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U128">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V128">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W128">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11911,13 +11911,13 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA128">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11928,7 +11928,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7327841</v>
+        <v>7327840</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11940,43 +11940,43 @@
         <v>45214.52083333334</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K129">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L129">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M129">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N129">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O129">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P129">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q129">
         <v>-0.25</v>
       </c>
       <c r="R129">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S129">
         <v>1.975</v>
@@ -11985,31 +11985,31 @@
         <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z129">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB129">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12729,7 +12729,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7503209</v>
+        <v>7503210</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12741,13 +12741,13 @@
         <v>45256.75</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -12759,37 +12759,37 @@
         <v>2.2</v>
       </c>
       <c r="L138">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M138">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N138">
         <v>2.15</v>
       </c>
       <c r="O138">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P138">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q138">
         <v>-0.25</v>
       </c>
       <c r="R138">
+        <v>1.925</v>
+      </c>
+      <c r="S138">
+        <v>1.875</v>
+      </c>
+      <c r="T138">
+        <v>2.5</v>
+      </c>
+      <c r="U138">
         <v>1.975</v>
       </c>
-      <c r="S138">
+      <c r="V138">
         <v>1.825</v>
-      </c>
-      <c r="T138">
-        <v>2.75</v>
-      </c>
-      <c r="U138">
-        <v>1.85</v>
-      </c>
-      <c r="V138">
-        <v>1.95</v>
       </c>
       <c r="W138">
         <v>1.15</v>
@@ -12801,16 +12801,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA138">
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7503210</v>
+        <v>7503209</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,13 +12830,13 @@
         <v>45256.75</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -12848,37 +12848,37 @@
         <v>2.2</v>
       </c>
       <c r="L139">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M139">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N139">
         <v>2.15</v>
       </c>
       <c r="O139">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P139">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q139">
         <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S139">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T139">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V139">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W139">
         <v>1.15</v>
@@ -12890,16 +12890,16 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC139">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -14331,7 +14331,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7793612</v>
+        <v>7794219</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14343,49 +14343,49 @@
         <v>45359.75</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G156" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
         <v>50</v>
       </c>
       <c r="K156">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L156">
         <v>3.3</v>
       </c>
       <c r="M156">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N156">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="O156">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P156">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Q156">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S156">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T156">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
         <v>1.975</v>
@@ -14400,19 +14400,19 @@
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB156">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14420,7 +14420,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7794219</v>
+        <v>7793612</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14432,49 +14432,49 @@
         <v>45359.75</v>
       </c>
       <c r="F157" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G157" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
         <v>50</v>
       </c>
       <c r="K157">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L157">
         <v>3.3</v>
       </c>
       <c r="M157">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N157">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="O157">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P157">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R157">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S157">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T157">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
         <v>1.975</v>
@@ -14489,19 +14489,19 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC157">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14509,7 +14509,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7793493</v>
+        <v>7793492</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14521,76 +14521,76 @@
         <v>45359.85416666666</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G158" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K158">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L158">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N158">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="O158">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P158">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q158">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S158">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U158">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V158">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W158">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z158">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC158">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14598,7 +14598,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7793492</v>
+        <v>7793493</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14610,76 +14610,76 @@
         <v>45359.85416666666</v>
       </c>
       <c r="F159" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G159" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K159">
+        <v>2</v>
+      </c>
+      <c r="L159">
+        <v>3.3</v>
+      </c>
+      <c r="M159">
+        <v>3.3</v>
+      </c>
+      <c r="N159">
+        <v>1.85</v>
+      </c>
+      <c r="O159">
+        <v>3.5</v>
+      </c>
+      <c r="P159">
+        <v>3.6</v>
+      </c>
+      <c r="Q159">
+        <v>-0.5</v>
+      </c>
+      <c r="R159">
+        <v>1.925</v>
+      </c>
+      <c r="S159">
+        <v>1.875</v>
+      </c>
+      <c r="T159">
+        <v>2.75</v>
+      </c>
+      <c r="U159">
+        <v>2</v>
+      </c>
+      <c r="V159">
         <v>1.8</v>
       </c>
-      <c r="L159">
-        <v>3.4</v>
-      </c>
-      <c r="M159">
-        <v>4</v>
-      </c>
-      <c r="N159">
-        <v>2.3</v>
-      </c>
-      <c r="O159">
-        <v>3.1</v>
-      </c>
-      <c r="P159">
-        <v>2.9</v>
-      </c>
-      <c r="Q159">
-        <v>-0.25</v>
-      </c>
-      <c r="R159">
-        <v>2.025</v>
-      </c>
-      <c r="S159">
-        <v>1.775</v>
-      </c>
-      <c r="T159">
-        <v>2.5</v>
-      </c>
-      <c r="U159">
-        <v>1.975</v>
-      </c>
-      <c r="V159">
-        <v>1.825</v>
-      </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA159">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -15310,7 +15310,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7793498</v>
+        <v>7793494</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,64 +15319,79 @@
         <v>28</v>
       </c>
       <c r="E167" s="2">
-        <v>45368.75</v>
+        <v>45367.85416666666</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G167" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167" t="s">
+        <v>48</v>
       </c>
       <c r="K167">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L167">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M167">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N167">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O167">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P167">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R167">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S167">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V167">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W167">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X167">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA167">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB167">
+        <v>-1</v>
+      </c>
+      <c r="AC167">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15384,7 +15399,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7792881</v>
+        <v>7793498</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15393,64 +15408,79 @@
         <v>28</v>
       </c>
       <c r="E168" s="2">
-        <v>45368.85416666666</v>
+        <v>45368.75</v>
       </c>
       <c r="F168" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168">
+        <v>2</v>
+      </c>
+      <c r="J168" t="s">
+        <v>50</v>
       </c>
       <c r="K168">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L168">
         <v>3.2</v>
       </c>
       <c r="M168">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="N168">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="O168">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P168">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q168">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
+        <v>1.85</v>
+      </c>
+      <c r="S168">
+        <v>1.95</v>
+      </c>
+      <c r="T168">
+        <v>2.25</v>
+      </c>
+      <c r="U168">
+        <v>1.825</v>
+      </c>
+      <c r="V168">
         <v>1.975</v>
       </c>
-      <c r="S168">
-        <v>1.825</v>
-      </c>
-      <c r="T168">
-        <v>2</v>
-      </c>
-      <c r="U168">
-        <v>1.775</v>
-      </c>
-      <c r="V168">
-        <v>2.025</v>
-      </c>
       <c r="W168">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="Z168">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB168">
+        <v>0.825</v>
+      </c>
+      <c r="AC168">
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15458,7 +15488,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7792882</v>
+        <v>7792881</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15467,64 +15497,79 @@
         <v>28</v>
       </c>
       <c r="E169" s="2">
-        <v>45369.75</v>
+        <v>45368.75</v>
       </c>
       <c r="F169" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G169" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169">
+        <v>2</v>
+      </c>
+      <c r="J169" t="s">
+        <v>50</v>
       </c>
       <c r="K169">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L169">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M169">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N169">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="O169">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P169">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q169">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R169">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S169">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T169">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U169">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V169">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Z169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0</v>
+        <v>0.75</v>
+      </c>
+      <c r="AB169">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AC169">
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15532,73 +15577,889 @@
         <v>168</v>
       </c>
       <c r="B170">
+        <v>7792882</v>
+      </c>
+      <c r="C170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D170" t="s">
+        <v>28</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45369.75</v>
+      </c>
+      <c r="F170" t="s">
+        <v>37</v>
+      </c>
+      <c r="G170" t="s">
+        <v>43</v>
+      </c>
+      <c r="H170">
+        <v>2</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170" t="s">
+        <v>48</v>
+      </c>
+      <c r="K170">
+        <v>1.8</v>
+      </c>
+      <c r="L170">
+        <v>3.4</v>
+      </c>
+      <c r="M170">
+        <v>4</v>
+      </c>
+      <c r="N170">
+        <v>1.909</v>
+      </c>
+      <c r="O170">
+        <v>3.3</v>
+      </c>
+      <c r="P170">
+        <v>3.6</v>
+      </c>
+      <c r="Q170">
+        <v>-0.5</v>
+      </c>
+      <c r="R170">
+        <v>1.95</v>
+      </c>
+      <c r="S170">
+        <v>1.85</v>
+      </c>
+      <c r="T170">
+        <v>2.5</v>
+      </c>
+      <c r="U170">
+        <v>1.975</v>
+      </c>
+      <c r="V170">
+        <v>1.825</v>
+      </c>
+      <c r="W170">
+        <v>0.909</v>
+      </c>
+      <c r="X170">
+        <v>-1</v>
+      </c>
+      <c r="Y170">
+        <v>-1</v>
+      </c>
+      <c r="Z170">
+        <v>0.95</v>
+      </c>
+      <c r="AA170">
+        <v>-1</v>
+      </c>
+      <c r="AB170">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC170">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
         <v>7793613</v>
       </c>
-      <c r="C170" t="s">
-        <v>28</v>
-      </c>
-      <c r="D170" t="s">
-        <v>28</v>
-      </c>
-      <c r="E170" s="2">
+      <c r="C171" t="s">
+        <v>28</v>
+      </c>
+      <c r="D171" t="s">
+        <v>28</v>
+      </c>
+      <c r="E171" s="2">
         <v>45369.85416666666</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F171" t="s">
         <v>32</v>
       </c>
-      <c r="G170" t="s">
+      <c r="G171" t="s">
         <v>46</v>
       </c>
-      <c r="K170">
+      <c r="H171">
+        <v>2</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171" t="s">
+        <v>48</v>
+      </c>
+      <c r="K171">
         <v>2.75</v>
       </c>
-      <c r="L170">
+      <c r="L171">
         <v>3.2</v>
       </c>
-      <c r="M170">
+      <c r="M171">
         <v>2.375</v>
       </c>
-      <c r="N170">
-        <v>2.8</v>
-      </c>
-      <c r="O170">
+      <c r="N171">
+        <v>2.625</v>
+      </c>
+      <c r="O171">
+        <v>3.1</v>
+      </c>
+      <c r="P171">
+        <v>2.55</v>
+      </c>
+      <c r="Q171">
+        <v>0</v>
+      </c>
+      <c r="R171">
+        <v>1.975</v>
+      </c>
+      <c r="S171">
+        <v>1.825</v>
+      </c>
+      <c r="T171">
+        <v>2.5</v>
+      </c>
+      <c r="U171">
+        <v>1.95</v>
+      </c>
+      <c r="V171">
+        <v>1.85</v>
+      </c>
+      <c r="W171">
+        <v>1.625</v>
+      </c>
+      <c r="X171">
+        <v>-1</v>
+      </c>
+      <c r="Y171">
+        <v>-1</v>
+      </c>
+      <c r="Z171">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA171">
+        <v>-1</v>
+      </c>
+      <c r="AB171">
+        <v>0.95</v>
+      </c>
+      <c r="AC171">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:29">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>7793614</v>
+      </c>
+      <c r="C172" t="s">
+        <v>28</v>
+      </c>
+      <c r="D172" t="s">
+        <v>28</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45374.5</v>
+      </c>
+      <c r="F172" t="s">
+        <v>33</v>
+      </c>
+      <c r="G172" t="s">
+        <v>37</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172" t="s">
+        <v>49</v>
+      </c>
+      <c r="K172">
+        <v>2.2</v>
+      </c>
+      <c r="L172">
+        <v>3.3</v>
+      </c>
+      <c r="M172">
+        <v>2.9</v>
+      </c>
+      <c r="N172">
+        <v>2.375</v>
+      </c>
+      <c r="O172">
         <v>3.2</v>
       </c>
-      <c r="P170">
+      <c r="P172">
+        <v>2.9</v>
+      </c>
+      <c r="Q172">
+        <v>-0.25</v>
+      </c>
+      <c r="R172">
+        <v>1.975</v>
+      </c>
+      <c r="S172">
+        <v>1.725</v>
+      </c>
+      <c r="T172">
+        <v>2.5</v>
+      </c>
+      <c r="U172">
+        <v>1.975</v>
+      </c>
+      <c r="V172">
+        <v>1.825</v>
+      </c>
+      <c r="W172">
+        <v>-1</v>
+      </c>
+      <c r="X172">
+        <v>2.2</v>
+      </c>
+      <c r="Y172">
+        <v>-1</v>
+      </c>
+      <c r="Z172">
+        <v>-0.5</v>
+      </c>
+      <c r="AA172">
+        <v>0.3625</v>
+      </c>
+      <c r="AB172">
+        <v>-1</v>
+      </c>
+      <c r="AC172">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="173" spans="1:29">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>7793500</v>
+      </c>
+      <c r="C173" t="s">
+        <v>28</v>
+      </c>
+      <c r="D173" t="s">
+        <v>28</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45374.75</v>
+      </c>
+      <c r="F173" t="s">
+        <v>34</v>
+      </c>
+      <c r="G173" t="s">
+        <v>45</v>
+      </c>
+      <c r="H173">
+        <v>2</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173" t="s">
+        <v>48</v>
+      </c>
+      <c r="K173">
+        <v>2.5</v>
+      </c>
+      <c r="L173">
+        <v>3.5</v>
+      </c>
+      <c r="M173">
+        <v>2.375</v>
+      </c>
+      <c r="N173">
+        <v>2.45</v>
+      </c>
+      <c r="O173">
+        <v>3.5</v>
+      </c>
+      <c r="P173">
+        <v>2.4</v>
+      </c>
+      <c r="Q173">
+        <v>0</v>
+      </c>
+      <c r="R173">
+        <v>1.875</v>
+      </c>
+      <c r="S173">
+        <v>1.925</v>
+      </c>
+      <c r="T173">
+        <v>2.5</v>
+      </c>
+      <c r="U173">
+        <v>1.975</v>
+      </c>
+      <c r="V173">
+        <v>1.825</v>
+      </c>
+      <c r="W173">
+        <v>1.45</v>
+      </c>
+      <c r="X173">
+        <v>-1</v>
+      </c>
+      <c r="Y173">
+        <v>-1</v>
+      </c>
+      <c r="Z173">
+        <v>0.875</v>
+      </c>
+      <c r="AA173">
+        <v>-1</v>
+      </c>
+      <c r="AB173">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC173">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>7792883</v>
+      </c>
+      <c r="C174" t="s">
+        <v>28</v>
+      </c>
+      <c r="D174" t="s">
+        <v>28</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45374.75</v>
+      </c>
+      <c r="F174" t="s">
+        <v>36</v>
+      </c>
+      <c r="G174" t="s">
+        <v>42</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>2</v>
+      </c>
+      <c r="J174" t="s">
+        <v>50</v>
+      </c>
+      <c r="K174">
+        <v>1.8</v>
+      </c>
+      <c r="L174">
+        <v>3.3</v>
+      </c>
+      <c r="M174">
+        <v>4</v>
+      </c>
+      <c r="N174">
+        <v>2.05</v>
+      </c>
+      <c r="O174">
+        <v>3.2</v>
+      </c>
+      <c r="P174">
+        <v>3.3</v>
+      </c>
+      <c r="Q174">
+        <v>-0.25</v>
+      </c>
+      <c r="R174">
+        <v>1.8</v>
+      </c>
+      <c r="S174">
+        <v>2</v>
+      </c>
+      <c r="T174">
+        <v>2.25</v>
+      </c>
+      <c r="U174">
+        <v>1.8</v>
+      </c>
+      <c r="V174">
+        <v>2</v>
+      </c>
+      <c r="W174">
+        <v>-1</v>
+      </c>
+      <c r="X174">
+        <v>-1</v>
+      </c>
+      <c r="Y174">
         <v>2.3</v>
       </c>
-      <c r="Q170">
-        <v>0.25</v>
-      </c>
-      <c r="R170">
+      <c r="Z174">
+        <v>-1</v>
+      </c>
+      <c r="AA174">
+        <v>1</v>
+      </c>
+      <c r="AB174">
+        <v>-0.5</v>
+      </c>
+      <c r="AC174">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>7792885</v>
+      </c>
+      <c r="C175" t="s">
+        <v>28</v>
+      </c>
+      <c r="D175" t="s">
+        <v>28</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45374.85416666666</v>
+      </c>
+      <c r="F175" t="s">
+        <v>43</v>
+      </c>
+      <c r="G175" t="s">
+        <v>40</v>
+      </c>
+      <c r="H175">
+        <v>2</v>
+      </c>
+      <c r="I175">
+        <v>4</v>
+      </c>
+      <c r="J175" t="s">
+        <v>50</v>
+      </c>
+      <c r="K175">
+        <v>1.8</v>
+      </c>
+      <c r="L175">
+        <v>3.2</v>
+      </c>
+      <c r="M175">
+        <v>4.333</v>
+      </c>
+      <c r="N175">
+        <v>2.15</v>
+      </c>
+      <c r="O175">
+        <v>3</v>
+      </c>
+      <c r="P175">
+        <v>3.3</v>
+      </c>
+      <c r="Q175">
+        <v>-0.25</v>
+      </c>
+      <c r="R175">
+        <v>1.9</v>
+      </c>
+      <c r="S175">
+        <v>1.9</v>
+      </c>
+      <c r="T175">
+        <v>2.25</v>
+      </c>
+      <c r="U175">
         <v>1.75</v>
       </c>
-      <c r="S170">
-        <v>2.05</v>
-      </c>
-      <c r="T170">
-        <v>2.75</v>
-      </c>
-      <c r="U170">
-        <v>2</v>
-      </c>
-      <c r="V170">
+      <c r="V175">
+        <v>1.95</v>
+      </c>
+      <c r="W175">
+        <v>-1</v>
+      </c>
+      <c r="X175">
+        <v>-1</v>
+      </c>
+      <c r="Y175">
+        <v>2.3</v>
+      </c>
+      <c r="Z175">
+        <v>-1</v>
+      </c>
+      <c r="AA175">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB175">
+        <v>0.75</v>
+      </c>
+      <c r="AC175">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>7793502</v>
+      </c>
+      <c r="C176" t="s">
+        <v>28</v>
+      </c>
+      <c r="D176" t="s">
+        <v>28</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45375.5</v>
+      </c>
+      <c r="F176" t="s">
+        <v>39</v>
+      </c>
+      <c r="G176" t="s">
+        <v>29</v>
+      </c>
+      <c r="H176">
+        <v>2</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176" t="s">
+        <v>48</v>
+      </c>
+      <c r="K176">
+        <v>2.2</v>
+      </c>
+      <c r="L176">
+        <v>3.2</v>
+      </c>
+      <c r="M176">
+        <v>3</v>
+      </c>
+      <c r="N176">
+        <v>1.909</v>
+      </c>
+      <c r="O176">
+        <v>3.4</v>
+      </c>
+      <c r="P176">
+        <v>3.6</v>
+      </c>
+      <c r="Q176">
+        <v>-0.25</v>
+      </c>
+      <c r="R176">
+        <v>1.775</v>
+      </c>
+      <c r="S176">
+        <v>1.925</v>
+      </c>
+      <c r="T176">
+        <v>2.5</v>
+      </c>
+      <c r="U176">
+        <v>1.9</v>
+      </c>
+      <c r="V176">
+        <v>1.9</v>
+      </c>
+      <c r="W176">
+        <v>0.909</v>
+      </c>
+      <c r="X176">
+        <v>-1</v>
+      </c>
+      <c r="Y176">
+        <v>-1</v>
+      </c>
+      <c r="Z176">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA176">
+        <v>-1</v>
+      </c>
+      <c r="AB176">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC176">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:29">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>7792884</v>
+      </c>
+      <c r="C177" t="s">
+        <v>28</v>
+      </c>
+      <c r="D177" t="s">
+        <v>28</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45375.75</v>
+      </c>
+      <c r="F177" t="s">
+        <v>35</v>
+      </c>
+      <c r="G177" t="s">
+        <v>38</v>
+      </c>
+      <c r="H177">
+        <v>2</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177" t="s">
+        <v>48</v>
+      </c>
+      <c r="K177">
+        <v>1.727</v>
+      </c>
+      <c r="L177">
+        <v>3.6</v>
+      </c>
+      <c r="M177">
+        <v>4</v>
+      </c>
+      <c r="N177">
+        <v>1.727</v>
+      </c>
+      <c r="O177">
+        <v>3.3</v>
+      </c>
+      <c r="P177">
+        <v>4.2</v>
+      </c>
+      <c r="Q177">
+        <v>-0.5</v>
+      </c>
+      <c r="R177">
         <v>1.8</v>
       </c>
-      <c r="W170">
+      <c r="S177">
+        <v>2</v>
+      </c>
+      <c r="T177">
+        <v>2.5</v>
+      </c>
+      <c r="U177">
+        <v>1.95</v>
+      </c>
+      <c r="V177">
+        <v>1.75</v>
+      </c>
+      <c r="W177">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X177">
+        <v>-1</v>
+      </c>
+      <c r="Y177">
+        <v>-1</v>
+      </c>
+      <c r="Z177">
+        <v>0.8</v>
+      </c>
+      <c r="AA177">
+        <v>-1</v>
+      </c>
+      <c r="AB177">
+        <v>0.95</v>
+      </c>
+      <c r="AC177">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>7793501</v>
+      </c>
+      <c r="C178" t="s">
+        <v>28</v>
+      </c>
+      <c r="D178" t="s">
+        <v>28</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45375.75</v>
+      </c>
+      <c r="F178" t="s">
+        <v>46</v>
+      </c>
+      <c r="G178" t="s">
+        <v>44</v>
+      </c>
+      <c r="H178">
+        <v>2</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178" t="s">
+        <v>48</v>
+      </c>
+      <c r="K178">
+        <v>2.3</v>
+      </c>
+      <c r="L178">
+        <v>3.4</v>
+      </c>
+      <c r="M178">
+        <v>2.625</v>
+      </c>
+      <c r="N178">
+        <v>1.909</v>
+      </c>
+      <c r="O178">
+        <v>3.6</v>
+      </c>
+      <c r="P178">
+        <v>3.3</v>
+      </c>
+      <c r="Q178">
+        <v>-0.5</v>
+      </c>
+      <c r="R178">
+        <v>1.925</v>
+      </c>
+      <c r="S178">
+        <v>1.875</v>
+      </c>
+      <c r="T178">
+        <v>2.5</v>
+      </c>
+      <c r="U178">
+        <v>1.9</v>
+      </c>
+      <c r="V178">
+        <v>1.9</v>
+      </c>
+      <c r="W178">
+        <v>0.909</v>
+      </c>
+      <c r="X178">
+        <v>-1</v>
+      </c>
+      <c r="Y178">
+        <v>-1</v>
+      </c>
+      <c r="Z178">
+        <v>0.925</v>
+      </c>
+      <c r="AA178">
+        <v>-1</v>
+      </c>
+      <c r="AB178">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC178">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>7793499</v>
+      </c>
+      <c r="C179" t="s">
+        <v>28</v>
+      </c>
+      <c r="D179" t="s">
+        <v>28</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45375.85416666666</v>
+      </c>
+      <c r="F179" t="s">
+        <v>47</v>
+      </c>
+      <c r="G179" t="s">
+        <v>32</v>
+      </c>
+      <c r="H179">
         <v>0</v>
       </c>
-      <c r="X170">
-        <v>0</v>
-      </c>
-      <c r="Y170">
-        <v>0</v>
-      </c>
-      <c r="Z170">
-        <v>0</v>
-      </c>
-      <c r="AA170">
-        <v>0</v>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179" t="s">
+        <v>50</v>
+      </c>
+      <c r="K179">
+        <v>2.2</v>
+      </c>
+      <c r="L179">
+        <v>3.3</v>
+      </c>
+      <c r="M179">
+        <v>2.9</v>
+      </c>
+      <c r="N179">
+        <v>2</v>
+      </c>
+      <c r="O179">
+        <v>3.3</v>
+      </c>
+      <c r="P179">
+        <v>3.3</v>
+      </c>
+      <c r="Q179">
+        <v>-0.25</v>
+      </c>
+      <c r="R179">
+        <v>1.775</v>
+      </c>
+      <c r="S179">
+        <v>2.025</v>
+      </c>
+      <c r="T179">
+        <v>2.5</v>
+      </c>
+      <c r="U179">
+        <v>1.9</v>
+      </c>
+      <c r="V179">
+        <v>1.9</v>
+      </c>
+      <c r="W179">
+        <v>-1</v>
+      </c>
+      <c r="X179">
+        <v>-1</v>
+      </c>
+      <c r="Y179">
+        <v>2.3</v>
+      </c>
+      <c r="Z179">
+        <v>-1</v>
+      </c>
+      <c r="AA179">
+        <v>1.025</v>
+      </c>
+      <c r="AB179">
+        <v>-1</v>
+      </c>
+      <c r="AC179">
+        <v>0.8999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Chile Primera B/Chile Primera B.xlsx
+++ b/Chile Primera B/Chile Primera B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC179"/>
+  <dimension ref="A1:AC182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2227,7 +2227,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6155941</v>
+        <v>6156877</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2239,73 +2239,73 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
       <c r="J20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L20">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="N20">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O20">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P20">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
         <v>2.25</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V20">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA20">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2316,7 +2316,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6156877</v>
+        <v>6156878</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2328,49 +2328,49 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M21">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="N21">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O21">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P21">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
         <v>1.825</v>
@@ -2379,25 +2379,25 @@
         <v>1.975</v>
       </c>
       <c r="W21">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2405,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6156878</v>
+        <v>6155941</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2417,34 +2417,34 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L22">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M22">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N22">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O22">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P22">
         <v>2.9</v>
@@ -2456,37 +2456,37 @@
         <v>1.975</v>
       </c>
       <c r="S22">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U22">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.4125</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2761,7 +2761,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6156883</v>
+        <v>6156881</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2773,76 +2773,76 @@
         <v>45121.85416666666</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M26">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N26">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O26">
         <v>3.2</v>
       </c>
       <c r="P26">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S26">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V26">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2850,7 +2850,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6156881</v>
+        <v>6156883</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2862,76 +2862,76 @@
         <v>45121.85416666666</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K27">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L27">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M27">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N27">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O27">
         <v>3.2</v>
       </c>
       <c r="P27">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V27">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y27">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3829,7 +3829,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6155944</v>
+        <v>6158713</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3841,76 +3841,76 @@
         <v>45130.5625</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38">
+        <v>3.25</v>
+      </c>
+      <c r="M38">
+        <v>2.1</v>
+      </c>
+      <c r="N38">
+        <v>2.625</v>
+      </c>
+      <c r="O38">
+        <v>3.2</v>
+      </c>
+      <c r="P38">
+        <v>2.3</v>
+      </c>
+      <c r="Q38">
         <v>0</v>
       </c>
-      <c r="J38" t="s">
-        <v>48</v>
-      </c>
-      <c r="K38">
-        <v>1.4</v>
-      </c>
-      <c r="L38">
-        <v>3.75</v>
-      </c>
-      <c r="M38">
-        <v>7.5</v>
-      </c>
-      <c r="N38">
-        <v>1.45</v>
-      </c>
-      <c r="O38">
-        <v>3.6</v>
-      </c>
-      <c r="P38">
-        <v>6.5</v>
-      </c>
-      <c r="Q38">
-        <v>-1.25</v>
-      </c>
       <c r="R38">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S38">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V38">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W38">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3918,7 +3918,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6158713</v>
+        <v>6155944</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3930,76 +3930,76 @@
         <v>45130.5625</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L39">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M39">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="N39">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P39">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R39">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S39">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V39">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>0.7749999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AB39">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4274,7 +4274,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6393620</v>
+        <v>6155945</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4286,73 +4286,73 @@
         <v>45136.5625</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K43">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L43">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M43">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N43">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="O43">
         <v>3.25</v>
       </c>
       <c r="P43">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q43">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S43">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U43">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V43">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W43">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA43">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB43">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4363,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6155945</v>
+        <v>6393620</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4375,73 +4375,73 @@
         <v>45136.5625</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K44">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M44">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N44">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="O44">
         <v>3.25</v>
       </c>
       <c r="P44">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S44">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X44">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA44">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB44">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -6143,7 +6143,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6156178</v>
+        <v>6155949</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6155,58 +6155,58 @@
         <v>45151.5625</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
         <v>1</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
       </c>
       <c r="J64" t="s">
         <v>48</v>
       </c>
       <c r="K64">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L64">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M64">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N64">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P64">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q64">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R64">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S64">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
+        <v>1.875</v>
+      </c>
+      <c r="V64">
         <v>1.925</v>
       </c>
-      <c r="V64">
-        <v>1.875</v>
-      </c>
       <c r="W64">
-        <v>0.75</v>
+        <v>1.15</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6215,16 +6215,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC64">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6232,7 +6232,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6155949</v>
+        <v>6156178</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6244,58 +6244,58 @@
         <v>45151.5625</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
         <v>48</v>
       </c>
       <c r="K65">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L65">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M65">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N65">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="O65">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P65">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
+        <v>1.8</v>
+      </c>
+      <c r="S65">
+        <v>2</v>
+      </c>
+      <c r="T65">
+        <v>2.5</v>
+      </c>
+      <c r="U65">
         <v>1.925</v>
       </c>
-      <c r="S65">
+      <c r="V65">
         <v>1.875</v>
       </c>
-      <c r="T65">
-        <v>2.25</v>
-      </c>
-      <c r="U65">
-        <v>1.875</v>
-      </c>
-      <c r="V65">
-        <v>1.925</v>
-      </c>
       <c r="W65">
-        <v>1.15</v>
+        <v>0.75</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6304,16 +6304,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
+        <v>-1</v>
+      </c>
+      <c r="AC65">
         <v>0.875</v>
-      </c>
-      <c r="AC65">
-        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6588,7 +6588,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6156911</v>
+        <v>6156908</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6600,58 +6600,58 @@
         <v>45158.5625</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H69">
         <v>2</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
         <v>48</v>
       </c>
       <c r="K69">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L69">
         <v>3.2</v>
       </c>
       <c r="M69">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N69">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O69">
+        <v>3.25</v>
+      </c>
+      <c r="P69">
         <v>3.2</v>
-      </c>
-      <c r="P69">
-        <v>3</v>
       </c>
       <c r="Q69">
         <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S69">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T69">
         <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W69">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6660,16 +6660,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC69">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6677,7 +6677,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6156908</v>
+        <v>6156911</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6689,58 +6689,58 @@
         <v>45158.5625</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H70">
         <v>2</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
         <v>48</v>
       </c>
       <c r="K70">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L70">
         <v>3.2</v>
       </c>
       <c r="M70">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N70">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O70">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P70">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q70">
         <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S70">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T70">
         <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W70">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6749,16 +6749,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6944,7 +6944,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6156180</v>
+        <v>6155954</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6956,76 +6956,76 @@
         <v>45165.5625</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K73">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M73">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N73">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O73">
+        <v>3.2</v>
+      </c>
+      <c r="P73">
         <v>3.75</v>
       </c>
-      <c r="P73">
-        <v>4</v>
-      </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S73">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V73">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W73">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z73">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC73">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7033,7 +7033,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6155954</v>
+        <v>6156180</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7045,76 +7045,76 @@
         <v>45165.5625</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K74">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L74">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N74">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O74">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P74">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7122,7 +7122,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6156912</v>
+        <v>6155953</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7134,13 +7134,13 @@
         <v>45165.66666666666</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>3</v>
@@ -7149,22 +7149,22 @@
         <v>50</v>
       </c>
       <c r="K75">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="L75">
         <v>3</v>
       </c>
       <c r="M75">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="N75">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O75">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P75">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q75">
         <v>-0.25</v>
@@ -7176,13 +7176,13 @@
         <v>1.85</v>
       </c>
       <c r="T75">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V75">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7191,7 +7191,7 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z75">
         <v>-1</v>
@@ -7200,10 +7200,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB75">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7211,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6155953</v>
+        <v>6156912</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7223,13 +7223,13 @@
         <v>45165.66666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76">
         <v>3</v>
@@ -7238,22 +7238,22 @@
         <v>50</v>
       </c>
       <c r="K76">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="L76">
         <v>3</v>
       </c>
       <c r="M76">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="N76">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O76">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P76">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q76">
         <v>-0.25</v>
@@ -7265,13 +7265,13 @@
         <v>1.85</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V76">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7280,7 +7280,7 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z76">
         <v>-1</v>
@@ -7289,10 +7289,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB76">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -9436,7 +9436,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6155958</v>
+        <v>6156929</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9448,76 +9448,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K101">
+        <v>2.3</v>
+      </c>
+      <c r="L101">
+        <v>2.9</v>
+      </c>
+      <c r="M101">
         <v>3</v>
       </c>
-      <c r="L101">
-        <v>3.2</v>
-      </c>
-      <c r="M101">
-        <v>2.2</v>
-      </c>
       <c r="N101">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O101">
         <v>3.3</v>
       </c>
       <c r="P101">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R101">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
         <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X101">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA101">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9525,7 +9525,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6156183</v>
+        <v>6155958</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9537,76 +9537,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102" t="s">
+        <v>49</v>
+      </c>
+      <c r="K102">
         <v>3</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102" t="s">
-        <v>48</v>
-      </c>
-      <c r="K102">
-        <v>2.2</v>
       </c>
       <c r="L102">
         <v>3.2</v>
       </c>
       <c r="M102">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N102">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O102">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P102">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q102">
         <v>-0.25</v>
       </c>
       <c r="R102">
+        <v>1.825</v>
+      </c>
+      <c r="S102">
+        <v>1.975</v>
+      </c>
+      <c r="T102">
+        <v>2.5</v>
+      </c>
+      <c r="U102">
         <v>1.95</v>
       </c>
-      <c r="S102">
-        <v>1.85</v>
-      </c>
-      <c r="T102">
-        <v>2.25</v>
-      </c>
-      <c r="U102">
-        <v>1.8</v>
-      </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W102">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9614,7 +9614,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6156929</v>
+        <v>6156183</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9626,13 +9626,13 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -9641,61 +9641,61 @@
         <v>48</v>
       </c>
       <c r="K103">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L103">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M103">
         <v>3</v>
       </c>
       <c r="N103">
+        <v>2.2</v>
+      </c>
+      <c r="O103">
+        <v>3.2</v>
+      </c>
+      <c r="P103">
+        <v>3</v>
+      </c>
+      <c r="Q103">
+        <v>-0.25</v>
+      </c>
+      <c r="R103">
+        <v>1.95</v>
+      </c>
+      <c r="S103">
+        <v>1.85</v>
+      </c>
+      <c r="T103">
+        <v>2.25</v>
+      </c>
+      <c r="U103">
         <v>1.8</v>
       </c>
-      <c r="O103">
-        <v>3.3</v>
-      </c>
-      <c r="P103">
-        <v>4</v>
-      </c>
-      <c r="Q103">
-        <v>-0.5</v>
-      </c>
-      <c r="R103">
-        <v>1.875</v>
-      </c>
-      <c r="S103">
-        <v>1.925</v>
-      </c>
-      <c r="T103">
-        <v>2.5</v>
-      </c>
-      <c r="U103">
-        <v>1.9</v>
-      </c>
       <c r="V103">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W103">
+        <v>1.2</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
+        <v>-1</v>
+      </c>
+      <c r="Z103">
+        <v>0.95</v>
+      </c>
+      <c r="AA103">
+        <v>-1</v>
+      </c>
+      <c r="AB103">
         <v>0.8</v>
       </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>-1</v>
-      </c>
-      <c r="Z103">
-        <v>0.875</v>
-      </c>
-      <c r="AA103">
-        <v>-1</v>
-      </c>
-      <c r="AB103">
-        <v>-1</v>
-      </c>
       <c r="AC103">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10593,7 +10593,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6155961</v>
+        <v>6156940</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10605,76 +10605,76 @@
         <